--- a/Data_ML_bereinigt.xlsx
+++ b/Data_ML_bereinigt.xlsx
@@ -1009,8 +1009,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich. Autor: 
-Elisabeth Pestalozzi 27.01.2014, 16:29 Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU. Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU. Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -1220,8 +1219,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit. Autor: 
-Dominik Meier 24.03.2014, 11:19 Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -1580,8 +1578,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei. Autor: 
-Eveline Kobler 13.05.2015, 13:47 Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -1623,8 +1620,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal. Autor: 
-Jan Baumann 28.05.2015, 13:11 20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -1847,8 +1843,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau. Autor: 
-Rafael von Matt 19.01.2018, 12:49 Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -2504,8 +2499,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Autor: 
-Eine Analyse von Elmar Plozza 16.09.2020, 08:28 Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -2547,8 +2541,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten. Autor: 
-Oliver Washington 29.08.2020, 14:02 Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -2590,8 +2583,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab. Autor: 
-Yvonne Hafner 28.10.2020, 10:15 Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -2633,8 +2625,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins. Autor: 
-Rafael von Matt 26.05.2020, 04:04 Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -2874,8 +2865,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage. Autor: 
-Christa Gall 10.11.2020, 13:44 Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -2961,8 +2951,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand. Autor: 
-Sabine Gorgé 09.10.2020, 14:46 Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -3114,8 +3103,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein. Autor: 
-Barbara Colpi 11.02.2021, 10:27 Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -3157,8 +3145,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Autor: 
-Eine Analyse von Urs Leuthard 29.01.2021, 09:08 Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -3444,8 +3431,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit! Autor: 
-Rafael von Matt 24.08.2021, 15:29 In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -3487,8 +3473,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich. Autor: 
-Gaudenz Wacker 10.08.2021, 18:10 Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -3887,8 +3872,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Derzeit sind in der Schweiz mehr als 10’000 Pflegestellen unbesetzt. Bis 2030 fehlen uns 70'000 Pflegende, denn wegen der steigenden Lebenserwartung nimmt die Anzahl der pflegebedürftigen Menschen stetig zu. Was tun gegen den «Pflege-Notstand»? Autor: 
-Yvonne Hafner 26.10.2021, 14:45  Hier geht es zu den Kommentaren  In vier Wochen stimmt die Schweiz über die Pflegeinitiative ab. Die Volksinitiative will die Arbeitsbedingungen der Pflegenden verbessern und die Attraktivität des Berufs steigern. Die aktuelle Situation sei unhaltbar, weil die Zeit für eine gute Pflege fehle, sagen die Initiantinnen der Initiative. Rund 40 Prozent der Pflegenden steigen nach wenigen Jahren wieder aus dem Beruf aus – oft aus emotionaler Erschöpfung. «Die Pflegenden arbeiten schon lange bis zum Rand der Erschöpfung, sie sind ausgelaugt und verlassen den Beruf, weil sie keine Perspektiven auf Besserung sehen. Corona hat die Arbeitslast vieler Pflegenden nochmals erhöht», sagt Sophie Ley, Präsidentin des Berufsverbandes der Pflegefachpersonen (SBK). Die Initiative will in der Verfassung verankern, dass Bund und Kantone die Pflege als wichtigen Bestandteil der Gesundheitsversorgung fördern. Sie sollen für eine hohe Pflege-Qualität sorgen und sicherstellen, dass genügend Pflegefachpersonen zur Verfügung stehen.  Die Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Sie sollen sicherstellen, dass genügend diplomiertes Pflegepersonal für den zunehmenden Bedarf der alternden Gesellschaft zur Verfügung steht.
+          <t>Derzeit sind in der Schweiz mehr als 10’000 Pflegestellen unbesetzt. Bis 2030 fehlen uns 70'000 Pflegende, denn wegen der steigenden Lebenserwartung nimmt die Anzahl der pflegebedürftigen Menschen stetig zu. Was tun gegen den «Pflege-Notstand»?   Hier geht es zu den Kommentaren  In vier Wochen stimmt die Schweiz über die Pflegeinitiative ab. Die Volksinitiative will die Arbeitsbedingungen der Pflegenden verbessern und die Attraktivität des Berufs steigern. Die aktuelle Situation sei unhaltbar, weil die Zeit für eine gute Pflege fehle, sagen die Initiantinnen der Initiative. Rund 40 Prozent der Pflegenden steigen nach wenigen Jahren wieder aus dem Beruf aus – oft aus emotionaler Erschöpfung. «Die Pflegenden arbeiten schon lange bis zum Rand der Erschöpfung, sie sind ausgelaugt und verlassen den Beruf, weil sie keine Perspektiven auf Besserung sehen. Corona hat die Arbeitslast vieler Pflegenden nochmals erhöht», sagt Sophie Ley, Präsidentin des Berufsverbandes der Pflegefachpersonen (SBK). Die Initiative will in der Verfassung verankern, dass Bund und Kantone die Pflege als wichtigen Bestandteil der Gesundheitsversorgung fördern. Sie sollen für eine hohe Pflege-Qualität sorgen und sicherstellen, dass genügend Pflegefachpersonen zur Verfügung stehen.  Die Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Sie sollen sicherstellen, dass genügend diplomiertes Pflegepersonal für den zunehmenden Bedarf der alternden Gesellschaft zur Verfügung steht.
 Die in der Pflege tätigen Personen sollen entsprechend ihrer Ausbildung und ihren Kompetenzen eingesetzt werden. So soll der Bund die Arbeitsbedingungen in den Spitälern, Heimen und Spitexorganisationen verbindlich regeln. Dazu zählt die Höhe der Löhne.
 Zudem sollen Pflegefachpersonen gewisse Pflegeleistungen selbständig direkt mit der obligatorischen Krankenpflegeversicherung oder anderen Sozialversicherungen abrechnen können. Heute können sie grundsätzlich nur die Leistungen abrechnen, die von einer Ärztin oder einem Arzt angeordnet worden sind.
 Dem Bundesrat und einer Mehrheit des Parlaments geht dieser Vorschlag zu weit. Das Parlament hat deshalb einen indirekten Gegenvorschlag zur Volksinitiative verabschiedet. Dieser Vorschlag tritt in Kraft, wenn die Initiative abgelehnt wird und der Gegenvorschlag nicht erfolgreich mit einem Referendum bekämpft wird.
@@ -4116,8 +4100,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Heute werden die Richterinnen und Richter für das Bundesgericht vom Parlament gewählt. Die Justizinitiative will das ändern – und die Richter im Losverfahren bestimmen. Damit soll das Bundesgericht unabhängiger von den Parteien werden. Autor: 
-Rafael von Matt 02.11.2021, 13:41  «Wollen Sie unabhängige Richterinnen und Richter?» Diese Frage stellt die Ja-Kampagne der Justizinitiative. Hinter der Frage steht die Überzeugung des Initiativkomitees, dass die 38 Bundesrichterinnen und -richter heute nicht unabhängig, sondern abhängig von ihren Parteien sind. Tatsächlich wählt das Parlament die Richterinnen und Richter für das höchste Gericht des Landes in Lausanne. Und seit 1953 gehören alle Gewählten einer Partei an. Seit fast 70 Jahren haben Parteilose also keine Chance mehr, Bundesrichterin oder Bundesrichter zu werden. Diese Verflechtung zwischen Politik und Justiz wird regelmässig kritisiert – etwa auch vom Europarat. Hier setzt die Justizinitiative an, die der Unternehmer Adrian Gasser 2018 lancierte und über die wir am 28. November abstimmen: Die Initiative fordert, dass die Bundesrichterinnen und -richter in Zukunft im Losverfahren gewählt werden. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
+          <t>Heute werden die Richterinnen und Richter für das Bundesgericht vom Parlament gewählt. Die Justizinitiative will das ändern – und die Richter im Losverfahren bestimmen. Damit soll das Bundesgericht unabhängiger von den Parteien werden.   «Wollen Sie unabhängige Richterinnen und Richter?» Diese Frage stellt die Ja-Kampagne der Justizinitiative. Hinter der Frage steht die Überzeugung des Initiativkomitees, dass die 38 Bundesrichterinnen und -richter heute nicht unabhängig, sondern abhängig von ihren Parteien sind. Tatsächlich wählt das Parlament die Richterinnen und Richter für das höchste Gericht des Landes in Lausanne. Und seit 1953 gehören alle Gewählten einer Partei an. Seit fast 70 Jahren haben Parteilose also keine Chance mehr, Bundesrichterin oder Bundesrichter zu werden. Diese Verflechtung zwischen Politik und Justiz wird regelmässig kritisiert – etwa auch vom Europarat. Hier setzt die Justizinitiative an, die der Unternehmer Adrian Gasser 2018 lancierte und über die wir am 28. November abstimmen: Die Initiative fordert, dass die Bundesrichterinnen und -richter in Zukunft im Losverfahren gewählt werden. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
 Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
@@ -4160,8 +4143,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren. Autor: 
-Curdin Vincenz 01.11.2021, 15:34 Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -4289,8 +4271,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei? Autor: 
-Yvonne Hafner 18.01.2022, 15:29 Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
+          <t>Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei?  Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
 Bundesrat und Parlament lehnen die Initiative geschlossen ab. Auch viele Verbände und Interessegruppen sind dagegen: zum Beispiel Economiesuisse, die Ärztevereinigung FMH, der Schweizer Tierschutz und der Schweizerische Nationalfonds. Für die Initiative findet sich weder bei Parteien und noch bei Verbänden Unterstützung – zumindest offiziell.  Fakt ist: Rund 600'000 Tiere pro Jahr werden in der Schweiz in Tierversuchen von Universitäten, Spitälern oder Pharma eingesetzt – Fische, Mäuse, Vögel, Katzen, Hunde oder Affen. Knapp ein Drittel davon müssen belastende Experimente über sich ergehen lassen. Die schwersten Versuche des «Schweregrades 3» sind mit starken Schmerzen oder Angst, schweren Beeinträchtigungen und langfristigen Leiden verbunden. Während in den letzten Jahren die Anzahl der Tierversuche stark abgenommen hat, nehmen die besonders belastenden Versuche nach wie vor zu. Forscherinnen und Forscher bezeichnen die Initiative aber als radikal: Ganz ohne Einsatz von Tieren sei im Moment wissenschaftlicher Fortschritt nicht möglich. Mit dem Importverbot für Medikamente, die mit Tierversuchen hergestellt wurden, würde sich die Schweiz ins Mittelalter zurückkatapultieren.  Bei einer Annahme gäbe es in der Schweiz keine neuen Medikamente, Therapien oder Impfstoffe mehr, weder für Menschen noch für Tiere. «Wir hätten keine Impfungen und kein einziges Antibiotikum mehr. Und auch keine Medikamente gegen schwere Krankheiten wie Krebs», befürchtet beispielsweise der Tierforscher Robert Rieben von der Uni Bern. Die Schweiz habe im internationalen Vergleich bereits eines der strengsten Tierschutzgesetze, argumentieren die Initiativ-Gegner. Tierversuche dürfen nur dann durchgeführt werden, wenn keine Alternativen zur Verfügung stehen. Zudem muss jeder Versuch vom kantonalen Veterinäramt und der jeweiligen Tierversuchskommission bewilligt werden. Würde die Initiative angenommen, wäre die Schweiz das erste Land, das komplett auf Tierversuche verzichtet. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
 Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.  Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
@@ -4627,8 +4608,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative. Autor: 
-Sabine Gorgé 13.06.2022, 17:22 Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -4907,8 +4887,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente. Autor: 
-Rolf Gatschet 31.01.2024, 15:47 Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024 Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024 Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -5078,8 +5057,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit! Autor: 
-Stefan Flury 02.04.2024, 16:13 In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>
@@ -5373,8 +5351,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen. Autor: 
-Andrea Jaggi 13.06.2024, 18:57 Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
+          <t>Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen.  Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
 Der Mensch brauche die Biodiversität, um zu überleben. Deshalb müsse eine intakte und vielfältige Natur erhalten bleiben. Bereits seien in der Schweiz ein Drittel der Tier- und Pflanzenarten ausgestorben oder gefährdet, die Hälfte aller Lebensräume seien bedroht. Die überbordende Überbauung, Zersiedelung und intensive Landnutzung müsse gestoppt werden. Zudem schütze eine intakte Artenvielfalt vor Klimawandel und Umweltkatastrophen. Das sagen die Gegner:
 Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
@@ -5630,8 +5607,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Autor: 
-Manuel Imhasly 29.01.2025, 05:59 Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
         </is>
       </c>
     </row>

--- a/Data_ML_bereinigt.xlsx
+++ b/Data_ML_bereinigt.xlsx
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU. Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU.</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Im Schnitt wandern 70‘000 Menschen pro Jahr ein – so viele, wie die Stadt St. Gallen Einwohner zählt. Zu viele, findet die SVP. Mit ihrer Initiative will sie die Zuwanderung begrenzen. Die Gegner halten dagegen: Die Initiative gefährde den Wohlstand. 09.01.2014, 22:06 Am 9. Februar stimmt das Volk über die SVP-Initiative «Gegen die Masseneinwanderung» ab. Am Donnerstag trafen sich prominente Befürworter und Gegner in der alten Mühle Langenthal (BE). Die Sendung «Forum» von Radio SRF 1 übertrug die Debatte live. «Der Bundesrat ist gegen die Initiative», sagt Bundesrat Johann Schneider-Ammann. «Wir haben in der Schweiz Vollbeschäftigung und Wachstum, und das möchte ich nicht ändern.» SVP-Nationalrat Adrian Amstutz ist da anderer Meinung: «Es geht ums Mass.» In die Schweiz kämen jedes Jahr bald 80‘000 Zuwanderer. «Das ist zu viel. In dem Tempo kann es nicht weitergehen.» Bis im Jahr 2035 würde die Schweiz in Richtung zehn Millionen Einwohner steuern, wenn wir so weitermachten wie bisher. Das sage das Bundesamt für Statistik. Das Begehren der SVP verlangt: Der Staat soll festlegen, wie viele Personen aus welchem Land pro Jahr in die Schweiz ziehen oder hier arbeiten dürfen, die Grenzgänger und Asylsuchenden einbezogen. Die Initiative will die Personenfreizügigkeit mit der EU neu verhandeln. «Die Initiative löst keine Probleme», wirft SP-Nationalrätin Nadine Masshardt ein. Sie bringt die flankierenden Massnahmen ins Spiel, für die sich die Sozialdemokraten stark machen. Es müsse bei der Raumplanung angesetzt werden. Im Arbeitsmarkt brauche es einen Mindestlohn, mehr Investitionen im preisgünstigen Wohnungsbau. Und eine Bildungsoffensive für Fachkräfte müsse her. Für den SVP-Stadtrat von Langenthal, Patrick Freudiger, sind die flankierenden Massnahmen keine Lösung. Langenthal habe einen überdurchschnittlich hohen Ausländeranteil und sehr wenig freies Bauland. «Wir müssen in die Höhe bauen. Das bedeutet mehr Leute auf weniger Raum. Das schränkt die Lebensqualität ein.» Thimo Thimm ist deutscher Staatsbürger und Leiter Operationssäle Spital Langenthal. Eigentlich wollte er gar nicht explizit in die Schweiz kommen, wurde dann aber abgeworben. Für ihn ist klar: Die Schweiz braucht Fachkräfte aus dem Ausland, anders kommt sein Spital nicht an qualifiziertes Personal heran. Amstutz hält entgegen, dass die Schweiz zwar Vollbeschäftigung habe, aber die Arbeitslosenzahl seit 2001 gestiegen sei, und nicht gesunken. «Es findet trotz überhitzter Konjunktur ein Verdrängungskampf statt.» Etwa würden die Ex-Jugoslawen aus dem Arbeitsmarkt verdrängt, «und aufgefüllt durch junge Portugiesen.» Zudem würden dann die aus dem Arbeitsmarkt verdrängten Ausländer dem hiesigen Sozialwesen auf der Tasche liegen. «Die Arbeitslosenquote hat relativ gesehen zur Bevölkerung nicht zugenommen in den letzten Jahren», antwortet Bundesrat Schneider-Ammann. Auch habe laut Studien keine Verdrängung stattgefunden. «Die Personenfreizügigkeit hat bei den mittleren Löhnen bewirkt, dass nicht mehr das passiert ist, was hätte passieren können, wenn das Angebot weniger gross gewesen wäre. Bei den tieferen Löhnen stellten die Studien keine Nachteile fest.» Auch zu den hohen Mietpreisen nimmt der Bundesrat Stellung: «Für einzelne Hotspots wie Genf, Basel oder Zürich stimmt das.» Doch es gäbe im Land insgesamt Wohnmöglichkeiten zu vernünftigen Preisen. «Der Bundesrat behauptet immer, es läuft besser», sagt SVP-Nationalrat Adrian Amstutz. Die Frage gehe an jeden einzelnen. «Haben wir mehr im Portemonnaie? Geht es uns wirklich besser?» Doch wie viele Leute würden dann kommen, würde die Initiative angenommen? Adrian Amstutz: «Etwa 50‘000 wären meiner Meinung nach die obere Grenze.» Das lege die Wirtschaft fest. Über ein Drittel komme momentan in die Schweiz, nicht um hier zu arbeiten, sondern als Familiennachzug, so Amstutz. «Wenn Initiative angenommen wird, dann wächst die Bürokratie», so Schneider-Ammann. Die Firmen müssten prompt reagieren können, wenn sie Leute brauchten. Die Initiative bewirke, dass Investitionen heruntergefahren würden und es weniger Arbeitsplätze gebe. Der Bundesrat warnt zudem: Wenn die Initiative angenommen würde, könnten die anderen Verträge mit der EU unter Druck kommen. Das wiederum hätte Auswirkungen auf die Arbeitsplätze in der Schweiz. «Wenn die Schweiz die EU an den Verhandlungstisch zwingt, dann kann nicht nur eine Seite ihre Forderungen auf den Tisch bringen.» «Wir wollen der Schweiz keine Steine in den Weg mit der EU legen, sondern wir wollen lediglich eine Korrektur anbringen.» Amstutz fragt, ob die EU zu den Forschungsmillionen aus der Schweiz Nein sagen wolle. Oder wolle die EU etwa auf die Nordsüdverkehrsachse verzichten, die durch die Schweiz verlaufe? «Sollten die Verhandlungen scheitern, dann wird die Schweiz keine Bilateralen Verträge haben.» «Wenn wir keine Bilateralen Verträge haben, dann wäre der Schaden für die Wirtschaft immens», gibt SP-Nationalrätin Nadine Masshardt zu bedenken. Daher seien auch alle wirtschaftsnahen Verbände geschlossen gegen die Initiative. srf/galc;buev Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Im Schnitt wandern 70‘000 Menschen pro Jahr ein – so viele, wie die Stadt St. Gallen Einwohner zählt. Zu viele, findet die SVP. Mit ihrer Initiative will sie die Zuwanderung begrenzen. Die Gegner halten dagegen: Die Initiative gefährde den Wohlstand. 09.01.2014, 22:06 Am 9. Februar stimmt das Volk über die SVP-Initiative «Gegen die Masseneinwanderung» ab. Am Donnerstag trafen sich prominente Befürworter und Gegner in der alten Mühle Langenthal (BE). Die Sendung «Forum» von Radio SRF 1 übertrug die Debatte live. «Der Bundesrat ist gegen die Initiative», sagt Bundesrat Johann Schneider-Ammann. «Wir haben in der Schweiz Vollbeschäftigung und Wachstum, und das möchte ich nicht ändern.» SVP-Nationalrat Adrian Amstutz ist da anderer Meinung: «Es geht ums Mass.» In die Schweiz kämen jedes Jahr bald 80‘000 Zuwanderer. «Das ist zu viel. In dem Tempo kann es nicht weitergehen.» Bis im Jahr 2035 würde die Schweiz in Richtung zehn Millionen Einwohner steuern, wenn wir so weitermachten wie bisher. Das sage das Bundesamt für Statistik. Das Begehren der SVP verlangt: Der Staat soll festlegen, wie viele Personen aus welchem Land pro Jahr in die Schweiz ziehen oder hier arbeiten dürfen, die Grenzgänger und Asylsuchenden einbezogen. Die Initiative will die Personenfreizügigkeit mit der EU neu verhandeln. «Die Initiative löst keine Probleme», wirft SP-Nationalrätin Nadine Masshardt ein. Sie bringt die flankierenden Massnahmen ins Spiel, für die sich die Sozialdemokraten stark machen. Es müsse bei der Raumplanung angesetzt werden. Im Arbeitsmarkt brauche es einen Mindestlohn, mehr Investitionen im preisgünstigen Wohnungsbau. Und eine Bildungsoffensive für Fachkräfte müsse her. Für den SVP-Stadtrat von Langenthal, Patrick Freudiger, sind die flankierenden Massnahmen keine Lösung. Langenthal habe einen überdurchschnittlich hohen Ausländeranteil und sehr wenig freies Bauland. «Wir müssen in die Höhe bauen. Das bedeutet mehr Leute auf weniger Raum. Das schränkt die Lebensqualität ein.» Thimo Thimm ist deutscher Staatsbürger und Leiter Operationssäle Spital Langenthal. Eigentlich wollte er gar nicht explizit in die Schweiz kommen, wurde dann aber abgeworben. Für ihn ist klar: Die Schweiz braucht Fachkräfte aus dem Ausland, anders kommt sein Spital nicht an qualifiziertes Personal heran. Amstutz hält entgegen, dass die Schweiz zwar Vollbeschäftigung habe, aber die Arbeitslosenzahl seit 2001 gestiegen sei, und nicht gesunken. «Es findet trotz überhitzter Konjunktur ein Verdrängungskampf statt.» Etwa würden die Ex-Jugoslawen aus dem Arbeitsmarkt verdrängt, «und aufgefüllt durch junge Portugiesen.» Zudem würden dann die aus dem Arbeitsmarkt verdrängten Ausländer dem hiesigen Sozialwesen auf der Tasche liegen. «Die Arbeitslosenquote hat relativ gesehen zur Bevölkerung nicht zugenommen in den letzten Jahren», antwortet Bundesrat Schneider-Ammann. Auch habe laut Studien keine Verdrängung stattgefunden. «Die Personenfreizügigkeit hat bei den mittleren Löhnen bewirkt, dass nicht mehr das passiert ist, was hätte passieren können, wenn das Angebot weniger gross gewesen wäre. Bei den tieferen Löhnen stellten die Studien keine Nachteile fest.» Auch zu den hohen Mietpreisen nimmt der Bundesrat Stellung: «Für einzelne Hotspots wie Genf, Basel oder Zürich stimmt das.» Doch es gäbe im Land insgesamt Wohnmöglichkeiten zu vernünftigen Preisen. «Der Bundesrat behauptet immer, es läuft besser», sagt SVP-Nationalrat Adrian Amstutz. Die Frage gehe an jeden einzelnen. «Haben wir mehr im Portemonnaie? Geht es uns wirklich besser?» Doch wie viele Leute würden dann kommen, würde die Initiative angenommen? Adrian Amstutz: «Etwa 50‘000 wären meiner Meinung nach die obere Grenze.» Das lege die Wirtschaft fest. Über ein Drittel komme momentan in die Schweiz, nicht um hier zu arbeiten, sondern als Familiennachzug, so Amstutz. «Wenn Initiative angenommen wird, dann wächst die Bürokratie», so Schneider-Ammann. Die Firmen müssten prompt reagieren können, wenn sie Leute brauchten. Die Initiative bewirke, dass Investitionen heruntergefahren würden und es weniger Arbeitsplätze gebe. Der Bundesrat warnt zudem: Wenn die Initiative angenommen würde, könnten die anderen Verträge mit der EU unter Druck kommen. Das wiederum hätte Auswirkungen auf die Arbeitsplätze in der Schweiz. «Wenn die Schweiz die EU an den Verhandlungstisch zwingt, dann kann nicht nur eine Seite ihre Forderungen auf den Tisch bringen.» «Wir wollen der Schweiz keine Steine in den Weg mit der EU legen, sondern wir wollen lediglich eine Korrektur anbringen.» Amstutz fragt, ob die EU zu den Forschungsmillionen aus der Schweiz Nein sagen wolle. Oder wolle die EU etwa auf die Nordsüdverkehrsachse verzichten, die durch die Schweiz verlaufe? «Sollten die Verhandlungen scheitern, dann wird die Schweiz keine Bilateralen Verträge haben.» «Wenn wir keine Bilateralen Verträge haben, dann wäre der Schaden für die Wirtschaft immens», gibt SP-Nationalrätin Nadine Masshardt zu bedenken. Daher seien auch alle wirtschaftsnahen Verbände geschlossen gegen die Initiative. srf/galc;buev</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Für die Befürworter der «Pädophilen-Initiative» gibt es keinen «verhältnismässigen Umgang» mit pädosexuellen Straftätern. Diese sind ihrer Ansicht nach nicht heilbar und dürfen deshalb nie mehr mit Kindern oder abhängigen Personen arbeiten. 25.03.2014, 17:25 Dass Kinder besser vor Pädophilen geschützt werden müssen, ist quer durch alle politischen Lager unbestritten. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» verlangt, dass pädosexuelle Straftäter unabhängig von der Schwere der Straftat lebenslang jede Tätigkeit mit Minderjährigen oder Abhängigen verboten werden soll. Die Gegner der Initiative kritisieren aber, dass damit der rechtliche Grundsatz der Verhältnismässigkeit nicht respektiert wird. Zu diesem Punkt äusserte sich in Bern das überparteiliche Komitee für die Initiative: Bei Pädophilen dürfe es keinen Ermessensspielraum geben, sagte der parteilose Schaffhauser Ständerat Thomas Minder an der Medienkonferenz. «Es gibt keine Graustufen in dem Bereich.» Für Nationalrat Bernhard Guhl (BDP/AG) sind Pädophile nicht heilbar. Sie könnten lediglich lernen, mit ihrer Neigung umzugehen. «Dazu gehört, Orte mit Kindern zu meiden.» Auch andere Mitglieder des Komitees sehen die Verhältnismässigkeit gewahrt. Das lebenslange Berufs- und Tätigkeitsverbot betreffe lediglich Tätigkeiten mit Kindern und abhängigen Personen, sagte Ständerätin Brigitte Häberli-Koller (CVP/TG). Verurteilten Straftätern werde es auch in Zukunft möglich sein, einer beruflichen Tätigkeit nachzugehen. Auch der ehemalige Tessiner Staatsanwalt Paolo Bernasconi sieht die Verhältnismässigkeit gewahrt. Auf der einen Seite stehe das Berufsverbot in einem beschränkten Bereich, auf der anderen der Schutz von Kindern vor schwersten Eingriffen. «Ich sehe nicht, wo das Problem liegt,» sagte der Anwalt. Bundesverfassung Art. 123c (neu) «Personen, die verurteilt werden, weil sie die sexuelle Unversehrtheit eines Kindes oder einer abhängigen Person beeinträchtigt haben, verlieren endgültig das Recht, eine berufliche oder ehrenamtliche Tätigkeit mit Minderjährigen oder Abhängigen auszuüben.» Nach Ansicht des Bundesrats liegt das Problem bei leichten Delikten, wenn feststeht, dass vom Täter keine Gefahr für Kinder ausgeht. Der 20-Jährige etwa, der eine einvernehmliche Liebesbeziehung mit einer 15-Jährigen hat, dürfte im Fall einer Verurteilung nie mehr als Lehrer oder Fussballtrainer arbeiten. «Die Initianten wollen solche Fälle explizit nicht erfassen», sagte Nationalrätin Natalie Rickli (SVP/ZH). Das könne im Ausführungsgesetz entsprechend geregelt werden. Das überparteiliche Komitee legte auch gleich einen ausformulierten Text vor: Dieser sieht vor, dass von einem lebenslangen Berufs- oder Tätigkeitsverbot abgesehen werden kann, wenn dieses unverhältnismässig wäre. Damit wäre der Verhältnismässigkeit in der Umsetzung Genüge getan. Ob der Verfassungsartikel so umgesetzt werden kann, ist jedoch offen. Laut Justizministerin Simonetta Sommaruga lässt der eindeutige Wortlaut des Verfassungsartikels keinen Spielraum für Relativierungen. Der Bundesrat lehnt die Initiative auch darum ab, weil das Anliegen seiner Meinung nach schon im Gesetz umgesetzt ist. Das Parlament hat in der Wintersession eine Revision des Strafgesetzbuchs beschlossen, die ebenfalls ein Berufs- und Tätigkeitsverbot für Sexual- und Gewaltstraftäter vorsieht. Dieses kann lebenslänglich ausgesprochen werden. Auch Kontakt- oder Rayonverbote können verhängt werden. Die Bestimmungen treten voraussichtlich Anfang 2015 in Kraft. Für die Befürworter der Initiative ist dies jedoch zu schwammig. Sie befürchten, dass die unbestimmten Rechtsbegriffe zu Gunsten der Täter ausgelegt werden könnten. Die Initiative hingegen sei klar formuliert, sagte Rickli. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» der Organisation «Marche Blanche», über die am 18. Mai abgestimmt wird, war im April 2011 eingereicht worden. Im Initiativkomitee finden sich Politikerinnen und Politiker aller Parteien, darunter CVP-Präsident Christophe Darbellay (VS) und die Zürcher SP-Nationalrätin Chantal Galladé. Im Nationalrat hatten SP und Grüne die Initiative bekämpft, die SVP sprach sich dafür aus. Die Mitte-Parteien sind gespalten, die Befürworter sind jedoch in der Überzahl. Auf eine gemeinsame Abstimmungsempfehlung konnten sich die Parlamentskammern nicht einigen: Während sich der Ständerat gegen die Initiative aussprach, stimmte ihre der Nationalrat implizit zu. Der Bundesrat lehnt die Initiative ab. Tagesschau/sda/kurn;hesa Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Für die Befürworter der «Pädophilen-Initiative» gibt es keinen «verhältnismässigen Umgang» mit pädosexuellen Straftätern. Diese sind ihrer Ansicht nach nicht heilbar und dürfen deshalb nie mehr mit Kindern oder abhängigen Personen arbeiten. 25.03.2014, 17:25 Dass Kinder besser vor Pädophilen geschützt werden müssen, ist quer durch alle politischen Lager unbestritten. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» verlangt, dass pädosexuelle Straftäter unabhängig von der Schwere der Straftat lebenslang jede Tätigkeit mit Minderjährigen oder Abhängigen verboten werden soll. Die Gegner der Initiative kritisieren aber, dass damit der rechtliche Grundsatz der Verhältnismässigkeit nicht respektiert wird. Zu diesem Punkt äusserte sich in Bern das überparteiliche Komitee für die Initiative: Bei Pädophilen dürfe es keinen Ermessensspielraum geben, sagte der parteilose Schaffhauser Ständerat Thomas Minder an der Medienkonferenz. «Es gibt keine Graustufen in dem Bereich.» Für Nationalrat Bernhard Guhl (BDP/AG) sind Pädophile nicht heilbar. Sie könnten lediglich lernen, mit ihrer Neigung umzugehen. «Dazu gehört, Orte mit Kindern zu meiden.» Auch andere Mitglieder des Komitees sehen die Verhältnismässigkeit gewahrt. Das lebenslange Berufs- und Tätigkeitsverbot betreffe lediglich Tätigkeiten mit Kindern und abhängigen Personen, sagte Ständerätin Brigitte Häberli-Koller (CVP/TG). Verurteilten Straftätern werde es auch in Zukunft möglich sein, einer beruflichen Tätigkeit nachzugehen. Auch der ehemalige Tessiner Staatsanwalt Paolo Bernasconi sieht die Verhältnismässigkeit gewahrt. Auf der einen Seite stehe das Berufsverbot in einem beschränkten Bereich, auf der anderen der Schutz von Kindern vor schwersten Eingriffen. «Ich sehe nicht, wo das Problem liegt,» sagte der Anwalt. Bundesverfassung Art. 123c (neu) «Personen, die verurteilt werden, weil sie die sexuelle Unversehrtheit eines Kindes oder einer abhängigen Person beeinträchtigt haben, verlieren endgültig das Recht, eine berufliche oder ehrenamtliche Tätigkeit mit Minderjährigen oder Abhängigen auszuüben.» Nach Ansicht des Bundesrats liegt das Problem bei leichten Delikten, wenn feststeht, dass vom Täter keine Gefahr für Kinder ausgeht. Der 20-Jährige etwa, der eine einvernehmliche Liebesbeziehung mit einer 15-Jährigen hat, dürfte im Fall einer Verurteilung nie mehr als Lehrer oder Fussballtrainer arbeiten. «Die Initianten wollen solche Fälle explizit nicht erfassen», sagte Nationalrätin Natalie Rickli (SVP/ZH). Das könne im Ausführungsgesetz entsprechend geregelt werden. Das überparteiliche Komitee legte auch gleich einen ausformulierten Text vor: Dieser sieht vor, dass von einem lebenslangen Berufs- oder Tätigkeitsverbot abgesehen werden kann, wenn dieses unverhältnismässig wäre. Damit wäre der Verhältnismässigkeit in der Umsetzung Genüge getan. Ob der Verfassungsartikel so umgesetzt werden kann, ist jedoch offen. Laut Justizministerin Simonetta Sommaruga lässt der eindeutige Wortlaut des Verfassungsartikels keinen Spielraum für Relativierungen. Der Bundesrat lehnt die Initiative auch darum ab, weil das Anliegen seiner Meinung nach schon im Gesetz umgesetzt ist. Das Parlament hat in der Wintersession eine Revision des Strafgesetzbuchs beschlossen, die ebenfalls ein Berufs- und Tätigkeitsverbot für Sexual- und Gewaltstraftäter vorsieht. Dieses kann lebenslänglich ausgesprochen werden. Auch Kontakt- oder Rayonverbote können verhängt werden. Die Bestimmungen treten voraussichtlich Anfang 2015 in Kraft. Für die Befürworter der Initiative ist dies jedoch zu schwammig. Sie befürchten, dass die unbestimmten Rechtsbegriffe zu Gunsten der Täter ausgelegt werden könnten. Die Initiative hingegen sei klar formuliert, sagte Rickli. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» der Organisation «Marche Blanche», über die am 18. Mai abgestimmt wird, war im April 2011 eingereicht worden. Im Initiativkomitee finden sich Politikerinnen und Politiker aller Parteien, darunter CVP-Präsident Christophe Darbellay (VS) und die Zürcher SP-Nationalrätin Chantal Galladé. Im Nationalrat hatten SP und Grüne die Initiative bekämpft, die SVP sprach sich dafür aus. Die Mitte-Parteien sind gespalten, die Befürworter sind jedoch in der Überzahl. Auf eine gemeinsame Abstimmungsempfehlung konnten sich die Parlamentskammern nicht einigen: Während sich der Ständerat gegen die Initiative aussprach, stimmte ihre der Nationalrat implizit zu. Der Bundesrat lehnt die Initiative ab. Tagesschau/sda/kurn;hesa</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>In den Augen des Gegenkomitees bedeutet die SVP-Initiative eine Gefahr für die Schweiz. 04.10.2018, 11:17 Vereint gegen die «Selbstbestimmungs»-Initiative der SVP: Vertreter von Parteien, Wirtschaft und Zivilgesellschaft treten gemeinsam gegen die Initiative an. In ihren Augen bedeutet das Begehren eine Gefahr für die Schweiz. Die SVP-Volksinitiative, über die am 25. November abgestimmt wird, habe nicht Selbstbestimmung zur Folge, sondern Rechtsunsicherheit und Isolation, schreibt das Komitee. Widersprüche im Initiativtext führten dazu, dass für die Schweiz alle internationalen Verträge nur noch unter Vorbehalt gelten und gekündigt oder gebrochen würden. Die wirtschaftspolitische und aussenpolitische Handlungsfähigkeit des Landes würde bei einem Ja zur Initiative «Schweizer Recht statt fremde Richter (‹Selbstbestimmungsinitiative›)» eingeschränkt, macht das Komitee geltend. Der Schutz der Menschenrechte würde geschwächt. Die Initiative führe nicht zu einer Klärung zwischen Landes- und Völkerrecht, sondern vor allem zu Unsicherheit, liess sich der Aargauer FDP-Ständerat Philipp Müller im Communiqué zitieren. «Unsicherheit schadet der Schweiz.» In den Augen von Swissmem würde unter dieser Unsicherheit in erster Linie die Wirtschaft leiden. Dies macht der Dachverband der Maschinen-, Elektro- und Metallindustrie geltend. 97’000 exportorientierte Firmen im Land seien auf einen sicheren Zugang zu den Weltmärkten angewiesen, sagte Vizepräsident François Gabella. Das Komitee spricht zudem von einem Frontalangriff auf den Schutz der Menschenrechte. «Unter dem Deckmantel der Selbstbestimmung würden die Rechte von uns allen beschnitten», liess sich Andrea Huber von der Allianz der Zivilgesellschaft zitieren. Im Konfliktfall müsste die Schweiz aus der Europäischen Menschenrechtskonvention (EMRK) austreten, und das Bundesgericht dürfte diese nicht mehr anwenden, wenn es um den Schutz vor grundrechtswidrigen Bundesgesetzen gehe. Ein Ja zur Initiative wäre für das Komitee ein Damoklesschwert über den, von der Schweiz eingegangenen, internationalen Verträgen. Bestehende und selbst vom Volk mehrfach gutgeheissene Abkommen, die mit der Verfassung nicht mehr hundertprozentig übereinstimmten, müssten neu verhandelt, gebrochen oder gekündigt werden. Die Initiative wolle, dass die Schweiz zukünftig die Finger hinter dem Rücken kreuze, während sie mit der anderen Hand etwas verspreche, sagte Laura Zimmermann von der Operation Libero. Die Initiative gaukle Selbstbestimmung vor, raube der Schweiz aber ihre Verlässlichkeit. Die «Selbstbestimmungs»-Initiative verlangt, dass die Bundesverfassung künftig gegenüber dem Völkerrecht immer Vorrang hat – unter dem Vorbehalt der zwingenden Bestimmungen des Völkerrechts. SRF 4 News, 11:00 Uhr; sda/horm; bern Selbstbestimmungs-Initiative «Selbstbestimmungs»-Initiative SVP formiert sich Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>In den Augen des Gegenkomitees bedeutet die SVP-Initiative eine Gefahr für die Schweiz. 04.10.2018, 11:17 Vereint gegen die «Selbstbestimmungs»-Initiative der SVP: Vertreter von Parteien, Wirtschaft und Zivilgesellschaft treten gemeinsam gegen die Initiative an. In ihren Augen bedeutet das Begehren eine Gefahr für die Schweiz. Die SVP-Volksinitiative, über die am 25. November abgestimmt wird, habe nicht Selbstbestimmung zur Folge, sondern Rechtsunsicherheit und Isolation, schreibt das Komitee. Widersprüche im Initiativtext führten dazu, dass für die Schweiz alle internationalen Verträge nur noch unter Vorbehalt gelten und gekündigt oder gebrochen würden. Die wirtschaftspolitische und aussenpolitische Handlungsfähigkeit des Landes würde bei einem Ja zur Initiative «Schweizer Recht statt fremde Richter (‹Selbstbestimmungsinitiative›)» eingeschränkt, macht das Komitee geltend. Der Schutz der Menschenrechte würde geschwächt. Die Initiative führe nicht zu einer Klärung zwischen Landes- und Völkerrecht, sondern vor allem zu Unsicherheit, liess sich der Aargauer FDP-Ständerat Philipp Müller im Communiqué zitieren. «Unsicherheit schadet der Schweiz.» In den Augen von Swissmem würde unter dieser Unsicherheit in erster Linie die Wirtschaft leiden. Dies macht der Dachverband der Maschinen-, Elektro- und Metallindustrie geltend. 97’000 exportorientierte Firmen im Land seien auf einen sicheren Zugang zu den Weltmärkten angewiesen, sagte Vizepräsident François Gabella. Das Komitee spricht zudem von einem Frontalangriff auf den Schutz der Menschenrechte. «Unter dem Deckmantel der Selbstbestimmung würden die Rechte von uns allen beschnitten», liess sich Andrea Huber von der Allianz der Zivilgesellschaft zitieren. Im Konfliktfall müsste die Schweiz aus der Europäischen Menschenrechtskonvention (EMRK) austreten, und das Bundesgericht dürfte diese nicht mehr anwenden, wenn es um den Schutz vor grundrechtswidrigen Bundesgesetzen gehe. Ein Ja zur Initiative wäre für das Komitee ein Damoklesschwert über den, von der Schweiz eingegangenen, internationalen Verträgen. Bestehende und selbst vom Volk mehrfach gutgeheissene Abkommen, die mit der Verfassung nicht mehr hundertprozentig übereinstimmten, müssten neu verhandelt, gebrochen oder gekündigt werden. Die Initiative wolle, dass die Schweiz zukünftig die Finger hinter dem Rücken kreuze, während sie mit der anderen Hand etwas verspreche, sagte Laura Zimmermann von der Operation Libero. Die Initiative gaukle Selbstbestimmung vor, raube der Schweiz aber ihre Verlässlichkeit. Die «Selbstbestimmungs»-Initiative verlangt, dass die Bundesverfassung künftig gegenüber dem Völkerrecht immer Vorrang hat – unter dem Vorbehalt der zwingenden Bestimmungen des Völkerrechts. SRF 4 News, 11:00 Uhr; sda/horm; bern Selbstbestimmungs-Initiative «Selbstbestimmungs»-Initiative SVP formiert sich</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Die SVP sieht unsere direkte Demokratie in Gefahr. Mit der Selbstbestimmungsinitiative will sie dem Volkswillen mehr Gehör verschaffen. Ein überparteiliches Bündnis aber meint: Eine Annahme der Initiative schwächt die Schweiz, die Wirtschaft und die Menschenrechte. 23.10.2018, 13:46 Am 25. November stimmen wir über die Volksinitiative «Schweizer Recht statt fremde Richter» ab. Die sogenannte «Selbstbestimmungsinitiative» verlangt, dass die Bundesverfassung stets Vorrang hat gegenüber dem Völkerrecht – also gegenüber geltenden internationalen Vereinbarungen wie Freihandelsverträgen oder Menschenrechtsabkommen. Bei einem Konflikt müssten solche völkerrechtlichen Abmachungen neu verhandelt oder nötigenfalls gekündigt werden. Mit der Initiative soll sichergestellt werden, dass der Wille der Stimmbevölkerung auch wirklich umgesetzt wird. Die Initiative schütze unsere direkte Demokratie, sagen die Befürworter. Gegen die Initiative stellt sich ein überparteiliches Bündnis von links bis rechts. Gemeinsam mit der Wirtschaft sowie Hilfswerken oder Menschenrechtsorganisationen kämpfen sie gegen die drohende Isolation der Schweiz. Sie sehen die Menschenrechte und den Zugang der Unternehmen zu den Weltmärkten in Gefahr. Die Initiativ-Gegner sehen die Vorlage als Angriff auf den Rechtsstaat. Schützt die Selbstbestimmungsinitiative unsere direkte Demokratie oder gefährdet sie unseren Rechtsstaat? Schadet oder nützt die Selbstbestimmungsinitiative unserem Land? In der Sendung «Forum» diskutierten folgende Gäste mit Hörerinnen und Hörern: sahm/ruek Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die SVP sieht unsere direkte Demokratie in Gefahr. Mit der Selbstbestimmungsinitiative will sie dem Volkswillen mehr Gehör verschaffen. Ein überparteiliches Bündnis aber meint: Eine Annahme der Initiative schwächt die Schweiz, die Wirtschaft und die Menschenrechte. 23.10.2018, 13:46 Am 25. November stimmen wir über die Volksinitiative «Schweizer Recht statt fremde Richter» ab. Die sogenannte «Selbstbestimmungsinitiative» verlangt, dass die Bundesverfassung stets Vorrang hat gegenüber dem Völkerrecht – also gegenüber geltenden internationalen Vereinbarungen wie Freihandelsverträgen oder Menschenrechtsabkommen. Bei einem Konflikt müssten solche völkerrechtlichen Abmachungen neu verhandelt oder nötigenfalls gekündigt werden. Mit der Initiative soll sichergestellt werden, dass der Wille der Stimmbevölkerung auch wirklich umgesetzt wird. Die Initiative schütze unsere direkte Demokratie, sagen die Befürworter. Gegen die Initiative stellt sich ein überparteiliches Bündnis von links bis rechts. Gemeinsam mit der Wirtschaft sowie Hilfswerken oder Menschenrechtsorganisationen kämpfen sie gegen die drohende Isolation der Schweiz. Sie sehen die Menschenrechte und den Zugang der Unternehmen zu den Weltmärkten in Gefahr. Die Initiativ-Gegner sehen die Vorlage als Angriff auf den Rechtsstaat. Schützt die Selbstbestimmungsinitiative unsere direkte Demokratie oder gefährdet sie unseren Rechtsstaat? Schadet oder nützt die Selbstbestimmungsinitiative unserem Land? In der Sendung «Forum» diskutierten folgende Gäste mit Hörerinnen und Hörern: sahm/ruek</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
         <is>
           <t>19.10.2020, 14:11 Das überparteiliche Komitee sagt der Kriegsgeschäfte-Initiative von Schweiz ohne Armee (Gsoa) und den Jungen Grünen den Kampf an. Die Vertreterinnen und Vertreter des Komitees können mit den Instrumenten der Initiative nichts anfangen, wie sie vor den Bundeshausmedien bekannt gaben. Das «rigorose» Finanzierungsverbot verteuere die Anlagemöglichkeiten der Sozialwerke und erhöhe deren Risiken. Entweder müssten sich AHV und Pensionskassen bei ihren Investitionen auf einzelne Firmen beschränken. Oder sie müssten jedes Jahr tausende von Unternehmen auf deren Umsatz mit Kriegsmaterial überprüfen. Beim ersten Fall wird laut Initiativgegner das Anlagerisiko erhöht. Der zweite Fall bringe hohe Verwaltungskosten mit sich. Zu denken gibt dem Nein-Komitee auch die aus ihrer Sicht «sehr weit gefasste Definition von Kriegsmaterialproduzenten». Der Tessiner CVP-Nationalrat Fabio Regazzi sprach von einer «völlig willkürlichen und starren Grenze». Betroffen seien nicht nur grosse Rüstungskonzerne, sondern auch Schweizer KMU, die als Zuliefererbetriebe fungierten. Ein wichtiger, grosser Auftrag von einem Rüstungsunternehmen mache solche Firmen plötzlich selber zu Kriegsmaterialproduzenten, kritisierte Regazzi. Solche Firmen dürften dann beispielsweise keine Kredite bei Schweizer Banken mehr aufnehmen. «Mit dem starren Finanzierungsverbot dreht die Gsoa vielen Schweizer Firmen den Geldhahn faktisch zu.» Weiter monieren die Gegner, die Initiative wähle einen gefährlichen Alleingang. Zentralbanken auf der ganzen Welt erfüllten ihre geld- und währungspolitischen Aufgaben unabhängig von politischen Instanzen. Die Initiative führe aber Kriterien für die Anlage der Gelder ein und gefährde die Unabhängigkeit der Nationalbank. Volk und Stände stimmen am 29. November über die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten» ab. Diese verlangt, dass der Schweizerischen Nationalbank, Stiftungen sowie Einrichtungen der staatlichen und beruflichen Vorsorge (AHV/IV/Pensionskassen) die Finanzierung von Kriegsmaterialproduzenten verboten wird. Als solche gelten Unternehmen, die mehr als 5 Prozent ihres Umsatzes mit der Herstellung von Rüstungsmaterial erwirtschaften. Weiter soll sich der Bundesrat dafür einsetzen, dass für Banken und Versicherungen dieselben Bedingungen gelten. Gerade in der Coronakrise sei es eine dringliche Aufgabe der Nationalbank, für stabile Preise zu sorgen, sagte die Aargauer FDP-Nationalrätin Maja Riniker. Dafür sei sie auf volle Handlungsfähigkeit angewiesen. Zudem gab Riniker zu bedenken, dass die SNB bereits heute Unternehmen aus den Investitionen ausschliesse, die grundlegende Menschenrechte verletzen, systematisch gravierende Umweltschäden verursachen oder international geächtete Waffen herstellen. Die Initiative sei letztlich ein weiterer Angriff der Gsoa auf die Schweizer Armee, sagte der Berner SVP-Ständerat Werner Salzmann. Zur Verteidigung der Souveränität sei das Militär auf Schweizer Lieferanten angewiesen. Das würde schwierig, wenn AHV, Pensionskassen und Nationalbank nicht mehr in Unternehmen investieren dürften, die dazu beitrügen, den Verfassungsauftrag der Verteidigung zu erfüllen. Zwar habe die Initiative ein hehres Ziel: zu einer friedlichen Welt beitragen zu wollen, sagte der Waadtländer GLP-Nationalrat François Pointet. Die Initiative gehe aber den falschen Weg. «Die Initiative hätte keinerlei Auswirkung auf das weltweite Angebot und die Nachfrage von und nach Kriegsmaterial.» Auf internationaler Ebene bestehe kein Wille, ein Finanzierungsverbot umzusetzen. SRF 4 News, 13:00 Uhr
                 ;                                         
-                        sda/horm; Abstimmung vom 29. November Abstimmung vom 29. November Investitionen in Waffenfirmen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+                        sda/horm; Abstimmung vom 29. November Abstimmung vom 29. November Investitionen in Waffenfirmen</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
 Zudem sollen Pflegefachpersonen gewisse Pflegeleistungen selbständig direkt mit der obligatorischen Krankenpflegeversicherung oder anderen Sozialversicherungen abrechnen können. Heute können sie grundsätzlich nur die Leistungen abrechnen, die von einer Ärztin oder einem Arzt angeordnet worden sind.
 Dem Bundesrat und einer Mehrheit des Parlaments geht dieser Vorschlag zu weit. Das Parlament hat deshalb einen indirekten Gegenvorschlag zur Volksinitiative verabschiedet. Dieser Vorschlag tritt in Kraft, wenn die Initiative abgelehnt wird und der Gegenvorschlag nicht erfolgreich mit einem Referendum bekämpft wird.
 Der Gegenvorschlag sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Mit dem Geld sollen sowohl Studierende als auch Spitäler, Pflegeheime und Spitexorganisationen unterstützt werden, die Pflegepersonal ausbilden.
-Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
         <is>
           <t>30.10.2021, 13:43 Die Organisatorinnen des Bündnis' Gesundheitspersonal schätzten die Zahl auf 5000 Teilnehmende. Im Rahmen der Kundgebung berichteten Gesundheitsfachfrauen aus allen Landesteilen, wie sie im Alltag den «Notstand» in der Pflege erlebten. Derzeit seien 11'000 Stellen in der Pflege unbesetzt, was zu enormem Druck und einem für die Patienten gefährlichem Qualitätsverlust führe. In den Reden wurde für eine Annahme der Pflege-Initiative geworben. Eine blosse Ausbildungsoffensive, wie sie der indirekte Gegenvorschlag vorsehe, genüge nicht, hiess es. «Was nützt dies, wenn viele den Beruf nachher verlassen?», fragte sich eine Rednerin. Nötig sei eine grundsätzliche Reform des Gesundheitswesens. Auf Transparenten und Schildern war unter anderem zu lesen: «Wir retten Euch – Rettet uns», «Stoppt Burnout und Erschöpfung» oder «Klatschen reicht nicht.» Zur Kundgebung aufgerufen hatte das Bündnis Gesundheitspersonal, dem über 10 Berufsverbände und Gewerkschaften angehören, darunter der Berufsverbund der Pflegefachfrauen und Pflegefachmänner (SBK). Die vom SBK lancierte Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Der Bund soll die Arbeitsbedingungen in den Spitälern, Heimen und Spitex-Organisationen verbindlich regeln. Dazu zählt die Höhe der Löhne. Dem Bundesrat und einer Mehrheit des Parlaments geht die Initiative zu weit. Ein indirekter Gegenvorschlag sieht vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Der Gegenvorschlag käme bei einer Ablehnung der Initiative zum Zug. Auch einige tausend Beschäftigte aus der Bau- und anderen Branchen haben in Bern, Olten, Zürich, Genf und Bellinzona für mehr Lohn, Respekt und Solidarität demonstriert. Sie forderten die Anerkennung ihrer Leistungen in der Covid-19-Pandemie. Aufgerufen zu den Demonstrationen hatte die Gewerkschaft Unia. Wie sie mitteilte, schlossen sich den Demonstrierenden aus der Baubranche auch Arbeitnehmerinnen und Arbeitnehmer aus Pflege, Verkauf und Logistik an. Sie alle hätten während der Pandemie unermüdlich an vorderster Front gearbeitet. Obwohl die Bevölkerung für sie geklatscht hätte, hätte sich an den Arbeitsbedingungen gemäss Unia nichts geändert.  SRF 4 News, 30.10.2021, 15 Uhr
                 ;                                         
-                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       <c r="J81" t="inlineStr">
         <is>
           <t>Heute werden die Richterinnen und Richter für das Bundesgericht vom Parlament gewählt. Die Justizinitiative will das ändern – und die Richter im Losverfahren bestimmen. Damit soll das Bundesgericht unabhängiger von den Parteien werden.   «Wollen Sie unabhängige Richterinnen und Richter?» Diese Frage stellt die Ja-Kampagne der Justizinitiative. Hinter der Frage steht die Überzeugung des Initiativkomitees, dass die 38 Bundesrichterinnen und -richter heute nicht unabhängig, sondern abhängig von ihren Parteien sind. Tatsächlich wählt das Parlament die Richterinnen und Richter für das höchste Gericht des Landes in Lausanne. Und seit 1953 gehören alle Gewählten einer Partei an. Seit fast 70 Jahren haben Parteilose also keine Chance mehr, Bundesrichterin oder Bundesrichter zu werden. Diese Verflechtung zwischen Politik und Justiz wird regelmässig kritisiert – etwa auch vom Europarat. Hier setzt die Justizinitiative an, die der Unternehmer Adrian Gasser 2018 lancierte und über die wir am 28. November abstimmen: Die Initiative fordert, dass die Bundesrichterinnen und -richter in Zukunft im Losverfahren gewählt werden. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten. Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Rendez-vous, 10.03.2021, 12:30 Uhr Volksinitiative im Nationalrat Umstrittene Tierversuche Freispruch an Basler Gericht Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten. Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Rendez-vous, 10.03.2021, 12:30 Uhr Volksinitiative im Nationalrat Umstrittene Tierversuche Freispruch an Basler Gericht</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
         <is>
           <t>10.03.2021, 11:16 Die Initiative verlangt ein bedingungsloses Verbot von Tier- ebenso wie Menschenversuchen. Auch wenn verschiedene Fraktionen im Nationalrat das Anliegen für berechtigt hielten, war ihnen ein absolutes Verbot zu radikal. «Mit einem Ja zur Initiative würde die Schweiz gänzlich auf einen Impfstoff gegen das Coronavirus verzichten», sagte zum Beispiel Christian Wasserfallen (FDP/BE). Dasselbe würde für moderne Krebstherapien gelten. Für Therapien und Medikamente müsste jemand aus der Schweiz dann ins Ausland reisen. Thomas de Courten (SVP/BL) vertrat die Meinung, dass Institutionen, die mit Tieren arbeiten, dies bereits verantwortungsbewusst tun und Expertinnen und Experten beiziehen. Die Initianten würden behaupten, dass «Tierversuche den Fortschritt behindern würden». Viele Fortschritte seien aber wegen der Ähnlichkeit von Mensch und Tier möglich, so de Courten. Namens der Mitte-Fraktion fügte Lilian Studer (EVP/AG) hinzu, dass Güterabwägungen weiterhin möglich sein müssten zwischen der Belastung der Tiere und dem potenziellen Nutzen eines Versuches für den Menschen. «Forschung an Tier und Mensch bleibt nie ganz wegzudenken», sagte sie. SP, Grüne und GLP lehnen die Volksinitiative zwar ebenfalls ab, wollten ihr aber einen Gegenvorschlag entgegenstellen, entweder direkt – in der Verfassung – oder indirekt auf Gesetzesebene. Dieser hätte den Verzicht auf Versuche, die die Tiere stark belasten, beinhaltet. Ein Ausstieg aus belastenden Tierversuchen sei für die SP zentral, sagte Matthias Aebischer (BE). Denn bei solchen Experimenten würden die Tiere starke Schmerzen oder Angst erleiden. Auch Meret Schneider (Grüne/ZH) warb für den direkten Gegenvorschlag: Mit ein Grund sei, dass Ergebnisse aus Tierversuchen nicht ohne weiteres auf den Menschen übertragbar seien. Öffentliche Mittel sollten deshalb primär an Forschungsprojekte gehen, die ohne Versuchstiere auskommen. Auf internationaler Ebene müsste sich der Bund für die Förderung von Forschung ohne Tierversuche stark machen. Ein zweiter, ebenfalls von SP, Grünen und GLP unterstützter Antrag hatte einen verbindlichen Ausstiegsplan aus den Tierversuchen zum Ziel. Die Vorlage sollte deshalb an die Kommission für Wissenschaft, Bildung und Kultur (WBK-N) zurückgewiesen werden mit dem Auftrag, eine Kommissionsinitiative für den indirekten Gegenvorschlag auszuarbeiten. Die GLP ihrerseits will die 3R-Forschung vorantreiben, die einen Ersatz von Tierversuchen, eine Verminderung von deren Zahl und für die Tiere weniger Belastungen zum Ziel hat. Katja Christ (GLP/BS) forderte deshalb gesetzliche Grundlagen, damit dieser Forschungszweig mehr Ressourcen erhält. Der im Zusammenhang mit Tierversuchen oft genannte Begriff «3R» steht für Replace (Vermeiden), Reduce (Verringern) und Refine (Verbessern). Das 3R-Prinzip hat also das Ziel, Tierversuche zu ersetzen, insgesamt weniger Tiere einzusetzen und die Versuche zu verbessern. Hinter der Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» stehen St. Galler Bürgerinnen und Bürger. Unterstützt wird die Initiative von rund 80 Organisationen und Unternehmen. Darunter sind Vertreterinnen und Vertreter von SP und Grünen sowie Tierschutzgruppen und Tierparteien. Darum geht es: Die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» fordert ein bedingungsloses Verbot von Tierversuchen und Forschung am Menschen in der Schweiz. Weiter soll auch der Handel mit Produkten, die unter Anwendung von Tierversuchen entwickelt wurden, verboten werden. Die Initianten möchten erreichen, dass die Forschung künftig mehr auf Modelle setzt statt auf Versuche. Was bisher geschah: Der Bundesrat lehnt die Initiative ab, da die existierenden Verfassungs- und Gesetzesbestimmungen ausreichend seien, um Mensch und Tier zu schützen. Ein solches Verbot hätte zudem massive negative Konsequenzen für die Gesundheit der Bevölkerung, die Forschung und die Wirtschaft unseres Landes. Ausserdem sei die Initiative unvereinbar mit den internationalen Verpflichtungen der Schweiz. So geht es weiter: Das Parlament berät in der Frühlingssession, ob es der Initiative einen Gegenentwurf oder einen indirekten Gegenvorschlag zur Seite stellen soll. Letzterer könnte beinhalten, dass nur Tierversuche ohne belegte Wirksamkeit verboten werden oder dass ein Ausstiegsplan aus belastenden Tierversuchen festgelegt wird. Der Nationalrat hat diese Möglichkeiten abgelehnt. Nun ist der Ständerat am Zug. Der Termin für die Volksabstimmung steht noch nicht fest. Info 3, 10.03.2021, 12:00 Uhr
                 ;                                         
-                        sda/eglc/harm Statistik des Bundes Tierversuche in der Schweiz Tierversuche in der Schweiz Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+                        sda/eglc/harm Statistik des Bundes Tierversuche in der Schweiz Tierversuche in der Schweiz</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         <is>
           <t>Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei?  Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
 Bundesrat und Parlament lehnen die Initiative geschlossen ab. Auch viele Verbände und Interessegruppen sind dagegen: zum Beispiel Economiesuisse, die Ärztevereinigung FMH, der Schweizer Tierschutz und der Schweizerische Nationalfonds. Für die Initiative findet sich weder bei Parteien und noch bei Verbänden Unterstützung – zumindest offiziell.  Fakt ist: Rund 600'000 Tiere pro Jahr werden in der Schweiz in Tierversuchen von Universitäten, Spitälern oder Pharma eingesetzt – Fische, Mäuse, Vögel, Katzen, Hunde oder Affen. Knapp ein Drittel davon müssen belastende Experimente über sich ergehen lassen. Die schwersten Versuche des «Schweregrades 3» sind mit starken Schmerzen oder Angst, schweren Beeinträchtigungen und langfristigen Leiden verbunden. Während in den letzten Jahren die Anzahl der Tierversuche stark abgenommen hat, nehmen die besonders belastenden Versuche nach wie vor zu. Forscherinnen und Forscher bezeichnen die Initiative aber als radikal: Ganz ohne Einsatz von Tieren sei im Moment wissenschaftlicher Fortschritt nicht möglich. Mit dem Importverbot für Medikamente, die mit Tierversuchen hergestellt wurden, würde sich die Schweiz ins Mittelalter zurückkatapultieren.  Bei einer Annahme gäbe es in der Schweiz keine neuen Medikamente, Therapien oder Impfstoffe mehr, weder für Menschen noch für Tiere. «Wir hätten keine Impfungen und kein einziges Antibiotikum mehr. Und auch keine Medikamente gegen schwere Krankheiten wie Krebs», befürchtet beispielsweise der Tierforscher Robert Rieben von der Uni Bern. Die Schweiz habe im internationalen Vergleich bereits eines der strengsten Tierschutzgesetze, argumentieren die Initiativ-Gegner. Tierversuche dürfen nur dann durchgeführt werden, wenn keine Alternativen zur Verfügung stehen. Zudem muss jeder Versuch vom kantonalen Veterinäramt und der jeweiligen Tierversuchskommission bewilligt werden. Würde die Initiative angenommen, wäre die Schweiz das erste Land, das komplett auf Tierversuche verzichtet. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.  Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
         <is>
           <t>Im Herbst stimmt die Schweiz über die Initiative gegen Massentierhaltung ab. Ein wichtiger Diskussionspunkt: das Fleisch. In Zukunft soll in der Produktion überall der Bio-Standard gelten. Dadurch würde inländisches Fleisch teurer werden. Die Initiative scheidet die Geister. 28.06.2022, 19:17 Meret Schneider ist Mitinitiantin der Massentierhaltungsinitiative und Nationalrätin der Grünen. In der SRF-Sendung Arena brachte sie ihr Anliegen auf den Punkt: «Wir sollten zurück zum Sonntagsbraten: Also ein- bis zweimal pro Woche Fleisch essen, aber solches von Tieren, die ein einigermassen gutes Leben hatten.» Die Initiative will die Massentierhaltung in der Schweiz verbieten und die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufnehmen. Zum Beispiel mit einem täglichen Gang ins Freie, schonenderen Schlachtmethoden und viel weniger Tieren pro Weidefläche und Stall. Zudem will die Initiative weg von der industriellen Fleischproduktion. Das betrifft vor allem die industrielle Hühner- und Schweinemast. Der Bundesrat lehnt die Initiative ab.  Tatsächlich hat sich der Fleischkonsum in der Schweiz immer wieder verändert. Die Schweizer Historikerin Gisela Hürlimann sagt, es fehle zwar die exakte Datenlage, aber der Fleischkonsum sei früher viel tiefer gewesen. Gutes Fleisch, meist Rindfleisch, sei bis etwa 1900 etwas für Privilegierte gewesen. Erst um 1950 wurde Fleisch für die breite Masse zugänglich. Damals wurden rund 30 Kilogramm pro Kopf und Jahr gegessen. Dann sei der Konsum angestiegen, so Hürlimann. «Wir beobachten seit 1950 zwei Entwicklungen: Einerseits wird aus dem Rinderland Schweiz mit Bratwurst, Voressen oder Sonntagsbraten ein Land des Schweinefleischkonsums mit Cervelat, Schweineschnitzel und Kotelett. Zweitens geht der Trend in den letzten 20 Jahren zu einem deutlich tieferen Fleischkonsum.» Während der Gesamtfleischkonsum in den letzten Jahren stagniert oder leicht zurückgeht, essen Schweizerinnen und Schweizer immer mehr Poulet. Dies, da es als gesund und fettarm gilt, erklärt der Direktor des Schweizer Bauernverbands, Martin Rufer. Pro Jahr und Person essen Herr und Frau Schweizer 51 Kilogramm Fleisch. Davon sind 26 Kilogramm Schweinefleisch und 14 Kilogramm Huhn. Das sei viel zu viel, sagt der Landwirtschaftsberater Eric Meili. «Wir müssen unseren Fleischkonsum reduzieren. Dabei müssen wir aber genau hinschauen, welches Fleisch wir reduzieren.» Meili war 30 Jahre lang am Forschungsinstitut für biologischen Landbau (Fibl) tätig. Für ihn sei vor allem die intensive Poulet- und Schweinefleischproduktion problematisch. Dies da dafür hochwertiges Getreide den Tieren verfüttert wird, das eigentlich Menschen ernähren könnte. Die Schweiz sei ein Grasland und auf Wiederkäuer wie Kühe ausgerichtet. «Wir müssen verhindern, dass unsere Tiere den Armen auf dieser Welt das Getreide wegfressen. Das kann weder moralisch noch ethisch die Lösung sein.» Da die Massentierhaltung beim Poulet- und Schweinefleisch ansetzt, gehe die Massentierhaltungsinitiative in die richtige Richtung. Ganz anders sieht dies der Schweizer Bauernverband, der die Initiative bekämpft. Rufer sagt, man könne den Konsumentinnen und Konsumenten nicht befehlen, was sie essen sollten und was nicht. «Diese Initiative würde dazu führen, dass die Produktion von Poulet in der Schweiz massiv zurückgehen würde. Wir rechnen mit einem Minus von 90 Prozent.» Rufer befürchtet, dass der Konsum trotz der Initiative nicht weniger würde und dadurch mehr Fleisch importiert werden würde. «Wir importieren bereits heute rund 50’000 Tonnen Poulet – teilweise aus Ländern mit sehr laschen Schutzbestimmungen.» Fleischproduktion und Fleischkonsum: Hoch emotional und umstritten. Wessen Argumente mehr überzeugen, wird sich bei der Abstimmung am 25. September 2022 zeigen. Echo der Zeit, 28.06.2022, 18:00 Uhr
                 ;                                         
-                        gors/kurd; fise Weniger Fleischkonsum Massentierhaltungsinitiative Massentierhaltungs-Initiative Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+                        gors/kurd; fise Weniger Fleischkonsum Massentierhaltungsinitiative Massentierhaltungs-Initiative</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024 Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
         <is>
           <t>15.04.2024, 11:10 Die Hauptkritik des überparteilichen Nein-Komitees: Die «Kostenbremse-Initiative» erkläre nicht, wie die Krankenkassenkosten gedrückt werden sollen. Das Gefährliche an der Initiative sei der starre Mechanismus, «diese völlig sachfremde Koppelung zwischen BIP und Löhnen und der obligatorischen Kranken­pflege­versicherung», sagt Nationalrätin Sarah Wyss (SP/BS). Die Krankenkassen müssten sich bei einer Annahme der Initiative auf den Kostendeckel berufen, teilt das Nein-Komitees bestehend aus Vertreterinnen und Vertreter von SVP, SP, FDP, GLP und Grünen sowie des Berufsverbands des Pflegefachpersonals (SBK) und des Hausärzteverbands (MFE) weiter mit. Wäre die Kostenbremse im Jahr 2000 eingeführt worden, übernähme die Grundversicherung heute 37 Prozent aller Leistungen nicht mehr, rechnet das Komitee vor. Die Initiative greife somit das solidarische Gesundheitssystem in der Schweiz in seinen Grundprinzipien an. Die «Kostenbremse-Initiative» der Mitte verlangt die Einführung einer Kostenbremse in der obligatorischen Krankenpflegeversicherung. Liegt die Steigerung der durchschnittlichen Kosten je versicherte Person und Jahr in der obligatorischen Krankenpflegeversicherung zwei Jahre nach Annahme der Initiative mehr als ein Fünftel über der Entwicklung der Nominallöhne und haben die Tarifpartner – also Kantone, Spitäler, Ärzteschaft, Krankenkassen und Pharmabranche – bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen.  Grundversicherte Patienten hätten keinen garantierten und rechtzeitigen Zugang mehr zur Versorgung. Das Privileg des «zeitlich und therapeutisch sinnvollen Zugangs» wäre laut dem Nein-Komitee den Zusatzversicherten vorbehalten. Das Pflegefachpersonal wie auch Haus- und Kinderärzte befürchten derweil schlechtere Arbeitsbedingungen bei einer Annahme. Die Initiative würde zwar die Kostenbremse einführen, zeige aber selbst keinen Weg auf, wie das Kostenwachstum gebremst werden kann. Denn die Gesundheitskosten seien grösstenteils durch Lohn- und Personalkosten – vor allem durch das Pflegepersonal – geprägt. «Dieser starre Sparkurs, den die Kostenbremse verlangt, ohne Rücksicht auf den tatsächlichen Gesundheitsbedarf der Bevölkerung, beschränkt die Ressourcen für unsere Gesundheitsversorgung unnötig», sagt Patrick Hässig (GLP). Haus­ärzte­verbands­präsident Philippe Luchsinger warnt derweil vor fehlenden Finanzmitteln für die Spitäler und das gesamte Gesundheitswesen bei einer Annahme der Initiative am 9. Juni. Per 1. Januar 2027 würden dem Gesundheitswesen laut Luchsinger demnach zwischen einer und zwei Milliarden Franken fehlen. «Die Spitäler werden als Erstes aufschreien. Ihnen fehlt schon heute das Geld und sie werden mit Steuergeldern gerettet werden müssen.» Bundesrat, Parlament und Kantone anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab, weil die ausschliessliche Koppelung des Bremsmechanismus an die Wirtschafts- und Lohnentwicklung zu kurz greife und zu starr sei. Zudem berücksichtige die Kostenbremse Faktoren wie die Alterung der Bevölkerung oder medizinisch-technische Fortschritte nicht. Info 3, 15.04.2024, 12:00 Uhr
                 ;                                         
-                        sda/gasg;stav Abstimmungskampf lanciert Kampf gegen Prämienexplosion Kampf gegen Prämienexplosion Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+                        sda/gasg;stav Abstimmungskampf lanciert Kampf gegen Prämienexplosion Kampf gegen Prämienexplosion</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
         <is>
           <t>Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen.  Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
 Der Mensch brauche die Biodiversität, um zu überleben. Deshalb müsse eine intakte und vielfältige Natur erhalten bleiben. Bereits seien in der Schweiz ein Drittel der Tier- und Pflanzenarten ausgestorben oder gefährdet, die Hälfte aller Lebensräume seien bedroht. Die überbordende Überbauung, Zersiedelung und intensive Landnutzung müsse gestoppt werden. Zudem schütze eine intakte Artenvielfalt vor Klimawandel und Umweltkatastrophen. Das sagen die Gegner:
-Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+          <t>Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
         <is>
           <t>16.12.2024, 10:14 Die Initiative sei unnötig, weil die Schweiz bereits auf dem Weg sei, Emissionen- und Ressourcenverbrauch zu reduzieren, hiess es vor den Medien in Bern zur Lancierung der Nein-Kampagne. Die Initiative führe zu explodierenden Preisen, Kaufkraftverlust, Konsumverzicht und einschneidendem Wohlstandsverlust. In der überparteilichen Allianz sind FDP, SVP, Mitte und das Konsumentenforum sowie die Branchenorganisation der im Infrastrukturbau tätigen Baufirmen, Infra Suisse, vertreten. Die Initiative der Jungen Grünen verlangt, dass die Schweiz innerhalb von zehn Jahren ihre Umweltbelastung gesamthaft um rund 67 Prozent reduziert. Die Schweiz überschreitet sogenannte Belastungsgrenzen stark. Die Klimabelastung ist 19 Mal zu hoch, das Artensterben 3.8 Mal, der Wasserverbrauch 2.7 Mal, das Düngen 2.4 Mal. Diese Überschreitungen sollen laut der Initiative binnen zehn Jahren abgebaut werden. Dieser Zeitplan ist für die Allianz «utopisch und unverantwortlich». Zudem sei dies unnötig, weil es der Schweiz gelungen sei, das Wirtschaftswachstum vom Ressourcenverbrauch zu entkoppeln. Die Volksinitiative fordert auch einen Verfassungsartikel, wonach der Umweltschutz neu an erster Stelle steht. Dies sei nicht nötig, da laut den Gegnerinnen und Gegnern das Ziel bereits in Artikel 73 der Bundesverfassung verankert ist, hiess es. Die Folgen der «Verarmungsinitiative» wären für die Bevölkerung und die Unternehmen aus Sicht der Initiativgegner verheerend. Die Preise für Mieten, Lebensmittel und vor allem für Mobilität würden explodieren, warnt die überparteiliche Allianz. Dabei treffe die Initiative die Ärmsten gleich dreifach; nicht nur durch den massiven Anstieg der Preise für Heizung, Benzin und Grundnahrungsmittel, sondern auch durch die radikale Kürzung staatlicher Leistungen, weil dem Staat Steuereinnahmen fehlten und er in die Transformation der Infrastruktur investieren müsse. Zuletzt würden zahlreiche Menschen, insbesondere die guten Steuerzahler, auswandern, um dem «ökologischen Korsett» zu entgehen. Das Stimmvolk wird am 9. Februar 2025 über die von den Jungen Grünen eingereichte Initiative «für eine verantwortungsvolle Wirtschaft innerhalb der planetaren Grenzen (Umweltverantwortungsinitiative)» befinden. Bundesrat und Parlament lehnen die Initiative ab. SRF 4 News, 16.12.2024, 12:30 Uhr
                 ;                                         
-                        sda/hosb/spic;schn «Extreme Konsequenzen» Umweltverantwortungsinitiative Für die Registrierung benötigen wir zusätzliche Angaben zu Ihrer Person.</t>
+                        sda/hosb/spic;schn «Extreme Konsequenzen» Umweltverantwortungsinitiative</t>
         </is>
       </c>
     </row>

--- a/Data_ML_bereinigt.xlsx
+++ b/Data_ML_bereinigt.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Politische Engagements von Promis sind in der Schweiz nichts Neues. Auch für die Abstimmung an diesem Wochenende wurden fleissig Promis mobilisiert. Insbesondere die SVP hat sich die Promi-Rekrutierung auf die Fahne geschrieben. So liebäugelte die Volkspartei öffentlich mit prominenten Kandidaten für die im November anstehenden Parlamentswahlen. Besonders gerne würde die SVP den ehemaligen Skirennfahrer Paul Accola, den Berner Schmusesänger Gölä oder den «Krokus»-Leader Chris von Rohr auf ihre Nationalratsliste setzen. Sie wären zumindest in guter Gesellschaft. So sitzen bereits Fernsehleute wie Filippo Leuenberger (FDP) oder Maximilian Reimann (SVP) im Nationalrat. Aber nicht alle Prominenten, die sich gelegentlich politisch äussern, möchten auch gleich ein politisches Amt übernehmen. Meist  wird auch nur bei Sachpolitik kräftig mitgeredet. So spricht sich beispielsweise der Berner Mundartrocker Polo Hofer schon seit Jahren für eine Hanflegalisierung aus, und auch die Rapper Greis und Stress sind vor allem bei Ausländerthemen engagiert. Sogar Schönheitsköniginnen sitzen bei politischen Themen nicht auf dem Mund: Die ehemalige Miss Schweiz Jennifer Ann Gerber gab sich vergangenen Herbst als Befürworterin der Ausschaffungsinitiative. Am 13. Februar wird die Schweizer Bevölkerung wieder an die Urne gebeten. Dabei soll unter anderem über die Waffeninitiative abgestimmt werden. Auf der Website des Befürworterkommitees «schutz-vor-waffengewalt.ch» kommen auch einige Prominente zu Wort. So rühren beispielsweise Schriftsteller Martin Suter, Komiker Marco Rima («Wer JA stimmt, rettet Leben!») und Moderator Frank Baumann die Werbetrommel. Weitere Befürworter der Waffeninitiative sind die ehemaligen Schönheitskönige Tim Wielandt und Anita Buri sowie Schauspieler Stefan Gubser: «Ich habe einen Freund aufgrund eines Suizids mit einer Armeewaffe verloren, darum ist mir die Initiative auch persönlich sehr wichtig», sagte der ehemalige «Tatort»-Darsteller gegenüber 20Minuten Online. Ob die klare öffentliche Positionierung der Promis die Stimmbevölkerung mobilisiert oder ihrer eigenen Karriere gar schadet, ist unklar. Gemäss der Umfrage des «gfs.bern» wird die Abstimmung zur Initiative « Schutz vor Waffengewalt» äusserst knapp ausfallen. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Politische Engagements von Promis sind in der Schweiz nichts Neues. Auch für die Abstimmung an diesem Wochenende wurden fleissig Promis mobilisiert. Insbesondere die SVP hat sich die Promi-Rekrutierung auf die Fahne geschrieben. So liebäugelte die Volkspartei öffentlich mit prominenten Kandidaten für die im November anstehenden Parlamentswahlen. Besonders gerne würde die SVP den ehemaligen Skirennfahrer Paul Accola, den Berner Schmusesänger Gölä oder den «Krokus»-Leader Chris von Rohr auf ihre Nationalratsliste setzen. Sie wären zumindest in guter Gesellschaft. So sitzen bereits Fernsehleute wie Filippo Leuenberger (FDP) oder Maximilian Reimann (SVP) im Nationalrat. Aber nicht alle Prominenten, die sich gelegentlich politisch äussern, möchten auch gleich ein politisches Amt übernehmen. Meist  wird auch nur bei Sachpolitik kräftig mitgeredet. So spricht sich beispielsweise der Berner Mundartrocker Polo Hofer schon seit Jahren für eine Hanflegalisierung aus, und auch die Rapper Greis und Stress sind vor allem bei Ausländerthemen engagiert. Sogar Schönheitsköniginnen sitzen bei politischen Themen nicht auf dem Mund: Die ehemalige Miss Schweiz Jennifer Ann Gerber gab sich vergangenen Herbst als Befürworterin der Ausschaffungsinitiative. Am 13. Februar wird die Schweizer Bevölkerung wieder an die Urne gebeten. Dabei soll unter anderem über die Waffeninitiative abgestimmt werden. Auf der Website des Befürworterkommitees «schutz-vor-waffengewalt.ch» kommen auch einige Prominente zu Wort. So rühren beispielsweise Schriftsteller Martin Suter, Komiker Marco Rima («Wer JA stimmt, rettet Leben!») und Moderator Frank Baumann die Werbetrommel. Weitere Befürworter der Waffeninitiative sind die ehemaligen Schönheitskönige Tim Wielandt und Anita Buri sowie Schauspieler Stefan Gubser: «Ich habe einen Freund aufgrund eines Suizids mit einer Armeewaffe verloren, darum ist mir die Initiative auch persönlich sehr wichtig», sagte der ehemalige «Tatort»-Darsteller gegenüber 20Minuten Online. Ob die klare öffentliche Positionierung der Promis die Stimmbevölkerung mobilisiert oder ihrer eigenen Karriere gar schadet, ist unklar. Gemäss der Umfrage des «gfs.bern» wird die Abstimmung zur Initiative « Schutz vor Waffengewalt» äusserst knapp ausfallen.</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Die Militärwaffe soll nicht strikte aus dem Haushalt verbannt und im Zeughaus verwahrt werden. Die Initiative «Schutz vor Waffengewalt» ist zur Ablehnung empfohlen worden. Die Sicherheitspolitische Kommission des Nationalrats hat sich am Dienstag mit 18 gegen 8 Stimmen die Initiative ausgesprochen. Wie SIK-Präsident Jakob Büchler (CVP/SG) vor den Medien in Bern erklärte, ist die Kommissionsmehrheit der Meinung, dass in den letzten Jahren bereits sehr viel unternommen wurde, um dem Missbrauch der Ordonnanzwaffen vorzubeugen. So werde heute die Taschenmunition eingezogen, und die Waffen könnten kostenlos im Zeughaus abgegeben werden. Bei der Rekrutierung werde der junge Wehrmann überprüft, und dank einer Revision des Militärgesetzes könnten Ärzte und Psychologen «ernsthafte Hinweise» auf ein Gefährdungspotenzial melden. Zusätzliche Massnahmen würden nach Ansicht der Mehrheit zu einer «Entwaffnung des Soldaten» führen. Da so die Selbstverantwortung der Armeeangehörigen gesenkt werde, führe dies zu einer Schwächung des Milizsystems. Eine Annahme der Initiative hätte eine «Entwaffung des Bürgers» zur Folge. Nur noch Kriminelle hätten dann eine Waffe, sagte Büchler. Was die Suizidprävention anbelange, finde die Kommissionsmehrheit selbstverständlich, dass jeder Todesfall tragisch sei. Sie zweifle aber daran, dass die von der Initiative vorgeschlagene Massnahmen zu einer tieferen Suizidrate führe. Jeder Suizid habe eine Vorgeschichte. Die im Februar 2009 eingereichte Initiative verlangt, dass die Militärwaffe fortan im Zeughaus verwahrt wird. Der Waffenbesitz soll nur noch mit einem Bedürfnis- und Fähigkeitsausweis möglich sein, und alle Schusswaffen sollen in einem zentralen Register erfasst werden. Nach Ansicht der Kommissionsminderheit wird mit der Initiative das Recht auf eine Waffe nicht in Frage gestellt. Für viele Schützen sei die Forderung nach einem Bedürfnis- und Fähigkeitsnachweis bereits erfüllt. So müssen Jäger bereits über einen solchen verfügen. Unter den Sportschützen seien bereits mehr als 10 000 Personen im Besitz einer Lizenz. Nur 10 000 weiter müssten noch eine erwerben. Viele Polizisten und Militärs seien im Übrigen für die Initiative, weil sie eine Verbesserung des Schutzes gegen Waffengewalt erwarten würden. (sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Militärwaffe soll nicht strikte aus dem Haushalt verbannt und im Zeughaus verwahrt werden. Die Initiative «Schutz vor Waffengewalt» ist zur Ablehnung empfohlen worden. Die Sicherheitspolitische Kommission des Nationalrats hat sich am Dienstag mit 18 gegen 8 Stimmen die Initiative ausgesprochen. Wie SIK-Präsident Jakob Büchler (CVP/SG) vor den Medien in Bern erklärte, ist die Kommissionsmehrheit der Meinung, dass in den letzten Jahren bereits sehr viel unternommen wurde, um dem Missbrauch der Ordonnanzwaffen vorzubeugen. So werde heute die Taschenmunition eingezogen, und die Waffen könnten kostenlos im Zeughaus abgegeben werden. Bei der Rekrutierung werde der junge Wehrmann überprüft, und dank einer Revision des Militärgesetzes könnten Ärzte und Psychologen «ernsthafte Hinweise» auf ein Gefährdungspotenzial melden. Zusätzliche Massnahmen würden nach Ansicht der Mehrheit zu einer «Entwaffnung des Soldaten» führen. Da so die Selbstverantwortung der Armeeangehörigen gesenkt werde, führe dies zu einer Schwächung des Milizsystems. Eine Annahme der Initiative hätte eine «Entwaffung des Bürgers» zur Folge. Nur noch Kriminelle hätten dann eine Waffe, sagte Büchler. Was die Suizidprävention anbelange, finde die Kommissionsmehrheit selbstverständlich, dass jeder Todesfall tragisch sei. Sie zweifle aber daran, dass die von der Initiative vorgeschlagene Massnahmen zu einer tieferen Suizidrate führe. Jeder Suizid habe eine Vorgeschichte. Die im Februar 2009 eingereichte Initiative verlangt, dass die Militärwaffe fortan im Zeughaus verwahrt wird. Der Waffenbesitz soll nur noch mit einem Bedürfnis- und Fähigkeitsausweis möglich sein, und alle Schusswaffen sollen in einem zentralen Register erfasst werden. Nach Ansicht der Kommissionsminderheit wird mit der Initiative das Recht auf eine Waffe nicht in Frage gestellt. Für viele Schützen sei die Forderung nach einem Bedürfnis- und Fähigkeitsnachweis bereits erfüllt. So müssen Jäger bereits über einen solchen verfügen. Unter den Sportschützen seien bereits mehr als 10 000 Personen im Besitz einer Lizenz. Nur 10 000 weiter müssten noch eine erwerben. Viele Polizisten und Militärs seien im Übrigen für die Initiative, weil sie eine Verbesserung des Schutzes gegen Waffengewalt erwarten würden.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Die Initiative «Für den Schutz vor Waffengewalt» hat im Parlament wenig Chancen: Auch die Sicherheitspolitische Kommission des Ständerats schmettert das Volksbegehren ab. Mit einer Dreiviertel-Mehrheit lehnt die Kommission die Initiative ab Das Sturmgewehr soll nicht ins Zeughaus verbannt werden. Nach dem Nationalrat findet auch die Sicherheitspolitische Kommission  des Ständerats, dass die Initiative «Für den Schutz vor Waffengewalt» übers Ziel hinausschiesst. Die Kommission lehnt das Volksbegehren mit 9 zu 3 Stimmen ab. Wie die Parlamentsdienste am Mittwoch mitteilten, bietet das heutige Waffengesetz in den Augen der Kommissionsmehrheit bereits genügend Schutz vor Waffenmissbrauch. Auch in der Frage der Armeewaffe reichten die bereits getroffenen Massnahmen. So zieht die Armee die Taschenmunition ein. Zudem können die Armeewaffen freiwillig und kostenlos im Zeughaus deponiert werden. Damit habe man ein Gleichgewicht gefunden zwischen dem Anspruch auf öffentliche Sicherheit und der «militärischen Notwendigkeit, die Waffe zu Hause aufzubewahren». Dieses Gleichgewicht würde durch die Initiative gefährdet. Nach Ansicht der Kommissionsmehrheit würde die Annahme der Initiative die öffentliche Sicherheit zudem nicht signifikant verbessern. Die Kommissionsminderheit ist dagegen der Meinung, dass die Aufbewahrung der Dienstwaffe zu Hause nicht mehr gerechtfertigt ist. Ausserdem könne die öffentliche Sicherheit mit dem in der Initiative geforderten zentralen Waffenregister und dem Bedürfnis- und Fähigkeitsnachweis bedeutend erhöht werden. Die von der SP, den Grünen, mehreren Jungparteien, Gewerkschaften, GSoA, Friedensorganisationen, Frauenverbänden, Kirchen sowie der Ärzte-Vereinigung FMH unterstützte Initiative wird in der Herbstsession im Ständerat beraten. Der Nationalrat hatte das Volksbegehren in der Sommersession der Stimmbevölkerung mit 103 zu 66 Stimmen zur Ablehnung empfohlen. (sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Initiative «Für den Schutz vor Waffengewalt» hat im Parlament wenig Chancen: Auch die Sicherheitspolitische Kommission des Ständerats schmettert das Volksbegehren ab. Mit einer Dreiviertel-Mehrheit lehnt die Kommission die Initiative ab Das Sturmgewehr soll nicht ins Zeughaus verbannt werden. Nach dem Nationalrat findet auch die Sicherheitspolitische Kommission  des Ständerats, dass die Initiative «Für den Schutz vor Waffengewalt» übers Ziel hinausschiesst. Die Kommission lehnt das Volksbegehren mit 9 zu 3 Stimmen ab. Wie die Parlamentsdienste am Mittwoch mitteilten, bietet das heutige Waffengesetz in den Augen der Kommissionsmehrheit bereits genügend Schutz vor Waffenmissbrauch. Auch in der Frage der Armeewaffe reichten die bereits getroffenen Massnahmen. So zieht die Armee die Taschenmunition ein. Zudem können die Armeewaffen freiwillig und kostenlos im Zeughaus deponiert werden. Damit habe man ein Gleichgewicht gefunden zwischen dem Anspruch auf öffentliche Sicherheit und der «militärischen Notwendigkeit, die Waffe zu Hause aufzubewahren». Dieses Gleichgewicht würde durch die Initiative gefährdet. Nach Ansicht der Kommissionsmehrheit würde die Annahme der Initiative die öffentliche Sicherheit zudem nicht signifikant verbessern. Die Kommissionsminderheit ist dagegen der Meinung, dass die Aufbewahrung der Dienstwaffe zu Hause nicht mehr gerechtfertigt ist. Ausserdem könne die öffentliche Sicherheit mit dem in der Initiative geforderten zentralen Waffenregister und dem Bedürfnis- und Fähigkeitsnachweis bedeutend erhöht werden. Die von der SP, den Grünen, mehreren Jungparteien, Gewerkschaften, GSoA, Friedensorganisationen, Frauenverbänden, Kirchen sowie der Ärzte-Vereinigung FMH unterstützte Initiative wird in der Herbstsession im Ständerat beraten. Der Nationalrat hatte das Volksbegehren in der Sommersession der Stimmbevölkerung mit 103 zu 66 Stimmen zur Ablehnung empfohlen.</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Grosse Wirtschaftsverbände lehnen die SVP-Initiative «Gegen Masseneinwanderung» ab. Der bilaterale Weg mit verschiedenen Abkommen mit der EU wäre gefährdet, befürchten die Gegner. Die SVP-Initiative zur Wiedereinführung von Zuwanderungskontingenten bringt aus Sicht der Wirtschaftsverbände neue Probleme, aber keine Lösungen. Die grossen Verbände präsentierten am Montag ihre Argumente gegen die Initiative, über die am 9. Februar abgestimmt wird. Bei einem Ja zur Initiative «Gegen Masseneinwanderung» würde die Schweizer Wirtschaft ins Abseits gestellt, hielten die Wirtschaftsvertreter am Montag in Bern fest. Der aus ihrer Sicht bewährte bilaterale Weg mit verschiedenen Abkommen mit der EU würde damit gefährdet. Es steht für sie ausser Frage, dass die EU die Bilateralen I und damit wichtige Verträge kündigen würde. Ein Nein empfehlen deshalb nebst dem Dachverband Economiesuisse unter anderen der Arbeitgeberverband, der Gewerbeverband, Swissmem, der Versicherungsverband sowie der Bauernverband. Die Personenfreizügigkeit erlaube es den Unternehmen heute, bei Engpässen Fachkräfte aus Europa zu holen, hiess es weiter. Das trage nicht zuletzt zur hohen Wettbewerbsfähigkeit der Schweiz bei. Flexibilität in Gefahr Diese Rekrutierungsmöglichkeiten stehen laut den Verbänden auf dem Spiel, wenn Kontingente darüber entscheiden würden, wer in die Schweiz kommen darf. Mit einem vom Staat gesteuerten Kontingentsystem befürchtet die Wirtschaft überdies hohe Verwaltungskosten und komplizierte Verfahren. Aus Sicht der Wirtschaftsverbände hat die Personenfreizügigkeit für die Arbeitnehmerinnen und Arbeitnehmer in der Schweiz keine Nachteile: «Eine Verdrängung von Schweizer Arbeitskräften findet nicht statt.» Das bestätigten verschiedene Studien. Die Entscheidungen zur SVP-Initiative am 9. Februar ist die erste Abstimmung in einer Reihe von Abstimmungen, welche die Personenfreizügigkeit zwischen der Schweiz und der EU auf den Prüfstand stellen. Zur Abstimmung kommen werden in den nächsten Monaten auch die Ecopop-Initiative sowie die Erweiterung der Personenfreizügigkeit auf Kroatien. (sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Grosse Wirtschaftsverbände lehnen die SVP-Initiative «Gegen Masseneinwanderung» ab. Der bilaterale Weg mit verschiedenen Abkommen mit der EU wäre gefährdet, befürchten die Gegner. Die SVP-Initiative zur Wiedereinführung von Zuwanderungskontingenten bringt aus Sicht der Wirtschaftsverbände neue Probleme, aber keine Lösungen. Die grossen Verbände präsentierten am Montag ihre Argumente gegen die Initiative, über die am 9. Februar abgestimmt wird. Bei einem Ja zur Initiative «Gegen Masseneinwanderung» würde die Schweizer Wirtschaft ins Abseits gestellt, hielten die Wirtschaftsvertreter am Montag in Bern fest. Der aus ihrer Sicht bewährte bilaterale Weg mit verschiedenen Abkommen mit der EU würde damit gefährdet. Es steht für sie ausser Frage, dass die EU die Bilateralen I und damit wichtige Verträge kündigen würde. Ein Nein empfehlen deshalb nebst dem Dachverband Economiesuisse unter anderen der Arbeitgeberverband, der Gewerbeverband, Swissmem, der Versicherungsverband sowie der Bauernverband. Die Personenfreizügigkeit erlaube es den Unternehmen heute, bei Engpässen Fachkräfte aus Europa zu holen, hiess es weiter. Das trage nicht zuletzt zur hohen Wettbewerbsfähigkeit der Schweiz bei. Flexibilität in Gefahr Diese Rekrutierungsmöglichkeiten stehen laut den Verbänden auf dem Spiel, wenn Kontingente darüber entscheiden würden, wer in die Schweiz kommen darf. Mit einem vom Staat gesteuerten Kontingentsystem befürchtet die Wirtschaft überdies hohe Verwaltungskosten und komplizierte Verfahren. Aus Sicht der Wirtschaftsverbände hat die Personenfreizügigkeit für die Arbeitnehmerinnen und Arbeitnehmer in der Schweiz keine Nachteile: «Eine Verdrängung von Schweizer Arbeitskräften findet nicht statt.» Das bestätigten verschiedene Studien. Die Entscheidungen zur SVP-Initiative am 9. Februar ist die erste Abstimmung in einer Reihe von Abstimmungen, welche die Personenfreizügigkeit zwischen der Schweiz und der EU auf den Prüfstand stellen. Zur Abstimmung kommen werden in den nächsten Monaten auch die Ecopop-Initiative sowie die Erweiterung der Personenfreizügigkeit auf Kroatien.</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Die Konferenz der Kantonsregierungen haben sich entschieden, die SVP-Volksinitiative «Gegen Masseneinwanderung» abzulehnen. Die Kantone lehnen die SVP-Volksinitiative «Gegen Masseneinwanderung» ab und unterstützen die Ausdehnung der Personenfreizügigkeit auf Kroatien. Am Freitag hat sich die Konferenz der Kantonsregierungen in Luzern zur bisherigen Migrationspolitik der Schweiz bekannt. Die Initiative setze nicht nur die Personenfreizügigkeit mit der EU aufs Spiel, sondern stelle die Europapolitik der Schweiz der vergangenen 20 Jahre in Frage, heisst es in einer Mitteilung der Konferenz der Kantonsregierungen (KdK) vom Freitag.  Die Initiative gefährde den Wohlstand in der Schweiz. Die bisher volle Personenfreizügigkeit für EU-/EFTA-Staatsangehörige und die Zuwanderung hochqualifizierter Arbeitskräfte aus Drittstaaten würden dem Fachkräftemangel im Gesundheitswesen, im Tourismus, in der Landwirtschaft und der Gastronomie begegnen sowie regionalen Besonderheiten Rechnung tragen. Über die Initiative «gegen Masseneinwanderung» wird am 9. Februar 2014 abgestimmt. Das Begehren verlangt, dass die Schweiz die Einwanderung wieder mit Kontingenten regelt. Dazu soll die Personenfreizügigkeit mit der EU neu verhandelt werden. Kein privilegierter Zugang mehr Die Kantonen warnen davor, dass bei einer Kündigung des Personenfreizügigkeitsabkommens wegen der Guillotine-Klausel sämtliche Abkommen der Bilateralen I wegfielen. Dadurch verlöre die Schweiz auf einen Schlag den über Jahre ausgehandelten privilegierten Zugang zum EU-Binnenmarkt, schreibt die KdK. Die Kantone unterstützen auch die Ausdehnung der Personenfreizügigkeit auf Kroatien. Die Zugeständnisse der Schweiz betreffend Kontingente und jene der EU betreffend Schutzklausel würden das schweizerische Interesse an einer kontrollierten Zuwanderung berücksichtigen und dem Grundsatz der Freizügigkeit Rechnung tragen. (sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Konferenz der Kantonsregierungen haben sich entschieden, die SVP-Volksinitiative «Gegen Masseneinwanderung» abzulehnen. Die Kantone lehnen die SVP-Volksinitiative «Gegen Masseneinwanderung» ab und unterstützen die Ausdehnung der Personenfreizügigkeit auf Kroatien. Am Freitag hat sich die Konferenz der Kantonsregierungen in Luzern zur bisherigen Migrationspolitik der Schweiz bekannt. Die Initiative setze nicht nur die Personenfreizügigkeit mit der EU aufs Spiel, sondern stelle die Europapolitik der Schweiz der vergangenen 20 Jahre in Frage, heisst es in einer Mitteilung der Konferenz der Kantonsregierungen (KdK) vom Freitag.  Die Initiative gefährde den Wohlstand in der Schweiz. Die bisher volle Personenfreizügigkeit für EU-/EFTA-Staatsangehörige und die Zuwanderung hochqualifizierter Arbeitskräfte aus Drittstaaten würden dem Fachkräftemangel im Gesundheitswesen, im Tourismus, in der Landwirtschaft und der Gastronomie begegnen sowie regionalen Besonderheiten Rechnung tragen. Über die Initiative «gegen Masseneinwanderung» wird am 9. Februar 2014 abgestimmt. Das Begehren verlangt, dass die Schweiz die Einwanderung wieder mit Kontingenten regelt. Dazu soll die Personenfreizügigkeit mit der EU neu verhandelt werden. Kein privilegierter Zugang mehr Die Kantonen warnen davor, dass bei einer Kündigung des Personenfreizügigkeitsabkommens wegen der Guillotine-Klausel sämtliche Abkommen der Bilateralen I wegfielen. Dadurch verlöre die Schweiz auf einen Schlag den über Jahre ausgehandelten privilegierten Zugang zum EU-Binnenmarkt, schreibt die KdK. Die Kantone unterstützen auch die Ausdehnung der Personenfreizügigkeit auf Kroatien. Die Zugeständnisse der Schweiz betreffend Kontingente und jene der EU betreffend Schutzklausel würden das schweizerische Interesse an einer kontrollierten Zuwanderung berücksichtigen und dem Grundsatz der Freizügigkeit Rechnung tragen.</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,8 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU.</t>
+          <t>.   Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU. 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1052,8 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis</t>
+          <t>.   Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1095,8 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Im Schnitt wandern 70‘000 Menschen pro Jahr ein – so viele, wie die Stadt St. Gallen Einwohner zählt. Zu viele, findet die SVP. Mit ihrer Initiative will sie die Zuwanderung begrenzen. Die Gegner halten dagegen: Die Initiative gefährde den Wohlstand. 09.01.2014, 22:06 Am 9. Februar stimmt das Volk über die SVP-Initiative «Gegen die Masseneinwanderung» ab. Am Donnerstag trafen sich prominente Befürworter und Gegner in der alten Mühle Langenthal (BE). Die Sendung «Forum» von Radio SRF 1 übertrug die Debatte live. «Der Bundesrat ist gegen die Initiative», sagt Bundesrat Johann Schneider-Ammann. «Wir haben in der Schweiz Vollbeschäftigung und Wachstum, und das möchte ich nicht ändern.» SVP-Nationalrat Adrian Amstutz ist da anderer Meinung: «Es geht ums Mass.» In die Schweiz kämen jedes Jahr bald 80‘000 Zuwanderer. «Das ist zu viel. In dem Tempo kann es nicht weitergehen.» Bis im Jahr 2035 würde die Schweiz in Richtung zehn Millionen Einwohner steuern, wenn wir so weitermachten wie bisher. Das sage das Bundesamt für Statistik. Das Begehren der SVP verlangt: Der Staat soll festlegen, wie viele Personen aus welchem Land pro Jahr in die Schweiz ziehen oder hier arbeiten dürfen, die Grenzgänger und Asylsuchenden einbezogen. Die Initiative will die Personenfreizügigkeit mit der EU neu verhandeln. «Die Initiative löst keine Probleme», wirft SP-Nationalrätin Nadine Masshardt ein. Sie bringt die flankierenden Massnahmen ins Spiel, für die sich die Sozialdemokraten stark machen. Es müsse bei der Raumplanung angesetzt werden. Im Arbeitsmarkt brauche es einen Mindestlohn, mehr Investitionen im preisgünstigen Wohnungsbau. Und eine Bildungsoffensive für Fachkräfte müsse her. Für den SVP-Stadtrat von Langenthal, Patrick Freudiger, sind die flankierenden Massnahmen keine Lösung. Langenthal habe einen überdurchschnittlich hohen Ausländeranteil und sehr wenig freies Bauland. «Wir müssen in die Höhe bauen. Das bedeutet mehr Leute auf weniger Raum. Das schränkt die Lebensqualität ein.» Thimo Thimm ist deutscher Staatsbürger und Leiter Operationssäle Spital Langenthal. Eigentlich wollte er gar nicht explizit in die Schweiz kommen, wurde dann aber abgeworben. Für ihn ist klar: Die Schweiz braucht Fachkräfte aus dem Ausland, anders kommt sein Spital nicht an qualifiziertes Personal heran. Amstutz hält entgegen, dass die Schweiz zwar Vollbeschäftigung habe, aber die Arbeitslosenzahl seit 2001 gestiegen sei, und nicht gesunken. «Es findet trotz überhitzter Konjunktur ein Verdrängungskampf statt.» Etwa würden die Ex-Jugoslawen aus dem Arbeitsmarkt verdrängt, «und aufgefüllt durch junge Portugiesen.» Zudem würden dann die aus dem Arbeitsmarkt verdrängten Ausländer dem hiesigen Sozialwesen auf der Tasche liegen. «Die Arbeitslosenquote hat relativ gesehen zur Bevölkerung nicht zugenommen in den letzten Jahren», antwortet Bundesrat Schneider-Ammann. Auch habe laut Studien keine Verdrängung stattgefunden. «Die Personenfreizügigkeit hat bei den mittleren Löhnen bewirkt, dass nicht mehr das passiert ist, was hätte passieren können, wenn das Angebot weniger gross gewesen wäre. Bei den tieferen Löhnen stellten die Studien keine Nachteile fest.» Auch zu den hohen Mietpreisen nimmt der Bundesrat Stellung: «Für einzelne Hotspots wie Genf, Basel oder Zürich stimmt das.» Doch es gäbe im Land insgesamt Wohnmöglichkeiten zu vernünftigen Preisen. «Der Bundesrat behauptet immer, es läuft besser», sagt SVP-Nationalrat Adrian Amstutz. Die Frage gehe an jeden einzelnen. «Haben wir mehr im Portemonnaie? Geht es uns wirklich besser?» Doch wie viele Leute würden dann kommen, würde die Initiative angenommen? Adrian Amstutz: «Etwa 50‘000 wären meiner Meinung nach die obere Grenze.» Das lege die Wirtschaft fest. Über ein Drittel komme momentan in die Schweiz, nicht um hier zu arbeiten, sondern als Familiennachzug, so Amstutz. «Wenn Initiative angenommen wird, dann wächst die Bürokratie», so Schneider-Ammann. Die Firmen müssten prompt reagieren können, wenn sie Leute brauchten. Die Initiative bewirke, dass Investitionen heruntergefahren würden und es weniger Arbeitsplätze gebe. Der Bundesrat warnt zudem: Wenn die Initiative angenommen würde, könnten die anderen Verträge mit der EU unter Druck kommen. Das wiederum hätte Auswirkungen auf die Arbeitsplätze in der Schweiz. «Wenn die Schweiz die EU an den Verhandlungstisch zwingt, dann kann nicht nur eine Seite ihre Forderungen auf den Tisch bringen.» «Wir wollen der Schweiz keine Steine in den Weg mit der EU legen, sondern wir wollen lediglich eine Korrektur anbringen.» Amstutz fragt, ob die EU zu den Forschungsmillionen aus der Schweiz Nein sagen wolle. Oder wolle die EU etwa auf die Nordsüdverkehrsachse verzichten, die durch die Schweiz verlaufe? «Sollten die Verhandlungen scheitern, dann wird die Schweiz keine Bilateralen Verträge haben.» «Wenn wir keine Bilateralen Verträge haben, dann wäre der Schaden für die Wirtschaft immens», gibt SP-Nationalrätin Nadine Masshardt zu bedenken. Daher seien auch alle wirtschaftsnahen Verbände geschlossen gegen die Initiative. srf/galc;buev</t>
+          <t>.   Im Schnitt wandern 70‘000 Menschen pro Jahr ein – so viele, wie die Stadt St. Gallen Einwohner zählt. Zu viele, findet die SVP. Mit ihrer Initiative will sie die Zuwanderung begrenzen. Die Gegner halten dagegen: Die Initiative gefährde den Wohlstand. 09.01.2014, 22:06 Am 9. Februar stimmt das Volk über die SVP-Initiative «Gegen die Masseneinwanderung» ab. Am Donnerstag trafen sich prominente Befürworter und Gegner in der alten Mühle Langenthal (BE). Die Sendung «Forum» von Radio SRF 1 übertrug die Debatte live. «Der Bundesrat ist gegen die Initiative», sagt Bundesrat Johann Schneider-Ammann. «Wir haben in der Schweiz Vollbeschäftigung und Wachstum, und das möchte ich nicht ändern.» SVP-Nationalrat Adrian Amstutz ist da anderer Meinung: «Es geht ums Mass.» In die Schweiz kämen jedes Jahr bald 80‘000 Zuwanderer. «Das ist zu viel. In dem Tempo kann es nicht weitergehen.» Bis im Jahr 2035 würde die Schweiz in Richtung zehn Millionen Einwohner steuern, wenn wir so weitermachten wie bisher. Das sage das Bundesamt für Statistik. Das Begehren der SVP verlangt: Der Staat soll festlegen, wie viele Personen aus welchem Land pro Jahr in die Schweiz ziehen oder hier arbeiten dürfen, die Grenzgänger und Asylsuchenden einbezogen. Die Initiative will die Personenfreizügigkeit mit der EU neu verhandeln. «Die Initiative löst keine Probleme», wirft SP-Nationalrätin Nadine Masshardt ein. Sie bringt die flankierenden Massnahmen ins Spiel, für die sich die Sozialdemokraten stark machen. Es müsse bei der Raumplanung angesetzt werden. Im Arbeitsmarkt brauche es einen Mindestlohn, mehr Investitionen im preisgünstigen Wohnungsbau. Und eine Bildungsoffensive für Fachkräfte müsse her. Für den SVP-Stadtrat von Langenthal, Patrick Freudiger, sind die flankierenden Massnahmen keine Lösung. Langenthal habe einen überdurchschnittlich hohen Ausländeranteil und sehr wenig freies Bauland. «Wir müssen in die Höhe bauen. Das bedeutet mehr Leute auf weniger Raum. Das schränkt die Lebensqualität ein.» Thimo Thimm ist deutscher Staatsbürger und Leiter Operationssäle Spital Langenthal. Eigentlich wollte er gar nicht explizit in die Schweiz kommen, wurde dann aber abgeworben. Für ihn ist klar: Die Schweiz braucht Fachkräfte aus dem Ausland, anders kommt sein Spital nicht an qualifiziertes Personal heran. Amstutz hält entgegen, dass die Schweiz zwar Vollbeschäftigung habe, aber die Arbeitslosenzahl seit 2001 gestiegen sei, und nicht gesunken. «Es findet trotz überhitzter Konjunktur ein Verdrängungskampf statt.» Etwa würden die Ex-Jugoslawen aus dem Arbeitsmarkt verdrängt, «und aufgefüllt durch junge Portugiesen.» Zudem würden dann die aus dem Arbeitsmarkt verdrängten Ausländer dem hiesigen Sozialwesen auf der Tasche liegen. «Die Arbeitslosenquote hat relativ gesehen zur Bevölkerung nicht zugenommen in den letzten Jahren», antwortet Bundesrat Schneider-Ammann. Auch habe laut Studien keine Verdrängung stattgefunden. «Die Personenfreizügigkeit hat bei den mittleren Löhnen bewirkt, dass nicht mehr das passiert ist, was hätte passieren können, wenn das Angebot weniger gross gewesen wäre. Bei den tieferen Löhnen stellten die Studien keine Nachteile fest.» Auch zu den hohen Mietpreisen nimmt der Bundesrat Stellung: «Für einzelne Hotspots wie Genf, Basel oder Zürich stimmt das.» Doch es gäbe im Land insgesamt Wohnmöglichkeiten zu vernünftigen Preisen. «Der Bundesrat behauptet immer, es läuft besser», sagt SVP-Nationalrat Adrian Amstutz. Die Frage gehe an jeden einzelnen. «Haben wir mehr im Portemonnaie? Geht es uns wirklich besser?» Doch wie viele Leute würden dann kommen, würde die Initiative angenommen? Adrian Amstutz: «Etwa 50‘000 wären meiner Meinung nach die obere Grenze.» Das lege die Wirtschaft fest. Über ein Drittel komme momentan in die Schweiz, nicht um hier zu arbeiten, sondern als Familiennachzug, so Amstutz. «Wenn Initiative angenommen wird, dann wächst die Bürokratie», so Schneider-Ammann. Die Firmen müssten prompt reagieren können, wenn sie Leute brauchten. Die Initiative bewirke, dass Investitionen heruntergefahren würden und es weniger Arbeitsplätze gebe. Der Bundesrat warnt zudem: Wenn die Initiative angenommen würde, könnten die anderen Verträge mit der EU unter Druck kommen. Das wiederum hätte Auswirkungen auf die Arbeitsplätze in der Schweiz. «Wenn die Schweiz die EU an den Verhandlungstisch zwingt, dann kann nicht nur eine Seite ihre Forderungen auf den Tisch bringen.» «Wir wollen der Schweiz keine Steine in den Weg mit der EU legen, sondern wir wollen lediglich eine Korrektur anbringen.» Amstutz fragt, ob die EU zu den Forschungsmillionen aus der Schweiz Nein sagen wolle. Oder wolle die EU etwa auf die Nordsüdverkehrsachse verzichten, die durch die Schweiz verlaufe? «Sollten die Verhandlungen scheitern, dann wird die Schweiz keine Bilateralen Verträge haben.» «Wenn wir keine Bilateralen Verträge haben, dann wäre der Schaden für die Wirtschaft immens», gibt SP-Nationalrätin Nadine Masshardt zu bedenken. Daher seien auch alle wirtschaftsnahen Verbände geschlossen gegen die Initiative. srf/galc;buev 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1138,8 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Für die Befürworter der «Pädophilen-Initiative» gibt es keinen «verhältnismässigen Umgang» mit pädosexuellen Straftätern. Diese sind ihrer Ansicht nach nicht heilbar und dürfen deshalb nie mehr mit Kindern oder abhängigen Personen arbeiten. 25.03.2014, 17:25 Dass Kinder besser vor Pädophilen geschützt werden müssen, ist quer durch alle politischen Lager unbestritten. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» verlangt, dass pädosexuelle Straftäter unabhängig von der Schwere der Straftat lebenslang jede Tätigkeit mit Minderjährigen oder Abhängigen verboten werden soll. Die Gegner der Initiative kritisieren aber, dass damit der rechtliche Grundsatz der Verhältnismässigkeit nicht respektiert wird. Zu diesem Punkt äusserte sich in Bern das überparteiliche Komitee für die Initiative: Bei Pädophilen dürfe es keinen Ermessensspielraum geben, sagte der parteilose Schaffhauser Ständerat Thomas Minder an der Medienkonferenz. «Es gibt keine Graustufen in dem Bereich.» Für Nationalrat Bernhard Guhl (BDP/AG) sind Pädophile nicht heilbar. Sie könnten lediglich lernen, mit ihrer Neigung umzugehen. «Dazu gehört, Orte mit Kindern zu meiden.» Auch andere Mitglieder des Komitees sehen die Verhältnismässigkeit gewahrt. Das lebenslange Berufs- und Tätigkeitsverbot betreffe lediglich Tätigkeiten mit Kindern und abhängigen Personen, sagte Ständerätin Brigitte Häberli-Koller (CVP/TG). Verurteilten Straftätern werde es auch in Zukunft möglich sein, einer beruflichen Tätigkeit nachzugehen. Auch der ehemalige Tessiner Staatsanwalt Paolo Bernasconi sieht die Verhältnismässigkeit gewahrt. Auf der einen Seite stehe das Berufsverbot in einem beschränkten Bereich, auf der anderen der Schutz von Kindern vor schwersten Eingriffen. «Ich sehe nicht, wo das Problem liegt,» sagte der Anwalt. Bundesverfassung Art. 123c (neu) «Personen, die verurteilt werden, weil sie die sexuelle Unversehrtheit eines Kindes oder einer abhängigen Person beeinträchtigt haben, verlieren endgültig das Recht, eine berufliche oder ehrenamtliche Tätigkeit mit Minderjährigen oder Abhängigen auszuüben.» Nach Ansicht des Bundesrats liegt das Problem bei leichten Delikten, wenn feststeht, dass vom Täter keine Gefahr für Kinder ausgeht. Der 20-Jährige etwa, der eine einvernehmliche Liebesbeziehung mit einer 15-Jährigen hat, dürfte im Fall einer Verurteilung nie mehr als Lehrer oder Fussballtrainer arbeiten. «Die Initianten wollen solche Fälle explizit nicht erfassen», sagte Nationalrätin Natalie Rickli (SVP/ZH). Das könne im Ausführungsgesetz entsprechend geregelt werden. Das überparteiliche Komitee legte auch gleich einen ausformulierten Text vor: Dieser sieht vor, dass von einem lebenslangen Berufs- oder Tätigkeitsverbot abgesehen werden kann, wenn dieses unverhältnismässig wäre. Damit wäre der Verhältnismässigkeit in der Umsetzung Genüge getan. Ob der Verfassungsartikel so umgesetzt werden kann, ist jedoch offen. Laut Justizministerin Simonetta Sommaruga lässt der eindeutige Wortlaut des Verfassungsartikels keinen Spielraum für Relativierungen. Der Bundesrat lehnt die Initiative auch darum ab, weil das Anliegen seiner Meinung nach schon im Gesetz umgesetzt ist. Das Parlament hat in der Wintersession eine Revision des Strafgesetzbuchs beschlossen, die ebenfalls ein Berufs- und Tätigkeitsverbot für Sexual- und Gewaltstraftäter vorsieht. Dieses kann lebenslänglich ausgesprochen werden. Auch Kontakt- oder Rayonverbote können verhängt werden. Die Bestimmungen treten voraussichtlich Anfang 2015 in Kraft. Für die Befürworter der Initiative ist dies jedoch zu schwammig. Sie befürchten, dass die unbestimmten Rechtsbegriffe zu Gunsten der Täter ausgelegt werden könnten. Die Initiative hingegen sei klar formuliert, sagte Rickli. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» der Organisation «Marche Blanche», über die am 18. Mai abgestimmt wird, war im April 2011 eingereicht worden. Im Initiativkomitee finden sich Politikerinnen und Politiker aller Parteien, darunter CVP-Präsident Christophe Darbellay (VS) und die Zürcher SP-Nationalrätin Chantal Galladé. Im Nationalrat hatten SP und Grüne die Initiative bekämpft, die SVP sprach sich dafür aus. Die Mitte-Parteien sind gespalten, die Befürworter sind jedoch in der Überzahl. Auf eine gemeinsame Abstimmungsempfehlung konnten sich die Parlamentskammern nicht einigen: Während sich der Ständerat gegen die Initiative aussprach, stimmte ihre der Nationalrat implizit zu. Der Bundesrat lehnt die Initiative ab. Tagesschau/sda/kurn;hesa</t>
+          <t>.   Für die Befürworter der «Pädophilen-Initiative» gibt es keinen «verhältnismässigen Umgang» mit pädosexuellen Straftätern. Diese sind ihrer Ansicht nach nicht heilbar und dürfen deshalb nie mehr mit Kindern oder abhängigen Personen arbeiten. 25.03.2014, 17:25 Dass Kinder besser vor Pädophilen geschützt werden müssen, ist quer durch alle politischen Lager unbestritten. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» verlangt, dass pädosexuelle Straftäter unabhängig von der Schwere der Straftat lebenslang jede Tätigkeit mit Minderjährigen oder Abhängigen verboten werden soll. Die Gegner der Initiative kritisieren aber, dass damit der rechtliche Grundsatz der Verhältnismässigkeit nicht respektiert wird. Zu diesem Punkt äusserte sich in Bern das überparteiliche Komitee für die Initiative: Bei Pädophilen dürfe es keinen Ermessensspielraum geben, sagte der parteilose Schaffhauser Ständerat Thomas Minder an der Medienkonferenz. «Es gibt keine Graustufen in dem Bereich.» Für Nationalrat Bernhard Guhl (BDP/AG) sind Pädophile nicht heilbar. Sie könnten lediglich lernen, mit ihrer Neigung umzugehen. «Dazu gehört, Orte mit Kindern zu meiden.» Auch andere Mitglieder des Komitees sehen die Verhältnismässigkeit gewahrt. Das lebenslange Berufs- und Tätigkeitsverbot betreffe lediglich Tätigkeiten mit Kindern und abhängigen Personen, sagte Ständerätin Brigitte Häberli-Koller (CVP/TG). Verurteilten Straftätern werde es auch in Zukunft möglich sein, einer beruflichen Tätigkeit nachzugehen. Auch der ehemalige Tessiner Staatsanwalt Paolo Bernasconi sieht die Verhältnismässigkeit gewahrt. Auf der einen Seite stehe das Berufsverbot in einem beschränkten Bereich, auf der anderen der Schutz von Kindern vor schwersten Eingriffen. «Ich sehe nicht, wo das Problem liegt,» sagte der Anwalt. Bundesverfassung Art. 123c (neu) «Personen, die verurteilt werden, weil sie die sexuelle Unversehrtheit eines Kindes oder einer abhängigen Person beeinträchtigt haben, verlieren endgültig das Recht, eine berufliche oder ehrenamtliche Tätigkeit mit Minderjährigen oder Abhängigen auszuüben.» Nach Ansicht des Bundesrats liegt das Problem bei leichten Delikten, wenn feststeht, dass vom Täter keine Gefahr für Kinder ausgeht. Der 20-Jährige etwa, der eine einvernehmliche Liebesbeziehung mit einer 15-Jährigen hat, dürfte im Fall einer Verurteilung nie mehr als Lehrer oder Fussballtrainer arbeiten. «Die Initianten wollen solche Fälle explizit nicht erfassen», sagte Nationalrätin Natalie Rickli (SVP/ZH). Das könne im Ausführungsgesetz entsprechend geregelt werden. Das überparteiliche Komitee legte auch gleich einen ausformulierten Text vor: Dieser sieht vor, dass von einem lebenslangen Berufs- oder Tätigkeitsverbot abgesehen werden kann, wenn dieses unverhältnismässig wäre. Damit wäre der Verhältnismässigkeit in der Umsetzung Genüge getan. Ob der Verfassungsartikel so umgesetzt werden kann, ist jedoch offen. Laut Justizministerin Simonetta Sommaruga lässt der eindeutige Wortlaut des Verfassungsartikels keinen Spielraum für Relativierungen. Der Bundesrat lehnt die Initiative auch darum ab, weil das Anliegen seiner Meinung nach schon im Gesetz umgesetzt ist. Das Parlament hat in der Wintersession eine Revision des Strafgesetzbuchs beschlossen, die ebenfalls ein Berufs- und Tätigkeitsverbot für Sexual- und Gewaltstraftäter vorsieht. Dieses kann lebenslänglich ausgesprochen werden. Auch Kontakt- oder Rayonverbote können verhängt werden. Die Bestimmungen treten voraussichtlich Anfang 2015 in Kraft. Für die Befürworter der Initiative ist dies jedoch zu schwammig. Sie befürchten, dass die unbestimmten Rechtsbegriffe zu Gunsten der Täter ausgelegt werden könnten. Die Initiative hingegen sei klar formuliert, sagte Rickli. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» der Organisation «Marche Blanche», über die am 18. Mai abgestimmt wird, war im April 2011 eingereicht worden. Im Initiativkomitee finden sich Politikerinnen und Politiker aller Parteien, darunter CVP-Präsident Christophe Darbellay (VS) und die Zürcher SP-Nationalrätin Chantal Galladé. Im Nationalrat hatten SP und Grüne die Initiative bekämpft, die SVP sprach sich dafür aus. Die Mitte-Parteien sind gespalten, die Befürworter sind jedoch in der Überzahl. Auf eine gemeinsame Abstimmungsempfehlung konnten sich die Parlamentskammern nicht einigen: Während sich der Ständerat gegen die Initiative aussprach, stimmte ihre der Nationalrat implizit zu. Der Bundesrat lehnt die Initiative ab. Tagesschau/sda/kurn;hesa 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1181,8 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua</t>
+          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1224,8 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland</t>
+          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1267,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Die Initianten bezeichnen den Umsetzungsvorschlag zur Pädophilen-Initiative als «skandalös». Und auch die Gegner wollen nicht um jeden Preis eine weiche Umsetzung erzwingen. Natalie Rickli (SVP) spricht von einer Missachtung des Volkswillens. Vor einem Jahr haben die Schweizer Stimmbürger die Pädophilen-Initiative mit über 63 Prozent Ja-Stimmen angenommen. Am Mittwoch nun präsentierte Justizministerin Simonetta Sommaruga zwei mögliche Umsetzungsvarianten: Beide sehen grundsätzlich ein lebenslängliches Berufsverbot für verurteilte Pädophile vor. Während sich ein Vorschlag eng an den Wortlaut der Initiative hält, sind in der vom Bundesrat favorisierten Variante jedoch in «leichten Fällen» Ausnahmen möglich. In beiden Varianten soll das Berufsverbot zudem nach einer gewissen Dauer auf Gesuch hin überprüft und unter bestimmten Voraussetzungen aufgehoben werden können. Die Initianten sind enttäuscht. «Der Volkswille wird missachtet», kritisiert SVP-Nationalrätin Natalie Rickli. «Die Initiative sagt glasklar: Verurteilte Pädophile sollen nicht mehr mit Kindern arbeiten.» Es sei «skandalös», dass der Bundesrat diese zentrale Forderung nicht berücksichtige. Auch CVP-Ständerätin Brigitte Häberli-Koller sagt: «Ein verurteilter Täter kann hundert andere Berufe ausüben. Es gibt keinen Grund, weshalb er unbedingt wieder mit Kindern arbeiten muss.» Deshalb sei eine Überprüfung des Berufsverbots nicht angezeigt. Auch die vom Bundesrat vorgesehene Härtefallklausel für «leichte Fälle» bereite ihr Bauchschmerzen: «Die Richter haben damit einen riesigen Spielraum, um in allen möglichen Fällen auf ein Tätigkeitsverbot zu verzichten.» Initiativgegner Andrea Caroni (FDP) widerspricht. Wie Bundesrätin Sommaruga betont auch er, dass eine wortgetreue Umsetzung gegen fundamentale rechtsstaatliche Grundsätze verstossen würde. Es sei nicht verhältnismässig, wenn ein 20-Jähriger automatisch mit einem Berufsverbot belegt werde, wenn er mit seiner 15-jährigen Freundin Sex hatte. Ein weiteres Beispiel sei die Kioskfrau, die einem Teenager ein Sexheftli verkaufe. «Auch sie müsste ohne Ausnahmeregelung mit einem Berufsverbot belegt werden.» Natalie Rickli sagt, die Initiative ziele keinesfalls auf Jugendlieben ab. «Um das zu vermeiden, braucht es aber keine generelle Härtefallklausel.» Es reiche, wenn die Richter für diese spezifischen Fälle einen gewissen Ermessensspielraum hätten. Das Beispiel der Kioskfrau dagegen mutet aus Ricklis Sicht absurd an. Sie habe noch nie gehört, dass in einem solchen Fall jemand verurteilt worden wäre. «Es ist bedenklich, wenn solche Argumente benutzt werden, um den Volkswillen zu umgehen – insbesondere, weil es um den Schutz von Kindern geht.» Caroni befürchtet, dass dieses Argument bei einer weichen Umsetzung der Initiative immer wieder auftauchen wird. Auch er ist nicht glücklich mit der Situation, obwohl er den Vorschlag des Bundesrats inhaltlich unterstützt: «Als Freund des Rechtsstaates und Demokrat zerreisst es mich: Auf der einen Seite haben wir einen starren und unverhältnismässigen Verfassungstext, auf der anderen Seite einen Volkswillen, den es zu respektieren gilt.» Resigniert sagt der studierte Jurist: «Ich habe mit aller Kraft gegen die Initiative gekämpft. Eigentlich habe ich keine Lust, für die Initianten die Kohlen aus dem Feuer zu holen.» Vielleicht sei es das Beste, man setze die Initiative wirklich wortgetreu um und warte dann auf das erste «unfaire» Urteil. «Dann lernen die Leute auf die harte Tour, was es bedeutet, rechtsstaatliche Prinzipien über Bord zu werfen.» Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Initianten bezeichnen den Umsetzungsvorschlag zur Pädophilen-Initiative als «skandalös». Und auch die Gegner wollen nicht um jeden Preis eine weiche Umsetzung erzwingen. Natalie Rickli (SVP) spricht von einer Missachtung des Volkswillens. Vor einem Jahr haben die Schweizer Stimmbürger die Pädophilen-Initiative mit über 63 Prozent Ja-Stimmen angenommen. Am Mittwoch nun präsentierte Justizministerin Simonetta Sommaruga zwei mögliche Umsetzungsvarianten: Beide sehen grundsätzlich ein lebenslängliches Berufsverbot für verurteilte Pädophile vor. Während sich ein Vorschlag eng an den Wortlaut der Initiative hält, sind in der vom Bundesrat favorisierten Variante jedoch in «leichten Fällen» Ausnahmen möglich. In beiden Varianten soll das Berufsverbot zudem nach einer gewissen Dauer auf Gesuch hin überprüft und unter bestimmten Voraussetzungen aufgehoben werden können. Die Initianten sind enttäuscht. «Der Volkswille wird missachtet», kritisiert SVP-Nationalrätin Natalie Rickli. «Die Initiative sagt glasklar: Verurteilte Pädophile sollen nicht mehr mit Kindern arbeiten.» Es sei «skandalös», dass der Bundesrat diese zentrale Forderung nicht berücksichtige. Auch CVP-Ständerätin Brigitte Häberli-Koller sagt: «Ein verurteilter Täter kann hundert andere Berufe ausüben. Es gibt keinen Grund, weshalb er unbedingt wieder mit Kindern arbeiten muss.» Deshalb sei eine Überprüfung des Berufsverbots nicht angezeigt. Auch die vom Bundesrat vorgesehene Härtefallklausel für «leichte Fälle» bereite ihr Bauchschmerzen: «Die Richter haben damit einen riesigen Spielraum, um in allen möglichen Fällen auf ein Tätigkeitsverbot zu verzichten.» Initiativgegner Andrea Caroni (FDP) widerspricht. Wie Bundesrätin Sommaruga betont auch er, dass eine wortgetreue Umsetzung gegen fundamentale rechtsstaatliche Grundsätze verstossen würde. Es sei nicht verhältnismässig, wenn ein 20-Jähriger automatisch mit einem Berufsverbot belegt werde, wenn er mit seiner 15-jährigen Freundin Sex hatte. Ein weiteres Beispiel sei die Kioskfrau, die einem Teenager ein Sexheftli verkaufe. «Auch sie müsste ohne Ausnahmeregelung mit einem Berufsverbot belegt werden.» Natalie Rickli sagt, die Initiative ziele keinesfalls auf Jugendlieben ab. «Um das zu vermeiden, braucht es aber keine generelle Härtefallklausel.» Es reiche, wenn die Richter für diese spezifischen Fälle einen gewissen Ermessensspielraum hätten. Das Beispiel der Kioskfrau dagegen mutet aus Ricklis Sicht absurd an. Sie habe noch nie gehört, dass in einem solchen Fall jemand verurteilt worden wäre. «Es ist bedenklich, wenn solche Argumente benutzt werden, um den Volkswillen zu umgehen – insbesondere, weil es um den Schutz von Kindern geht.» Caroni befürchtet, dass dieses Argument bei einer weichen Umsetzung der Initiative immer wieder auftauchen wird. Auch er ist nicht glücklich mit der Situation, obwohl er den Vorschlag des Bundesrats inhaltlich unterstützt: «Als Freund des Rechtsstaates und Demokrat zerreisst es mich: Auf der einen Seite haben wir einen starren und unverhältnismässigen Verfassungstext, auf der anderen Seite einen Volkswillen, den es zu respektieren gilt.» Resigniert sagt der studierte Jurist: «Ich habe mit aller Kraft gegen die Initiative gekämpft. Eigentlich habe ich keine Lust, für die Initianten die Kohlen aus dem Feuer zu holen.» Vielleicht sei es das Beste, man setze die Initiative wirklich wortgetreu um und warte dann auf das erste «unfaire» Urteil. «Dann lernen die Leute auf die harte Tour, was es bedeutet, rechtsstaatliche Prinzipien über Bord zu werfen.»</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1462,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Wird die Erbschaftssteuerreform angenommen, könnten Tausende Arbeitsplätze verloren gehen, zeigt eine neue Studie. Die Initianten widersprechen. 12'000 Arbeitsplätze würden wegen der Erbschaftssteuer pro Jahr verloren gehen, zeigt eine neue Studie der Universität St. Gallen auf. Auch käme es zu einem Rückgang der Bruttoanlageinvestitionen von rund 5 Prozent. Die Studie wurde von der Unternehmergruppe Nein zur Bundeserbschaftssteuer und dem Verein für den Erhalt der Schweizer KMU in Auftrag gegeben. Durch die Erbschaftssteuer würden flüssige Mittel aus den Unternehmen abfliessen. Andererseits würde sich der langfristig denkende Unternehmer auf den Erbfall vorbereiten und Rückstellungen tätigen, damit im Erbfall die Steuer bezahlt werden könnte. «Diese beiden Faktoren wirken sich negativ auf die Investitionstätigkeit und damit die Wettbewerbsfähigkeit des Unternehmens aus», sagt der Studienverfasser Franz Jäger. Die Folge seien eine schwächere Wirtschaft und weniger Arbeitsplätze. Sein Fazit: «Für die Unterstützung der AHV wird ein hoher volkswirtschaftlicher Preis gezahlt, der sich langfristig über tiefere Beitragszahlungen sogar negativ auf die AHV auswirken kann.» Die Initiative helfe nicht, die AHV nachhaltig zu sanieren. Dem widerspricht Andreas Käsermann, Kampagnenleiter der Erbschaftssteuerreform. «KMU und Familienunternehmen sollen mit einem Freibetrag von 50 Millionen Franken geschont werden.» Deshalb sei auch kein Arbeitsplatzverlust zu befürchten. Den Freibetrag habe man bewusst nicht im Initiativtext aufgeführt, da man sich nicht auf eine bestimmte Summe festlegen könne. Dieser könne schliesslich teuerungsbedingt in zwanzig Jahren völlig anders ausfallen. Käsermann bekräftigt: «Wir wollen nicht die Wirtschaft schwächen oder Arbeitsplätze gefährden – auch wenn unsere politischen Gegner das behaupten.» Ziel der Initiative sei eine Gesellschaft, die auf mehr Gleichheit basiere. Ausserdem würde die Steuer über die AHV auch der Allgemeinheit zugute kommen. Berechnungen der Universität St. Gallen – basierend auf den Daten der Eidgenössischen Finanzverwaltung – haben gezeigt, dass in der Schweiz so viel vererbt wird wie noch nie. Das Gesamtvolumen der Schenkungen und Erbschaften ist seit dem Jahr 2000 von knapp 35 Milliarden Franken auf über 47 Milliarden Franken im Jahr 2013 gewachsen – ein Plus von 36 Prozent. Nun aber soll es den vom plötzlichen Geldregen Gesegneten an den Kragen gehen. Im Juni stimmen die Schweizer Bürger über die Erbschaftssteuer-Initiative ab. Diese sieht eine Steuer von 20 Prozent auf grosse Vermögen von über 2 Millionen. Wer ohne eigenes Zutun Millionen- oder Milliardenvermögen erbe, solle auch Steuern bezahlen, finden die Initianten. So würde die «ungleiche Vermögensverteilung etwas ausgeglichen». Von den geschätzten Erträgen sollen 2 Milliarden in die AHV fliessen, eine Milliarde soll an die Kantone gehen. Somit würden laut den Initianten «Leute mit normalen Einkommen» und KMU entlastet. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Wird die Erbschaftssteuerreform angenommen, könnten Tausende Arbeitsplätze verloren gehen, zeigt eine neue Studie. Die Initianten widersprechen. 12'000 Arbeitsplätze würden wegen der Erbschaftssteuer pro Jahr verloren gehen, zeigt eine neue Studie der Universität St. Gallen auf. Auch käme es zu einem Rückgang der Bruttoanlageinvestitionen von rund 5 Prozent. Die Studie wurde von der Unternehmergruppe Nein zur Bundeserbschaftssteuer und dem Verein für den Erhalt der Schweizer KMU in Auftrag gegeben. Durch die Erbschaftssteuer würden flüssige Mittel aus den Unternehmen abfliessen. Andererseits würde sich der langfristig denkende Unternehmer auf den Erbfall vorbereiten und Rückstellungen tätigen, damit im Erbfall die Steuer bezahlt werden könnte. «Diese beiden Faktoren wirken sich negativ auf die Investitionstätigkeit und damit die Wettbewerbsfähigkeit des Unternehmens aus», sagt der Studienverfasser Franz Jäger. Die Folge seien eine schwächere Wirtschaft und weniger Arbeitsplätze. Sein Fazit: «Für die Unterstützung der AHV wird ein hoher volkswirtschaftlicher Preis gezahlt, der sich langfristig über tiefere Beitragszahlungen sogar negativ auf die AHV auswirken kann.» Die Initiative helfe nicht, die AHV nachhaltig zu sanieren. Dem widerspricht Andreas Käsermann, Kampagnenleiter der Erbschaftssteuerreform. «KMU und Familienunternehmen sollen mit einem Freibetrag von 50 Millionen Franken geschont werden.» Deshalb sei auch kein Arbeitsplatzverlust zu befürchten. Den Freibetrag habe man bewusst nicht im Initiativtext aufgeführt, da man sich nicht auf eine bestimmte Summe festlegen könne. Dieser könne schliesslich teuerungsbedingt in zwanzig Jahren völlig anders ausfallen. Käsermann bekräftigt: «Wir wollen nicht die Wirtschaft schwächen oder Arbeitsplätze gefährden – auch wenn unsere politischen Gegner das behaupten.» Ziel der Initiative sei eine Gesellschaft, die auf mehr Gleichheit basiere. Ausserdem würde die Steuer über die AHV auch der Allgemeinheit zugute kommen. Berechnungen der Universität St. Gallen – basierend auf den Daten der Eidgenössischen Finanzverwaltung – haben gezeigt, dass in der Schweiz so viel vererbt wird wie noch nie. Das Gesamtvolumen der Schenkungen und Erbschaften ist seit dem Jahr 2000 von knapp 35 Milliarden Franken auf über 47 Milliarden Franken im Jahr 2013 gewachsen – ein Plus von 36 Prozent. Nun aber soll es den vom plötzlichen Geldregen Gesegneten an den Kragen gehen. Im Juni stimmen die Schweizer Bürger über die Erbschaftssteuer-Initiative ab. Diese sieht eine Steuer von 20 Prozent auf grosse Vermögen von über 2 Millionen. Wer ohne eigenes Zutun Millionen- oder Milliardenvermögen erbe, solle auch Steuern bezahlen, finden die Initianten. So würde die «ungleiche Vermögensverteilung etwas ausgeglichen». Von den geschätzten Erträgen sollen 2 Milliarden in die AHV fliessen, eine Milliarde soll an die Kantone gehen. Somit würden laut den Initianten «Leute mit normalen Einkommen» und KMU entlastet.</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1542,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Weil er die Erbschaftssteuer als Nachteil im nationalen und internationalen Steuerwettbewerb sieht, lehnt der Bundesrat die Volksinitiative dazu ab. Eine nationale Erbschaftssteuer würde dem Bund Geld einbringen. Trotzdem lehnt der Bundesrat die Initiative für eine solche Steuer ab. Finanzministerin Eveline Widmer-Schlumpf hat am Dienstag dargelegt, was dagegen spricht - insbesondere die Steuerhoheit der Kantone. Die Volksinitiative «Millionen-Erbschaften besteuern für unsere AHV» (Erbschaftssteuerreform), über die das Stimmvolk am 14. Juni entscheidet, fordert eine Bundessteuer von 20 Prozent auf Erbschaften und Schenkungen. Der Ertrag soll zu zwei Dritteln an die AHV und zu einem Drittel an die Kantone fliessen. Erbschaften und steuerpflichtige Schenkungen bis 2 Millionen Franken und Geschenke bis 20'000 Franken pro Jahr und beschenkte Person wären steuerfrei. Auch Ehegatten müssten die Steuer nicht bezahlen. Der Bundesrat geht davon aus, dass bei diesen Limiten nur eine Minderheit der steuerpflichtigen Personen betroffen wäre. Aus seiner Sicht würde ein Ja zur Initiative jedoch die Finanzhoheit der Kantone einschränken. Es handle sich um eine traditionelle Kompetenz der Kantone, sagte Widmer-Schlumpf vor den Medien. Auch Peter Hegglin, der Präsident der kantonalen Finanzdirektoren, rückte diesen Aspekt in den Vordergrund. Er sprach von einer «Aushöhlung des Föderalismus», den die Kantone entschieden ablehnten. Das heutige System sichere eine differenzierte Besteuerung. Dass die Kantone die Erbschaftssteuern abgeschafft hätten, sei ein Missverständnis. Tatsächlich werden heute ausser im Kanton Schwyz überall Erbschaftssteuern erhoben, doch sind die direkten Nachkommen fast überall steuerbefreit. Künftig würden sie gleich behandelt wie nicht verwandte Erben. Dies sei problematisch, wenn man bedenke, dass Nachkommen Unterstützungspflichten hätten, sagte Widmer-Schlumpf. Angst vor dem Wegzug Reicher Aus Sicht des Bundesrats und der Kantone würde eine nationale Erbschaftssteuer ausserdem die Position der Schweiz im internationalen Steuerwettbewerb schwächen. Zwar sei es schwierig vorauszusehen, ob Vermögende ins Ausland ziehen und Unternehmen abwandern würden, räumte Widmer-Schlumpf ein. Mit einer «gewissen Dynamik» wäre aber zu rechnen. Hegglin fügte an, der Standort Schweiz sollte nicht «ohne äusseren Druck weiter gefährdet werden». Schliesslich könnte eine Annahme der Initiative laut dem Bundesrat in Familienbetrieben die Regelung der Nachfolge erschweren. Die Erbschaftssteuer könnte diesen Betrieben beim Generationenwechsel finanzielle Mittel entziehen, die sonst im Interesse der Unternehmen und der Wirtschaft eingesetzt würden. Die Initiative sehe zwar Steuerermässigungen für Unternehmen und Landwirtschaftsbetriebe vor, sagte Widmer-Schlumpf. Sie lasse aber offen, wie hoch diese ausfallen müssten. Zudem setze sie voraus, dass die Erbinnen und Erben den Betrieb mindestens zehn Jahre weiterführten. Die Details dazu müsste der Gesetzgeber regeln. «Die Diskussionen dazu könnten noch schwierig werden», sagte die Finanzministerin. Der Bundesrat schätzt, dass eine Erbschaftssteuer auf Bundesebene rund 3 Milliarden Franken einbringen könnte. Werden Steuerermässigungen für Unternehmen und Landwirtschaftsbetriebe berücksichtigt, fielen die Einnahmen allerdings geringer aus. Der Anteil der Kantone dürfte nach Schätzung des Bundes unter dem Betrag liegen, den die heutigen kantonalen Steuern einbringen. Heute fallen bei den Kantonen und Gemeinden insgesamt rund 900 Millionen Franken an Erbschafts- und Schenkungssteuern an. Keine Rettung für die AHV Dass Geld in die Kasse der AHV flösse, ist für Widmer-Schlumpf auch kein Grund für ein Ja zur Initiative. «Natürlich wäre es schön», sagte sie. Die künftigen Finanzierungsprobleme der AHV könnten damit aber nicht gelöst werden. Der Bundesrat wolle eine dauerhafte und nachhaltige Finanzierung der AHV. Zu den «Konstruktionsfehlern» der Initiative gehört für Widmer-Schlumpf und Hegglin auch eine gewisse Ungleichbehandlung. Da der Nachlass vor einer allfälligen Aufteilung besteuert werden müsste, würden bei einem Betrag von 2 Millionen Franken keine Steuern anfallen, wenn es nur einen Erben gibt. Bei 2,1 Millionen und vier Erben würde die Steuer dagegen erhoben. Die Initianten wollen mit der Erbschaftssteuer nicht zuletzt die Konzentration grosser Vermögen in wenigen Händen vermindern. Die Finanzministerin stellt nicht in Abrede, dass die Konzentration stark zugenommen hat. Sie weist aber darauf hin, dass das Vermögen durch die Vermögenssteuer belastet werde. (sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Weil er die Erbschaftssteuer als Nachteil im nationalen und internationalen Steuerwettbewerb sieht, lehnt der Bundesrat die Volksinitiative dazu ab. Eine nationale Erbschaftssteuer würde dem Bund Geld einbringen. Trotzdem lehnt der Bundesrat die Initiative für eine solche Steuer ab. Finanzministerin Eveline Widmer-Schlumpf hat am Dienstag dargelegt, was dagegen spricht - insbesondere die Steuerhoheit der Kantone. Die Volksinitiative «Millionen-Erbschaften besteuern für unsere AHV» (Erbschaftssteuerreform), über die das Stimmvolk am 14. Juni entscheidet, fordert eine Bundessteuer von 20 Prozent auf Erbschaften und Schenkungen. Der Ertrag soll zu zwei Dritteln an die AHV und zu einem Drittel an die Kantone fliessen. Erbschaften und steuerpflichtige Schenkungen bis 2 Millionen Franken und Geschenke bis 20'000 Franken pro Jahr und beschenkte Person wären steuerfrei. Auch Ehegatten müssten die Steuer nicht bezahlen. Der Bundesrat geht davon aus, dass bei diesen Limiten nur eine Minderheit der steuerpflichtigen Personen betroffen wäre. Aus seiner Sicht würde ein Ja zur Initiative jedoch die Finanzhoheit der Kantone einschränken. Es handle sich um eine traditionelle Kompetenz der Kantone, sagte Widmer-Schlumpf vor den Medien. Auch Peter Hegglin, der Präsident der kantonalen Finanzdirektoren, rückte diesen Aspekt in den Vordergrund. Er sprach von einer «Aushöhlung des Föderalismus», den die Kantone entschieden ablehnten. Das heutige System sichere eine differenzierte Besteuerung. Dass die Kantone die Erbschaftssteuern abgeschafft hätten, sei ein Missverständnis. Tatsächlich werden heute ausser im Kanton Schwyz überall Erbschaftssteuern erhoben, doch sind die direkten Nachkommen fast überall steuerbefreit. Künftig würden sie gleich behandelt wie nicht verwandte Erben. Dies sei problematisch, wenn man bedenke, dass Nachkommen Unterstützungspflichten hätten, sagte Widmer-Schlumpf. Angst vor dem Wegzug Reicher Aus Sicht des Bundesrats und der Kantone würde eine nationale Erbschaftssteuer ausserdem die Position der Schweiz im internationalen Steuerwettbewerb schwächen. Zwar sei es schwierig vorauszusehen, ob Vermögende ins Ausland ziehen und Unternehmen abwandern würden, räumte Widmer-Schlumpf ein. Mit einer «gewissen Dynamik» wäre aber zu rechnen. Hegglin fügte an, der Standort Schweiz sollte nicht «ohne äusseren Druck weiter gefährdet werden». Schliesslich könnte eine Annahme der Initiative laut dem Bundesrat in Familienbetrieben die Regelung der Nachfolge erschweren. Die Erbschaftssteuer könnte diesen Betrieben beim Generationenwechsel finanzielle Mittel entziehen, die sonst im Interesse der Unternehmen und der Wirtschaft eingesetzt würden. Die Initiative sehe zwar Steuerermässigungen für Unternehmen und Landwirtschaftsbetriebe vor, sagte Widmer-Schlumpf. Sie lasse aber offen, wie hoch diese ausfallen müssten. Zudem setze sie voraus, dass die Erbinnen und Erben den Betrieb mindestens zehn Jahre weiterführten. Die Details dazu müsste der Gesetzgeber regeln. «Die Diskussionen dazu könnten noch schwierig werden», sagte die Finanzministerin. Der Bundesrat schätzt, dass eine Erbschaftssteuer auf Bundesebene rund 3 Milliarden Franken einbringen könnte. Werden Steuerermässigungen für Unternehmen und Landwirtschaftsbetriebe berücksichtigt, fielen die Einnahmen allerdings geringer aus. Der Anteil der Kantone dürfte nach Schätzung des Bundes unter dem Betrag liegen, den die heutigen kantonalen Steuern einbringen. Heute fallen bei den Kantonen und Gemeinden insgesamt rund 900 Millionen Franken an Erbschafts- und Schenkungssteuern an. Keine Rettung für die AHV Dass Geld in die Kasse der AHV flösse, ist für Widmer-Schlumpf auch kein Grund für ein Ja zur Initiative. «Natürlich wäre es schön», sagte sie. Die künftigen Finanzierungsprobleme der AHV könnten damit aber nicht gelöst werden. Der Bundesrat wolle eine dauerhafte und nachhaltige Finanzierung der AHV. Zu den «Konstruktionsfehlern» der Initiative gehört für Widmer-Schlumpf und Hegglin auch eine gewisse Ungleichbehandlung. Da der Nachlass vor einer allfälligen Aufteilung besteuert werden müsste, würden bei einem Betrag von 2 Millionen Franken keine Steuern anfallen, wenn es nur einen Erben gibt. Bei 2,1 Millionen und vier Erben würde die Steuer dagegen erhoben. Die Initianten wollen mit der Erbschaftssteuer nicht zuletzt die Konzentration grosser Vermögen in wenigen Händen vermindern. Die Finanzministerin stellt nicht in Abrede, dass die Konzentration stark zugenommen hat. Sie weist aber darauf hin, dass das Vermögen durch die Vermögenssteuer belastet werde.</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1584,8 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr</t>
+          <t>.   Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1627,8 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International</t>
+          <t>.   An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1767,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bei der Abstimmung vom 4. März über die No-Billag-Initiative zeichnet sich ein Trend ab. Das Nein-Lager liegt gemäss jetzigen Umfrageergebnissen vorne. Auch Mike Müller und Viktor Giacobbo gaben ein ganz kurzes Comeback, um die No-Billag-Initiative auf die Schippe zu nehmen. (Video: Nein zum Sendeschluss) Die No-Billag-Initiative würde derzeit vom Stimmvolk klar abgelehnt. In einer Umfrage des Forschungsinstituts gfs.bern würden 60 Prozent ein Nein in die Urne legen. In einer anderen Umfrage liegt die Ablehnung nur bei 51,4 Prozent. 38 Prozent jener, die abstimmen gehen wollen, würden die Initiative annehmen, wie das gfs.bern zu der im Auftrag der SRG durchgeführten Umfrage mitteilte. Die genannten Werte decken sich jedoch nicht mit der Wahrnehmung der Umfrageteilnehmer: Sie gingen davon aus, dass die Initiative nur hauchdünn abgelehnt wird. Matter im Gespräch nach der SRF-Jahresmedienkonferenz.(Quelle: Tamedia/Webvideo) Ruedi Matter im Gespräch nach der SRF-Jahresmedienkonferenz.(Quelle: Tamedia/Webvideo) Die Meinungen sind indes bereits ziemlich gefestigt – 74 Prozent äusserten sich dezidiert (48 Prozent davon Nein, 26 Prozent Ja). Damit ist gemäss gfs die Meinungsbildung überdurchschnittlich weit fortgeschritten. Dies schränke die Möglichkeiten eines Meinungswandels in den nächsten Wochen zwar ein, unmöglich seien Veränderungen jedoch nicht. An den Umfragewerten lässt sich die parteipolitische Polarisierung ablesen: Je weiter politisch rechts, desto höher ist die Zustimmung der Initiative, wie es weiter heisst. Erst im Umfeld der SVP ist die Initiative jedoch mehrheitsfähig. Bei ihr ist die Sympathie am höchsten; die Anhänger der Grünen machen den grössten Anteil bei der Ablehnung aus. Demographisch gesehen würde die Initiative eher in der lateinischen Schweiz, von den über 30-Jährigen und den Menschen mit mittlerem Einkommen abgelehnt. Die 18 bis 30-Jährigen äusserten sich mehrheitlich für die Initiative. Bei der Ablehnung sind laut der Umfrage zwei Argumente mehrheitsfähig: die Gebühren für die Unternehmen sowie, dass die SRG sparen muss. Die Befürworter können derweil mit vier mehrheitsfähigen Botschaften aufwarten, so zum Beispiel mit der Furcht vor der Abhängigkeit von privaten Geldgebern oder mit der Qualität des Mediensystems, die bei einer Annahme nicht aufrechterhalten werden könne. An der ersten Trendbefragung des gfs zur Abstimmung vom 4. März sind zwischen dem 8. und dem 18. Januar 1201 repräsentativ ausgewählte Stimmberechtigten befragt worden. Ebenfalls einen Nein-Trend, allerdings einen knappen, zeigt die dritte Umfrage des Marktforschungsinstituts marketagent.com. Würde am nächsten Wochenende abgestimmt werden, hätten sich 51,4 Prozent der Stimmwilligen gegen die Initiative ausgesprochen, teilte das Institut am Donnerstag mit. 40,9 Prozent würden sie befürworten, 7,7 Prozent zeigten sich noch unentschlossen. Bei der Online-Umfrage gibt es keinen Unterschied zwischen der Deutsch- und der Westschweiz. Am grössten ist die Ablehnung bei den 66- bis 75-Jährigen mit 65,1 Prozent. In dieser Umfrage erzielt die Initiative zudem nicht einmal bei den 18- bis 29-Jährigen eine Mehrheit: 49,3 Prozent lehnen sie ab, 45,1 Prozent stimmen ihr zu. Die beiden bisherigen marketagent-Umfragewellen von Ende letzten Jahres hatten noch eine Zustimmung zur Initiative ergeben. Für die dritte Erhebung befragte das Institut mittels Online-Interviews zwischen dem 12. und dem 22. Januar 1233 stimmberechtigte Schweizerinnen und Schweizer im Alter von 18 bis 75 Jahren. Davon gaben 800 an, an der Abstimmung vom 4. März teilnehmen zu wollen. (sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Bei der Abstimmung vom 4. März über die No-Billag-Initiative zeichnet sich ein Trend ab. Das Nein-Lager liegt gemäss jetzigen Umfrageergebnissen vorne. Auch Mike Müller und Viktor Giacobbo gaben ein ganz kurzes Comeback, um die No-Billag-Initiative auf die Schippe zu nehmen. (Video: Nein zum Sendeschluss) Die No-Billag-Initiative würde derzeit vom Stimmvolk klar abgelehnt. In einer Umfrage des Forschungsinstituts gfs.bern würden 60 Prozent ein Nein in die Urne legen. In einer anderen Umfrage liegt die Ablehnung nur bei 51,4 Prozent. 38 Prozent jener, die abstimmen gehen wollen, würden die Initiative annehmen, wie das gfs.bern zu der im Auftrag der SRG durchgeführten Umfrage mitteilte. Die genannten Werte decken sich jedoch nicht mit der Wahrnehmung der Umfrageteilnehmer: Sie gingen davon aus, dass die Initiative nur hauchdünn abgelehnt wird. Matter im Gespräch nach der SRF-Jahresmedienkonferenz.(Quelle: Tamedia/Webvideo) Ruedi Matter im Gespräch nach der SRF-Jahresmedienkonferenz.(Quelle: Tamedia/Webvideo) Die Meinungen sind indes bereits ziemlich gefestigt – 74 Prozent äusserten sich dezidiert (48 Prozent davon Nein, 26 Prozent Ja). Damit ist gemäss gfs die Meinungsbildung überdurchschnittlich weit fortgeschritten. Dies schränke die Möglichkeiten eines Meinungswandels in den nächsten Wochen zwar ein, unmöglich seien Veränderungen jedoch nicht. An den Umfragewerten lässt sich die parteipolitische Polarisierung ablesen: Je weiter politisch rechts, desto höher ist die Zustimmung der Initiative, wie es weiter heisst. Erst im Umfeld der SVP ist die Initiative jedoch mehrheitsfähig. Bei ihr ist die Sympathie am höchsten; die Anhänger der Grünen machen den grössten Anteil bei der Ablehnung aus. Demographisch gesehen würde die Initiative eher in der lateinischen Schweiz, von den über 30-Jährigen und den Menschen mit mittlerem Einkommen abgelehnt. Die 18 bis 30-Jährigen äusserten sich mehrheitlich für die Initiative. Bei der Ablehnung sind laut der Umfrage zwei Argumente mehrheitsfähig: die Gebühren für die Unternehmen sowie, dass die SRG sparen muss. Die Befürworter können derweil mit vier mehrheitsfähigen Botschaften aufwarten, so zum Beispiel mit der Furcht vor der Abhängigkeit von privaten Geldgebern oder mit der Qualität des Mediensystems, die bei einer Annahme nicht aufrechterhalten werden könne. An der ersten Trendbefragung des gfs zur Abstimmung vom 4. März sind zwischen dem 8. und dem 18. Januar 1201 repräsentativ ausgewählte Stimmberechtigten befragt worden. Ebenfalls einen Nein-Trend, allerdings einen knappen, zeigt die dritte Umfrage des Marktforschungsinstituts marketagent.com. Würde am nächsten Wochenende abgestimmt werden, hätten sich 51,4 Prozent der Stimmwilligen gegen die Initiative ausgesprochen, teilte das Institut am Donnerstag mit. 40,9 Prozent würden sie befürworten, 7,7 Prozent zeigten sich noch unentschlossen. Bei der Online-Umfrage gibt es keinen Unterschied zwischen der Deutsch- und der Westschweiz. Am grössten ist die Ablehnung bei den 66- bis 75-Jährigen mit 65,1 Prozent. In dieser Umfrage erzielt die Initiative zudem nicht einmal bei den 18- bis 29-Jährigen eine Mehrheit: 49,3 Prozent lehnen sie ab, 45,1 Prozent stimmen ihr zu. Die beiden bisherigen marketagent-Umfragewellen von Ende letzten Jahres hatten noch eine Zustimmung zur Initiative ergeben. Für die dritte Erhebung befragte das Institut mittels Online-Interviews zwischen dem 12. und dem 22. Januar 1233 stimmberechtigte Schweizerinnen und Schweizer im Alter von 18 bis 75 Jahren. Davon gaben 800 an, an der Abstimmung vom 4. März teilnehmen zu wollen.</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1809,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Pünktlich zum Start der 6. Staffel des Bestatters wird Mike Müller zum Aushängeschild der Kampagne gegen No Billag. Pistole in der Hand, konzentrierter Blick: In dieser Pose ist Mike Müller auf dem ersten Kampagnensujet des Komitees «Nein zum Sendeschluss» zu sehen. Darüber ist zu lesen: «Weniger Vielfalt, ‹kein Bestatter›». Zudem wird vor der «Abschaffung von Schweizer Radio- und TV-Sendern» gewarnt. Dass Mike Müller sich pünktlich zum Beginn der 6. Staffel der beliebten Krimiserie «Der Bestatter» am 2. Januar gegen die Abschaffung der Empfangsgebühren engagiert, bezeichnet Kampagnenleiter Mark Balsiger als Glücksfall. «‹Der Bestatter› mit Mike Müller in der Hauptrolle ist ein typisch schweizerischer Krimi, der quer durch alle gesellschaftlichen Schichten gut ankommt.» Das Sujet rufe in Erinnerung, dass ein Ja zu No Billag solche Serien beerdigen würde. Dabei lasse der Initiativtext keinen Interpretationsspielraum offen. Unterhaltung gehöre laut der Bundesverfassung aber genauso zum Service-public-Auftrag wie die Information. Mike Müller sagt zu seinem Engagement, dass man über den Service public streiten solle und müsse. «Schweizerdeutsche Serien wie ‹Wilder› oder ‹Der Bestatter› lassen sich aber nur mit  Gebühren finanzieren. Private oder ausländische Anbieter können Serien für einen so kleinen Markt nicht finanzieren.» Die Frage sei also: «Wollen wir uns das leisten? Die Frage kann man mit guten Argumenten verneinen. Ich fände es schade, zugegebenermassen als Macher, aber eben auch als Zuschauer.» Die Präsidenten von SP und CVP hatten zuletzt verlangt, dass sich SRG-Mitarbeiter im Abstimmungskampf zurücknehmen. CVP-Chef Gerhard Pfister sagte in der «SonntagsZeitung»: «Die Mitarbeitenden der SRG sind viel zu offensiv.» Das Untergangsargument werde als Drohung von den Stimmbürgern nicht ernst genommen. Den Schauspieler beeindruckt das nicht. Er betont, dass er nie bei der SRG angestellt war und derzeit auch nicht als Selbständigerwerbender für den Betrieb arbeitet. «Ausserdem wird in der Schweiz nur politisch entmündigt, wer eine Strafe absitzt. Das ist bei mir derzeit nicht der Fall.» Dann stichelt er gegen die Christdemokraten: «Wenn die CVP fortan bei Geschäften zum Gesundheitswesen oder zu Rüstungsexporten in den Ausstand tritt, weil ihre National- und Ständeräte von diesen Branchen alimentiert werden, halte ich sofort die Klappe.» Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Pünktlich zum Start der 6. Staffel des Bestatters wird Mike Müller zum Aushängeschild der Kampagne gegen No Billag. Pistole in der Hand, konzentrierter Blick: In dieser Pose ist Mike Müller auf dem ersten Kampagnensujet des Komitees «Nein zum Sendeschluss» zu sehen. Darüber ist zu lesen: «Weniger Vielfalt, ‹kein Bestatter›». Zudem wird vor der «Abschaffung von Schweizer Radio- und TV-Sendern» gewarnt. Dass Mike Müller sich pünktlich zum Beginn der 6. Staffel der beliebten Krimiserie «Der Bestatter» am 2. Januar gegen die Abschaffung der Empfangsgebühren engagiert, bezeichnet Kampagnenleiter Mark Balsiger als Glücksfall. «‹Der Bestatter› mit Mike Müller in der Hauptrolle ist ein typisch schweizerischer Krimi, der quer durch alle gesellschaftlichen Schichten gut ankommt.» Das Sujet rufe in Erinnerung, dass ein Ja zu No Billag solche Serien beerdigen würde. Dabei lasse der Initiativtext keinen Interpretationsspielraum offen. Unterhaltung gehöre laut der Bundesverfassung aber genauso zum Service-public-Auftrag wie die Information. Mike Müller sagt zu seinem Engagement, dass man über den Service public streiten solle und müsse. «Schweizerdeutsche Serien wie ‹Wilder› oder ‹Der Bestatter› lassen sich aber nur mit  Gebühren finanzieren. Private oder ausländische Anbieter können Serien für einen so kleinen Markt nicht finanzieren.» Die Frage sei also: «Wollen wir uns das leisten? Die Frage kann man mit guten Argumenten verneinen. Ich fände es schade, zugegebenermassen als Macher, aber eben auch als Zuschauer.» Die Präsidenten von SP und CVP hatten zuletzt verlangt, dass sich SRG-Mitarbeiter im Abstimmungskampf zurücknehmen. CVP-Chef Gerhard Pfister sagte in der «SonntagsZeitung»: «Die Mitarbeitenden der SRG sind viel zu offensiv.» Das Untergangsargument werde als Drohung von den Stimmbürgern nicht ernst genommen. Den Schauspieler beeindruckt das nicht. Er betont, dass er nie bei der SRG angestellt war und derzeit auch nicht als Selbständigerwerbender für den Betrieb arbeitet. «Ausserdem wird in der Schweiz nur politisch entmündigt, wer eine Strafe absitzt. Das ist bei mir derzeit nicht der Fall.» Dann stichelt er gegen die Christdemokraten: «Wenn die CVP fortan bei Geschäften zum Gesundheitswesen oder zu Rüstungsexporten in den Ausstand tritt, weil ihre National- und Ständeräte von diesen Branchen alimentiert werden, halte ich sofort die Klappe.»</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1851,8 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr</t>
+          <t>.   Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1989,10 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative</t>
+          <t>.   16.10.2018, 09:24 Legende:
+                Schon fast ein seltenes Bild: Kühe mit Hörnern: Heute sind fast 90 Prozent der Kühe in der Schweiz enthornt.
+                    Keystone Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2034,8 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>In den Augen des Gegenkomitees bedeutet die SVP-Initiative eine Gefahr für die Schweiz. 04.10.2018, 11:17 Vereint gegen die «Selbstbestimmungs»-Initiative der SVP: Vertreter von Parteien, Wirtschaft und Zivilgesellschaft treten gemeinsam gegen die Initiative an. In ihren Augen bedeutet das Begehren eine Gefahr für die Schweiz. Die SVP-Volksinitiative, über die am 25. November abgestimmt wird, habe nicht Selbstbestimmung zur Folge, sondern Rechtsunsicherheit und Isolation, schreibt das Komitee. Widersprüche im Initiativtext führten dazu, dass für die Schweiz alle internationalen Verträge nur noch unter Vorbehalt gelten und gekündigt oder gebrochen würden. Die wirtschaftspolitische und aussenpolitische Handlungsfähigkeit des Landes würde bei einem Ja zur Initiative «Schweizer Recht statt fremde Richter (‹Selbstbestimmungsinitiative›)» eingeschränkt, macht das Komitee geltend. Der Schutz der Menschenrechte würde geschwächt. Die Initiative führe nicht zu einer Klärung zwischen Landes- und Völkerrecht, sondern vor allem zu Unsicherheit, liess sich der Aargauer FDP-Ständerat Philipp Müller im Communiqué zitieren. «Unsicherheit schadet der Schweiz.» In den Augen von Swissmem würde unter dieser Unsicherheit in erster Linie die Wirtschaft leiden. Dies macht der Dachverband der Maschinen-, Elektro- und Metallindustrie geltend. 97’000 exportorientierte Firmen im Land seien auf einen sicheren Zugang zu den Weltmärkten angewiesen, sagte Vizepräsident François Gabella. Das Komitee spricht zudem von einem Frontalangriff auf den Schutz der Menschenrechte. «Unter dem Deckmantel der Selbstbestimmung würden die Rechte von uns allen beschnitten», liess sich Andrea Huber von der Allianz der Zivilgesellschaft zitieren. Im Konfliktfall müsste die Schweiz aus der Europäischen Menschenrechtskonvention (EMRK) austreten, und das Bundesgericht dürfte diese nicht mehr anwenden, wenn es um den Schutz vor grundrechtswidrigen Bundesgesetzen gehe. Ein Ja zur Initiative wäre für das Komitee ein Damoklesschwert über den, von der Schweiz eingegangenen, internationalen Verträgen. Bestehende und selbst vom Volk mehrfach gutgeheissene Abkommen, die mit der Verfassung nicht mehr hundertprozentig übereinstimmten, müssten neu verhandelt, gebrochen oder gekündigt werden. Die Initiative wolle, dass die Schweiz zukünftig die Finger hinter dem Rücken kreuze, während sie mit der anderen Hand etwas verspreche, sagte Laura Zimmermann von der Operation Libero. Die Initiative gaukle Selbstbestimmung vor, raube der Schweiz aber ihre Verlässlichkeit. Die «Selbstbestimmungs»-Initiative verlangt, dass die Bundesverfassung künftig gegenüber dem Völkerrecht immer Vorrang hat – unter dem Vorbehalt der zwingenden Bestimmungen des Völkerrechts. SRF 4 News, 11:00 Uhr; sda/horm; bern Selbstbestimmungs-Initiative «Selbstbestimmungs»-Initiative SVP formiert sich</t>
+          <t>.   In den Augen des Gegenkomitees bedeutet die SVP-Initiative eine Gefahr für die Schweiz. 04.10.2018, 11:17 Vereint gegen die «Selbstbestimmungs»-Initiative der SVP: Vertreter von Parteien, Wirtschaft und Zivilgesellschaft treten gemeinsam gegen die Initiative an. In ihren Augen bedeutet das Begehren eine Gefahr für die Schweiz. Die SVP-Volksinitiative, über die am 25. November abgestimmt wird, habe nicht Selbstbestimmung zur Folge, sondern Rechtsunsicherheit und Isolation, schreibt das Komitee. Widersprüche im Initiativtext führten dazu, dass für die Schweiz alle internationalen Verträge nur noch unter Vorbehalt gelten und gekündigt oder gebrochen würden. Die wirtschaftspolitische und aussenpolitische Handlungsfähigkeit des Landes würde bei einem Ja zur Initiative «Schweizer Recht statt fremde Richter (‹Selbstbestimmungsinitiative›)» eingeschränkt, macht das Komitee geltend. Der Schutz der Menschenrechte würde geschwächt. Die Initiative führe nicht zu einer Klärung zwischen Landes- und Völkerrecht, sondern vor allem zu Unsicherheit, liess sich der Aargauer FDP-Ständerat Philipp Müller im Communiqué zitieren. «Unsicherheit schadet der Schweiz.» In den Augen von Swissmem würde unter dieser Unsicherheit in erster Linie die Wirtschaft leiden. Dies macht der Dachverband der Maschinen-, Elektro- und Metallindustrie geltend. 97’000 exportorientierte Firmen im Land seien auf einen sicheren Zugang zu den Weltmärkten angewiesen, sagte Vizepräsident François Gabella. Das Komitee spricht zudem von einem Frontalangriff auf den Schutz der Menschenrechte. «Unter dem Deckmantel der Selbstbestimmung würden die Rechte von uns allen beschnitten», liess sich Andrea Huber von der Allianz der Zivilgesellschaft zitieren. Im Konfliktfall müsste die Schweiz aus der Europäischen Menschenrechtskonvention (EMRK) austreten, und das Bundesgericht dürfte diese nicht mehr anwenden, wenn es um den Schutz vor grundrechtswidrigen Bundesgesetzen gehe. Ein Ja zur Initiative wäre für das Komitee ein Damoklesschwert über den, von der Schweiz eingegangenen, internationalen Verträgen. Bestehende und selbst vom Volk mehrfach gutgeheissene Abkommen, die mit der Verfassung nicht mehr hundertprozentig übereinstimmten, müssten neu verhandelt, gebrochen oder gekündigt werden. Die Initiative wolle, dass die Schweiz zukünftig die Finger hinter dem Rücken kreuze, während sie mit der anderen Hand etwas verspreche, sagte Laura Zimmermann von der Operation Libero. Die Initiative gaukle Selbstbestimmung vor, raube der Schweiz aber ihre Verlässlichkeit. Die «Selbstbestimmungs»-Initiative verlangt, dass die Bundesverfassung künftig gegenüber dem Völkerrecht immer Vorrang hat – unter dem Vorbehalt der zwingenden Bestimmungen des Völkerrechts. SRF 4 News, 11:00 Uhr; sda/horm; bern Selbstbestimmungs-Initiative «Selbstbestimmungs»-Initiative SVP formiert sich 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2077,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sie löse ihr Versprechen nicht ein, sagt der Bundesrat zur SVP-Initiative. Auch fürchtet er sich vor Sanktionen von Vertragspartnern. «Schweizer Recht statt fremde Richter»: Die SVP reicht die Selbstbestimmungsinitiative in Bern ein. (12. August 2016) Der Bundesrat stellt sich gegen die Selbstbestimmungsinitiative der SVP. Er beantragt dem Parlament, diese zur Ablehnung zu empfehlen. Die Initiative gefährde die Stabilität und Verlässlichkeit der Schweiz, warnt er. Dass er die Initiative ohne Gegenvorschlag ablehnt, hatte der Bundesrat bereits im November entschieden. Am Mittwoch hat er nun seine Botschaft zuhanden des Parlaments verabschiedet. Die SVP will mit der Initiative «Schweizer Recht statt fremde Richter» (Selbstbestimmungsinitiative) festlegen, dass die Bundesverfassung gegenüber dem Völkerrecht Vorrang hat – unter Vorbehalt von zwingenden Bestimmungen. Völkerrechtliche Verträge, die der Verfassung widersprechen, müsste die Schweiz neu verhandeln und nötigenfalls kündigen. Für das Bundesgericht sollen zudem nur noch völkerrechtliche Verträge massgebend sein, die dem Referendum unterstanden. Das trifft zum Beispiel auf die Europäische Menschenrechtskonvention (EMRK) nicht zu. Die Selbstbestimmungsinitiative verspreche eine Klärung des Verhältnisses zwischen Schweizer Recht und völkerrechtlichen Verträgen, schreibt der Bundesrat. Sie könne diesen Anspruch jedoch nicht einlösen. Vielmehr weise sie zahlreiche Unklarheiten und Unstimmigkeiten auf. Das hätte bei einem Ja zur Folge, dass wichtige Fragen zum Verhältnis zwischen Völkerrecht und Landesrecht von den Gerichten zu entscheiden wären. Klar ist für den Bundesrat, dass die Initiative die internationalen Verpflichtungen der Schweiz fortwährend infrage stellen würde. Mit der Anpassungs- und Kündigungspflicht schwäche die Initiative die Verlässlichkeit und Stabilität der Schweiz, argumentiert er. Auch setze sie Rechts- und Planungssicherheit für den Unternehmensstandort aufs Spiel. Die Schweiz würde sich der Gefahr aussetzen, für die Nichterfüllung eines Vertrags zur Verantwortung gezogen zu werden. Es drohten Gegenmassnahmen der Vertragspartner, warnt der Bundesrat. Für die Schweiz wäre es auch schwierig, von ihren Partnern eine Vertragserfüllung einzufordern, wenn sie selbst sich in der Verfassung vorbehalte, von bestimmten Verträgen abzuweichen. Wo es aber an verbindlichen Regeln fehle, drohe das Rechts des Stärkeren, gibt der Bundesrat zu bedenken. Als Kleinstaat habe die Schweiz ein besonderes Interesse an der Einhaltung völkerrechtlicher Verpflichtungen. Eine Annahme der Initiative könnte laut dem Bundesrat ferner dazu führen, dass die Schweiz Bestimmungen der Europäischen Menschenrechtskonvention (EMRK) andauernd und systematisch nicht mehr anwenden könnte. Auf lange Sicht könnte die Schweiz deshalb aus dem Europarat ausgeschlossen werden, was einer Kündigung der EMRK gleichkomme und beide schwächen würde. Europarat und EMRK seien wichtige Instrumente zur Förderung von Rechtsstaat, Demokratie, Sicherheit und Frieden in ganz Europa, hält der Bundesrat fest. «Daran hat die Schweiz ein existenzielles Interesse.» Die Initiative schränke ausserdem den Handlungsspielraum von Bundesrat und Parlament bei der Umsetzung von Verfassungsbestimmungen ein, die mit dem Völkerrecht kollidierten. Und sie verkenne, dass auch der Abschluss eines völkerrechtlichen Vertrags einen Akt nationaler Souveränität darstelle. Mit der Annahme der Selbstbestimmungsinitiative würde sich die Schweiz einer Regelung unterwerfen, die den Vertragsbruch in Kauf nehme. Der Bundesrat könne die Initiative deshalb weder im Ansatz noch in ihren Lösungsvorschlägen unterstützen, schreibt er. (oli/sda) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Sie löse ihr Versprechen nicht ein, sagt der Bundesrat zur SVP-Initiative. Auch fürchtet er sich vor Sanktionen von Vertragspartnern. «Schweizer Recht statt fremde Richter»: Die SVP reicht die Selbstbestimmungsinitiative in Bern ein. (12. August 2016) Der Bundesrat stellt sich gegen die Selbstbestimmungsinitiative der SVP. Er beantragt dem Parlament, diese zur Ablehnung zu empfehlen. Die Initiative gefährde die Stabilität und Verlässlichkeit der Schweiz, warnt er. Dass er die Initiative ohne Gegenvorschlag ablehnt, hatte der Bundesrat bereits im November entschieden. Am Mittwoch hat er nun seine Botschaft zuhanden des Parlaments verabschiedet. Die SVP will mit der Initiative «Schweizer Recht statt fremde Richter» (Selbstbestimmungsinitiative) festlegen, dass die Bundesverfassung gegenüber dem Völkerrecht Vorrang hat – unter Vorbehalt von zwingenden Bestimmungen. Völkerrechtliche Verträge, die der Verfassung widersprechen, müsste die Schweiz neu verhandeln und nötigenfalls kündigen. Für das Bundesgericht sollen zudem nur noch völkerrechtliche Verträge massgebend sein, die dem Referendum unterstanden. Das trifft zum Beispiel auf die Europäische Menschenrechtskonvention (EMRK) nicht zu. Die Selbstbestimmungsinitiative verspreche eine Klärung des Verhältnisses zwischen Schweizer Recht und völkerrechtlichen Verträgen, schreibt der Bundesrat. Sie könne diesen Anspruch jedoch nicht einlösen. Vielmehr weise sie zahlreiche Unklarheiten und Unstimmigkeiten auf. Das hätte bei einem Ja zur Folge, dass wichtige Fragen zum Verhältnis zwischen Völkerrecht und Landesrecht von den Gerichten zu entscheiden wären. Klar ist für den Bundesrat, dass die Initiative die internationalen Verpflichtungen der Schweiz fortwährend infrage stellen würde. Mit der Anpassungs- und Kündigungspflicht schwäche die Initiative die Verlässlichkeit und Stabilität der Schweiz, argumentiert er. Auch setze sie Rechts- und Planungssicherheit für den Unternehmensstandort aufs Spiel. Die Schweiz würde sich der Gefahr aussetzen, für die Nichterfüllung eines Vertrags zur Verantwortung gezogen zu werden. Es drohten Gegenmassnahmen der Vertragspartner, warnt der Bundesrat. Für die Schweiz wäre es auch schwierig, von ihren Partnern eine Vertragserfüllung einzufordern, wenn sie selbst sich in der Verfassung vorbehalte, von bestimmten Verträgen abzuweichen. Wo es aber an verbindlichen Regeln fehle, drohe das Rechts des Stärkeren, gibt der Bundesrat zu bedenken. Als Kleinstaat habe die Schweiz ein besonderes Interesse an der Einhaltung völkerrechtlicher Verpflichtungen. Eine Annahme der Initiative könnte laut dem Bundesrat ferner dazu führen, dass die Schweiz Bestimmungen der Europäischen Menschenrechtskonvention (EMRK) andauernd und systematisch nicht mehr anwenden könnte. Auf lange Sicht könnte die Schweiz deshalb aus dem Europarat ausgeschlossen werden, was einer Kündigung der EMRK gleichkomme und beide schwächen würde. Europarat und EMRK seien wichtige Instrumente zur Förderung von Rechtsstaat, Demokratie, Sicherheit und Frieden in ganz Europa, hält der Bundesrat fest. «Daran hat die Schweiz ein existenzielles Interesse.» Die Initiative schränke ausserdem den Handlungsspielraum von Bundesrat und Parlament bei der Umsetzung von Verfassungsbestimmungen ein, die mit dem Völkerrecht kollidierten. Und sie verkenne, dass auch der Abschluss eines völkerrechtlichen Vertrags einen Akt nationaler Souveränität darstelle. Mit der Annahme der Selbstbestimmungsinitiative würde sich die Schweiz einer Regelung unterwerfen, die den Vertragsbruch in Kauf nehme. Der Bundesrat könne die Initiative deshalb weder im Ansatz noch in ihren Lösungsvorschlägen unterstützen, schreibt er. (oli/sda)</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2119,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Die Schlacht um die SVP-Selbstbestimmungsinitiative wird schon drei Monate vor der Abstimmung erbittert geführt. Trotz Übermacht sind die Gegner nicht siegessicher. Die SVP gegen den Rest: Obwohl die Selbstbestimmungsinitiative erst Ende November vors Volk kommt, ist der Abstimmungskampf bereits entfacht. Die Gegner von Economiesuisse über die Operation Libero bis zur Allianz der Zivilgesellschaft aus 120 Organisationen schiessen aus vollen Rohren gegen die Initiative. Am Mittwoch stellte auch der Thinktank Foraus eine Studie vor, die vor den Folgen eines Ja warnt: So drohe die Kündigung des Freizügigkeitsabkommens und ein Bruch mit der EU. Auch nähmen die Initianten eine Kündigung der Europäischen Menschenrechtskonvention EMRK in Kauf. Die SVP verlangt mit ihrer Initiative, dass die Bundesverfassung gegenüber dem nicht zwingenden Völkerrecht Vorrang hat. Völkerrechtliche Verträge, die der Verfassung widersprechen, müssten neu verhandelt und nötigenfalls gekündigt werden (siehe Box). «Gegen so ein radikales Anliegen kann man sich nicht früh genug wehren», sagt Andrea Huber, Kampagnenleiterin der Allianz der Zivilgesellschaft zum frühen Start. «Das ist die gefährlichste Volksinitiative, die es in der Schweiz jemals gab.» Die Initiative sei ein Supergau für die Menschenrechte. Man nenne das SVP-Begehren darum «Selbstbeschneidungsinitiative», weil sie uns alle rechtlich beschneide, so Huber. «Die Europäische Menschenrechtskonvention EMRK würde mit der Annahme sofort wirkungslos als Rückversicherung für unsere Grundrechte.» Ob Kinder, Menschen mit Behinderungen, Arbeiter: Dass dieser Schutz gebraucht werde, zeigten unzählige Beispiele. Die Initiative sei ein übler Etikettenschwindel. Werde darüber nicht genügend aufgeklärt, könne sie durchaus Chancen haben. Auch die Bewegung Operation Libero ist bereits aktiv geworden und warnt davor, dass die Schweiz durch die Initiative regelmässig zur Vertragsbrecherin würde, wenn ein internationaler Vertrag im Widerspruch zur Verfassung stehe. Angst, dass die Initiative angenommen werde, habe sie keine, sagt Co-Kampagnenleiterin Franziska Barmettler. «Wir wollen uns am Abstimmungssonntag sagen können, dass wir alles dafür getan haben, die Bevölkerung ausreichend über dieses grundlegende und komplexe Thema informiert zu haben.» Eine neue von Operation Libero in Auftrag gegebene Umfrage zeige, dass immenser Informationsbedarf bestehe. So hätten 49 Prozent aller Befragten angegeben, Völkerrecht nicht beschreiben zu können. «Die Studie zeigt weiter, dass das Unwissen betreffend Völkerrecht gerade bei SVP-Sympathisanten besonders gross ist», sagt Barmettler. Davon hätten 57 Prozent Völkerrecht nicht definieren können. Sie wünsche sich, dass auch die SVP selber endlich damit beginne, konkret über den eigentlichen Inhalt der Initiative zu sprechen. Das Argument der Vertragsbrüche sei ein Märchen, sagt hingegen SVP-Nationalrat Thomas Matter. Jeder internationale Vertrag, den Parlament und Bundesrat abgesegnet hätten, müsse verfassungskonform sein. Ansonsten hätten besagte Politiker Meineid betrieben. Zu einer Vertragsänderung würde es nur kommen, wenn zu einem späteren Zeitpunkt das Volk einen neuen, widersprechenden Verfassungsartikel beschliesst. «Das ist momentan nur beim EU-Freizügigkeitsabkommen der Fall», so Matter. Weil die SVP alleine gegen den Bundesrat und alle grösseren Parteien antritt, spricht Matter von einem Kampf zwischen David und Goliath. Die SVP müsse mit einem viel kleineren Budget zurechtkommen als die Gegner, dafür mit den besseren Argumenten. «Gewissen Wirtschaftsverbänden ist das Initiativ- und Referendumsrecht ein Dorn im Auge. Dass das Volk das letzte Wort hat, missfällt vielen Wirtschaftsfunktionären», sagt Matter und verweist direkt auf die Economiesuisse. Die Gegner seien schlicht gegen den Erhalt der direkten Demokratie. Von Vertragsbruch zu sprechen, sei juristisch gesehen unpräzise bis polemisch, sagt auch Rechtsanwalt und SVP-Kantonsrat Manuel Brandenberg. Jeder Vertragspartner habe zu einem Zeitpunkt das vertragliche Recht, durch Kündigung aus einem bestehenden Vertrag auszutreten. Auch die Abschaffung der Menschenrechte drohe nicht: «Sie sind einerseits durch die Bundesverfassung garantiert und andererseits führte die Annahme der Initiative nicht zur Kündigung der EMRK, sondern zum Vorrang der Bundesverfassung gegenüber der EMRK.» Im Falle einer Annahme der Selbstbestimmungsinitiative stehe die Schweiz nicht alleine da. Die Akzeptanz der Verfassung sei bei allen Staaten hoch «Es ist ein offenes Geheimnis, dass in Amerika die Verfassung zuoberst steht», so Brandenberg. Darüber hinaus sei es längst nicht überall so, dass internationale Verträge automatisch übernommen würden. In Deutschland beispielsweise benötigt es seines Wissens zu jedem Vertrag ein Umsetzungsgesetz. Darum geht es Die Selbstbestimmungsinitiative der SVP will die Bundesverfassung über das Völkerrecht stellen. Einzige Ausnahme bildet dabei das zwingende Völkerrecht, das das Verbot von Völkermord, Folter, Angriffskrieg, Sklaverei und Rückschiebung in einen Staat, in dem Folter oder Tod drohen, beinhaltet. Die Initianten fordern, dass Bund und Kantone keine völkerrechtlichen Verpflichtungen mehr eingehen, die der Bundesverfassung widersprechen. Falls es zu einem Widerspruch kommt, sollen die völkerrechtlichen Verpflichtungen den Vorgaben der Bundesverfassung angepasst werden. Dies kann auch die Kündigung eines völkerrechtlichen Vertrags erfordern. Gegen die Initiative stellen sich alle anderen Parteien sowie zahlreiche Wirtschafts- und zivilgesellschaftliche Organisationen. Das Abstimmungsdatum ist der 25. November. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Schlacht um die SVP-Selbstbestimmungsinitiative wird schon drei Monate vor der Abstimmung erbittert geführt. Trotz Übermacht sind die Gegner nicht siegessicher. Die SVP gegen den Rest: Obwohl die Selbstbestimmungsinitiative erst Ende November vors Volk kommt, ist der Abstimmungskampf bereits entfacht. Die Gegner von Economiesuisse über die Operation Libero bis zur Allianz der Zivilgesellschaft aus 120 Organisationen schiessen aus vollen Rohren gegen die Initiative. Am Mittwoch stellte auch der Thinktank Foraus eine Studie vor, die vor den Folgen eines Ja warnt: So drohe die Kündigung des Freizügigkeitsabkommens und ein Bruch mit der EU. Auch nähmen die Initianten eine Kündigung der Europäischen Menschenrechtskonvention EMRK in Kauf. Die SVP verlangt mit ihrer Initiative, dass die Bundesverfassung gegenüber dem nicht zwingenden Völkerrecht Vorrang hat. Völkerrechtliche Verträge, die der Verfassung widersprechen, müssten neu verhandelt und nötigenfalls gekündigt werden (siehe Box). «Gegen so ein radikales Anliegen kann man sich nicht früh genug wehren», sagt Andrea Huber, Kampagnenleiterin der Allianz der Zivilgesellschaft zum frühen Start. «Das ist die gefährlichste Volksinitiative, die es in der Schweiz jemals gab.» Die Initiative sei ein Supergau für die Menschenrechte. Man nenne das SVP-Begehren darum «Selbstbeschneidungsinitiative», weil sie uns alle rechtlich beschneide, so Huber. «Die Europäische Menschenrechtskonvention EMRK würde mit der Annahme sofort wirkungslos als Rückversicherung für unsere Grundrechte.» Ob Kinder, Menschen mit Behinderungen, Arbeiter: Dass dieser Schutz gebraucht werde, zeigten unzählige Beispiele. Die Initiative sei ein übler Etikettenschwindel. Werde darüber nicht genügend aufgeklärt, könne sie durchaus Chancen haben. Auch die Bewegung Operation Libero ist bereits aktiv geworden und warnt davor, dass die Schweiz durch die Initiative regelmässig zur Vertragsbrecherin würde, wenn ein internationaler Vertrag im Widerspruch zur Verfassung stehe. Angst, dass die Initiative angenommen werde, habe sie keine, sagt Co-Kampagnenleiterin Franziska Barmettler. «Wir wollen uns am Abstimmungssonntag sagen können, dass wir alles dafür getan haben, die Bevölkerung ausreichend über dieses grundlegende und komplexe Thema informiert zu haben.» Eine neue von Operation Libero in Auftrag gegebene Umfrage zeige, dass immenser Informationsbedarf bestehe. So hätten 49 Prozent aller Befragten angegeben, Völkerrecht nicht beschreiben zu können. «Die Studie zeigt weiter, dass das Unwissen betreffend Völkerrecht gerade bei SVP-Sympathisanten besonders gross ist», sagt Barmettler. Davon hätten 57 Prozent Völkerrecht nicht definieren können. Sie wünsche sich, dass auch die SVP selber endlich damit beginne, konkret über den eigentlichen Inhalt der Initiative zu sprechen. Das Argument der Vertragsbrüche sei ein Märchen, sagt hingegen SVP-Nationalrat Thomas Matter. Jeder internationale Vertrag, den Parlament und Bundesrat abgesegnet hätten, müsse verfassungskonform sein. Ansonsten hätten besagte Politiker Meineid betrieben. Zu einer Vertragsänderung würde es nur kommen, wenn zu einem späteren Zeitpunkt das Volk einen neuen, widersprechenden Verfassungsartikel beschliesst. «Das ist momentan nur beim EU-Freizügigkeitsabkommen der Fall», so Matter. Weil die SVP alleine gegen den Bundesrat und alle grösseren Parteien antritt, spricht Matter von einem Kampf zwischen David und Goliath. Die SVP müsse mit einem viel kleineren Budget zurechtkommen als die Gegner, dafür mit den besseren Argumenten. «Gewissen Wirtschaftsverbänden ist das Initiativ- und Referendumsrecht ein Dorn im Auge. Dass das Volk das letzte Wort hat, missfällt vielen Wirtschaftsfunktionären», sagt Matter und verweist direkt auf die Economiesuisse. Die Gegner seien schlicht gegen den Erhalt der direkten Demokratie. Von Vertragsbruch zu sprechen, sei juristisch gesehen unpräzise bis polemisch, sagt auch Rechtsanwalt und SVP-Kantonsrat Manuel Brandenberg. Jeder Vertragspartner habe zu einem Zeitpunkt das vertragliche Recht, durch Kündigung aus einem bestehenden Vertrag auszutreten. Auch die Abschaffung der Menschenrechte drohe nicht: «Sie sind einerseits durch die Bundesverfassung garantiert und andererseits führte die Annahme der Initiative nicht zur Kündigung der EMRK, sondern zum Vorrang der Bundesverfassung gegenüber der EMRK.» Im Falle einer Annahme der Selbstbestimmungsinitiative stehe die Schweiz nicht alleine da. Die Akzeptanz der Verfassung sei bei allen Staaten hoch «Es ist ein offenes Geheimnis, dass in Amerika die Verfassung zuoberst steht», so Brandenberg. Darüber hinaus sei es längst nicht überall so, dass internationale Verträge automatisch übernommen würden. In Deutschland beispielsweise benötigt es seines Wissens zu jedem Vertrag ein Umsetzungsgesetz. Darum geht es Die Selbstbestimmungsinitiative der SVP will die Bundesverfassung über das Völkerrecht stellen. Einzige Ausnahme bildet dabei das zwingende Völkerrecht, das das Verbot von Völkermord, Folter, Angriffskrieg, Sklaverei und Rückschiebung in einen Staat, in dem Folter oder Tod drohen, beinhaltet. Die Initianten fordern, dass Bund und Kantone keine völkerrechtlichen Verpflichtungen mehr eingehen, die der Bundesverfassung widersprechen. Falls es zu einem Widerspruch kommt, sollen die völkerrechtlichen Verpflichtungen den Vorgaben der Bundesverfassung angepasst werden. Dies kann auch die Kündigung eines völkerrechtlichen Vertrags erfordern. Gegen die Initiative stellen sich alle anderen Parteien sowie zahlreiche Wirtschafts- und zivilgesellschaftliche Organisationen. Das Abstimmungsdatum ist der 25. November.</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2279,8 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Die SVP sieht unsere direkte Demokratie in Gefahr. Mit der Selbstbestimmungsinitiative will sie dem Volkswillen mehr Gehör verschaffen. Ein überparteiliches Bündnis aber meint: Eine Annahme der Initiative schwächt die Schweiz, die Wirtschaft und die Menschenrechte. 23.10.2018, 13:46 Am 25. November stimmen wir über die Volksinitiative «Schweizer Recht statt fremde Richter» ab. Die sogenannte «Selbstbestimmungsinitiative» verlangt, dass die Bundesverfassung stets Vorrang hat gegenüber dem Völkerrecht – also gegenüber geltenden internationalen Vereinbarungen wie Freihandelsverträgen oder Menschenrechtsabkommen. Bei einem Konflikt müssten solche völkerrechtlichen Abmachungen neu verhandelt oder nötigenfalls gekündigt werden. Mit der Initiative soll sichergestellt werden, dass der Wille der Stimmbevölkerung auch wirklich umgesetzt wird. Die Initiative schütze unsere direkte Demokratie, sagen die Befürworter. Gegen die Initiative stellt sich ein überparteiliches Bündnis von links bis rechts. Gemeinsam mit der Wirtschaft sowie Hilfswerken oder Menschenrechtsorganisationen kämpfen sie gegen die drohende Isolation der Schweiz. Sie sehen die Menschenrechte und den Zugang der Unternehmen zu den Weltmärkten in Gefahr. Die Initiativ-Gegner sehen die Vorlage als Angriff auf den Rechtsstaat. Schützt die Selbstbestimmungsinitiative unsere direkte Demokratie oder gefährdet sie unseren Rechtsstaat? Schadet oder nützt die Selbstbestimmungsinitiative unserem Land? In der Sendung «Forum» diskutierten folgende Gäste mit Hörerinnen und Hörern: sahm/ruek</t>
+          <t>. Die SVP sieht unsere direkte Demokratie in Gefahr. Mit der Selbstbestimmungsinitiative will sie dem Volkswillen mehr Gehör verschaffen. Ein überparteiliches Bündnis aber meint: Eine Annahme der Initiative schwächt die Schweiz, die Wirtschaft und die Menschenrechte. 23.10.2018, 13:46 Am 25. November stimmen wir über die Volksinitiative «Schweizer Recht statt fremde Richter» ab. Die sogenannte «Selbstbestimmungsinitiative» verlangt, dass die Bundesverfassung stets Vorrang hat gegenüber dem Völkerrecht – also gegenüber geltenden internationalen Vereinbarungen wie Freihandelsverträgen oder Menschenrechtsabkommen. Bei einem Konflikt müssten solche völkerrechtlichen Abmachungen neu verhandelt oder nötigenfalls gekündigt werden. Mit der Initiative soll sichergestellt werden, dass der Wille der Stimmbevölkerung auch wirklich umgesetzt wird. Die Initiative schütze unsere direkte Demokratie, sagen die Befürworter. Gegen die Initiative stellt sich ein überparteiliches Bündnis von links bis rechts. Gemeinsam mit der Wirtschaft sowie Hilfswerken oder Menschenrechtsorganisationen kämpfen sie gegen die drohende Isolation der Schweiz. Sie sehen die Menschenrechte und den Zugang der Unternehmen zu den Weltmärkten in Gefahr. Die Initiativ-Gegner sehen die Vorlage als Angriff auf den Rechtsstaat. Schützt die Selbstbestimmungsinitiative unsere direkte Demokratie oder gefährdet sie unseren Rechtsstaat? Schadet oder nützt die Selbstbestimmungsinitiative unserem Land? In der Sendung «Forum» diskutierten folgende Gäste mit Hörerinnen und Hörern: sahm/ruek 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2322,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sechs Wochen vor der Abstimmung würde die Begrenzungsinitiative der SVP durchfallen. Hilft oder schadet der Partei jetzt die Corona-Krise? Eine exklusive Umfrage zeigt, wie die Stimmbevölkerung derzeit zur SVP-Initiative steht. Der Kampfjetkauf spaltet das Stimmvolk. Beim Vaterschaftsurlaub zeichnet sich ein klares Ja ab. Die SVP ist beim Thema Zuwanderung in Rücklage: Gemäss der ersten Umfrage von 20 Minuten und Tamedia vor der Abstimmung vom 27. September lehnen derzeit 56 Prozent die Begrenzungsinitiative ab. Das Volksbegehren verlangt, dass das Abkommen über die Personenfreizügigkeit mit der EU innerhalb von zwölf Monaten auf dem Verhandlungsweg ausser Kraft gesetzt und ansonsten gekündigt wird. Stand heute findet die Vorlage nur bei der SVP-Wählerschaft eine Mehrheit. Bei den Anhängern von CVP und FDP unterstützt etwa ein Drittel die Vorlage, bei den grünen und SP-Wählern nur gut 10 Prozent. Es zeigt sich ein «Polenta-Graben»: Im Tessin wollen derzeit 55 Prozent ein Ja auf den Stimmzettel schreiben. SVP-Nationalrat Marcel Dettling gibt sich trotz des Rückstandes nicht geschlagen – der Abstimmungskampf habe erst begonnen. Er sagt, dass gerade die Corona-Krise die Schwächen der Personenfreizügigkeit offenbare: «Wenn ein Schweizer nach zwanzig Jahren in der Firma den Job verliert, während der günstigere Deutsche bleiben darf, stimmt etwas nicht.» Die Personenfreizügigkeit habe auch dazu geführt, dass der Bundesrat die Grenzen zu spät geschlossen habe. Laut Dettling, weil er «Angst vor Unstimmigkeiten mit der EU hatte». Und nach der Lockerung habe die Zuwanderung bereits wieder Fahrt aufgenommen. «Das zeigt, dass die Personenfreizügigkeit die falschen Anreize schafft.» FDP-Nationalrätin Daniela Schneeberger widerspricht. Sie sieht in der Corona-Krise schlagkräftige Argumente gegen die Initiative. «Gerade jetzt können wir uns keine Experimente leisten: Der Wegfall der bilateralen Verträge mit der EU würde die Schweiz noch mehr Arbeitsplätze kosten. Und auch in Zukunft ist es klar, dass die Unternehmen auf Exporte ins Ausland angewiesen sind.» Der Lockdown habe der Bevölkerung ausserdem gezeigt, wie wichtig die Reisefreiheit sei. Am 27. September 2020 stimmt die Schweiz über die Begrenzungsinitiative (BGI) der SVP ab, nachdem die Abstimmung vom Mai wegen der Corona-Pandemie ins Wasser fiel. Die Initiative verlangt, dass die Schweiz die Zuwanderung wieder autonom kontrollieren kann. Bei einer Annahme der Initiative soll die Schweiz innerhalb eines Jahres die Personenfreizügigkeit mit der EU auf dem Verhandlungsweg ausser Kraft setzen. Gelingt dies nicht, soll das Freizügigkeitsabkommen gekündigt werden. Am 9. Februar 2014 nahm das Volk die Masseneinwanderungsinitiative der SVP an, welche die Zuwanderung mit Höchstzahlen und Kontingenten bremsen wollte. Es folgte ein langes Hickhack um die Umsetzung. Beschlossen wurde schliesslich nur eine Stellenmeldepflicht. Daraufhin lancierte die SVP die BGI. Der Bundesrat, die Kantone, Gewerkschaften und Wirtschaftsverbände sprechen sich gegen die Initiative aus. Neben der Begrenzungsinitiative kommen am 27. September vier weitere Vorlagen vors Volk. Spannung verspricht vor allem die Kampfjetvorlage. So sprechen sich derzeit genau 50 Prozent dafür aus, neue Kampfjets für bis zu sechs Milliarden Franken zu beschaffen. Die Flugzeuge sollen bis 2030 abheben und die in die Jahre gekommenen F/A-18 und F-5 Tiger ersetzen. Die Vorlage stösst vor allem bei Frauen auf Skepsis: Während 58 Prozent der Männer ein Ja auf den Stimmzettel schreiben wollen, liegt der Ja-Anteil bei den Frauen um 15 Prozentpunkte tiefer. Ein klares Ja zeichnet sich beim bezahlten Vaterschaftsurlaub von 14 Tagen ab. Beim Jagdgesetz, das den Kantonen die Möglichkeit geben will, Abschüsse von Wölfen anzuordnen, ist die Meinungsbildung noch nicht weit fortgeschritten. Gleiches gilt bei den Steuerentlastungen für Familien. In Zusammenarbeit mit LeeWas führen 20 Minuten und Tamedia auf ihren Newsportalen umfassende Abstimmungs- und Wahlumfragen durch. 24’252 Personen aus der ganzen Schweiz haben am 10. und am 11. August online an der 1. Welle der 20 Minuten-/Tamedia-Umfrage zu den eidgenössischen Abstimmungen vom 27. September 2020 teilgenommen. Die Umfragedaten werden nach demografischen, geografischen und politischen Variablen modelliert. Der Fehlerbereich liegt bei 1,0 Prozentpunkten. Weitere lnformationen gibts hier. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Sechs Wochen vor der Abstimmung würde die Begrenzungsinitiative der SVP durchfallen. Hilft oder schadet der Partei jetzt die Corona-Krise? Eine exklusive Umfrage zeigt, wie die Stimmbevölkerung derzeit zur SVP-Initiative steht. Der Kampfjetkauf spaltet das Stimmvolk. Beim Vaterschaftsurlaub zeichnet sich ein klares Ja ab. Die SVP ist beim Thema Zuwanderung in Rücklage: Gemäss der ersten Umfrage von 20 Minuten und Tamedia vor der Abstimmung vom 27. September lehnen derzeit 56 Prozent die Begrenzungsinitiative ab. Das Volksbegehren verlangt, dass das Abkommen über die Personenfreizügigkeit mit der EU innerhalb von zwölf Monaten auf dem Verhandlungsweg ausser Kraft gesetzt und ansonsten gekündigt wird. Stand heute findet die Vorlage nur bei der SVP-Wählerschaft eine Mehrheit. Bei den Anhängern von CVP und FDP unterstützt etwa ein Drittel die Vorlage, bei den grünen und SP-Wählern nur gut 10 Prozent. Es zeigt sich ein «Polenta-Graben»: Im Tessin wollen derzeit 55 Prozent ein Ja auf den Stimmzettel schreiben. SVP-Nationalrat Marcel Dettling gibt sich trotz des Rückstandes nicht geschlagen – der Abstimmungskampf habe erst begonnen. Er sagt, dass gerade die Corona-Krise die Schwächen der Personenfreizügigkeit offenbare: «Wenn ein Schweizer nach zwanzig Jahren in der Firma den Job verliert, während der günstigere Deutsche bleiben darf, stimmt etwas nicht.» Die Personenfreizügigkeit habe auch dazu geführt, dass der Bundesrat die Grenzen zu spät geschlossen habe. Laut Dettling, weil er «Angst vor Unstimmigkeiten mit der EU hatte». Und nach der Lockerung habe die Zuwanderung bereits wieder Fahrt aufgenommen. «Das zeigt, dass die Personenfreizügigkeit die falschen Anreize schafft.» FDP-Nationalrätin Daniela Schneeberger widerspricht. Sie sieht in der Corona-Krise schlagkräftige Argumente gegen die Initiative. «Gerade jetzt können wir uns keine Experimente leisten: Der Wegfall der bilateralen Verträge mit der EU würde die Schweiz noch mehr Arbeitsplätze kosten. Und auch in Zukunft ist es klar, dass die Unternehmen auf Exporte ins Ausland angewiesen sind.» Der Lockdown habe der Bevölkerung ausserdem gezeigt, wie wichtig die Reisefreiheit sei. Am 27. September 2020 stimmt die Schweiz über die Begrenzungsinitiative (BGI) der SVP ab, nachdem die Abstimmung vom Mai wegen der Corona-Pandemie ins Wasser fiel. Die Initiative verlangt, dass die Schweiz die Zuwanderung wieder autonom kontrollieren kann. Bei einer Annahme der Initiative soll die Schweiz innerhalb eines Jahres die Personenfreizügigkeit mit der EU auf dem Verhandlungsweg ausser Kraft setzen. Gelingt dies nicht, soll das Freizügigkeitsabkommen gekündigt werden. Am 9. Februar 2014 nahm das Volk die Masseneinwanderungsinitiative der SVP an, welche die Zuwanderung mit Höchstzahlen und Kontingenten bremsen wollte. Es folgte ein langes Hickhack um die Umsetzung. Beschlossen wurde schliesslich nur eine Stellenmeldepflicht. Daraufhin lancierte die SVP die BGI. Der Bundesrat, die Kantone, Gewerkschaften und Wirtschaftsverbände sprechen sich gegen die Initiative aus. Neben der Begrenzungsinitiative kommen am 27. September vier weitere Vorlagen vors Volk. Spannung verspricht vor allem die Kampfjetvorlage. So sprechen sich derzeit genau 50 Prozent dafür aus, neue Kampfjets für bis zu sechs Milliarden Franken zu beschaffen. Die Flugzeuge sollen bis 2030 abheben und die in die Jahre gekommenen F/A-18 und F-5 Tiger ersetzen. Die Vorlage stösst vor allem bei Frauen auf Skepsis: Während 58 Prozent der Männer ein Ja auf den Stimmzettel schreiben wollen, liegt der Ja-Anteil bei den Frauen um 15 Prozentpunkte tiefer. Ein klares Ja zeichnet sich beim bezahlten Vaterschaftsurlaub von 14 Tagen ab. Beim Jagdgesetz, das den Kantonen die Möglichkeit geben will, Abschüsse von Wölfen anzuordnen, ist die Meinungsbildung noch nicht weit fortgeschritten. Gleiches gilt bei den Steuerentlastungen für Familien. In Zusammenarbeit mit LeeWas führen 20 Minuten und Tamedia auf ihren Newsportalen umfassende Abstimmungs- und Wahlumfragen durch. 24’252 Personen aus der ganzen Schweiz haben am 10. und am 11. August online an der 1. Welle der 20 Minuten-/Tamedia-Umfrage zu den eidgenössischen Abstimmungen vom 27. September 2020 teilgenommen. Die Umfragedaten werden nach demografischen, geografischen und politischen Variablen modelliert. Der Fehlerbereich liegt bei 1,0 Prozentpunkten. Weitere lnformationen gibts hier.</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2364,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Die SVP und die Auns wollen mit einem Volksbegehren die Zuwanderung begrenzen. Der Bundesrat lehnt die Initiative ohne Gegenvorschlag ab. Der Bundesrat lehnt die Begrenzungsinitiative ohne Gegenvorschlag ab. (Video: SDA) Der Bundesrat will die Personenfreizügigkeit mit der EU nicht kündigen. Eine Volksinitiative von SVP und Auns, die dies verlangt, lehnt er ab. Auch einen Gegenvorschlag will er nicht ausarbeiten. Die Landesregierung fällte diesen Richtungsentscheid an ihrer Sitzung am Freitag. Sie beauftragte zugleich das Eidgenössische Justiz- und Polizeidepartement (EJPD), bis Ende August 2019 eine Botschaft zur Kündigungsinitiative auszuarbeiten. Die SVP und die Aktion für eine unabhängige und neutrale Schweiz (Auns) wollen mit dem Volksbegehren die Zuwanderung begrenzen. Die Initiative «für eine massvolle Zuwanderung» (Begrenzungsinitiative) wurde im vergangenen September eingereicht. Bei einem Ja hat der Bundesrat ein Jahr Zeit, um mit der EU die Beendigung der Personenfreizügigkeit auszuhandeln. Gelingt das nicht, muss er das Abkommen kündigen. Neue Verträge, die Ausländerinnen und Ausländern Personenfreizügigkeit gewähren, sind verboten. Der Bundesrat ist der Ansicht, dass sich eine Annahme der Initiative negativ auf die Schweiz und die Schweizer Wirtschaft auswirken würde, wie das EJPD am Freitag schrieb. In der alternden Gesellschaft würden qualifizierte Arbeitskräfte im Inland zunehmend knapp. Ab 2035 dürften 100 Personen im Erwerbsalter mehr als 50 Menschen im Rentenalter gegenüberstehen, wie es in der Mitteilung heisst. Und der Wettbewerb um Fachkräfte unter den Ländern mit ähnlicher Bevölkerungsstruktur werde stärker. (20 Minuten) Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die SVP und die Auns wollen mit einem Volksbegehren die Zuwanderung begrenzen. Der Bundesrat lehnt die Initiative ohne Gegenvorschlag ab. Der Bundesrat lehnt die Begrenzungsinitiative ohne Gegenvorschlag ab. (Video: SDA) Der Bundesrat will die Personenfreizügigkeit mit der EU nicht kündigen. Eine Volksinitiative von SVP und Auns, die dies verlangt, lehnt er ab. Auch einen Gegenvorschlag will er nicht ausarbeiten. Die Landesregierung fällte diesen Richtungsentscheid an ihrer Sitzung am Freitag. Sie beauftragte zugleich das Eidgenössische Justiz- und Polizeidepartement (EJPD), bis Ende August 2019 eine Botschaft zur Kündigungsinitiative auszuarbeiten. Die SVP und die Aktion für eine unabhängige und neutrale Schweiz (Auns) wollen mit dem Volksbegehren die Zuwanderung begrenzen. Die Initiative «für eine massvolle Zuwanderung» (Begrenzungsinitiative) wurde im vergangenen September eingereicht. Bei einem Ja hat der Bundesrat ein Jahr Zeit, um mit der EU die Beendigung der Personenfreizügigkeit auszuhandeln. Gelingt das nicht, muss er das Abkommen kündigen. Neue Verträge, die Ausländerinnen und Ausländern Personenfreizügigkeit gewähren, sind verboten. Der Bundesrat ist der Ansicht, dass sich eine Annahme der Initiative negativ auf die Schweiz und die Schweizer Wirtschaft auswirken würde, wie das EJPD am Freitag schrieb. In der alternden Gesellschaft würden qualifizierte Arbeitskräfte im Inland zunehmend knapp. Ab 2035 dürften 100 Personen im Erwerbsalter mehr als 50 Menschen im Rentenalter gegenüberstehen, wie es in der Mitteilung heisst. Und der Wettbewerb um Fachkräfte unter den Ländern mit ähnlicher Bevölkerungsstruktur werde stärker. (20 Minuten)</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2406,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Endgültiger Bruch mit Brüssel oder Nachverhandlungen: 20 Minuten zeigt, wie es im Falle eines Ja zur Begrenzungsinitiative weitergehen könnte. Die Begrenzungsinitiative verlangt, dass die Schweiz die Personenfreizügigkeit auf dem Verhandlungsweg ausser Kraft setzt – oder das Abkommen kündigt. Gegner und Befürworter sind uneins, wie die EU reagieren würde. Mit der Begrenzungsinitiative will die SVP der Personenfreizügigkeit ein Ende setzen. Doch was passiert eigentlich genau, wenn das Volk die Initiative am 27. September annimmt? Denkbar sind mehrere Szenarien: von konstruktiven Nachverhandlungen bis zur totalen Eskalation mit Brüssel. Die EU ist zu Gesprächen mit der Schweiz bereit. Die EU stimmt zu, dass die Schweiz die Zuwanderung begrenzt, die übrigen sechs Verträge der Bilateralen I bleiben erhalten. Für den emeritierten Wirtschaftsprofessor und Unternehmer Martin Janssen ist eine Lösung auf dem Verhandlungsweg das «wahrscheinlichste Szenario». «Die Verträge – vom Abkommen über technische Handelshemmnisse bis zum Landverkehrsabkommen – sind alle sehr im Interesse der EU.» Auch beim Freizügigkeitsabkommen sei eine Einigung möglich. «Wichtig ist, dass die Souveränität über die Zuwanderung bei der Schweiz liegt.» Das Szenario ist für die Gegner hingegen reines Wunschdenken. Economiesuisse-Vorstandsmitglied Peter A. Gehler: «Ein Ja würde das Verhältnis mit der EU für längere Zeit destabilisieren. Die EU wird nicht bereit sein, vom Prinzip der Personenfreizügigkeit abzurücken.» Die EU verweigert Verhandlungen. Wegen der sogenannten Guillotine-Klausel fällt nicht nur das Freizügiggkeitsabkommen weg, sondern die ganzen  bilateralen Verträge I. Für die SVP wäre der Verlust der Bilateralen I verkraftbar. Auch Janssen zitiert Studien, die den Wert der Bilateralen auf weniger als ein Prozent des Bruttoinlandproduktes schätzen. Bleiben würde ohnehin das Freihandelsabkommen von 1972, sagt Janssen. «Dieses ist die Basis des Handels.» Wirtschaftsvertreter Gehler sagt, der Verlust der Bilateralen I würde den ausschliesslich in der Schweiz tätigen Firmen den Zugang zum EU-Markt massiv erschweren. «Andere Unternehmen würden ihre Produktion und damit Arbeitsplätze ins Ausland verlagern.» Gehler warnt: «Während Jahren würde zwischen der Schweiz und Brüssel Eiszeit herrschen. Verträge würden nicht mehr aufdatiert, das Rahmenabkommen wäre vom Tisch. Es gäbe höchstens Ad-hoc-Lösungen.» Zwar hätten Grenzregionen wie Baden-Württemberg oder die Lombardei ein Interesse am Erhalt der bilateralen Verträge. «Aber es braucht die Zustimmung aller 27 Mitgliedstaaten.» Die EU kappt weitere Beziehungen zur Schweiz. Die Schweiz wird auch von Schengen/Dublin-Abkommen ausgeschlossen. Sie verliert den Zugriff auf das europaweite Fahndungssystem. Die Gegner warnen vor einem Kleinkrieg, bei dem es nur Verlierer gibt. Laut Gehler ist aus Sicht der EU die Personenfreizügigkeit die Basis für eine Teilnahme der Schweiz an Schengen/Dublin. Damit laufe die Schweiz Gefahr, dass die EU die Zusammenarbeit im Sicherheits- und Asylbereich kappe. Bei der verweigerten Börsenäquivalenz habe man gesehen, dass die EU auch willkürliche Massnahmen treffen könne. Befürworter Janssen sagt: «All das ist nicht im Interesse der EU, die weiterhin mit der Schweiz handeln will und keine Sicherheitslücke mitten in Europa will. Man kann zwar nichts ausschliessen, aber wenn das ein Argument ist, macht man sich völlig erpressbar.» Das Volk nimmt die Kündigungsinitiative zwar an – Bundesrat und Parlament sehen aber von einer wortgetreuen Umsetzung ab. Gehler glaubt nicht an dieses Szenario: «Der Wortlaut der Initiative ist klar. Würde ein Ja des Volkes ignoriert, nähme die Demokratie Schaden.» Janssen sagt: «Über dieses Szenario würde nach einer Annahme sicher diskutiert.» Aber: «Das würden sich Bundesrat und Parlament nicht getrauen. Das würde einen Aufstand geben.» Das Personenfreizügigkeitsabkommen (FZA) mit der EU trat am 1. Juni 2002 in Kraft. Es erlaubt es Schweizerinnen und Schweizern, in jedem Mitgliedstaat der EU zu leben, zu arbeiten und zu studieren, für EU-Bürger gilt dasselbe in Bezug auf die Schweiz. Das Personenfreizügigkeitsabkommen gehört zu sieben bilateralen Abkommen, die als Paket zwischen der Schweiz und der EU ausgehandelt wurden. Fünf Abkommen der Bilateralen I sichern der Schweiz und der EU den gegenseitigen Marktzugang: die Abkommen über technische Handelshemmnisse, das öffentliche Beschaffungswesen, die Landwirtschaft sowie den Land- und den Luftverkehr. Das Forschungsabkommen regelt die Teilnahme der Schweiz an den EU-Forschungsprogrammen. Das FZA ist rechtlich mit den übrigen sechs Abkommen der Bilateralen I verknüpft: Wird es gekündigt, treten sechs Monate später automatisch auch die anderen Abkommen ausser Kraft (Guillotine-Klausel). Am 27. September 2020 stimmt die Schweiz über die Begrenzungsinitiative (BGI) der SVP ab, nachdem die Abstimmung vom Mai wegen der Corona-Pandemie ins Wasser fiel. Die Initiative verlangt, dass die Schweiz die Zuwanderung wieder autonom kontrollieren kann. Bei einer Annahme der Initiative soll die Schweiz innerhalb eines Jahres die Personenfreizügigkeit mit der EU auf dem Verhandlungsweg ausser Kraft setzen. Gelingt dies nicht, soll das Freizügigkeitsabkommen gekündigt werden. Am 9. Februar 2014 nahm das Volk die Masseneinwanderungsinitiative der SVP an, welche die Zuwanderung mit Höchstzahlen und Kontingenten bremsen wollte. Es folgte ein langes Hickhack um die Umsetzung. Beschlossen wurde schliesslich nur eine Stellenmeldepflicht. Daraufhin lancierte die SVP die BGI. Der Bundesrat, die Kantone, Gewerkschaften und Wirtschaftsverbände sprechen sich gegen die Initiative aus. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Endgültiger Bruch mit Brüssel oder Nachverhandlungen: 20 Minuten zeigt, wie es im Falle eines Ja zur Begrenzungsinitiative weitergehen könnte. Die Begrenzungsinitiative verlangt, dass die Schweiz die Personenfreizügigkeit auf dem Verhandlungsweg ausser Kraft setzt – oder das Abkommen kündigt. Gegner und Befürworter sind uneins, wie die EU reagieren würde. Mit der Begrenzungsinitiative will die SVP der Personenfreizügigkeit ein Ende setzen. Doch was passiert eigentlich genau, wenn das Volk die Initiative am 27. September annimmt? Denkbar sind mehrere Szenarien: von konstruktiven Nachverhandlungen bis zur totalen Eskalation mit Brüssel. Die EU ist zu Gesprächen mit der Schweiz bereit. Die EU stimmt zu, dass die Schweiz die Zuwanderung begrenzt, die übrigen sechs Verträge der Bilateralen I bleiben erhalten. Für den emeritierten Wirtschaftsprofessor und Unternehmer Martin Janssen ist eine Lösung auf dem Verhandlungsweg das «wahrscheinlichste Szenario». «Die Verträge – vom Abkommen über technische Handelshemmnisse bis zum Landverkehrsabkommen – sind alle sehr im Interesse der EU.» Auch beim Freizügigkeitsabkommen sei eine Einigung möglich. «Wichtig ist, dass die Souveränität über die Zuwanderung bei der Schweiz liegt.» Das Szenario ist für die Gegner hingegen reines Wunschdenken. Economiesuisse-Vorstandsmitglied Peter A. Gehler: «Ein Ja würde das Verhältnis mit der EU für längere Zeit destabilisieren. Die EU wird nicht bereit sein, vom Prinzip der Personenfreizügigkeit abzurücken.» Die EU verweigert Verhandlungen. Wegen der sogenannten Guillotine-Klausel fällt nicht nur das Freizügiggkeitsabkommen weg, sondern die ganzen  bilateralen Verträge I. Für die SVP wäre der Verlust der Bilateralen I verkraftbar. Auch Janssen zitiert Studien, die den Wert der Bilateralen auf weniger als ein Prozent des Bruttoinlandproduktes schätzen. Bleiben würde ohnehin das Freihandelsabkommen von 1972, sagt Janssen. «Dieses ist die Basis des Handels.» Wirtschaftsvertreter Gehler sagt, der Verlust der Bilateralen I würde den ausschliesslich in der Schweiz tätigen Firmen den Zugang zum EU-Markt massiv erschweren. «Andere Unternehmen würden ihre Produktion und damit Arbeitsplätze ins Ausland verlagern.» Gehler warnt: «Während Jahren würde zwischen der Schweiz und Brüssel Eiszeit herrschen. Verträge würden nicht mehr aufdatiert, das Rahmenabkommen wäre vom Tisch. Es gäbe höchstens Ad-hoc-Lösungen.» Zwar hätten Grenzregionen wie Baden-Württemberg oder die Lombardei ein Interesse am Erhalt der bilateralen Verträge. «Aber es braucht die Zustimmung aller 27 Mitgliedstaaten.» Die EU kappt weitere Beziehungen zur Schweiz. Die Schweiz wird auch von Schengen/Dublin-Abkommen ausgeschlossen. Sie verliert den Zugriff auf das europaweite Fahndungssystem. Die Gegner warnen vor einem Kleinkrieg, bei dem es nur Verlierer gibt. Laut Gehler ist aus Sicht der EU die Personenfreizügigkeit die Basis für eine Teilnahme der Schweiz an Schengen/Dublin. Damit laufe die Schweiz Gefahr, dass die EU die Zusammenarbeit im Sicherheits- und Asylbereich kappe. Bei der verweigerten Börsenäquivalenz habe man gesehen, dass die EU auch willkürliche Massnahmen treffen könne. Befürworter Janssen sagt: «All das ist nicht im Interesse der EU, die weiterhin mit der Schweiz handeln will und keine Sicherheitslücke mitten in Europa will. Man kann zwar nichts ausschliessen, aber wenn das ein Argument ist, macht man sich völlig erpressbar.» Das Volk nimmt die Kündigungsinitiative zwar an – Bundesrat und Parlament sehen aber von einer wortgetreuen Umsetzung ab. Gehler glaubt nicht an dieses Szenario: «Der Wortlaut der Initiative ist klar. Würde ein Ja des Volkes ignoriert, nähme die Demokratie Schaden.» Janssen sagt: «Über dieses Szenario würde nach einer Annahme sicher diskutiert.» Aber: «Das würden sich Bundesrat und Parlament nicht getrauen. Das würde einen Aufstand geben.» Das Personenfreizügigkeitsabkommen (FZA) mit der EU trat am 1. Juni 2002 in Kraft. Es erlaubt es Schweizerinnen und Schweizern, in jedem Mitgliedstaat der EU zu leben, zu arbeiten und zu studieren, für EU-Bürger gilt dasselbe in Bezug auf die Schweiz. Das Personenfreizügigkeitsabkommen gehört zu sieben bilateralen Abkommen, die als Paket zwischen der Schweiz und der EU ausgehandelt wurden. Fünf Abkommen der Bilateralen I sichern der Schweiz und der EU den gegenseitigen Marktzugang: die Abkommen über technische Handelshemmnisse, das öffentliche Beschaffungswesen, die Landwirtschaft sowie den Land- und den Luftverkehr. Das Forschungsabkommen regelt die Teilnahme der Schweiz an den EU-Forschungsprogrammen. Das FZA ist rechtlich mit den übrigen sechs Abkommen der Bilateralen I verknüpft: Wird es gekündigt, treten sechs Monate später automatisch auch die anderen Abkommen ausser Kraft (Guillotine-Klausel). Am 27. September 2020 stimmt die Schweiz über die Begrenzungsinitiative (BGI) der SVP ab, nachdem die Abstimmung vom Mai wegen der Corona-Pandemie ins Wasser fiel. Die Initiative verlangt, dass die Schweiz die Zuwanderung wieder autonom kontrollieren kann. Bei einer Annahme der Initiative soll die Schweiz innerhalb eines Jahres die Personenfreizügigkeit mit der EU auf dem Verhandlungsweg ausser Kraft setzen. Gelingt dies nicht, soll das Freizügigkeitsabkommen gekündigt werden. Am 9. Februar 2014 nahm das Volk die Masseneinwanderungsinitiative der SVP an, welche die Zuwanderung mit Höchstzahlen und Kontingenten bremsen wollte. Es folgte ein langes Hickhack um die Umsetzung. Beschlossen wurde schliesslich nur eine Stellenmeldepflicht. Daraufhin lancierte die SVP die BGI. Der Bundesrat, die Kantone, Gewerkschaften und Wirtschaftsverbände sprechen sich gegen die Initiative aus.</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2513,8 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
+          <t>.    Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2556,8 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU</t>
+          <t>.   SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2599,8 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr</t>
+          <t>. Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2642,8 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz</t>
+          <t>.   Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2799,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Am 29. November stehen die nächsten Abstimmungen an. Die Schweizer entscheiden über die Konzernverantwortungsinitiative. Am 29. November stimmt die Schweiz über die Konzernverantwortungsinitiative ab. Die Befürworter wollen Umweltverschmutzungen und Verstösse gegen das Menschenrecht durch Schweizer Firmen und deren ausländische Tochterfirmen verhindern. Sie zielen vor allem auf multinationale Konzerne wie Glencore oder Syngenta. Die Gegner befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Nach der Corona-bedingten Abstimmungspause geht es jetzt Schlag auf Schlag: Am Sonntag stimmten die Schweizer gleich über fünf nationale Vorlagen ab, in einem Monat kommen bereits zwei weitere an die Urne. Eine davon ist die Konzernverantwortungsinitiative, der Abstimmungskampf geht jetzt in die heisse Phase. Die wichtigsten Fragen und Antworten. Worum gehts? Die Konzernverantwortungsinitiative (KVI) verlangt, dass Unternehmen mit Sitz in der Schweiz die Menschenrechte und internationale Umweltstandards auch im Ausland respektieren müssen. Verletzt eine Schweizer Firma im Ausland diese Rechte, soll sie dafür haftbar gemacht werden können. Sprich: Menschen, die im Ausland von einer Schweizer Firma geschädigt wurden, sollen hier auf Schadenersatz klagen können. Einzige Ausnahme von der Haftungsregelung: Wenn die Firma nachweisen kann, dass sie ihren Sorgfaltspflichten nachgekommen ist. Wer ist dafür, wer dagegen? Lanciert wurde die Initiative von einem Zusammenschluss diverser Organisationen, darunter Public Eye und Amnesty International. Mittlerweile unterstützen laut den Angaben der Initianten mehr als 130 verschiedene Organisationen und Hilfswerke das Anliegen. Die SP, die Grünen, die BDP und die GLP sagen ebenfalls Ja, dagegen sind die CVP, die FDP und die SVP. Der Wirtschaftsdachverband Economiesuisse bekämpft die KVI. Wie begründen die Befürworter ihre Initiative?Die Befürworter argumentieren mit Beispielen von vermeintlichen Menschenrechtsverstössen und Umweltverschmutzungen durch Schweizer Konzerne. Auf der Homepage ist von Kindern zu lesen, die mit Schwermetall vergiftet wurden, von hierzulande verbotenen Schweizer Pestiziden, die in Indien eingesetzt werden, oder von vergiftetem Wasser in Kolumbien. Nicht alle diese Vorfälle sind ausreichend mit Fakten von unabhängigen Berichterstattern belegt. Was befürchten die Gegner? Das Nein-Komitee sagt zwar, das Ziel der Initiative sei berechtigt. Der eingeschlagene Weg sei aber der falsche. Die Initiative schwäche die Schweiz und treffe auch KMU. Die unberechenbaren Haftungsrisiken zwängen Firmen, sich aus Entwicklungsländern zurückzuziehen. Dort würden laut den Gegnern dann Firmen aus anderen Ländern in die Lücke springen, welche Umweltschutzstandards und Menschenrechte möglicherweise noch weniger achteten. Ausserdem drohten bei einer Annahme der Initiative erpresserische Klagen für Schweizer Unternehmen und ein enormer bürokratischer Aufwand, da die gesamte Lieferkette regelmässig auf die Wahrung der Menschenrechte und Umweltstandards überprüft werden müsste, um der geforderten Sorgfaltspflicht Rechnung zu tragen. Wer wäre betroffen?Die Initiative zielt hauptsächlich auf Schweizer Unternehmen sowie deren Tochtergesellschaften im Ausland. Doch auch Firmen, welche nicht zu einer Schweizer Firma gehören, aber von dieser «kontrolliert» werden, sollen laut Initiativtext in die Verantwortung genommen werden. «Eine Kontrolle kann faktisch auch durch wirtschaftliche Machtausübung erfolgen», steht da. Sprich: Wenn ein ausländischer Zulieferer ausschliesslich eine Schweizer Firma beliefert, kann dies laut Initiativtext auch ein Kontrollverhältnis darstellen. Das Schweizer Unternehmen könnte somit auch für den ausländischen Zulieferer haftbar gemacht werden. Würden KMU bei einer Annahme leiden? Hier sind sich Befürworter und Gegner uneins. Die Initianten sagen, kleine und mittlere Unternehmen bis 250 Mitarbeiter seien von der Initiative ausgenommen, es sei denn, sie seien in Hochrisiko-Sektoren wie dem Goldhandel tätig. Die Gegner sagen, die Regelung gelte für sämtliche Unternehmen – und damit auch für KMU. Der Initiativtext ist diesbezüglich unklar formuliert, er fordert den Gesetzgeber lediglich dazu auf, bei der Überprüfung der Sorgfaltspflicht «Rücksicht auf die Bedürfnisse kleiner und mittlerer Unternehmen zu nehmen». Werden die Menschenrechte von Schweizer Firmen im Ausland nicht heute schon geachtet? Eine vom Bund in Auftrag gegebene Studie hat 2018 festgestellt, dass hier noch Lücken bestehen. Der Bundesrat sagt denn auch, er räume «der Einhaltung der Menschenrechte und dem Schutz der Umwelt einen hohen Stellenwert ein». Er sieht Handlungsbedarf, will aber auf bereits existierende Instrumente, Aktionspläne und ein international abgestimmtes Vorgehen setzen. Bleibt bei einem Nein alles beim Alten? Nein. Das Parlament hat nach langem Ringen einen indirekten Gegenvorschlag ausgearbeitet. Wichtigste Änderung im Vergleich zur Initiative: Schweizer Konzerne sollen laut Gegenvorschlag nicht für das Fehlverhalten von Tochterunternehmen im Ausland haftbar gemacht werden können. Der Gegenvorschlag will ausserdem konkret festlegen, dass nur Publikumsgesellschaften und grosse Finanzinstitute mit mehr als 500 Mitarbeitern betroffen wären. Der Gegenvorschlag tritt automatisch in Kraft, falls die Initiative abgelehnt wird und kein Referendum gegen den Gegenvorschlag zustande kommt. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Am 29. November stehen die nächsten Abstimmungen an. Die Schweizer entscheiden über die Konzernverantwortungsinitiative. Am 29. November stimmt die Schweiz über die Konzernverantwortungsinitiative ab. Die Befürworter wollen Umweltverschmutzungen und Verstösse gegen das Menschenrecht durch Schweizer Firmen und deren ausländische Tochterfirmen verhindern. Sie zielen vor allem auf multinationale Konzerne wie Glencore oder Syngenta. Die Gegner befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Nach der Corona-bedingten Abstimmungspause geht es jetzt Schlag auf Schlag: Am Sonntag stimmten die Schweizer gleich über fünf nationale Vorlagen ab, in einem Monat kommen bereits zwei weitere an die Urne. Eine davon ist die Konzernverantwortungsinitiative, der Abstimmungskampf geht jetzt in die heisse Phase. Die wichtigsten Fragen und Antworten. Worum gehts? Die Konzernverantwortungsinitiative (KVI) verlangt, dass Unternehmen mit Sitz in der Schweiz die Menschenrechte und internationale Umweltstandards auch im Ausland respektieren müssen. Verletzt eine Schweizer Firma im Ausland diese Rechte, soll sie dafür haftbar gemacht werden können. Sprich: Menschen, die im Ausland von einer Schweizer Firma geschädigt wurden, sollen hier auf Schadenersatz klagen können. Einzige Ausnahme von der Haftungsregelung: Wenn die Firma nachweisen kann, dass sie ihren Sorgfaltspflichten nachgekommen ist. Wer ist dafür, wer dagegen? Lanciert wurde die Initiative von einem Zusammenschluss diverser Organisationen, darunter Public Eye und Amnesty International. Mittlerweile unterstützen laut den Angaben der Initianten mehr als 130 verschiedene Organisationen und Hilfswerke das Anliegen. Die SP, die Grünen, die BDP und die GLP sagen ebenfalls Ja, dagegen sind die CVP, die FDP und die SVP. Der Wirtschaftsdachverband Economiesuisse bekämpft die KVI. Wie begründen die Befürworter ihre Initiative?Die Befürworter argumentieren mit Beispielen von vermeintlichen Menschenrechtsverstössen und Umweltverschmutzungen durch Schweizer Konzerne. Auf der Homepage ist von Kindern zu lesen, die mit Schwermetall vergiftet wurden, von hierzulande verbotenen Schweizer Pestiziden, die in Indien eingesetzt werden, oder von vergiftetem Wasser in Kolumbien. Nicht alle diese Vorfälle sind ausreichend mit Fakten von unabhängigen Berichterstattern belegt. Was befürchten die Gegner? Das Nein-Komitee sagt zwar, das Ziel der Initiative sei berechtigt. Der eingeschlagene Weg sei aber der falsche. Die Initiative schwäche die Schweiz und treffe auch KMU. Die unberechenbaren Haftungsrisiken zwängen Firmen, sich aus Entwicklungsländern zurückzuziehen. Dort würden laut den Gegnern dann Firmen aus anderen Ländern in die Lücke springen, welche Umweltschutzstandards und Menschenrechte möglicherweise noch weniger achteten. Ausserdem drohten bei einer Annahme der Initiative erpresserische Klagen für Schweizer Unternehmen und ein enormer bürokratischer Aufwand, da die gesamte Lieferkette regelmässig auf die Wahrung der Menschenrechte und Umweltstandards überprüft werden müsste, um der geforderten Sorgfaltspflicht Rechnung zu tragen. Wer wäre betroffen?Die Initiative zielt hauptsächlich auf Schweizer Unternehmen sowie deren Tochtergesellschaften im Ausland. Doch auch Firmen, welche nicht zu einer Schweizer Firma gehören, aber von dieser «kontrolliert» werden, sollen laut Initiativtext in die Verantwortung genommen werden. «Eine Kontrolle kann faktisch auch durch wirtschaftliche Machtausübung erfolgen», steht da. Sprich: Wenn ein ausländischer Zulieferer ausschliesslich eine Schweizer Firma beliefert, kann dies laut Initiativtext auch ein Kontrollverhältnis darstellen. Das Schweizer Unternehmen könnte somit auch für den ausländischen Zulieferer haftbar gemacht werden. Würden KMU bei einer Annahme leiden? Hier sind sich Befürworter und Gegner uneins. Die Initianten sagen, kleine und mittlere Unternehmen bis 250 Mitarbeiter seien von der Initiative ausgenommen, es sei denn, sie seien in Hochrisiko-Sektoren wie dem Goldhandel tätig. Die Gegner sagen, die Regelung gelte für sämtliche Unternehmen – und damit auch für KMU. Der Initiativtext ist diesbezüglich unklar formuliert, er fordert den Gesetzgeber lediglich dazu auf, bei der Überprüfung der Sorgfaltspflicht «Rücksicht auf die Bedürfnisse kleiner und mittlerer Unternehmen zu nehmen». Werden die Menschenrechte von Schweizer Firmen im Ausland nicht heute schon geachtet? Eine vom Bund in Auftrag gegebene Studie hat 2018 festgestellt, dass hier noch Lücken bestehen. Der Bundesrat sagt denn auch, er räume «der Einhaltung der Menschenrechte und dem Schutz der Umwelt einen hohen Stellenwert ein». Er sieht Handlungsbedarf, will aber auf bereits existierende Instrumente, Aktionspläne und ein international abgestimmtes Vorgehen setzen. Bleibt bei einem Nein alles beim Alten? Nein. Das Parlament hat nach langem Ringen einen indirekten Gegenvorschlag ausgearbeitet. Wichtigste Änderung im Vergleich zur Initiative: Schweizer Konzerne sollen laut Gegenvorschlag nicht für das Fehlverhalten von Tochterunternehmen im Ausland haftbar gemacht werden können. Der Gegenvorschlag will ausserdem konkret festlegen, dass nur Publikumsgesellschaften und grosse Finanzinstitute mit mehr als 500 Mitarbeitern betroffen wären. Der Gegenvorschlag tritt automatisch in Kraft, falls die Initiative abgelehnt wird und kein Referendum gegen den Gegenvorschlag zustande kommt.</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2841,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Der Bundesrat lehnt die Kriegsgeschäfte-Initiative ab. Bei einer Annahme der Initiative könnte der Wirtschaftsstandort Schweiz benachteiligt und Renteneinnahmen gefährdet werden. Wirtschaftsminister Guy Parmelin legte am Freitag die Argumente des Bundesrats gegen die Kriegsgeschäfte-Initiative dar. (Archivbild) Der Bundesrat hat am Freitag dargelegt, weshalb er die Kriegsgeschäfte-Initiative zur Ablehnung empfiehlt. Eine Annahme würde den Finanz- und Wirtschaftsstandort Schweiz benachteiligen und die Altersrente gefährden, argumentierte die Regierung. Am 29. November entscheiden Volk und Stände über die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten». Der Bundesrat und eine Mehrheit des Parlaments empfehlen das Volksbegehren zur Ablehnung. Das von der Initiative geforderte weitgehende Verbot der Finanzierung von Kriegsmaterialproduzenten würde die Investitionsmöglichkeiten der Pensionskassen und der AHV/IV gemäss Mitteilung des Bundesrats stark einschränken. Es seien höhere Verwaltungskosten und Anlagerisiken zu erwarten sowie längerfristige negative Folgen auf die Renditeaussichten. Alle diese Folgen würden sich schliesslich negativ auf die Altersrente auswirken. Die Einschränkung der Investitionsfreiheit von Banken und Versicherungen würde zudem den Schweizer Finanzplatz schwächen, hiess es in der Mitteilung. Der Bundesrat lehnt die Initiative aber auch aus wirtschaftlichen Gründen ab. In der Schweiz sind zahlreiche Unternehmen in die Wertschöpfungskette zur Herstellung von Kriegsmaterial eingebunden. Die Umsetzung der Initiative könne deshalb auch die KMU der Maschinen-, Elektro- und Metallindustrie (MEM-Industrie) treffen, die teilweise als Zulieferer von Rüstungsunternehmen tätig sind. Wenn die Banken ihnen keine Kredite mehr geben könnten, könnten sie auch weniger investieren. Dadurch würden sie an Wettbewerbsfähigkeit verlieren. Auch könnten so Knowhow und Arbeitsplätze verloren gehen. Für den Bundesrat geht die Initiative zudem im internationalen Vergleich viel zu weit. Kein einziges Land habe heute ein so weitreichendes Finanzierungsverbot, wie dies mit der Initiative verlangt werde. Mit dem bestehenden Finanzierungsverbot für international geächtete Waffen besteht laut dem Bundesrat eine gute Lösung. In atomare, biologische und chemische Waffen sowie Streumunition und Personenminen darf bereits heute nicht investiert werden. Das geltende Verbot lasse im Gegensatz zur Initiative den Vorsorgewerken und dem Finanzplatz Schweiz genügend Spielraum bei den Investitionen. Die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten» wurde von der Gruppe für eine Schweiz ohne Armee (Gsoa) und den Jungen Grünen lanciert. Unterstützt wird das Anliegen von Grünen, SP, EVP und rund dreissig Organisationen wie zum Beispiel Solidarité sans frontiéres, VPOD und Humanrights.ch. Das Volksbegehren verlangt, dass der Schweizerischen Nationalbank, Stiftungen sowie Einrichtungen der staatlichen und beruflichen Vorsorge (AHV/IV/Pensionskassen) die Finanzierung von Kriegsmaterialproduzenten verboten wird. Als Kriegsmaterialproduzenten gelten Unternehmen, die mehr als 5 Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen. Unter Finanzierung verstehen die Initianten die Gewährung von Krediten, Darlehen, Schenkungen oder vergleichbaren finanziellen Vorteilen. Zudem dürfen keine Wertschriften von Kriegsmaterialproduzenten erworben werden oder Finanzprodukte gekauft werden, die sich an Kriegsmaterialproduzenten beteiligen. Weiter verlangt die Initiative, dass sich der Bundesrat auf nationaler und internationaler Ebene dafür einsetzt, dass für Banken und Versicherungen dieselben Bedingungen gelten. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Der Bundesrat lehnt die Kriegsgeschäfte-Initiative ab. Bei einer Annahme der Initiative könnte der Wirtschaftsstandort Schweiz benachteiligt und Renteneinnahmen gefährdet werden. Wirtschaftsminister Guy Parmelin legte am Freitag die Argumente des Bundesrats gegen die Kriegsgeschäfte-Initiative dar. (Archivbild) Der Bundesrat hat am Freitag dargelegt, weshalb er die Kriegsgeschäfte-Initiative zur Ablehnung empfiehlt. Eine Annahme würde den Finanz- und Wirtschaftsstandort Schweiz benachteiligen und die Altersrente gefährden, argumentierte die Regierung. Am 29. November entscheiden Volk und Stände über die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten». Der Bundesrat und eine Mehrheit des Parlaments empfehlen das Volksbegehren zur Ablehnung. Das von der Initiative geforderte weitgehende Verbot der Finanzierung von Kriegsmaterialproduzenten würde die Investitionsmöglichkeiten der Pensionskassen und der AHV/IV gemäss Mitteilung des Bundesrats stark einschränken. Es seien höhere Verwaltungskosten und Anlagerisiken zu erwarten sowie längerfristige negative Folgen auf die Renditeaussichten. Alle diese Folgen würden sich schliesslich negativ auf die Altersrente auswirken. Die Einschränkung der Investitionsfreiheit von Banken und Versicherungen würde zudem den Schweizer Finanzplatz schwächen, hiess es in der Mitteilung. Der Bundesrat lehnt die Initiative aber auch aus wirtschaftlichen Gründen ab. In der Schweiz sind zahlreiche Unternehmen in die Wertschöpfungskette zur Herstellung von Kriegsmaterial eingebunden. Die Umsetzung der Initiative könne deshalb auch die KMU der Maschinen-, Elektro- und Metallindustrie (MEM-Industrie) treffen, die teilweise als Zulieferer von Rüstungsunternehmen tätig sind. Wenn die Banken ihnen keine Kredite mehr geben könnten, könnten sie auch weniger investieren. Dadurch würden sie an Wettbewerbsfähigkeit verlieren. Auch könnten so Knowhow und Arbeitsplätze verloren gehen. Für den Bundesrat geht die Initiative zudem im internationalen Vergleich viel zu weit. Kein einziges Land habe heute ein so weitreichendes Finanzierungsverbot, wie dies mit der Initiative verlangt werde. Mit dem bestehenden Finanzierungsverbot für international geächtete Waffen besteht laut dem Bundesrat eine gute Lösung. In atomare, biologische und chemische Waffen sowie Streumunition und Personenminen darf bereits heute nicht investiert werden. Das geltende Verbot lasse im Gegensatz zur Initiative den Vorsorgewerken und dem Finanzplatz Schweiz genügend Spielraum bei den Investitionen. Die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten» wurde von der Gruppe für eine Schweiz ohne Armee (Gsoa) und den Jungen Grünen lanciert. Unterstützt wird das Anliegen von Grünen, SP, EVP und rund dreissig Organisationen wie zum Beispiel Solidarité sans frontiéres, VPOD und Humanrights.ch. Das Volksbegehren verlangt, dass der Schweizerischen Nationalbank, Stiftungen sowie Einrichtungen der staatlichen und beruflichen Vorsorge (AHV/IV/Pensionskassen) die Finanzierung von Kriegsmaterialproduzenten verboten wird. Als Kriegsmaterialproduzenten gelten Unternehmen, die mehr als 5 Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen. Unter Finanzierung verstehen die Initianten die Gewährung von Krediten, Darlehen, Schenkungen oder vergleichbaren finanziellen Vorteilen. Zudem dürfen keine Wertschriften von Kriegsmaterialproduzenten erworben werden oder Finanzprodukte gekauft werden, die sich an Kriegsmaterialproduzenten beteiligen. Weiter verlangt die Initiative, dass sich der Bundesrat auf nationaler und internationaler Ebene dafür einsetzt, dass für Banken und Versicherungen dieselben Bedingungen gelten.</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2883,8 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November</t>
+          <t>.   Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2907,9 +2926,10 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>19.10.2020, 14:11 Das überparteiliche Komitee sagt der Kriegsgeschäfte-Initiative von Schweiz ohne Armee (Gsoa) und den Jungen Grünen den Kampf an. Die Vertreterinnen und Vertreter des Komitees können mit den Instrumenten der Initiative nichts anfangen, wie sie vor den Bundeshausmedien bekannt gaben. Das «rigorose» Finanzierungsverbot verteuere die Anlagemöglichkeiten der Sozialwerke und erhöhe deren Risiken. Entweder müssten sich AHV und Pensionskassen bei ihren Investitionen auf einzelne Firmen beschränken. Oder sie müssten jedes Jahr tausende von Unternehmen auf deren Umsatz mit Kriegsmaterial überprüfen. Beim ersten Fall wird laut Initiativgegner das Anlagerisiko erhöht. Der zweite Fall bringe hohe Verwaltungskosten mit sich. Zu denken gibt dem Nein-Komitee auch die aus ihrer Sicht «sehr weit gefasste Definition von Kriegsmaterialproduzenten». Der Tessiner CVP-Nationalrat Fabio Regazzi sprach von einer «völlig willkürlichen und starren Grenze». Betroffen seien nicht nur grosse Rüstungskonzerne, sondern auch Schweizer KMU, die als Zuliefererbetriebe fungierten. Ein wichtiger, grosser Auftrag von einem Rüstungsunternehmen mache solche Firmen plötzlich selber zu Kriegsmaterialproduzenten, kritisierte Regazzi. Solche Firmen dürften dann beispielsweise keine Kredite bei Schweizer Banken mehr aufnehmen. «Mit dem starren Finanzierungsverbot dreht die Gsoa vielen Schweizer Firmen den Geldhahn faktisch zu.» Weiter monieren die Gegner, die Initiative wähle einen gefährlichen Alleingang. Zentralbanken auf der ganzen Welt erfüllten ihre geld- und währungspolitischen Aufgaben unabhängig von politischen Instanzen. Die Initiative führe aber Kriterien für die Anlage der Gelder ein und gefährde die Unabhängigkeit der Nationalbank. Volk und Stände stimmen am 29. November über die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten» ab. Diese verlangt, dass der Schweizerischen Nationalbank, Stiftungen sowie Einrichtungen der staatlichen und beruflichen Vorsorge (AHV/IV/Pensionskassen) die Finanzierung von Kriegsmaterialproduzenten verboten wird. Als solche gelten Unternehmen, die mehr als 5 Prozent ihres Umsatzes mit der Herstellung von Rüstungsmaterial erwirtschaften. Weiter soll sich der Bundesrat dafür einsetzen, dass für Banken und Versicherungen dieselben Bedingungen gelten. Gerade in der Coronakrise sei es eine dringliche Aufgabe der Nationalbank, für stabile Preise zu sorgen, sagte die Aargauer FDP-Nationalrätin Maja Riniker. Dafür sei sie auf volle Handlungsfähigkeit angewiesen. Zudem gab Riniker zu bedenken, dass die SNB bereits heute Unternehmen aus den Investitionen ausschliesse, die grundlegende Menschenrechte verletzen, systematisch gravierende Umweltschäden verursachen oder international geächtete Waffen herstellen. Die Initiative sei letztlich ein weiterer Angriff der Gsoa auf die Schweizer Armee, sagte der Berner SVP-Ständerat Werner Salzmann. Zur Verteidigung der Souveränität sei das Militär auf Schweizer Lieferanten angewiesen. Das würde schwierig, wenn AHV, Pensionskassen und Nationalbank nicht mehr in Unternehmen investieren dürften, die dazu beitrügen, den Verfassungsauftrag der Verteidigung zu erfüllen. Zwar habe die Initiative ein hehres Ziel: zu einer friedlichen Welt beitragen zu wollen, sagte der Waadtländer GLP-Nationalrat François Pointet. Die Initiative gehe aber den falschen Weg. «Die Initiative hätte keinerlei Auswirkung auf das weltweite Angebot und die Nachfrage von und nach Kriegsmaterial.» Auf internationaler Ebene bestehe kein Wille, ein Finanzierungsverbot umzusetzen. SRF 4 News, 13:00 Uhr
+          <t>.   19.10.2020, 14:11 Das überparteiliche Komitee sagt der Kriegsgeschäfte-Initiative von Schweiz ohne Armee (Gsoa) und den Jungen Grünen den Kampf an. Die Vertreterinnen und Vertreter des Komitees können mit den Instrumenten der Initiative nichts anfangen, wie sie vor den Bundeshausmedien bekannt gaben. Das «rigorose» Finanzierungsverbot verteuere die Anlagemöglichkeiten der Sozialwerke und erhöhe deren Risiken. Entweder müssten sich AHV und Pensionskassen bei ihren Investitionen auf einzelne Firmen beschränken. Oder sie müssten jedes Jahr tausende von Unternehmen auf deren Umsatz mit Kriegsmaterial überprüfen. Beim ersten Fall wird laut Initiativgegner das Anlagerisiko erhöht. Der zweite Fall bringe hohe Verwaltungskosten mit sich. Zu denken gibt dem Nein-Komitee auch die aus ihrer Sicht «sehr weit gefasste Definition von Kriegsmaterialproduzenten». Der Tessiner CVP-Nationalrat Fabio Regazzi sprach von einer «völlig willkürlichen und starren Grenze». Betroffen seien nicht nur grosse Rüstungskonzerne, sondern auch Schweizer KMU, die als Zuliefererbetriebe fungierten. Ein wichtiger, grosser Auftrag von einem Rüstungsunternehmen mache solche Firmen plötzlich selber zu Kriegsmaterialproduzenten, kritisierte Regazzi. Solche Firmen dürften dann beispielsweise keine Kredite bei Schweizer Banken mehr aufnehmen. «Mit dem starren Finanzierungsverbot dreht die Gsoa vielen Schweizer Firmen den Geldhahn faktisch zu.» Weiter monieren die Gegner, die Initiative wähle einen gefährlichen Alleingang. Zentralbanken auf der ganzen Welt erfüllten ihre geld- und währungspolitischen Aufgaben unabhängig von politischen Instanzen. Die Initiative führe aber Kriterien für die Anlage der Gelder ein und gefährde die Unabhängigkeit der Nationalbank. Volk und Stände stimmen am 29. November über die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten» ab. Diese verlangt, dass der Schweizerischen Nationalbank, Stiftungen sowie Einrichtungen der staatlichen und beruflichen Vorsorge (AHV/IV/Pensionskassen) die Finanzierung von Kriegsmaterialproduzenten verboten wird. Als solche gelten Unternehmen, die mehr als 5 Prozent ihres Umsatzes mit der Herstellung von Rüstungsmaterial erwirtschaften. Weiter soll sich der Bundesrat dafür einsetzen, dass für Banken und Versicherungen dieselben Bedingungen gelten. Gerade in der Coronakrise sei es eine dringliche Aufgabe der Nationalbank, für stabile Preise zu sorgen, sagte die Aargauer FDP-Nationalrätin Maja Riniker. Dafür sei sie auf volle Handlungsfähigkeit angewiesen. Zudem gab Riniker zu bedenken, dass die SNB bereits heute Unternehmen aus den Investitionen ausschliesse, die grundlegende Menschenrechte verletzen, systematisch gravierende Umweltschäden verursachen oder international geächtete Waffen herstellen. Die Initiative sei letztlich ein weiterer Angriff der Gsoa auf die Schweizer Armee, sagte der Berner SVP-Ständerat Werner Salzmann. Zur Verteidigung der Souveränität sei das Militär auf Schweizer Lieferanten angewiesen. Das würde schwierig, wenn AHV, Pensionskassen und Nationalbank nicht mehr in Unternehmen investieren dürften, die dazu beitrügen, den Verfassungsauftrag der Verteidigung zu erfüllen. Zwar habe die Initiative ein hehres Ziel: zu einer friedlichen Welt beitragen zu wollen, sagte der Waadtländer GLP-Nationalrat François Pointet. Die Initiative gehe aber den falschen Weg. «Die Initiative hätte keinerlei Auswirkung auf das weltweite Angebot und die Nachfrage von und nach Kriegsmaterial.» Auf internationaler Ebene bestehe kein Wille, ein Finanzierungsverbot umzusetzen. SRF 4 News, 13:00 Uhr
                 ;                                         
-                        sda/horm; Abstimmung vom 29. November Abstimmung vom 29. November Investitionen in Waffenfirmen</t>
+                        sda/horm; Abstimmung vom 29. November Abstimmung vom 29. November Investitionen in Waffenfirmen 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2971,8 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November</t>
+          <t>.   Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3124,8 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen</t>
+          <t>.   Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3167,8 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
+          <t>.    Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3210,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Der Berner Imam Mustafa Memeti plädiert öffentlich für die Annahme des Verhüllungsverbots. Er findet, das Tragen von Burkas schottet die Trägerinnen ab und würde ihre Emanzipation verhindern. Ein Berner Imam plädiert für das Verhüllungsverbot. Mustafa Memeti findet, im Koran werde das Tragen eines Niqabs oder einer Burka nicht vorgeschrieben. Eine Burka schotte aber die Trägerin ab und hindere sie daran, sich zu emanzipieren. Die Initiative «Ja zum Verhüllungsverbot» erhitzt die Gemüter. Nun spricht sich ein Berner Imam für die Annahme der Initiative aus. In einem Interview mit dem «Bund» sagt Mustafa Memeti, dass die Burka ein uraltes Phänomen sei, das in der modernen und innovativen Gesellschaft keinen Platz hat. «Für die Mehrheit der Muslime haben weder die Burka noch die Initiative, die sie verbieten will, Priorität», so der muslimische Theologe, der seit 30 Jahren in der Schweiz lebt. «Ich sehe hier im Westen keine Perspektive für die Frauen, wenn sie eine Burka tragen. Sie verhindert die Emanzipation», sagt Memeti. «Die Initiative ist so etwas wie ein Rettungspaket für sie.» Im Haus der Religionen in Bern ist er als Imam und Seelsorger tätig und agiert als Präsident der Koordinationsstelle Forum für Albanische Islamische Organisationen in der Schweiz (KFAOS). Dass man das Verhüllungsverbot mit den Kleidervorschriften des IS gleichsetzen kann, findet Memeti nicht. «Es gibt in allen drei monotheistischen Religionen Frauen, die den ganzen Körper freiwillig und aus ideologischen Gründen verschleiern.» So tragen beispielsweise Nonnen auch spezielle Gewände. Bei der Burka sei aber der Unterschied, dass der Schleier die Trägerin total abschotte. Es gehöre nicht zu den islamischen Verpflichtungen, dass man das Gesicht und die Hände bedeckt. «Ich kann nicht etwas verteidigen, für das es keine Argumente gibt.» Und: «Hier geht es um die Kernfrage, wie die Muslime in der Schweiz ihre Zukunft sehen. Mit Burka oder ohne.» Memeti sehe sie ohne Burka. Im Koran gebe es keine bestimmten Vorgaben, wie man sich kleiden müsse. Lediglich erwähnt werde die Anständigkeit. «Man soll sich anständig kleiden und die gegenseitige Verführung vermeiden. Das gilt für Männer und Frauen», so der Imam. Die Kleider seien nur Instrumente dafür. «Wir können aber nicht jahrtausendealte Kleider verwenden, um die Moral und den Charakter zu verteidigen. Wir müssen uns auf den Kopf und das Herz fokussieren, nicht auf die Kleider.» Bist du oder jemand, den du kennst, von Rassismus betroffen? Hier findest du Hilfe: Beratungsnetz für Rassismusopfer GRA, Stiftung gegen Rassismus und Antisemitismus Vorfall bei der GRA melden Beratungsstellen der Opferhilfe Schweiz Pro Juventute, Tel. 147 Dargebotene Hand, Tel. 143 Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Der Berner Imam Mustafa Memeti plädiert öffentlich für die Annahme des Verhüllungsverbots. Er findet, das Tragen von Burkas schottet die Trägerinnen ab und würde ihre Emanzipation verhindern. Ein Berner Imam plädiert für das Verhüllungsverbot. Mustafa Memeti findet, im Koran werde das Tragen eines Niqabs oder einer Burka nicht vorgeschrieben. Eine Burka schotte aber die Trägerin ab und hindere sie daran, sich zu emanzipieren. Die Initiative «Ja zum Verhüllungsverbot» erhitzt die Gemüter. Nun spricht sich ein Berner Imam für die Annahme der Initiative aus. In einem Interview mit dem «Bund» sagt Mustafa Memeti, dass die Burka ein uraltes Phänomen sei, das in der modernen und innovativen Gesellschaft keinen Platz hat. «Für die Mehrheit der Muslime haben weder die Burka noch die Initiative, die sie verbieten will, Priorität», so der muslimische Theologe, der seit 30 Jahren in der Schweiz lebt. «Ich sehe hier im Westen keine Perspektive für die Frauen, wenn sie eine Burka tragen. Sie verhindert die Emanzipation», sagt Memeti. «Die Initiative ist so etwas wie ein Rettungspaket für sie.» Im Haus der Religionen in Bern ist er als Imam und Seelsorger tätig und agiert als Präsident der Koordinationsstelle Forum für Albanische Islamische Organisationen in der Schweiz (KFAOS). Dass man das Verhüllungsverbot mit den Kleidervorschriften des IS gleichsetzen kann, findet Memeti nicht. «Es gibt in allen drei monotheistischen Religionen Frauen, die den ganzen Körper freiwillig und aus ideologischen Gründen verschleiern.» So tragen beispielsweise Nonnen auch spezielle Gewände. Bei der Burka sei aber der Unterschied, dass der Schleier die Trägerin total abschotte. Es gehöre nicht zu den islamischen Verpflichtungen, dass man das Gesicht und die Hände bedeckt. «Ich kann nicht etwas verteidigen, für das es keine Argumente gibt.» Und: «Hier geht es um die Kernfrage, wie die Muslime in der Schweiz ihre Zukunft sehen. Mit Burka oder ohne.» Memeti sehe sie ohne Burka. Im Koran gebe es keine bestimmten Vorgaben, wie man sich kleiden müsse. Lediglich erwähnt werde die Anständigkeit. «Man soll sich anständig kleiden und die gegenseitige Verführung vermeiden. Das gilt für Männer und Frauen», so der Imam. Die Kleider seien nur Instrumente dafür. «Wir können aber nicht jahrtausendealte Kleider verwenden, um die Moral und den Charakter zu verteidigen. Wir müssen uns auf den Kopf und das Herz fokussieren, nicht auf die Kleider.» Bist du oder jemand, den du kennst, von Rassismus betroffen? Hier findest du Hilfe: Beratungsnetz für Rassismusopfer GRA, Stiftung gegen Rassismus und Antisemitismus Vorfall bei der GRA melden Beratungsstellen der Opferhilfe Schweiz Pro Juventute, Tel. 147 Dargebotene Hand, Tel. 143</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3370,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Die 99-Prozent-Initiative mobilisiert die Gegnerschaft. Fünf Komitees engagieren sich gegen eine höhere Besteuerung von Kapitaleinkünften. Gegen die Volksinitiative «Löhne entlasten, Kapital gerecht besteuern» haben sich mehrere Komitees formiert, zum Teil sitzen die bürgerlichen Parlamentarier und Parlamentarierinnen in mehreren Komitees. Dies sei ein Abbild der breiten Betroffenheit, sagt Ivan Jäggi von Farner Consulting. Juso-Chefin Ronja Jansen sagt: «Die Rechten und Reichen versuchen, ihre Privilegien zu verteidigen.» Am Dienstag gab es gleich zwei Medienkonferenzen gegen die Juso-Initiative «Löhne entlasten, Kapital gerecht besteuern». Am Vormittag das vom Gewerbeverband angeführte Komitee «Brandgefährliche 99-Prozent-Initiative», am Nachmittag von Finanzminister Ueli Maurer (SVP) zusammen mit Adrian Hug, Direktor der eidgenössischen Steuerverwaltung. Unter den bürgerlichen Parteien und Wirtschaftsverbänden formiert sich grosser Widerstand gegen die Initiative der Juso. Bis heute gibt es mehrere Komitees: Junge gegen die Juso-Initiative: Das Komitee besteht aus den Jungparteien von SVP, FDP, Mitte und Grünliberale. Komitee «Brandgefährliche 99-Prozent-Initiative»: Das Komitee wird angeführt vom Schweizerischen Gewerbeverband (SGV). SGV-Präsident und Nationalrat Fabio Regazzi (Mitte) sowie SGV-Vorstandsmitglied Nationalrätin Diana Gutjahr (SVP) engagieren sich darin. Zukunft Sichern - Nein zur Steuerinitiative der Juso: Die Schirmherrschaft über dieses Komitee hat Economiesuisse, im Vorstand sitzen mehrere Parlamentarier und Parlamentarierinnen, darunter Thomas Aeschi und Céline Amaudruz (beide SVP), Jürg Grossen (GLP) sowie Petra Gössi (FDP). Nein zu 99 Prozent: Im Co-Präsidium sitzen wiederum mehrere bürgerliche Parlamentarier Parlamentarierinnen und Unternehmer und Unternehmerinnen sowie Vertreter und Vertreterinnen der Startup-Community. Die Aktivitäten des Komitees werden getragen von Swiss Family Business, der Swiss Startup Association und der Swiss Entrepreneurs &amp; Startup Association. Koordiniert wird die Kampagnenarbeit dieses Komitees von Farner Consulting. Swiss Family Business: Diese Plattform ist angehängt ans Komitee «Nein zu 99 Prozent», im Vorstand sitzen Unternehmerinnen und Unternehmer wie Magdalena Martullo-Blocher (SVP, GR) und Fabio Regazzi (Mitte, TI). Warum verteilen sich die gegnerischen Kräfte auf zahlreiche Komitees? «Wir kommen thematisch aus unterschiedlichen Lagern», sagt Ivan Jäggi von Farner Consulting. Die zahlreichen Komitees seien ein Abbild der breiten Betroffenheit von der Initiative. Das von Economiesuisse gegründete Komitee sei breiter aufgestellt und vertrete die Interessen der Gesamtwirtschaft, wohingegen «Nein zu 99 Prozent» aus Sicht der Familienunternehmen und der Startups argumentiere. «Aber ja, es gibt Überschneidungen», sagt Jäggi. Zum Teil sind eidgenössische Parlamentarier und Parlamentarierinnen Mitglied in mehr als einem Komitee. Juso-Chefin Ronja Jansen sagt: «Die finanzkräftige Gegenkampagne zeigt, wie die Rechten und die Reichen ihre Privilegien zu verteidigen versuchen. Sie geben alles aus ökonomischen Eigeninteressen.» Die 99-Prozent-Initiative sei im Vergleich mit anderen wirtschaftspolitischen Initiativen keine abstrakte Forderung, sondern eine ganz konkrete, welche das Geld von Grossaktionärinnen und -aktionären zur arbeitenden Bevölkerung zurückverteilen wolle. Deshalb sei sie für die Gegner und Gegnerinnen gefährlicher, sagt Jansen. «Dass sie so bissig reagieren ist Ausdruck davon, dass mit der Initiative auch einige Superreiche in ihren eigenen Reihen mehr zahlen müssten.» Als Mitglied wirst du Teil der 20-Minuten-Community und profitierst täglich von tollen Benefits und exklusiven Wettbewerben! Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die 99-Prozent-Initiative mobilisiert die Gegnerschaft. Fünf Komitees engagieren sich gegen eine höhere Besteuerung von Kapitaleinkünften. Gegen die Volksinitiative «Löhne entlasten, Kapital gerecht besteuern» haben sich mehrere Komitees formiert, zum Teil sitzen die bürgerlichen Parlamentarier und Parlamentarierinnen in mehreren Komitees. Dies sei ein Abbild der breiten Betroffenheit, sagt Ivan Jäggi von Farner Consulting. Juso-Chefin Ronja Jansen sagt: «Die Rechten und Reichen versuchen, ihre Privilegien zu verteidigen.» Am Dienstag gab es gleich zwei Medienkonferenzen gegen die Juso-Initiative «Löhne entlasten, Kapital gerecht besteuern». Am Vormittag das vom Gewerbeverband angeführte Komitee «Brandgefährliche 99-Prozent-Initiative», am Nachmittag von Finanzminister Ueli Maurer (SVP) zusammen mit Adrian Hug, Direktor der eidgenössischen Steuerverwaltung. Unter den bürgerlichen Parteien und Wirtschaftsverbänden formiert sich grosser Widerstand gegen die Initiative der Juso. Bis heute gibt es mehrere Komitees: Junge gegen die Juso-Initiative: Das Komitee besteht aus den Jungparteien von SVP, FDP, Mitte und Grünliberale. Komitee «Brandgefährliche 99-Prozent-Initiative»: Das Komitee wird angeführt vom Schweizerischen Gewerbeverband (SGV). SGV-Präsident und Nationalrat Fabio Regazzi (Mitte) sowie SGV-Vorstandsmitglied Nationalrätin Diana Gutjahr (SVP) engagieren sich darin. Zukunft Sichern - Nein zur Steuerinitiative der Juso: Die Schirmherrschaft über dieses Komitee hat Economiesuisse, im Vorstand sitzen mehrere Parlamentarier und Parlamentarierinnen, darunter Thomas Aeschi und Céline Amaudruz (beide SVP), Jürg Grossen (GLP) sowie Petra Gössi (FDP). Nein zu 99 Prozent: Im Co-Präsidium sitzen wiederum mehrere bürgerliche Parlamentarier Parlamentarierinnen und Unternehmer und Unternehmerinnen sowie Vertreter und Vertreterinnen der Startup-Community. Die Aktivitäten des Komitees werden getragen von Swiss Family Business, der Swiss Startup Association und der Swiss Entrepreneurs &amp; Startup Association. Koordiniert wird die Kampagnenarbeit dieses Komitees von Farner Consulting. Swiss Family Business: Diese Plattform ist angehängt ans Komitee «Nein zu 99 Prozent», im Vorstand sitzen Unternehmerinnen und Unternehmer wie Magdalena Martullo-Blocher (SVP, GR) und Fabio Regazzi (Mitte, TI). Warum verteilen sich die gegnerischen Kräfte auf zahlreiche Komitees? «Wir kommen thematisch aus unterschiedlichen Lagern», sagt Ivan Jäggi von Farner Consulting. Die zahlreichen Komitees seien ein Abbild der breiten Betroffenheit von der Initiative. Das von Economiesuisse gegründete Komitee sei breiter aufgestellt und vertrete die Interessen der Gesamtwirtschaft, wohingegen «Nein zu 99 Prozent» aus Sicht der Familienunternehmen und der Startups argumentiere. «Aber ja, es gibt Überschneidungen», sagt Jäggi. Zum Teil sind eidgenössische Parlamentarier und Parlamentarierinnen Mitglied in mehr als einem Komitee. Juso-Chefin Ronja Jansen sagt: «Die finanzkräftige Gegenkampagne zeigt, wie die Rechten und die Reichen ihre Privilegien zu verteidigen versuchen. Sie geben alles aus ökonomischen Eigeninteressen.» Die 99-Prozent-Initiative sei im Vergleich mit anderen wirtschaftspolitischen Initiativen keine abstrakte Forderung, sondern eine ganz konkrete, welche das Geld von Grossaktionärinnen und -aktionären zur arbeitenden Bevölkerung zurückverteilen wolle. Deshalb sei sie für die Gegner und Gegnerinnen gefährlicher, sagt Jansen. «Dass sie so bissig reagieren ist Ausdruck davon, dass mit der Initiative auch einige Superreiche in ihren eigenen Reihen mehr zahlen müssten.» Als Mitglied wirst du Teil der 20-Minuten-Community und profitierst täglich von tollen Benefits und exklusiven Wettbewerben!</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3412,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Mit viel Lärm lanciert die Juso ihre 99-Prozent-Initiative – sie will Kapitalerträge stärker besteuern. Economiesuisse lässt kein gutes Haar am Anliegen der Jungsozialisten. Hier fordert Roberto Martullo die Jungsozialisten auf, den Platz zu räumen. Mit ihrer neuen Initiative wollen die Juso «den Reichsten den Mittelfinger zeigen»: Am Dienstag zog eine Gruppe von Aktivisten vor das Haus von SVP-Nationalrätin Magdalena Martullo-Blocher, um ihr eine Rechnung über 40,3 Millionen Franken zu präsentieren – so viel mehr Steuern müsste die Ems-Chefin allein auf den Dividenden des vergangenen Jahres entrichten, wäre die Initiative in Kraft. Tatsächlich ist das Ziel der sogenannten 99-Prozent-Initiative eine stärkere Umverteilung: Kapitaleinkommen wie Dividenden, Mieteinnahmen oder Zinsen sollen ab einer Höhe von 100'000 Franken zu 150 Prozent versteuert werden. Dividenden auf grossen Beteiligungen beispielsweise zählen beim Bund heute nur zu 60 Prozent als Einkommen. Die Juso schätzen, dass bei einem Ja zur Initiative gegen 10 Milliarden Franken zusätzlich in die Staatskasse flössen. Scharfe Kritik an der Initiative übt Economiesuisse-Geschäftsleitungsmitglied Frank Marty. «Es ist eine absurde Initiative. Eine solche Besteuerung mit dem Ziel der Umverteilung ist reine Willkür.» Die Initiative sei gar verfassungswidrig: «Sie verletzt den Grundsatz der Besteuerung nach der wirtschaftlichen Leistungsfähigkeit.» Laut Marty träfe etwa eine stärkere Besteuerung von Dividenden auch die KMU: «Heute braucht der Inhaber einer mittelgrossen Firma die Dividenden, um die Vermögenssteuer zu bezahlen.» Auch würden Dividenden bereits mit dem Gewinn der Firmen versteuert. «Die Wirtschaft wird vehement gegen eine Initiative kämpfen, die dem Standort Schweiz schadet.» Juso-Präsidentin Tamara Funiciello sagt, dass man mit der Initiative aufs Ganze gehe. Dass man gegen Martullo-Blocher schiesse, sei kein Zufall. «Sie ist das Sinnbild des Superreichen. Sie badet wie Dagobert Duck im Geld, während andere ihre Miete oder Krankenkasse nicht bezahlen können.» Gegen solche Leute richte sich die Initiative der Juso. Die Jungpartei kann auf Unterstützung der Mutterpartei zählen: «Das ist eine gute Initiative», sagt SP-Fraktionschef Roger Nordmann. Heute habe man in der Schweiz die paradoxe Situation, dass Einkommen aus Arbeit stärker besteuert würden als Kapitalerträge. Die Initiative bewirke, dass das eine Prozent der Reichsten nicht immer noch reicher werde. Keine Freude am Aufmarsch der Juso hatte man bei den Martullos: Ehemann Roberto rief die Polizei, nachdem Aktivisten im Wohnort der Ems-Chefin privaten Grund betreten hatten. Martullo-Blocher selbst liess ausrichten, sie sei am Arbeiten und könne keine Stellung zu den Forderungen der Juso nehmen. Der Polizei-Einsatz bei Martullo-Blocher im Video:  Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Mit viel Lärm lanciert die Juso ihre 99-Prozent-Initiative – sie will Kapitalerträge stärker besteuern. Economiesuisse lässt kein gutes Haar am Anliegen der Jungsozialisten. Hier fordert Roberto Martullo die Jungsozialisten auf, den Platz zu räumen. Mit ihrer neuen Initiative wollen die Juso «den Reichsten den Mittelfinger zeigen»: Am Dienstag zog eine Gruppe von Aktivisten vor das Haus von SVP-Nationalrätin Magdalena Martullo-Blocher, um ihr eine Rechnung über 40,3 Millionen Franken zu präsentieren – so viel mehr Steuern müsste die Ems-Chefin allein auf den Dividenden des vergangenen Jahres entrichten, wäre die Initiative in Kraft. Tatsächlich ist das Ziel der sogenannten 99-Prozent-Initiative eine stärkere Umverteilung: Kapitaleinkommen wie Dividenden, Mieteinnahmen oder Zinsen sollen ab einer Höhe von 100'000 Franken zu 150 Prozent versteuert werden. Dividenden auf grossen Beteiligungen beispielsweise zählen beim Bund heute nur zu 60 Prozent als Einkommen. Die Juso schätzen, dass bei einem Ja zur Initiative gegen 10 Milliarden Franken zusätzlich in die Staatskasse flössen. Scharfe Kritik an der Initiative übt Economiesuisse-Geschäftsleitungsmitglied Frank Marty. «Es ist eine absurde Initiative. Eine solche Besteuerung mit dem Ziel der Umverteilung ist reine Willkür.» Die Initiative sei gar verfassungswidrig: «Sie verletzt den Grundsatz der Besteuerung nach der wirtschaftlichen Leistungsfähigkeit.» Laut Marty träfe etwa eine stärkere Besteuerung von Dividenden auch die KMU: «Heute braucht der Inhaber einer mittelgrossen Firma die Dividenden, um die Vermögenssteuer zu bezahlen.» Auch würden Dividenden bereits mit dem Gewinn der Firmen versteuert. «Die Wirtschaft wird vehement gegen eine Initiative kämpfen, die dem Standort Schweiz schadet.» Juso-Präsidentin Tamara Funiciello sagt, dass man mit der Initiative aufs Ganze gehe. Dass man gegen Martullo-Blocher schiesse, sei kein Zufall. «Sie ist das Sinnbild des Superreichen. Sie badet wie Dagobert Duck im Geld, während andere ihre Miete oder Krankenkasse nicht bezahlen können.» Gegen solche Leute richte sich die Initiative der Juso. Die Jungpartei kann auf Unterstützung der Mutterpartei zählen: «Das ist eine gute Initiative», sagt SP-Fraktionschef Roger Nordmann. Heute habe man in der Schweiz die paradoxe Situation, dass Einkommen aus Arbeit stärker besteuert würden als Kapitalerträge. Die Initiative bewirke, dass das eine Prozent der Reichsten nicht immer noch reicher werde. Keine Freude am Aufmarsch der Juso hatte man bei den Martullos: Ehemann Roberto rief die Polizei, nachdem Aktivisten im Wohnort der Ems-Chefin privaten Grund betreten hatten. Martullo-Blocher selbst liess ausrichten, sie sei am Arbeiten und könne keine Stellung zu den Forderungen der Juso nehmen. Der Polizei-Einsatz bei Martullo-Blocher im Video:</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3454,8 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr</t>
+          <t>. Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3497,8 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein</t>
+          <t>.   Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3855,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Schmutzige Betten, schreiende Patienten und lange Wartezeiten – so soll es in Spitälern aussehen. Pfleger kritisieren den Bundesrat: Er bleibe untätig. Wenn die Pflegefachfrau P. T.* aus dem Alltag in Schweizer Spitälern erzählt, tönt es dramatisch. Sie berichtet von Patienten, die in verschmutzten Betten liegen, weil die einzig verfügbare Pflegende gerade einen Notfall verlegen muss, oder von Menschen  in Krisensituationen, die mangels Zeit für eine korrekte Therapie mit Medikamenten ruhiggestellt werden müssen. Auf ihrem Blog schlägt P. T., die sich «Madame Malevizia» nennt, Alarm: «Der Pflegenotstand droht nicht, er ist bereits Realität.» Gegenüber 20 Minuten sagt sie: «Es ist die Politik, die die letzten Jahre schlicht geschlafen hat.» Sie präsentiert nicht nur Fälle aus ihrem Alltag, sondern auch aus anderen Institutionen. Sie habe viel Kontakt zu Kollegen in anderen Häusern, sagt sie. Der Blogeintrag entstand, nachdem Anfang letzter Woche der Schweizerische Berufsverband der Pflegefachpersonen (SBK) «unter Protest» von der Mitarbeit am Massnahmenplan des Bundesrates zur Pflege zurückgetreten ist. Dies, weil der Bundesrat keine finanziellen Mittel für den Massnahmenplan zur Verfügung stellt. Die Entscheidung des Bundes findet Nationalrätin und SP-Vizepräsidentin Barbara Gysi «falsch». «Ohne finanzielle Mittel für die Massnahmen sind das lediglich Lippenbekenntnisse», sagt sie zu 20 Minuten. «Es braucht mehr Fachpersonal», findet sie. Die Belastung für die einzelnen Pflegenden sei zu hoch, da sie vielfach zu viele Patientinnen oder Bewohnende betreuen müssten. Darunter leide auch die Qualität. Zudem fordert sie höhere Ausbildungslöhne und bessere Rahmenbedingungen: «Die Pflegeinstitutionen müssten über Gesamtarbeitsverträge verfügen, um gute Arbeitsbedingungen abzusichern.» Den Handlungsbedarf belegen Zahlen des SBK. «Seit Jahren wird nicht einmal die Hälfte des Bedarfs an diplomierten Pflegefachleuten ausgebildet. In den letzten vier Jahren gab es insgesamt 14'000 Abschlüsse zu wenig», sagt Manuela Kocher, Vorstandsmitglied des SBK, zu 20 Minuten. «Um Projekte umzusetzen, braucht es finanzielle Mittel, das ist überall so. Es bringt nichts, über Massnahmen zum Erhalt des Personals, zur Förderung der Ausbildungszahlen und für bessere Arbeitsbedingungen zu diskutieren, die dann nicht finanziert werden.» In Zukunft werde der Bedarf an Pflege wegen der Alterung der Bevölkerung extrem zunehmen. Bei den 65- bis 79-Jährigen werde der Anteil der Pflegebedürftigen 1,5-mal grösser sein, bei den über 80-Jährigen gar 2,8-mal. Diesen Bedarf müsse man decken. Nun will der SBK mit der Pflegeinitiative, die vor zwei Jahren zustande gekommen ist, einen Personalmangel in der Pflege verhindern. In der Verfassung soll mit ihr verankert werden, dass Bund und Kantone die Pflege als wichtigen Bestandteil der Gesundheitsversorgung fördern. Für das Bundesamt für Gesundheit (BAG) ist das der falsche Weg. Die Initiative sei nicht zielführend, sagt Sprecher Adrien Kay. Dass sich der SBK aus dem Massnahmenplan zurückgezogen habe, bedauere das BAG. «Der Bundesrat anerkennt den Handlungsbedarf in der Pflege», so Kay. Der Bund habe in der Vergangenheit in seinem Kompetenzbereich denn auch verschiedene Massnahmen ergriffen, etwa den Massnahmenplan Bildung Pflege. Der Bundesrat habe sich mit dem Nationalen Versorgungsbericht über die Gesundheitsberufe 2016 intensiv mit der Situation befasst: «Er kennt die grossen Herausforderungen.» *Name der Redaktion bekannt. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Schmutzige Betten, schreiende Patienten und lange Wartezeiten – so soll es in Spitälern aussehen. Pfleger kritisieren den Bundesrat: Er bleibe untätig. Wenn die Pflegefachfrau P. T.* aus dem Alltag in Schweizer Spitälern erzählt, tönt es dramatisch. Sie berichtet von Patienten, die in verschmutzten Betten liegen, weil die einzig verfügbare Pflegende gerade einen Notfall verlegen muss, oder von Menschen  in Krisensituationen, die mangels Zeit für eine korrekte Therapie mit Medikamenten ruhiggestellt werden müssen. Auf ihrem Blog schlägt P. T., die sich «Madame Malevizia» nennt, Alarm: «Der Pflegenotstand droht nicht, er ist bereits Realität.» Gegenüber 20 Minuten sagt sie: «Es ist die Politik, die die letzten Jahre schlicht geschlafen hat.» Sie präsentiert nicht nur Fälle aus ihrem Alltag, sondern auch aus anderen Institutionen. Sie habe viel Kontakt zu Kollegen in anderen Häusern, sagt sie. Der Blogeintrag entstand, nachdem Anfang letzter Woche der Schweizerische Berufsverband der Pflegefachpersonen (SBK) «unter Protest» von der Mitarbeit am Massnahmenplan des Bundesrates zur Pflege zurückgetreten ist. Dies, weil der Bundesrat keine finanziellen Mittel für den Massnahmenplan zur Verfügung stellt. Die Entscheidung des Bundes findet Nationalrätin und SP-Vizepräsidentin Barbara Gysi «falsch». «Ohne finanzielle Mittel für die Massnahmen sind das lediglich Lippenbekenntnisse», sagt sie zu 20 Minuten. «Es braucht mehr Fachpersonal», findet sie. Die Belastung für die einzelnen Pflegenden sei zu hoch, da sie vielfach zu viele Patientinnen oder Bewohnende betreuen müssten. Darunter leide auch die Qualität. Zudem fordert sie höhere Ausbildungslöhne und bessere Rahmenbedingungen: «Die Pflegeinstitutionen müssten über Gesamtarbeitsverträge verfügen, um gute Arbeitsbedingungen abzusichern.» Den Handlungsbedarf belegen Zahlen des SBK. «Seit Jahren wird nicht einmal die Hälfte des Bedarfs an diplomierten Pflegefachleuten ausgebildet. In den letzten vier Jahren gab es insgesamt 14'000 Abschlüsse zu wenig», sagt Manuela Kocher, Vorstandsmitglied des SBK, zu 20 Minuten. «Um Projekte umzusetzen, braucht es finanzielle Mittel, das ist überall so. Es bringt nichts, über Massnahmen zum Erhalt des Personals, zur Förderung der Ausbildungszahlen und für bessere Arbeitsbedingungen zu diskutieren, die dann nicht finanziert werden.» In Zukunft werde der Bedarf an Pflege wegen der Alterung der Bevölkerung extrem zunehmen. Bei den 65- bis 79-Jährigen werde der Anteil der Pflegebedürftigen 1,5-mal grösser sein, bei den über 80-Jährigen gar 2,8-mal. Diesen Bedarf müsse man decken. Nun will der SBK mit der Pflegeinitiative, die vor zwei Jahren zustande gekommen ist, einen Personalmangel in der Pflege verhindern. In der Verfassung soll mit ihr verankert werden, dass Bund und Kantone die Pflege als wichtigen Bestandteil der Gesundheitsversorgung fördern. Für das Bundesamt für Gesundheit (BAG) ist das der falsche Weg. Die Initiative sei nicht zielführend, sagt Sprecher Adrien Kay. Dass sich der SBK aus dem Massnahmenplan zurückgezogen habe, bedauere das BAG. «Der Bundesrat anerkennt den Handlungsbedarf in der Pflege», so Kay. Der Bund habe in der Vergangenheit in seinem Kompetenzbereich denn auch verschiedene Massnahmen ergriffen, etwa den Massnahmenplan Bildung Pflege. Der Bundesrat habe sich mit dem Nationalen Versorgungsbericht über die Gesundheitsberufe 2016 intensiv mit der Situation befasst: «Er kennt die grossen Herausforderungen.» *Name der Redaktion bekannt.</t>
         </is>
       </c>
     </row>
@@ -3872,12 +3897,13 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Derzeit sind in der Schweiz mehr als 10’000 Pflegestellen unbesetzt. Bis 2030 fehlen uns 70'000 Pflegende, denn wegen der steigenden Lebenserwartung nimmt die Anzahl der pflegebedürftigen Menschen stetig zu. Was tun gegen den «Pflege-Notstand»?   Hier geht es zu den Kommentaren  In vier Wochen stimmt die Schweiz über die Pflegeinitiative ab. Die Volksinitiative will die Arbeitsbedingungen der Pflegenden verbessern und die Attraktivität des Berufs steigern. Die aktuelle Situation sei unhaltbar, weil die Zeit für eine gute Pflege fehle, sagen die Initiantinnen der Initiative. Rund 40 Prozent der Pflegenden steigen nach wenigen Jahren wieder aus dem Beruf aus – oft aus emotionaler Erschöpfung. «Die Pflegenden arbeiten schon lange bis zum Rand der Erschöpfung, sie sind ausgelaugt und verlassen den Beruf, weil sie keine Perspektiven auf Besserung sehen. Corona hat die Arbeitslast vieler Pflegenden nochmals erhöht», sagt Sophie Ley, Präsidentin des Berufsverbandes der Pflegefachpersonen (SBK). Die Initiative will in der Verfassung verankern, dass Bund und Kantone die Pflege als wichtigen Bestandteil der Gesundheitsversorgung fördern. Sie sollen für eine hohe Pflege-Qualität sorgen und sicherstellen, dass genügend Pflegefachpersonen zur Verfügung stehen.  Die Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Sie sollen sicherstellen, dass genügend diplomiertes Pflegepersonal für den zunehmenden Bedarf der alternden Gesellschaft zur Verfügung steht.
+          <t>. Derzeit sind in der Schweiz mehr als 10’000 Pflegestellen unbesetzt. Bis 2030 fehlen uns 70'000 Pflegende, denn wegen der steigenden Lebenserwartung nimmt die Anzahl der pflegebedürftigen Menschen stetig zu. Was tun gegen den «Pflege-Notstand»?   Hier geht es zu den Kommentaren  In vier Wochen stimmt die Schweiz über die Pflegeinitiative ab. Die Volksinitiative will die Arbeitsbedingungen der Pflegenden verbessern und die Attraktivität des Berufs steigern. Die aktuelle Situation sei unhaltbar, weil die Zeit für eine gute Pflege fehle, sagen die Initiantinnen der Initiative. Rund 40 Prozent der Pflegenden steigen nach wenigen Jahren wieder aus dem Beruf aus – oft aus emotionaler Erschöpfung. «Die Pflegenden arbeiten schon lange bis zum Rand der Erschöpfung, sie sind ausgelaugt und verlassen den Beruf, weil sie keine Perspektiven auf Besserung sehen. Corona hat die Arbeitslast vieler Pflegenden nochmals erhöht», sagt Sophie Ley, Präsidentin des Berufsverbandes der Pflegefachpersonen (SBK). Die Initiative will in der Verfassung verankern, dass Bund und Kantone die Pflege als wichtigen Bestandteil der Gesundheitsversorgung fördern. Sie sollen für eine hohe Pflege-Qualität sorgen und sicherstellen, dass genügend Pflegefachpersonen zur Verfügung stehen.  Die Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Sie sollen sicherstellen, dass genügend diplomiertes Pflegepersonal für den zunehmenden Bedarf der alternden Gesellschaft zur Verfügung steht.
 Die in der Pflege tätigen Personen sollen entsprechend ihrer Ausbildung und ihren Kompetenzen eingesetzt werden. So soll der Bund die Arbeitsbedingungen in den Spitälern, Heimen und Spitexorganisationen verbindlich regeln. Dazu zählt die Höhe der Löhne.
 Zudem sollen Pflegefachpersonen gewisse Pflegeleistungen selbständig direkt mit der obligatorischen Krankenpflegeversicherung oder anderen Sozialversicherungen abrechnen können. Heute können sie grundsätzlich nur die Leistungen abrechnen, die von einer Ärztin oder einem Arzt angeordnet worden sind.
 Dem Bundesrat und einer Mehrheit des Parlaments geht dieser Vorschlag zu weit. Das Parlament hat deshalb einen indirekten Gegenvorschlag zur Volksinitiative verabschiedet. Dieser Vorschlag tritt in Kraft, wenn die Initiative abgelehnt wird und der Gegenvorschlag nicht erfolgreich mit einem Referendum bekämpft wird.
-Der Gegenvorschlag sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Mit dem Geld sollen sowohl Studierende als auch Spitäler, Pflegeheime und Spitexorganisationen unterstützt werden, die Pflegepersonal ausbilden.
-Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November</t>
+Der Gegenvorschlag sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Mit dem Geld sollen sowohl Studierende als auch Spitäler, Pflegeheime und Spitexorganisationen unterstützt werden, die Pflegepersonal ausbilden.
+Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -3919,9 +3945,10 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>30.10.2021, 13:43 Die Organisatorinnen des Bündnis' Gesundheitspersonal schätzten die Zahl auf 5000 Teilnehmende. Im Rahmen der Kundgebung berichteten Gesundheitsfachfrauen aus allen Landesteilen, wie sie im Alltag den «Notstand» in der Pflege erlebten. Derzeit seien 11'000 Stellen in der Pflege unbesetzt, was zu enormem Druck und einem für die Patienten gefährlichem Qualitätsverlust führe. In den Reden wurde für eine Annahme der Pflege-Initiative geworben. Eine blosse Ausbildungsoffensive, wie sie der indirekte Gegenvorschlag vorsehe, genüge nicht, hiess es. «Was nützt dies, wenn viele den Beruf nachher verlassen?», fragte sich eine Rednerin. Nötig sei eine grundsätzliche Reform des Gesundheitswesens. Auf Transparenten und Schildern war unter anderem zu lesen: «Wir retten Euch – Rettet uns», «Stoppt Burnout und Erschöpfung» oder «Klatschen reicht nicht.» Zur Kundgebung aufgerufen hatte das Bündnis Gesundheitspersonal, dem über 10 Berufsverbände und Gewerkschaften angehören, darunter der Berufsverbund der Pflegefachfrauen und Pflegefachmänner (SBK). Die vom SBK lancierte Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Der Bund soll die Arbeitsbedingungen in den Spitälern, Heimen und Spitex-Organisationen verbindlich regeln. Dazu zählt die Höhe der Löhne. Dem Bundesrat und einer Mehrheit des Parlaments geht die Initiative zu weit. Ein indirekter Gegenvorschlag sieht vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Der Gegenvorschlag käme bei einer Ablehnung der Initiative zum Zug. Auch einige tausend Beschäftigte aus der Bau- und anderen Branchen haben in Bern, Olten, Zürich, Genf und Bellinzona für mehr Lohn, Respekt und Solidarität demonstriert. Sie forderten die Anerkennung ihrer Leistungen in der Covid-19-Pandemie. Aufgerufen zu den Demonstrationen hatte die Gewerkschaft Unia. Wie sie mitteilte, schlossen sich den Demonstrierenden aus der Baubranche auch Arbeitnehmerinnen und Arbeitnehmer aus Pflege, Verkauf und Logistik an. Sie alle hätten während der Pandemie unermüdlich an vorderster Front gearbeitet. Obwohl die Bevölkerung für sie geklatscht hätte, hätte sich an den Arbeitsbedingungen gemäss Unia nichts geändert.  SRF 4 News, 30.10.2021, 15 Uhr
+          <t>.   30.10.2021, 13:43 Die Organisatorinnen des Bündnis' Gesundheitspersonal schätzten die Zahl auf 5000 Teilnehmende. Im Rahmen der Kundgebung berichteten Gesundheitsfachfrauen aus allen Landesteilen, wie sie im Alltag den «Notstand» in der Pflege erlebten. Derzeit seien 11'000 Stellen in der Pflege unbesetzt, was zu enormem Druck und einem für die Patienten gefährlichem Qualitätsverlust führe. In den Reden wurde für eine Annahme der Pflege-Initiative geworben. Eine blosse Ausbildungsoffensive, wie sie der indirekte Gegenvorschlag vorsehe, genüge nicht, hiess es. «Was nützt dies, wenn viele den Beruf nachher verlassen?», fragte sich eine Rednerin. Nötig sei eine grundsätzliche Reform des Gesundheitswesens. Auf Transparenten und Schildern war unter anderem zu lesen: «Wir retten Euch – Rettet uns», «Stoppt Burnout und Erschöpfung» oder «Klatschen reicht nicht.» Zur Kundgebung aufgerufen hatte das Bündnis Gesundheitspersonal, dem über 10 Berufsverbände und Gewerkschaften angehören, darunter der Berufsverbund der Pflegefachfrauen und Pflegefachmänner (SBK). Die vom SBK lancierte Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Der Bund soll die Arbeitsbedingungen in den Spitälern, Heimen und Spitex-Organisationen verbindlich regeln. Dazu zählt die Höhe der Löhne. Dem Bundesrat und einer Mehrheit des Parlaments geht die Initiative zu weit. Ein indirekter Gegenvorschlag sieht vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Der Gegenvorschlag käme bei einer Ablehnung der Initiative zum Zug. Auch einige tausend Beschäftigte aus der Bau- und anderen Branchen haben in Bern, Olten, Zürich, Genf und Bellinzona für mehr Lohn, Respekt und Solidarität demonstriert. Sie forderten die Anerkennung ihrer Leistungen in der Covid-19-Pandemie. Aufgerufen zu den Demonstrationen hatte die Gewerkschaft Unia. Wie sie mitteilte, schlossen sich den Demonstrierenden aus der Baubranche auch Arbeitnehmerinnen und Arbeitnehmer aus Pflege, Verkauf und Logistik an. Sie alle hätten während der Pandemie unermüdlich an vorderster Front gearbeitet. Obwohl die Bevölkerung für sie geklatscht hätte, hätte sich an den Arbeitsbedingungen gemäss Unia nichts geändert.  SRF 4 News, 30.10.2021, 15 Uhr
                 ;                                         
-                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag</t>
+                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4043,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Einige Bundesrichter kritisieren das aktuelle Wahlsystem und sehen sogar Vorteile in der Vorlage. Rechtsexperten sind sich uneinig darüber, welches System besser ist. Die Justizinitiative verlangt, dass Bundesrichterinnen und Bundesrichter «unabhängig und nur aufgrund ihrer fachlichen und persönlichen Fähigkeiten» gewählt werden. Zurzeit ist eine Parteimitgliedschaft Bedingung, um sich bewerben zu können. Dadurch gerate die fachliche Kompetenz in den Hintergrund, kritisieren Befürworter der Initiative. Folglich seien parteilose Spitzenleute chancenlos. Darauf verwies unabhängig von der Abstimmung schon der Bundesrichter Yves Donzallaz in einem NZZ-Interview im September 2020: «Es gibt keine parteilosen Richter – dabei sind 80 Prozent aller Bürgerinnen und Bürger parteilos.» Die Nachfrage bei Bundesrichterinnen und Bundesrichtern ergibt, dass mehrere Vorteile in Teilen der Justizinitiative sehen und das heutige Wahlsysstem kritisieren. Die Richter können sich allerdings nicht öffentlich äussern, wie sie im Gespräch sagen. Das Bundesgericht und die Schweizerische Richtervereinigung lehnen die Volksinitiative offiziell ab.  Ein aktuelles Problem sei beispielsweise die Mandatssteuer, sagen die befragten Richter. Wer als Richter gewählt ist, muss seiner Partei jedes Jahr bis zu 20’000 Franken abliefern. «Es entsteht der Eindruck, dass das Amt käuflich ist», sagt Giuliano Racioppi, Richter am Verwaltungsgericht Graubünden, in einem Interview. Ein weiteres Problem sehen die Bundesrichter in der Wiederwahl. Der Wunsch, wiedergewählt zu werden, beeinflusse die Rechtsprechung, sagen mehrere von ihnen. Rechtsexperte und Jurist Mark Livschitz bestätigt: «Es ist wissenschaftlich nachgewiesen, dass die Wiederwahl einen Einfluss auf die Unabhängigkeit und die Rechtsprechung von Richterinnen und Richtern hat.» Für ihn ist klar, dass die Parteien die Richter beeinflussen, sei dies explizit oder stillschweigend, durch vorauseilenden Gehorsam der Richter. Vorfälle, die darauf hindeuten, gibt es. Bei den letzten zwei Bundesrichterwahlen stimmte die SVP-Fraktion gegen ihren Bundesrichter Yves Donzallaz. Er hätte mehrere Urteile getroffen, die nicht im Sinne der SVP waren, lautete die Begründung. Adrian Gasser, Initiant der Justizinitiative, sagt: «Da das Bundesgericht vermehrt Fälle politischer Natur behandelt, möchten Parteien wie zum Beispiel die SVP ein Urteil zu ihrem eigenen Vorteil.» Allerdings – trotz Kritik am heutigen Wahlsystem: Die befragten Personen am Bundesgericht fühlen sich von ihren Parteien nicht unter Druck gesetzt, wie sie sagen. Die Gegner der Justizinitiative kritisieren vor allem das Losverfahren, mit dem künftig die von einem Expertengremium vorgeschlagenen Personen als Bundesrichter und Bundesrichterinnen bestimmt werden sollen. Auch die befragten Bundesrichter beurteilen das Losverfahren kritisch. «Die demokratische Legitimation wäre dadurch nicht mehr gegeben», sagt einer von ihnen. Der frühere Bundesgerichtspräsident Giusep Nay sagt: «Ausserdem wäre so die in unserem vielfältigen Lan wichtige, breite Diversität an Bundesrichterinnen und Bundesrichtern betreffend Herkunft, Sprache, Kultur, Geschlecht und Religion nicht gewährleistet.» Tobias Jaag, emeritierter Professor für Staatsrecht, sieht abgesehen von Einzelfällen wie dem Fall Donzallaz keine Indizien dafür, dass Parteien ihre Richter bei der Rechtsprechung beeinflussen würden. Er selbst war Richter am kantonalen Verwaltungsgericht und habe nie einen Druck seiner Partei verspürt. Die politische Unabhängigkeit von Richtern und Richterinnen zu fördern, sei ein guter Ansatz, so Jaag. «Die Justizinitiative verlangt jedoch eine vollständige Loslösung vom Parlament. Das ist demokratisch nicht vertretbar.» Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Einige Bundesrichter kritisieren das aktuelle Wahlsystem und sehen sogar Vorteile in der Vorlage. Rechtsexperten sind sich uneinig darüber, welches System besser ist. Die Justizinitiative verlangt, dass Bundesrichterinnen und Bundesrichter «unabhängig und nur aufgrund ihrer fachlichen und persönlichen Fähigkeiten» gewählt werden. Zurzeit ist eine Parteimitgliedschaft Bedingung, um sich bewerben zu können. Dadurch gerate die fachliche Kompetenz in den Hintergrund, kritisieren Befürworter der Initiative. Folglich seien parteilose Spitzenleute chancenlos. Darauf verwies unabhängig von der Abstimmung schon der Bundesrichter Yves Donzallaz in einem NZZ-Interview im September 2020: «Es gibt keine parteilosen Richter – dabei sind 80 Prozent aller Bürgerinnen und Bürger parteilos.» Die Nachfrage bei Bundesrichterinnen und Bundesrichtern ergibt, dass mehrere Vorteile in Teilen der Justizinitiative sehen und das heutige Wahlsysstem kritisieren. Die Richter können sich allerdings nicht öffentlich äussern, wie sie im Gespräch sagen. Das Bundesgericht und die Schweizerische Richtervereinigung lehnen die Volksinitiative offiziell ab.  Ein aktuelles Problem sei beispielsweise die Mandatssteuer, sagen die befragten Richter. Wer als Richter gewählt ist, muss seiner Partei jedes Jahr bis zu 20’000 Franken abliefern. «Es entsteht der Eindruck, dass das Amt käuflich ist», sagt Giuliano Racioppi, Richter am Verwaltungsgericht Graubünden, in einem Interview. Ein weiteres Problem sehen die Bundesrichter in der Wiederwahl. Der Wunsch, wiedergewählt zu werden, beeinflusse die Rechtsprechung, sagen mehrere von ihnen. Rechtsexperte und Jurist Mark Livschitz bestätigt: «Es ist wissenschaftlich nachgewiesen, dass die Wiederwahl einen Einfluss auf die Unabhängigkeit und die Rechtsprechung von Richterinnen und Richtern hat.» Für ihn ist klar, dass die Parteien die Richter beeinflussen, sei dies explizit oder stillschweigend, durch vorauseilenden Gehorsam der Richter. Vorfälle, die darauf hindeuten, gibt es. Bei den letzten zwei Bundesrichterwahlen stimmte die SVP-Fraktion gegen ihren Bundesrichter Yves Donzallaz. Er hätte mehrere Urteile getroffen, die nicht im Sinne der SVP waren, lautete die Begründung. Adrian Gasser, Initiant der Justizinitiative, sagt: «Da das Bundesgericht vermehrt Fälle politischer Natur behandelt, möchten Parteien wie zum Beispiel die SVP ein Urteil zu ihrem eigenen Vorteil.» Allerdings – trotz Kritik am heutigen Wahlsystem: Die befragten Personen am Bundesgericht fühlen sich von ihren Parteien nicht unter Druck gesetzt, wie sie sagen. Die Gegner der Justizinitiative kritisieren vor allem das Losverfahren, mit dem künftig die von einem Expertengremium vorgeschlagenen Personen als Bundesrichter und Bundesrichterinnen bestimmt werden sollen. Auch die befragten Bundesrichter beurteilen das Losverfahren kritisch. «Die demokratische Legitimation wäre dadurch nicht mehr gegeben», sagt einer von ihnen. Der frühere Bundesgerichtspräsident Giusep Nay sagt: «Ausserdem wäre so die in unserem vielfältigen Lan wichtige, breite Diversität an Bundesrichterinnen und Bundesrichtern betreffend Herkunft, Sprache, Kultur, Geschlecht und Religion nicht gewährleistet.» Tobias Jaag, emeritierter Professor für Staatsrecht, sieht abgesehen von Einzelfällen wie dem Fall Donzallaz keine Indizien dafür, dass Parteien ihre Richter bei der Rechtsprechung beeinflussen würden. Er selbst war Richter am kantonalen Verwaltungsgericht und habe nie einen Druck seiner Partei verspürt. Die politische Unabhängigkeit von Richtern und Richterinnen zu fördern, sei ein guter Ansatz, so Jaag. «Die Justizinitiative verlangt jedoch eine vollständige Loslösung vom Parlament. Das ist demokratisch nicht vertretbar.»</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4085,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Justizministerin Karin Keller-Sutter über mögliche Folgen der Justiz-Initiative, Jugendliche mit Messern und Gewalt an Frauen.  Fast jedes Wochenende sind Jugendliche in eine Messerstecherei involviert. Macht Ihnen das Sorgen? Ja, diese Gewalt muss uns als Gesellschaft Sorgen machen. In den Nullerjahren hatten wir ebenfalls eine solche Entwicklung, da war ich im Kanton St. Gallen Regierungsrätin. Wir haben damals spezialisierte Jugendpolizisten ausgebildet und losgeschickt. Die Situation hat sich dann beruhigt. Jetzt hat man den Eindruck, dass es wieder einen Anstieg gibt, vor allem bei Gewaltvorfällen mit Stichwaffen. Diese sind einfach erhältlich. Wie muss der Staat darauf reagieren? Ganz eindämmen kann man die Gewalt wahrscheinlich nicht, denn sie ist auch Ausdruck unserer Zeit: Wir sind eine 24-Stunden-Gesellschaft, oft ist Alkohol im Spiel. Auch gewandelte Werthaltungen spielen eine Rolle, ein verklärtes Männerbild, der Respekt nimmt allgemein ab. Das sind gesellschaftliche Veränderungen, die Gewalt eher begünstigen. Konflikte eskalieren schnell. Das Strafrecht ist eine Schiene, Prävention eine andere. Auch bei den Femiziden gibt es einen bedenklichen Anstieg. Das macht mich jedes Mal sehr betroffen. Man muss aber auch sehen, dass man erst vor 20 Jahren überhaupt angefangen hat, häusliche Gewalt ernsthaft zu bekämpfen. Die Kantone haben inzwischen Fortschritte gemacht. Doch man kann noch mehr tun. Resignieren ist keine Lösung. Solche Fälle sind mit so viel Leid verbunden. Auch für die Angehörigen des Täters, von der Opferseite gar nicht zu reden. Ich zahle meiner Partei 15’000 Franken. Was macht der Bund gegen Femizide? Im Frühling habe ich die Kantone und zivilgesellschaftliche Organisationen zu einem strategischen Dialog zum Thema häusliche Gewalt eingeladen. Es war das erste Mal, dass alle Involvierten an einem Tisch sassen und sich verbindlich dazu verpflichtet haben, dass alle in ihrer Zuständigkeit die vorhandenen Möglichkeiten ausschöpfen. Die Fortschritte prüfen wir alle sechs Monate. Und was wird konkret gemacht? Wir nutzen den technologischen Fortschritt. In Spanien gibt es für Betroffene von häuslicher Gewalt Notfallknöpfe, die sie aktivieren können, wenn der Täter sich ihnen nähert. Auch werden beim Täter je nach Risiko GPS-Tracker installiert. Eine Studie der Uni Bern zeigt, dass sich damit die Sicherheit und auch das Sicherheitsgefühl des Opfers verbessern lässt. In einigen Kantonen sind ab 2022 Pilotprojekte mit solchen Systemen geplant. Bei all diesen Themen ist eine funktionierende Justiz zentral. Was passiert, wenn die Justizinitiative angenommen wird? Seit 1848 werden unsere Bundesrichterinnen und Bundesrichter vom Parlament gewählt, das hat sich bewährt. Die Richter sind demokratisch legitimiert und repräsentieren die Bevölkerung in Bezug auf Geschlecht, Herkunft und Sprache. Ich habe nie Klagen darüber gehört. Das bewährte Wahlsystem würde ohne Not durch ein Losverfahren ersetzt. Nicht die Besten würden ausgewählt, sondern diejenigen, die Glück haben. Kein Land der Welt wählt seine Richter per Los. Aber auch kaum ein Land hat diese enge Verflechtung von Parlament und dem obersten Gericht wie die Schweiz. Das sehe ich nicht so. Es stimmt, wir sind sehr demokratisch organisiert. Jede richterliche oder politische Behörde wird direkt oder indirekt vom Volk gewählt. Dieses Wahlverfahren ist transparent. Das Bundesgericht ist darum auch hochgeachtet. Es ist als letzte Instanz bei der Bevölkerung akzeptiert und anerkannt. Nun soll eine Fachkommission die Bewerber für das Losverfahren selektionieren. Wer sitzt in dieser Kommission, und nach welchen Kriterien wählt sie aus? Das wäre eine intransparente Blackbox und passt nicht in unsere Zeit. Heute müssen Richter ihrer Partei eine Mandatsabgabe bezahlen, und die Wiederwahl schafft eine gewisse Abhängigkeit. Finden Sie das gut? Diese Dinge kann man diskutieren. Der Mandatsbeitrag ist nicht gesetzlich verankert, sondern eine Tradition, weil die Parteien in der Schweiz nicht vom Staat finanziert werden. Ich bezahle den Beitrag auch. Wie viel bezahlen Sie Ihrer Partei? Als Bundesrätin 15’000 Franken. Der Bundesrat gibt in der Botschaft zu, dass das heutige System verbesserungswürdig ist. Warum hat er keinen Gegenvorschlag gemacht? Weil der Kern der Initiative das Losverfahren ist. Am Wahlsystem an sich besteht für den Bundesrat und das Parlament kein Handlungsbedarf. Über gewisse Dinge wie etwa den Mandatsbeitrag kann man reden. Im Parlament ist dazu ein Vorstoss hängig. Was glauben Sie, ist das Ziel des Initianten Adrian Gasser? Das müssen Sie ihn fragen. Ich weiss nur, dass er unser System für korrupt hält. Im Namen des Bundesrats wehre ich mich dagegen, dass man das Bundesgericht, das Parlament und die Schweizer Behörden als korrupt bezeichnet. Das Parlament lehnte die Justizinitiative fast einstimmig ab. In Umfragen erzielt die Initiative jedoch eine Zustimmung von über 40 Prozent. Politisiert das Parlament am Volk vorbei? Nein. Es wird zu Unrecht Stimmung gemacht gegen die Parteien. Sie werden der Vetternwirtschaft bezichtigt. Das ist nicht richtig. Die Parteien organisieren alle Wahl- und Abstimmungskämpfe und beleben unsere Demokratie. Ein Gedankenexperiment wie das Losverfahren ist natürlich verführerisch. Wir vergessen aber, dass das Bundesgericht eine zentrale Institution der Schweiz ist. Die Richterwahlen sind doch keine Viehschau! Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Justizministerin Karin Keller-Sutter über mögliche Folgen der Justiz-Initiative, Jugendliche mit Messern und Gewalt an Frauen.  Fast jedes Wochenende sind Jugendliche in eine Messerstecherei involviert. Macht Ihnen das Sorgen? Ja, diese Gewalt muss uns als Gesellschaft Sorgen machen. In den Nullerjahren hatten wir ebenfalls eine solche Entwicklung, da war ich im Kanton St. Gallen Regierungsrätin. Wir haben damals spezialisierte Jugendpolizisten ausgebildet und losgeschickt. Die Situation hat sich dann beruhigt. Jetzt hat man den Eindruck, dass es wieder einen Anstieg gibt, vor allem bei Gewaltvorfällen mit Stichwaffen. Diese sind einfach erhältlich. Wie muss der Staat darauf reagieren? Ganz eindämmen kann man die Gewalt wahrscheinlich nicht, denn sie ist auch Ausdruck unserer Zeit: Wir sind eine 24-Stunden-Gesellschaft, oft ist Alkohol im Spiel. Auch gewandelte Werthaltungen spielen eine Rolle, ein verklärtes Männerbild, der Respekt nimmt allgemein ab. Das sind gesellschaftliche Veränderungen, die Gewalt eher begünstigen. Konflikte eskalieren schnell. Das Strafrecht ist eine Schiene, Prävention eine andere. Auch bei den Femiziden gibt es einen bedenklichen Anstieg. Das macht mich jedes Mal sehr betroffen. Man muss aber auch sehen, dass man erst vor 20 Jahren überhaupt angefangen hat, häusliche Gewalt ernsthaft zu bekämpfen. Die Kantone haben inzwischen Fortschritte gemacht. Doch man kann noch mehr tun. Resignieren ist keine Lösung. Solche Fälle sind mit so viel Leid verbunden. Auch für die Angehörigen des Täters, von der Opferseite gar nicht zu reden. Ich zahle meiner Partei 15’000 Franken. Was macht der Bund gegen Femizide? Im Frühling habe ich die Kantone und zivilgesellschaftliche Organisationen zu einem strategischen Dialog zum Thema häusliche Gewalt eingeladen. Es war das erste Mal, dass alle Involvierten an einem Tisch sassen und sich verbindlich dazu verpflichtet haben, dass alle in ihrer Zuständigkeit die vorhandenen Möglichkeiten ausschöpfen. Die Fortschritte prüfen wir alle sechs Monate. Und was wird konkret gemacht? Wir nutzen den technologischen Fortschritt. In Spanien gibt es für Betroffene von häuslicher Gewalt Notfallknöpfe, die sie aktivieren können, wenn der Täter sich ihnen nähert. Auch werden beim Täter je nach Risiko GPS-Tracker installiert. Eine Studie der Uni Bern zeigt, dass sich damit die Sicherheit und auch das Sicherheitsgefühl des Opfers verbessern lässt. In einigen Kantonen sind ab 2022 Pilotprojekte mit solchen Systemen geplant. Bei all diesen Themen ist eine funktionierende Justiz zentral. Was passiert, wenn die Justizinitiative angenommen wird? Seit 1848 werden unsere Bundesrichterinnen und Bundesrichter vom Parlament gewählt, das hat sich bewährt. Die Richter sind demokratisch legitimiert und repräsentieren die Bevölkerung in Bezug auf Geschlecht, Herkunft und Sprache. Ich habe nie Klagen darüber gehört. Das bewährte Wahlsystem würde ohne Not durch ein Losverfahren ersetzt. Nicht die Besten würden ausgewählt, sondern diejenigen, die Glück haben. Kein Land der Welt wählt seine Richter per Los. Aber auch kaum ein Land hat diese enge Verflechtung von Parlament und dem obersten Gericht wie die Schweiz. Das sehe ich nicht so. Es stimmt, wir sind sehr demokratisch organisiert. Jede richterliche oder politische Behörde wird direkt oder indirekt vom Volk gewählt. Dieses Wahlverfahren ist transparent. Das Bundesgericht ist darum auch hochgeachtet. Es ist als letzte Instanz bei der Bevölkerung akzeptiert und anerkannt. Nun soll eine Fachkommission die Bewerber für das Losverfahren selektionieren. Wer sitzt in dieser Kommission, und nach welchen Kriterien wählt sie aus? Das wäre eine intransparente Blackbox und passt nicht in unsere Zeit. Heute müssen Richter ihrer Partei eine Mandatsabgabe bezahlen, und die Wiederwahl schafft eine gewisse Abhängigkeit. Finden Sie das gut? Diese Dinge kann man diskutieren. Der Mandatsbeitrag ist nicht gesetzlich verankert, sondern eine Tradition, weil die Parteien in der Schweiz nicht vom Staat finanziert werden. Ich bezahle den Beitrag auch. Wie viel bezahlen Sie Ihrer Partei? Als Bundesrätin 15’000 Franken. Der Bundesrat gibt in der Botschaft zu, dass das heutige System verbesserungswürdig ist. Warum hat er keinen Gegenvorschlag gemacht? Weil der Kern der Initiative das Losverfahren ist. Am Wahlsystem an sich besteht für den Bundesrat und das Parlament kein Handlungsbedarf. Über gewisse Dinge wie etwa den Mandatsbeitrag kann man reden. Im Parlament ist dazu ein Vorstoss hängig. Was glauben Sie, ist das Ziel des Initianten Adrian Gasser? Das müssen Sie ihn fragen. Ich weiss nur, dass er unser System für korrupt hält. Im Namen des Bundesrats wehre ich mich dagegen, dass man das Bundesgericht, das Parlament und die Schweizer Behörden als korrupt bezeichnet. Das Parlament lehnte die Justizinitiative fast einstimmig ab. In Umfragen erzielt die Initiative jedoch eine Zustimmung von über 40 Prozent. Politisiert das Parlament am Volk vorbei? Nein. Es wird zu Unrecht Stimmung gemacht gegen die Parteien. Sie werden der Vetternwirtschaft bezichtigt. Das ist nicht richtig. Die Parteien organisieren alle Wahl- und Abstimmungskämpfe und beleben unsere Demokratie. Ein Gedankenexperiment wie das Losverfahren ist natürlich verführerisch. Wir vergessen aber, dass das Bundesgericht eine zentrale Institution der Schweiz ist. Die Richterwahlen sind doch keine Viehschau!</t>
         </is>
       </c>
     </row>
@@ -4100,8 +4127,9 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Heute werden die Richterinnen und Richter für das Bundesgericht vom Parlament gewählt. Die Justizinitiative will das ändern – und die Richter im Losverfahren bestimmen. Damit soll das Bundesgericht unabhängiger von den Parteien werden.   «Wollen Sie unabhängige Richterinnen und Richter?» Diese Frage stellt die Ja-Kampagne der Justizinitiative. Hinter der Frage steht die Überzeugung des Initiativkomitees, dass die 38 Bundesrichterinnen und -richter heute nicht unabhängig, sondern abhängig von ihren Parteien sind. Tatsächlich wählt das Parlament die Richterinnen und Richter für das höchste Gericht des Landes in Lausanne. Und seit 1953 gehören alle Gewählten einer Partei an. Seit fast 70 Jahren haben Parteilose also keine Chance mehr, Bundesrichterin oder Bundesrichter zu werden. Diese Verflechtung zwischen Politik und Justiz wird regelmässig kritisiert – etwa auch vom Europarat. Hier setzt die Justizinitiative an, die der Unternehmer Adrian Gasser 2018 lancierte und über die wir am 28. November abstimmen: Die Initiative fordert, dass die Bundesrichterinnen und -richter in Zukunft im Losverfahren gewählt werden. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick</t>
+          <t>. Heute werden die Richterinnen und Richter für das Bundesgericht vom Parlament gewählt. Die Justizinitiative will das ändern – und die Richter im Losverfahren bestimmen. Damit soll das Bundesgericht unabhängiger von den Parteien werden.   «Wollen Sie unabhängige Richterinnen und Richter?» Diese Frage stellt die Ja-Kampagne der Justizinitiative. Hinter der Frage steht die Überzeugung des Initiativkomitees, dass die 38 Bundesrichterinnen und -richter heute nicht unabhängig, sondern abhängig von ihren Parteien sind. Tatsächlich wählt das Parlament die Richterinnen und Richter für das höchste Gericht des Landes in Lausanne. Und seit 1953 gehören alle Gewählten einer Partei an. Seit fast 70 Jahren haben Parteilose also keine Chance mehr, Bundesrichterin oder Bundesrichter zu werden. Diese Verflechtung zwischen Politik und Justiz wird regelmässig kritisiert – etwa auch vom Europarat. Hier setzt die Justizinitiative an, die der Unternehmer Adrian Gasser 2018 lancierte und über die wir am 28. November abstimmen: Die Initiative fordert, dass die Bundesrichterinnen und -richter in Zukunft im Losverfahren gewählt werden. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4171,8 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen</t>
+          <t>.   Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4214,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten. Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Rendez-vous, 10.03.2021, 12:30 Uhr Volksinitiative im Nationalrat Umstrittene Tierversuche Freispruch an Basler Gericht</t>
+          <t>.   Der Nationalrat hat am Mittwoch über die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot» diskutiert und sie ohne Gegenvorschlag abgelehnt. Doch wie viele Tierversuche werden in der Schweiz überhaupt durchgeführt  – und wozu?  Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen. Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Darum muss jede Wissenschaftlerin, jeder Wissenschaftler nach den sogenannten 3-R-Prinzipien überprüfen, ob der Einsatz von Tieren im Forschungsprojekt unbedingt nötig ist – oder ob es nicht Alternativen dazu gibt. Diese 3-R-Prinzipien sind in der Schweiz seit 30 Jahren in der Forschung und in der Industrie verankert. Auch in Gesuchen an die Behörden müssen diese Fragen beantwortet werden. Jeder Einsatz von Tieren in der Erforschung von Krankheiten und der Entwicklung und Qualitätskontrolle von Therapien muss durch die Kantone bewilligt werden. Eine kantonale Tierversuchskommission prüft vorgängig das Gesuch und macht eine Empfehlung. Die Zahlen werden vom Bund jährlich veröffentlicht. Sie zeigen Trends bei den Tierversuchen:   Beeinflussen die 3-R-Prinzipien die Anzahl der Tierversuche?
+Box aufklappen
+Box zuklappen
+Die Einführung der 3-R-Prinzipien wird von den Behörden als Erklärung genannt, wieso über die letzten 40 Jahre die Zahl der Tierversuche reduziert werden konnte. Der Bund unterstützt in diesem Bereich auch Forschungsprojekte. So unterstützt er das 3-R-Kompetenzzentrum Schweiz an der Universität Bern. Wieso die Zahlen der Versuchstiere aber seit ein paar Jahren stagnieren und die Belastung der Tiere gar zugenommen hat, bleibt offen. Die Einführung der 3-R-Prinzipien wird von den Behörden als Erklärung genannt, wieso über die letzten 40 Jahre die Zahl der Tierversuche reduziert werden konnte. Der Bund unterstützt in diesem Bereich auch Forschungsprojekte. So unterstützt er das 3-R-Kompetenzzentrum Schweiz an der Universität Bern. Wieso die Zahlen der Versuchstiere aber seit ein paar Jahren stagnieren und die Belastung der Tiere gar zugenommen hat, bleibt offen. Impfstoffe: Tierversuchsverbot würde Entwicklung blockieren
+Box aufklappen
+Box zuklappen
+Legende:
+                    Keystone
+Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten.
+Klinische Forschung: Prüfung an freiwilligen Probanden nötig
+Box aufklappen
+Box zuklappen
+Legende:
+                    Keystone
+Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten. Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Rendez-vous, 10.03.2021, 12:30 Uhr Volksinitiative im Nationalrat Umstrittene Tierversuche Freispruch an Basler Gericht 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4227,9 +4271,10 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>10.03.2021, 11:16 Die Initiative verlangt ein bedingungsloses Verbot von Tier- ebenso wie Menschenversuchen. Auch wenn verschiedene Fraktionen im Nationalrat das Anliegen für berechtigt hielten, war ihnen ein absolutes Verbot zu radikal. «Mit einem Ja zur Initiative würde die Schweiz gänzlich auf einen Impfstoff gegen das Coronavirus verzichten», sagte zum Beispiel Christian Wasserfallen (FDP/BE). Dasselbe würde für moderne Krebstherapien gelten. Für Therapien und Medikamente müsste jemand aus der Schweiz dann ins Ausland reisen. Thomas de Courten (SVP/BL) vertrat die Meinung, dass Institutionen, die mit Tieren arbeiten, dies bereits verantwortungsbewusst tun und Expertinnen und Experten beiziehen. Die Initianten würden behaupten, dass «Tierversuche den Fortschritt behindern würden». Viele Fortschritte seien aber wegen der Ähnlichkeit von Mensch und Tier möglich, so de Courten. Namens der Mitte-Fraktion fügte Lilian Studer (EVP/AG) hinzu, dass Güterabwägungen weiterhin möglich sein müssten zwischen der Belastung der Tiere und dem potenziellen Nutzen eines Versuches für den Menschen. «Forschung an Tier und Mensch bleibt nie ganz wegzudenken», sagte sie. SP, Grüne und GLP lehnen die Volksinitiative zwar ebenfalls ab, wollten ihr aber einen Gegenvorschlag entgegenstellen, entweder direkt – in der Verfassung – oder indirekt auf Gesetzesebene. Dieser hätte den Verzicht auf Versuche, die die Tiere stark belasten, beinhaltet. Ein Ausstieg aus belastenden Tierversuchen sei für die SP zentral, sagte Matthias Aebischer (BE). Denn bei solchen Experimenten würden die Tiere starke Schmerzen oder Angst erleiden. Auch Meret Schneider (Grüne/ZH) warb für den direkten Gegenvorschlag: Mit ein Grund sei, dass Ergebnisse aus Tierversuchen nicht ohne weiteres auf den Menschen übertragbar seien. Öffentliche Mittel sollten deshalb primär an Forschungsprojekte gehen, die ohne Versuchstiere auskommen. Auf internationaler Ebene müsste sich der Bund für die Förderung von Forschung ohne Tierversuche stark machen. Ein zweiter, ebenfalls von SP, Grünen und GLP unterstützter Antrag hatte einen verbindlichen Ausstiegsplan aus den Tierversuchen zum Ziel. Die Vorlage sollte deshalb an die Kommission für Wissenschaft, Bildung und Kultur (WBK-N) zurückgewiesen werden mit dem Auftrag, eine Kommissionsinitiative für den indirekten Gegenvorschlag auszuarbeiten. Die GLP ihrerseits will die 3R-Forschung vorantreiben, die einen Ersatz von Tierversuchen, eine Verminderung von deren Zahl und für die Tiere weniger Belastungen zum Ziel hat. Katja Christ (GLP/BS) forderte deshalb gesetzliche Grundlagen, damit dieser Forschungszweig mehr Ressourcen erhält. Der im Zusammenhang mit Tierversuchen oft genannte Begriff «3R» steht für Replace (Vermeiden), Reduce (Verringern) und Refine (Verbessern). Das 3R-Prinzip hat also das Ziel, Tierversuche zu ersetzen, insgesamt weniger Tiere einzusetzen und die Versuche zu verbessern. Hinter der Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» stehen St. Galler Bürgerinnen und Bürger. Unterstützt wird die Initiative von rund 80 Organisationen und Unternehmen. Darunter sind Vertreterinnen und Vertreter von SP und Grünen sowie Tierschutzgruppen und Tierparteien. Darum geht es: Die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» fordert ein bedingungsloses Verbot von Tierversuchen und Forschung am Menschen in der Schweiz. Weiter soll auch der Handel mit Produkten, die unter Anwendung von Tierversuchen entwickelt wurden, verboten werden. Die Initianten möchten erreichen, dass die Forschung künftig mehr auf Modelle setzt statt auf Versuche. Was bisher geschah: Der Bundesrat lehnt die Initiative ab, da die existierenden Verfassungs- und Gesetzesbestimmungen ausreichend seien, um Mensch und Tier zu schützen. Ein solches Verbot hätte zudem massive negative Konsequenzen für die Gesundheit der Bevölkerung, die Forschung und die Wirtschaft unseres Landes. Ausserdem sei die Initiative unvereinbar mit den internationalen Verpflichtungen der Schweiz. So geht es weiter: Das Parlament berät in der Frühlingssession, ob es der Initiative einen Gegenentwurf oder einen indirekten Gegenvorschlag zur Seite stellen soll. Letzterer könnte beinhalten, dass nur Tierversuche ohne belegte Wirksamkeit verboten werden oder dass ein Ausstiegsplan aus belastenden Tierversuchen festgelegt wird. Der Nationalrat hat diese Möglichkeiten abgelehnt. Nun ist der Ständerat am Zug. Der Termin für die Volksabstimmung steht noch nicht fest. Info 3, 10.03.2021, 12:00 Uhr
+          <t>.   10.03.2021, 11:16 Die Initiative verlangt ein bedingungsloses Verbot von Tier- ebenso wie Menschenversuchen. Auch wenn verschiedene Fraktionen im Nationalrat das Anliegen für berechtigt hielten, war ihnen ein absolutes Verbot zu radikal. «Mit einem Ja zur Initiative würde die Schweiz gänzlich auf einen Impfstoff gegen das Coronavirus verzichten», sagte zum Beispiel Christian Wasserfallen (FDP/BE). Dasselbe würde für moderne Krebstherapien gelten. Für Therapien und Medikamente müsste jemand aus der Schweiz dann ins Ausland reisen. Thomas de Courten (SVP/BL) vertrat die Meinung, dass Institutionen, die mit Tieren arbeiten, dies bereits verantwortungsbewusst tun und Expertinnen und Experten beiziehen. Die Initianten würden behaupten, dass «Tierversuche den Fortschritt behindern würden». Viele Fortschritte seien aber wegen der Ähnlichkeit von Mensch und Tier möglich, so de Courten. Namens der Mitte-Fraktion fügte Lilian Studer (EVP/AG) hinzu, dass Güterabwägungen weiterhin möglich sein müssten zwischen der Belastung der Tiere und dem potenziellen Nutzen eines Versuches für den Menschen. «Forschung an Tier und Mensch bleibt nie ganz wegzudenken», sagte sie. SP, Grüne und GLP lehnen die Volksinitiative zwar ebenfalls ab, wollten ihr aber einen Gegenvorschlag entgegenstellen, entweder direkt – in der Verfassung – oder indirekt auf Gesetzesebene. Dieser hätte den Verzicht auf Versuche, die die Tiere stark belasten, beinhaltet. Ein Ausstieg aus belastenden Tierversuchen sei für die SP zentral, sagte Matthias Aebischer (BE). Denn bei solchen Experimenten würden die Tiere starke Schmerzen oder Angst erleiden. Auch Meret Schneider (Grüne/ZH) warb für den direkten Gegenvorschlag: Mit ein Grund sei, dass Ergebnisse aus Tierversuchen nicht ohne weiteres auf den Menschen übertragbar seien. Öffentliche Mittel sollten deshalb primär an Forschungsprojekte gehen, die ohne Versuchstiere auskommen. Auf internationaler Ebene müsste sich der Bund für die Förderung von Forschung ohne Tierversuche stark machen. Ein zweiter, ebenfalls von SP, Grünen und GLP unterstützter Antrag hatte einen verbindlichen Ausstiegsplan aus den Tierversuchen zum Ziel. Die Vorlage sollte deshalb an die Kommission für Wissenschaft, Bildung und Kultur (WBK-N) zurückgewiesen werden mit dem Auftrag, eine Kommissionsinitiative für den indirekten Gegenvorschlag auszuarbeiten. Die GLP ihrerseits will die 3R-Forschung vorantreiben, die einen Ersatz von Tierversuchen, eine Verminderung von deren Zahl und für die Tiere weniger Belastungen zum Ziel hat. Katja Christ (GLP/BS) forderte deshalb gesetzliche Grundlagen, damit dieser Forschungszweig mehr Ressourcen erhält. Der im Zusammenhang mit Tierversuchen oft genannte Begriff «3R» steht für Replace (Vermeiden), Reduce (Verringern) und Refine (Verbessern). Das 3R-Prinzip hat also das Ziel, Tierversuche zu ersetzen, insgesamt weniger Tiere einzusetzen und die Versuche zu verbessern. Hinter der Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» stehen St. Galler Bürgerinnen und Bürger. Unterstützt wird die Initiative von rund 80 Organisationen und Unternehmen. Darunter sind Vertreterinnen und Vertreter von SP und Grünen sowie Tierschutzgruppen und Tierparteien. Darum geht es: Die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» fordert ein bedingungsloses Verbot von Tierversuchen und Forschung am Menschen in der Schweiz. Weiter soll auch der Handel mit Produkten, die unter Anwendung von Tierversuchen entwickelt wurden, verboten werden. Die Initianten möchten erreichen, dass die Forschung künftig mehr auf Modelle setzt statt auf Versuche. Was bisher geschah: Der Bundesrat lehnt die Initiative ab, da die existierenden Verfassungs- und Gesetzesbestimmungen ausreichend seien, um Mensch und Tier zu schützen. Ein solches Verbot hätte zudem massive negative Konsequenzen für die Gesundheit der Bevölkerung, die Forschung und die Wirtschaft unseres Landes. Ausserdem sei die Initiative unvereinbar mit den internationalen Verpflichtungen der Schweiz. So geht es weiter: Das Parlament berät in der Frühlingssession, ob es der Initiative einen Gegenentwurf oder einen indirekten Gegenvorschlag zur Seite stellen soll. Letzterer könnte beinhalten, dass nur Tierversuche ohne belegte Wirksamkeit verboten werden oder dass ein Ausstiegsplan aus belastenden Tierversuchen festgelegt wird. Der Nationalrat hat diese Möglichkeiten abgelehnt. Nun ist der Ständerat am Zug. Der Termin für die Volksabstimmung steht noch nicht fest. Info 3, 10.03.2021, 12:00 Uhr
                 ;                                         
-                        sda/eglc/harm Statistik des Bundes Tierversuche in der Schweiz Tierversuche in der Schweiz</t>
+                        sda/eglc/harm Statistik des Bundes Tierversuche in der Schweiz Tierversuche in der Schweiz 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4271,9 +4316,10 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei?  Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
-Bundesrat und Parlament lehnen die Initiative geschlossen ab. Auch viele Verbände und Interessegruppen sind dagegen: zum Beispiel Economiesuisse, die Ärztevereinigung FMH, der Schweizer Tierschutz und der Schweizerische Nationalfonds. Für die Initiative findet sich weder bei Parteien und noch bei Verbänden Unterstützung – zumindest offiziell.  Fakt ist: Rund 600'000 Tiere pro Jahr werden in der Schweiz in Tierversuchen von Universitäten, Spitälern oder Pharma eingesetzt – Fische, Mäuse, Vögel, Katzen, Hunde oder Affen. Knapp ein Drittel davon müssen belastende Experimente über sich ergehen lassen. Die schwersten Versuche des «Schweregrades 3» sind mit starken Schmerzen oder Angst, schweren Beeinträchtigungen und langfristigen Leiden verbunden. Während in den letzten Jahren die Anzahl der Tierversuche stark abgenommen hat, nehmen die besonders belastenden Versuche nach wie vor zu. Forscherinnen und Forscher bezeichnen die Initiative aber als radikal: Ganz ohne Einsatz von Tieren sei im Moment wissenschaftlicher Fortschritt nicht möglich. Mit dem Importverbot für Medikamente, die mit Tierversuchen hergestellt wurden, würde sich die Schweiz ins Mittelalter zurückkatapultieren.  Bei einer Annahme gäbe es in der Schweiz keine neuen Medikamente, Therapien oder Impfstoffe mehr, weder für Menschen noch für Tiere. «Wir hätten keine Impfungen und kein einziges Antibiotikum mehr. Und auch keine Medikamente gegen schwere Krankheiten wie Krebs», befürchtet beispielsweise der Tierforscher Robert Rieben von der Uni Bern. Die Schweiz habe im internationalen Vergleich bereits eines der strengsten Tierschutzgesetze, argumentieren die Initiativ-Gegner. Tierversuche dürfen nur dann durchgeführt werden, wenn keine Alternativen zur Verfügung stehen. Zudem muss jeder Versuch vom kantonalen Veterinäramt und der jeweiligen Tierversuchskommission bewilligt werden. Würde die Initiative angenommen, wäre die Schweiz das erste Land, das komplett auf Tierversuche verzichtet. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.</t>
+          <t>. Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei?  Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
+Bundesrat und Parlament lehnen die Initiative geschlossen ab. Auch viele Verbände und Interessegruppen sind dagegen: zum Beispiel Economiesuisse, die Ärztevereinigung FMH, der Schweizer Tierschutz und der Schweizerische Nationalfonds. Für die Initiative findet sich weder bei Parteien und noch bei Verbänden Unterstützung – zumindest offiziell.  Fakt ist: Rund 600'000 Tiere pro Jahr werden in der Schweiz in Tierversuchen von Universitäten, Spitälern oder Pharma eingesetzt – Fische, Mäuse, Vögel, Katzen, Hunde oder Affen. Knapp ein Drittel davon müssen belastende Experimente über sich ergehen lassen. Die schwersten Versuche des «Schweregrades 3» sind mit starken Schmerzen oder Angst, schweren Beeinträchtigungen und langfristigen Leiden verbunden. Während in den letzten Jahren die Anzahl der Tierversuche stark abgenommen hat, nehmen die besonders belastenden Versuche nach wie vor zu. Forscherinnen und Forscher bezeichnen die Initiative aber als radikal: Ganz ohne Einsatz von Tieren sei im Moment wissenschaftlicher Fortschritt nicht möglich. Mit dem Importverbot für Medikamente, die mit Tierversuchen hergestellt wurden, würde sich die Schweiz ins Mittelalter zurückkatapultieren.  Bei einer Annahme gäbe es in der Schweiz keine neuen Medikamente, Therapien oder Impfstoffe mehr, weder für Menschen noch für Tiere. «Wir hätten keine Impfungen und kein einziges Antibiotikum mehr. Und auch keine Medikamente gegen schwere Krankheiten wie Krebs», befürchtet beispielsweise der Tierforscher Robert Rieben von der Uni Bern. Die Schweiz habe im internationalen Vergleich bereits eines der strengsten Tierschutzgesetze, argumentieren die Initiativ-Gegner. Tierversuche dürfen nur dann durchgeführt werden, wenn keine Alternativen zur Verfügung stehen. Zudem muss jeder Versuch vom kantonalen Veterinäramt und der jeweiligen Tierversuchskommission bewilligt werden. Würde die Initiative angenommen, wäre die Schweiz das erste Land, das komplett auf Tierversuche verzichtet. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.  
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4361,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Die Volksinitiative «Ja zum Tier und Menschenversuchsverbot» will die Forschung an Tier und Mensch fundamental verändern. Das Parlament lehnte die Vorlage ohne Gegenstimme ab. Fünf Fragen und Antworten zur Abstimmung. Alle Resultate und Reaktionen zur Abstimmung Februar 2022 im Liveticker Die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot - Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» beinhaltet ein Verbot von Tier- und auch von «Menschenversuchen». Damit ist laut den Initianten und Initiantinnen nicht die Forschung am Menschen generell gemeint: Verboten würden klinische, psychologische und sportwissenschaftliche Studien mit Menschen. Einfuhr, Ausfuhr und der Handel mit Produkten, die aus solchen Versuchen stammen, wären verboten. Der Artikel 80 in der Bundesverfassung (Tierschutz) besagt heute, dass der Bund unter anderem Tierhaltung, Tierversuche, Tier-Importe und das Töten von Tieren regelt. Diese Auflistung würde ersetzt durch einen ausführlichen neuen Verfassungstext. Der nicht näher definierte Begriff könne je nach Auslegung umfassend als «Forschung am Menschen» verstanden werden, so die Ansicht des Bundesrats, die er in seiner Botschaft darlegt. Dadurch würden nicht nur medizinische Studien verboten, sondern auch Forschung etwa im Bereich Psychologie. Die Initianten und Initiantinnen widersprechen dieser Auslegung. Mit «Menschenversuchen» seien Experimente am Menschen mit Schadenpotenzial gemeint. Lanciert wurde die Initiative von der IG Tierversuchsverbots-Initiative. Sie ist in St. Gallen domiziliert und wird präsidiert von Irene Varga, Naturwissenschaftlerin, Luzia Osterwalder, Naturheilpraktikerin, und Renato Werndli, Allgemeinmediziner. Tierversuche sind nach Ansicht der Initianten und Initiantinnen «Tierquälerei bis hin zu Verbrechen». Das würde künftig so in der Verfassung stehen. Auch bei «Menschenversuchen» werde ein gefährlicher «Versuch und Irrtum»-Ansatz verfolgt», sagt Irene Varga auf Anfrage von 20 Minuten. Klinische Studien würden von den Probanden kaum je «in voller Kenntnis der Risiken» durchgeführt, und Schadenersatzforderungen bei Langzeitschäden dürften es extrem schwer haben. Viele Kranke, die an diesen Studien teilnehmen, seien so krank, dass sie die Dokumente, die erst noch vieles ausliessen, gar nicht lesen, geschweige denn adäquat einordnen könnten, sagt Irene Varga. Probanden würden einer Substanz ausgesetzt, die dann in 95 Prozent der Fälle doch nicht auf den Markt kommen dürfe. «Über die meisten so erzeugten Schäden und Leiden erfahren wir nichts. Über andere jedoch gibt es Zeugnis: der Beipackzettel. Aufmerksame Lesende finden darin einige der Tragödien, die Patienten während der klinischen Studien oder am Markt ereilten», so Varga. Die Gegner sehen das ganz anders. Die Forschung am Menschen sei detailliert geregelt, um Würde, Persönlichkeit und Gesundheit des Menschen zu schützen, schreibt der Bundesrat in der Abstimmungsbroschüre. «Forschung am Menschen ist nur dann erlaubt, wenn sie mehrere Bedingungen erfüllt.» Dazu gehörten: -Interesse, Gesundheit und Wohlergehen des einzelnen Menschen müssen Vorrang haben gegenüber den Interessen der Wissenschaft und Gesellschaft.-Forschung mit Personen ist nur erlaubt, wenn gleichwertige Erkenntnisse nicht anders gewonnen werden können.-Die beteiligten Personen müssen gut informiert und einverstanden sein.-Die Forschung muss von einer kantonalen Ethikkommission vorgängig geprüft und bewilligt werden.-Zusätzliche Bedingungen gelten für die Forschung mit urteilsunfähigen Personen wie beispielsweise Kleinkindern. Bundesrat und Parlament lehnen die Volksinitiative ab. Ebenso alle im Parlament vertretenen Parteien sind dagegen. Die Vorlage ist nach Ansicht von Bundesrat und Parlament zu extrem und schädlich für die Gesundheitsversorgung, die Wirtschaft und den Forschungsstandort Schweiz. Das mit Tierversuchen einhergehende Leid solle wo immer möglich vermieden werden. Doch die Schweiz habe heute schon strenge Bestimmungen. Mit der Initiative sei eine Güterabwägung nicht mehr möglich. Betreffend «Menschenversuchen» schreibt der Bundesrat in der Abstimmungsbroschüre, dass es unter Umständen nach Annahme der Initiative nicht länger zulässig wäre, ein Forschungsvorhaben mit erwachsenen, urteilsfähigen Personen durchzuführen, die sich aus wissenschaftlichem Interesse oder aus solidarischen, altruistischen Überlegungen daran beteiligen möchten. Laut den bisherigen Abstimmungsvorlagen dürfte die Initiative am 13. Februar abgelehnt werden. Die jüngste Umfrage von Tamedia und 20 Minuten, durchgeführt Mitte Januar, ergibt eine Zustimmung von 27 Prozent und eine Ablehnung von 71 Prozent. Damit hat sich der Trend von Anfang Januar verdeutlicht. Damals sprachen sich 34 Prozent dafür und 61 Prozent dagegen aus. Weniger klar ist die Umfrage von GFS-Bern vom Dezember: Demnach wären 45 Prozent dafür und 48 Prozent dagegen. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Volksinitiative «Ja zum Tier und Menschenversuchsverbot» will die Forschung an Tier und Mensch fundamental verändern. Das Parlament lehnte die Vorlage ohne Gegenstimme ab. Fünf Fragen und Antworten zur Abstimmung. Alle Resultate und Reaktionen zur Abstimmung Februar 2022 im Liveticker Die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot - Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» beinhaltet ein Verbot von Tier- und auch von «Menschenversuchen». Damit ist laut den Initianten und Initiantinnen nicht die Forschung am Menschen generell gemeint: Verboten würden klinische, psychologische und sportwissenschaftliche Studien mit Menschen. Einfuhr, Ausfuhr und der Handel mit Produkten, die aus solchen Versuchen stammen, wären verboten. Der Artikel 80 in der Bundesverfassung (Tierschutz) besagt heute, dass der Bund unter anderem Tierhaltung, Tierversuche, Tier-Importe und das Töten von Tieren regelt. Diese Auflistung würde ersetzt durch einen ausführlichen neuen Verfassungstext. Der nicht näher definierte Begriff könne je nach Auslegung umfassend als «Forschung am Menschen» verstanden werden, so die Ansicht des Bundesrats, die er in seiner Botschaft darlegt. Dadurch würden nicht nur medizinische Studien verboten, sondern auch Forschung etwa im Bereich Psychologie. Die Initianten und Initiantinnen widersprechen dieser Auslegung. Mit «Menschenversuchen» seien Experimente am Menschen mit Schadenpotenzial gemeint. Lanciert wurde die Initiative von der IG Tierversuchsverbots-Initiative. Sie ist in St. Gallen domiziliert und wird präsidiert von Irene Varga, Naturwissenschaftlerin, Luzia Osterwalder, Naturheilpraktikerin, und Renato Werndli, Allgemeinmediziner. Tierversuche sind nach Ansicht der Initianten und Initiantinnen «Tierquälerei bis hin zu Verbrechen». Das würde künftig so in der Verfassung stehen. Auch bei «Menschenversuchen» werde ein gefährlicher «Versuch und Irrtum»-Ansatz verfolgt», sagt Irene Varga auf Anfrage von 20 Minuten. Klinische Studien würden von den Probanden kaum je «in voller Kenntnis der Risiken» durchgeführt, und Schadenersatzforderungen bei Langzeitschäden dürften es extrem schwer haben. Viele Kranke, die an diesen Studien teilnehmen, seien so krank, dass sie die Dokumente, die erst noch vieles ausliessen, gar nicht lesen, geschweige denn adäquat einordnen könnten, sagt Irene Varga. Probanden würden einer Substanz ausgesetzt, die dann in 95 Prozent der Fälle doch nicht auf den Markt kommen dürfe. «Über die meisten so erzeugten Schäden und Leiden erfahren wir nichts. Über andere jedoch gibt es Zeugnis: der Beipackzettel. Aufmerksame Lesende finden darin einige der Tragödien, die Patienten während der klinischen Studien oder am Markt ereilten», so Varga. Die Gegner sehen das ganz anders. Die Forschung am Menschen sei detailliert geregelt, um Würde, Persönlichkeit und Gesundheit des Menschen zu schützen, schreibt der Bundesrat in der Abstimmungsbroschüre. «Forschung am Menschen ist nur dann erlaubt, wenn sie mehrere Bedingungen erfüllt.» Dazu gehörten: -Interesse, Gesundheit und Wohlergehen des einzelnen Menschen müssen Vorrang haben gegenüber den Interessen der Wissenschaft und Gesellschaft.-Forschung mit Personen ist nur erlaubt, wenn gleichwertige Erkenntnisse nicht anders gewonnen werden können.-Die beteiligten Personen müssen gut informiert und einverstanden sein.-Die Forschung muss von einer kantonalen Ethikkommission vorgängig geprüft und bewilligt werden.-Zusätzliche Bedingungen gelten für die Forschung mit urteilsunfähigen Personen wie beispielsweise Kleinkindern. Bundesrat und Parlament lehnen die Volksinitiative ab. Ebenso alle im Parlament vertretenen Parteien sind dagegen. Die Vorlage ist nach Ansicht von Bundesrat und Parlament zu extrem und schädlich für die Gesundheitsversorgung, die Wirtschaft und den Forschungsstandort Schweiz. Das mit Tierversuchen einhergehende Leid solle wo immer möglich vermieden werden. Doch die Schweiz habe heute schon strenge Bestimmungen. Mit der Initiative sei eine Güterabwägung nicht mehr möglich. Betreffend «Menschenversuchen» schreibt der Bundesrat in der Abstimmungsbroschüre, dass es unter Umständen nach Annahme der Initiative nicht länger zulässig wäre, ein Forschungsvorhaben mit erwachsenen, urteilsfähigen Personen durchzuführen, die sich aus wissenschaftlichem Interesse oder aus solidarischen, altruistischen Überlegungen daran beteiligen möchten. Laut den bisherigen Abstimmungsvorlagen dürfte die Initiative am 13. Februar abgelehnt werden. Die jüngste Umfrage von Tamedia und 20 Minuten, durchgeführt Mitte Januar, ergibt eine Zustimmung von 27 Prozent und eine Ablehnung von 71 Prozent. Damit hat sich der Trend von Anfang Januar verdeutlicht. Damals sprachen sich 34 Prozent dafür und 61 Prozent dagegen aus. Weniger klar ist die Umfrage von GFS-Bern vom Dezember: Demnach wären 45 Prozent dafür und 48 Prozent dagegen.</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4528,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Bilder und Berichte von verletzten und ausgehungerten Hühnern: Bauer Mario Küng nervt sich gewaltig über den Abstimmungskampf. Letztlich entscheide der Konsument an der Kasse. Am 25. September stimmt die Schweiz über die Massentierhaltungsinitiative ab. Einer, der die Initiative nicht nachvollziehen kann, ist Mario Küng aus Eiken im Kanton Aargau. Auf seinem Hof hält der Bauer 16’000 Masthühner. Von einer Massentierhaltung sei dies aber weit entfernt. «Für mich gibt es keine Massentierhaltung. Viel wichtiger ist, wie die Tiere gehalten werden», sagt Küng. In der Schweiz gebe es ein einzigartig strenges Tierschutzgesetz mit gesetzlich limitierten Höchst-Tierbeständen wie in keinem anderen Land. «Es macht für ein Huhn keinen Unterschied, ob es mit 2000 oder 16’000 anderen Hühnern in einer Herde lebt.» Im Ausland jedoch werden laut Küng teils Tiere in viel grösseren Herden und auf der Hälfte des Platzes gehalten. Küng nervt sich darüber, dass die Schweizer Bauern im Abstimmungskampf wie Kriminelle dargestellt würden. «Die Schweizer Bauernfamilien investieren jeden Tag ihr Herzblut in die Arbeit und die Schweizer Landwirtschaft macht gewaltige Fortschritte. Und die von der Initiative geforderten Bio-Standards gibt es bereits. Der Kunde findet diese, wenn er sie kaufen will.» Die Annahme würde laut dem Landwirt dazu führen, dass der Konsument bevormundet würde, indem man ihm keine Auswahl mehr gäbe. Das Angebot an Schweizer Fleisch würde bei der Annahme der Initiative laut Küng drastisch schrumpfen. Er geht deshalb davon aus, dass Tiere aus schlechterer Haltung importiert würden. «Dies schadet mitunter auch der Ökologie. Es ist deshalb gleich doppelt spannend, dass diese Initiative von Links-Grün kommt», sagt Küng. Schlussendlich produzieren die Bauern laut Küng, was vom Konsumenten gekauft wird. «Würde man die Kassenbons als Wahlscheine zählen, würde die Initiative mit über 90 Prozent abgelehnt», hält Küng fest.  Alfred Schädeli vom Demeter-Hof Looren im Zürcher Oberland hingegen befürwortet die Massentierhaltungsinitiative: «Es gibt sehr viele Tiere in der Schweiz, die trotz Tierschutzgesetzen nie unter freiem Himmel leben können.» Zum Teil hätten die Tiere sehr wenig Raum zur Verfügung. «Ein Mastmuni wiegt rund 550 Kilogramm – und steht sein Leben lang auf einer Fläche, die kleiner ist als mein Bett.» Was Massentierhaltung bedeutet, ist auch für Schädeli schwierig abzugrenzen. «Wenn aber die Tiere immer auf der gleichen Fläche stehen müssen, nicht nach draussen dürfen und in riesigen Mengen gehalten werden, ist das für mich eine industrielle Massentierhaltung», so der Landwirt. Auf seinem Hof leben rund 40 Milch- und Mutterkühe, ein paar Schweine und circa 600 Legehennen. Der Bauernverband lehnt die Initiative mit ähnlichen Argumenten wie Bauer Küng entschieden ab. Verständnis habe der Verband jedoch für die Ansichten beider Bauern. «Die Landwirte, welche die Initiative ablehnen, sind nicht gegen mehr Tierwohl, sondern gegen eine kontraproduktive staatliche Zwangsmassnahme.» Bauern hingegen, die schon heute nach Bio-Standards produzieren, würden selbstverständlich die Initiative unterstützen. Und: Von ihnen könne es noch viel mehr geben, wenn die Bevölkerung beim Einkauf auf viel Tierwohl achte. «Wir hoffen darauf, dass sich der Bio-Anteil von Fleisch, Eiern oder Milch im Verkauf mit der Abstimmung mindestens vervierfacht», sagt Helfenstein. Machen die Bauern schon genug für das Tierwohl oder nicht? Mit dem täglichen Update bleibst du über deine Lieblingsthemen informiert und verpasst keine News über das aktuelle Weltgeschehen mehr.Erhalte das Wichtigste kurz und knapp täglich direkt in dein Postfach. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Bilder und Berichte von verletzten und ausgehungerten Hühnern: Bauer Mario Küng nervt sich gewaltig über den Abstimmungskampf. Letztlich entscheide der Konsument an der Kasse. Am 25. September stimmt die Schweiz über die Massentierhaltungsinitiative ab. Einer, der die Initiative nicht nachvollziehen kann, ist Mario Küng aus Eiken im Kanton Aargau. Auf seinem Hof hält der Bauer 16’000 Masthühner. Von einer Massentierhaltung sei dies aber weit entfernt. «Für mich gibt es keine Massentierhaltung. Viel wichtiger ist, wie die Tiere gehalten werden», sagt Küng. In der Schweiz gebe es ein einzigartig strenges Tierschutzgesetz mit gesetzlich limitierten Höchst-Tierbeständen wie in keinem anderen Land. «Es macht für ein Huhn keinen Unterschied, ob es mit 2000 oder 16’000 anderen Hühnern in einer Herde lebt.» Im Ausland jedoch werden laut Küng teils Tiere in viel grösseren Herden und auf der Hälfte des Platzes gehalten. Küng nervt sich darüber, dass die Schweizer Bauern im Abstimmungskampf wie Kriminelle dargestellt würden. «Die Schweizer Bauernfamilien investieren jeden Tag ihr Herzblut in die Arbeit und die Schweizer Landwirtschaft macht gewaltige Fortschritte. Und die von der Initiative geforderten Bio-Standards gibt es bereits. Der Kunde findet diese, wenn er sie kaufen will.» Die Annahme würde laut dem Landwirt dazu führen, dass der Konsument bevormundet würde, indem man ihm keine Auswahl mehr gäbe. Das Angebot an Schweizer Fleisch würde bei der Annahme der Initiative laut Küng drastisch schrumpfen. Er geht deshalb davon aus, dass Tiere aus schlechterer Haltung importiert würden. «Dies schadet mitunter auch der Ökologie. Es ist deshalb gleich doppelt spannend, dass diese Initiative von Links-Grün kommt», sagt Küng. Schlussendlich produzieren die Bauern laut Küng, was vom Konsumenten gekauft wird. «Würde man die Kassenbons als Wahlscheine zählen, würde die Initiative mit über 90 Prozent abgelehnt», hält Küng fest.  Alfred Schädeli vom Demeter-Hof Looren im Zürcher Oberland hingegen befürwortet die Massentierhaltungsinitiative: «Es gibt sehr viele Tiere in der Schweiz, die trotz Tierschutzgesetzen nie unter freiem Himmel leben können.» Zum Teil hätten die Tiere sehr wenig Raum zur Verfügung. «Ein Mastmuni wiegt rund 550 Kilogramm – und steht sein Leben lang auf einer Fläche, die kleiner ist als mein Bett.» Was Massentierhaltung bedeutet, ist auch für Schädeli schwierig abzugrenzen. «Wenn aber die Tiere immer auf der gleichen Fläche stehen müssen, nicht nach draussen dürfen und in riesigen Mengen gehalten werden, ist das für mich eine industrielle Massentierhaltung», so der Landwirt. Auf seinem Hof leben rund 40 Milch- und Mutterkühe, ein paar Schweine und circa 600 Legehennen. Der Bauernverband lehnt die Initiative mit ähnlichen Argumenten wie Bauer Küng entschieden ab. Verständnis habe der Verband jedoch für die Ansichten beider Bauern. «Die Landwirte, welche die Initiative ablehnen, sind nicht gegen mehr Tierwohl, sondern gegen eine kontraproduktive staatliche Zwangsmassnahme.» Bauern hingegen, die schon heute nach Bio-Standards produzieren, würden selbstverständlich die Initiative unterstützen. Und: Von ihnen könne es noch viel mehr geben, wenn die Bevölkerung beim Einkauf auf viel Tierwohl achte. «Wir hoffen darauf, dass sich der Bio-Anteil von Fleisch, Eiern oder Milch im Verkauf mit der Abstimmung mindestens vervierfacht», sagt Helfenstein. Machen die Bauern schon genug für das Tierwohl oder nicht? Mit dem täglichen Update bleibst du über deine Lieblingsthemen informiert und verpasst keine News über das aktuelle Weltgeschehen mehr.Erhalte das Wichtigste kurz und knapp täglich direkt in dein Postfach.</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4570,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Betriebe, die Tiere halten, sollen bis 2047 in vier Bereichen Bio-Standards erfüllen müssen. Am 25. September stimmt die Schweiz ab. Die wichtigsten Antworten. Die Initiative will die Massentierhaltung in der Schweiz verbieten und die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufnehmen. Konkret wird gefordert, dass alle Betriebe bis 2047 in vier Punkten die Bio-Standards von 2018 einhalten müssen: • Bei der tierfreundlichen Unterbringung und Pflege• Beim Zugang ins Freie• Beim Schlachten • Bei der maximalen Gruppengrösse pro Stall Mit der genauen Ausarbeitung soll der Bund beauftragt werden. Er soll also etwa auch bestimmen, wie viele Tiere noch in den Ställen sein dürfen, wie viel Auslauf sie haben sollen und wie und wo die Schlachtung stattfinden darf. Die Bio-Standards sollen als Richtlinien dienen. Diese Anforderungen würden auch für den Import von Tieren und Tierprodukten sowie von Lebensmitteln, die tierische Produkte enthalten, gelten.  Das variiert je nach Betrieb und Label. Einen Einblick in die Unterschiede von biologischer zu konventioneller Tierhaltung gibt unten stehendes Video. Um dir zu zeigen, wie in der Schweiz Fleisch produziert wird, zeigen wir dir den Hof von Fabian Reinmann, der nach IP-Suisse-Standard produziert, und den Hof von Fritz Sahli, der nach Bio- und Demeter-Standard Schweine züchtet. Die Trägerschaft besteht aus den vier Organisationen Sentience, Vier Pfoten, Fondation Franz Weber und Greenpeace. Die Initiative wird von einer breiten Allianz aus Tierschutz-, Tierrechts-, Landwirtschafts- und Umweltorganisationen getragen. Getragen wird die Initiative von der SP und den Grünen sowie von verschiedenen Tierschutzorganisationen. Dagegen sind FDP, SVP, Die Mitte und der Bauernverband. Auch Bundesrat und Parlament lehnen die Initiative ab. Die Initianten fordern ihrer Meinung nach «eine Selbstverständlichkeit». Sie nennen insbesondere vier Gründe für ein Ja: • Die Initiative verankere die Tierwürde in der Landwirtschaft. In der Massentierhaltung würden die Grundbedürfnisse der Tiere in praktisch allen Belangen missachtet. • Die Initiative stärke die Gesundheit von Mensch und Tier. Die Massentierhaltung fördere Pandemierisiken, Antibiotikaresistenzen und Gesundheitsrisiken durch den Konsum von Billigfleisch. • Die Initiative betreffe hauptsächlich industrielle Grossbetriebe. Nur fünf Prozent der landwirtschaftlichen Betriebe sind laut Bundesrat betroffen.  • Die Initiative sichere eine zukunftsfähige Landwirtschaft. Treibhausgasemissionen würden reduziert, die Tierhaltung werde ressourcenschonender und tierfreundlicher. Wie stimmst du über die Massentierhaltungsinitiative ab? Die Gegner argumentieren hauptsächlich damit, dass mit dem Bio-Label die geforderten Standards schon angeboten würden. Das Angebot übersteige aber oft die Nachfrage. Ausserdem sei es «absurd», die Anforderungen eines Labels in die Verfassung zu schreiben. Auch die Importe würden sich deutlich erhöhen, die Preise steigen, ein Mehrwert für das Tierwohl würde im Ausland aber nicht erzielt werden. Weil die Anzahl Tiere beschränkt würde, müssten viele Landwirtschaftsbetriebe ihre Ställe vergrössern, was zu Konflikten in der Raumplanung führen würde. Gemäss der ersten Abstimmungsumfrage von Tamedia und 20 Minuten befürworteten Anfang August 55 Prozent der Stimmberechtigten die Initiative, 43 Prozent lehnten sie ab. Keine News mehr verpassen Mit dem täglichen Update bleibst du über deine Lieblingsthemen informiert und verpasst keine News über das aktuelle Weltgeschehen mehr.Erhalte das Wichtigste kurz und knapp täglich direkt in dein Postfach. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Betriebe, die Tiere halten, sollen bis 2047 in vier Bereichen Bio-Standards erfüllen müssen. Am 25. September stimmt die Schweiz ab. Die wichtigsten Antworten. Die Initiative will die Massentierhaltung in der Schweiz verbieten und die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufnehmen. Konkret wird gefordert, dass alle Betriebe bis 2047 in vier Punkten die Bio-Standards von 2018 einhalten müssen: • Bei der tierfreundlichen Unterbringung und Pflege• Beim Zugang ins Freie• Beim Schlachten • Bei der maximalen Gruppengrösse pro Stall Mit der genauen Ausarbeitung soll der Bund beauftragt werden. Er soll also etwa auch bestimmen, wie viele Tiere noch in den Ställen sein dürfen, wie viel Auslauf sie haben sollen und wie und wo die Schlachtung stattfinden darf. Die Bio-Standards sollen als Richtlinien dienen. Diese Anforderungen würden auch für den Import von Tieren und Tierprodukten sowie von Lebensmitteln, die tierische Produkte enthalten, gelten.  Das variiert je nach Betrieb und Label. Einen Einblick in die Unterschiede von biologischer zu konventioneller Tierhaltung gibt unten stehendes Video. Um dir zu zeigen, wie in der Schweiz Fleisch produziert wird, zeigen wir dir den Hof von Fabian Reinmann, der nach IP-Suisse-Standard produziert, und den Hof von Fritz Sahli, der nach Bio- und Demeter-Standard Schweine züchtet. Die Trägerschaft besteht aus den vier Organisationen Sentience, Vier Pfoten, Fondation Franz Weber und Greenpeace. Die Initiative wird von einer breiten Allianz aus Tierschutz-, Tierrechts-, Landwirtschafts- und Umweltorganisationen getragen. Getragen wird die Initiative von der SP und den Grünen sowie von verschiedenen Tierschutzorganisationen. Dagegen sind FDP, SVP, Die Mitte und der Bauernverband. Auch Bundesrat und Parlament lehnen die Initiative ab. Die Initianten fordern ihrer Meinung nach «eine Selbstverständlichkeit». Sie nennen insbesondere vier Gründe für ein Ja: • Die Initiative verankere die Tierwürde in der Landwirtschaft. In der Massentierhaltung würden die Grundbedürfnisse der Tiere in praktisch allen Belangen missachtet. • Die Initiative stärke die Gesundheit von Mensch und Tier. Die Massentierhaltung fördere Pandemierisiken, Antibiotikaresistenzen und Gesundheitsrisiken durch den Konsum von Billigfleisch. • Die Initiative betreffe hauptsächlich industrielle Grossbetriebe. Nur fünf Prozent der landwirtschaftlichen Betriebe sind laut Bundesrat betroffen.  • Die Initiative sichere eine zukunftsfähige Landwirtschaft. Treibhausgasemissionen würden reduziert, die Tierhaltung werde ressourcenschonender und tierfreundlicher. Wie stimmst du über die Massentierhaltungsinitiative ab? Die Gegner argumentieren hauptsächlich damit, dass mit dem Bio-Label die geforderten Standards schon angeboten würden. Das Angebot übersteige aber oft die Nachfrage. Ausserdem sei es «absurd», die Anforderungen eines Labels in die Verfassung zu schreiben. Auch die Importe würden sich deutlich erhöhen, die Preise steigen, ein Mehrwert für das Tierwohl würde im Ausland aber nicht erzielt werden. Weil die Anzahl Tiere beschränkt würde, müssten viele Landwirtschaftsbetriebe ihre Ställe vergrössern, was zu Konflikten in der Raumplanung führen würde. Gemäss der ersten Abstimmungsumfrage von Tamedia und 20 Minuten befürworteten Anfang August 55 Prozent der Stimmberechtigten die Initiative, 43 Prozent lehnten sie ab. Keine News mehr verpassen Mit dem täglichen Update bleibst du über deine Lieblingsthemen informiert und verpasst keine News über das aktuelle Weltgeschehen mehr.Erhalte das Wichtigste kurz und knapp täglich direkt in dein Postfach.</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4612,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Die Gegner der Massentierhaltungsinitiative haben ihre Kampagne lanciert. Sie argumentieren mit hohen Preissteigerungen bei Fleisch, Milch und Eiern. Am Montag lancierten die Gegnerinnen und Gegner der Massentierhaltungsinitiative ihre Kampagne. Bei einem Ja am 25. September sei mit deutlich höheren Kosten für tierische Produkte zu rechnen, warnt Markus Ritter, Mitte-Nationalrat und Präsident des Schweizer Bauernverbands. «Nicht jedem, der die Initiative unterschrieben hat, ist bewusst gewesen, dass diese 20 bis 30 Prozent höhere Kosten für tierische Lebensmittel bringt. Und dass auch die Gastronomie und Hoteliers betroffen sind», so Ritter. Pro Jahr würden Mehrkosten von rund 1800 Franken für eine vierköpfige Familie entstehen, so Mitte-Ständerätin Andrea Gmür-Schönenberger. Die Kosten kämen dadurch zustande, dass die geforderten Bio-Standards zu massiven Erhöhungen der Produktionskosten führen würden, die auf die Konsumentinnen und Konsumenten überwälzt würden. Dies sorge zudem für Einkaufstourismus und «dass mehr ausländisches Fleisch gekauft wird, bei dem die Vorgaben kaum überprüft werden können.» Ziel der Initiative ist, Massentierhaltung zu verbieten sowie die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufzunehmen. Massnahmen wären etwa mehr Platz pro Tier, täglicher Weidezugang und eine artgerechte Fütterung. Die Initiantinnen und Initianten wollen, dass überall mindestens die Standards von Bio Suisse gelten. Unterstützung erhält das Anliegen etwa von SP-Ständerat Daniel Jositsch, Befürworter der Initiative. Er möchte für das Tierwohl einstehen und nicht für billiges Fleisch um jeden Preis. «Wenn die Leute wissen, wie die Tierproduktion funktioniert, haben sie Verständnis», sagt er. Fleischkonsum müsse wieder als Qualitätsgut gelten und die Konsumierenden müssten sich der Umweltbelastung bewusst sein. Die erwartete Kostensteigerung von 20 bis 30 Prozent hält Jositsch für überzogen. Zudem seien solche Zahlen Beweis dafür, «dass in den Ställen katastrophale Zustände herrschen». Grünen-Nationalrätin und Mitinitiantin Meret Schneider hält die Zahlen ebenfalls für «vollkommen aus der Luft gegriffen». Laut Schneider ist zwar mit höheren Kosten für tierische Lebensmittel zu rechnen. Diese könnten von Privathaushalten jedoch durch den Kauf von weniger tierischen Produkten kompensiert werden. Rund ein Drittel der Lebensmittel lande in privaten Haushalten im Abfall.  Wie stehst du zur Massentierhaltung? Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Gegner der Massentierhaltungsinitiative haben ihre Kampagne lanciert. Sie argumentieren mit hohen Preissteigerungen bei Fleisch, Milch und Eiern. Am Montag lancierten die Gegnerinnen und Gegner der Massentierhaltungsinitiative ihre Kampagne. Bei einem Ja am 25. September sei mit deutlich höheren Kosten für tierische Produkte zu rechnen, warnt Markus Ritter, Mitte-Nationalrat und Präsident des Schweizer Bauernverbands. «Nicht jedem, der die Initiative unterschrieben hat, ist bewusst gewesen, dass diese 20 bis 30 Prozent höhere Kosten für tierische Lebensmittel bringt. Und dass auch die Gastronomie und Hoteliers betroffen sind», so Ritter. Pro Jahr würden Mehrkosten von rund 1800 Franken für eine vierköpfige Familie entstehen, so Mitte-Ständerätin Andrea Gmür-Schönenberger. Die Kosten kämen dadurch zustande, dass die geforderten Bio-Standards zu massiven Erhöhungen der Produktionskosten führen würden, die auf die Konsumentinnen und Konsumenten überwälzt würden. Dies sorge zudem für Einkaufstourismus und «dass mehr ausländisches Fleisch gekauft wird, bei dem die Vorgaben kaum überprüft werden können.» Ziel der Initiative ist, Massentierhaltung zu verbieten sowie die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufzunehmen. Massnahmen wären etwa mehr Platz pro Tier, täglicher Weidezugang und eine artgerechte Fütterung. Die Initiantinnen und Initianten wollen, dass überall mindestens die Standards von Bio Suisse gelten. Unterstützung erhält das Anliegen etwa von SP-Ständerat Daniel Jositsch, Befürworter der Initiative. Er möchte für das Tierwohl einstehen und nicht für billiges Fleisch um jeden Preis. «Wenn die Leute wissen, wie die Tierproduktion funktioniert, haben sie Verständnis», sagt er. Fleischkonsum müsse wieder als Qualitätsgut gelten und die Konsumierenden müssten sich der Umweltbelastung bewusst sein. Die erwartete Kostensteigerung von 20 bis 30 Prozent hält Jositsch für überzogen. Zudem seien solche Zahlen Beweis dafür, «dass in den Ställen katastrophale Zustände herrschen». Grünen-Nationalrätin und Mitinitiantin Meret Schneider hält die Zahlen ebenfalls für «vollkommen aus der Luft gegriffen». Laut Schneider ist zwar mit höheren Kosten für tierische Lebensmittel zu rechnen. Diese könnten von Privathaushalten jedoch durch den Kauf von weniger tierischen Produkten kompensiert werden. Rund ein Drittel der Lebensmittel lande in privaten Haushalten im Abfall.  Wie stehst du zur Massentierhaltung?</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4654,8 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat</t>
+          <t>.   Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4650,9 +4697,10 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Im Herbst stimmt die Schweiz über die Initiative gegen Massentierhaltung ab. Ein wichtiger Diskussionspunkt: das Fleisch. In Zukunft soll in der Produktion überall der Bio-Standard gelten. Dadurch würde inländisches Fleisch teurer werden. Die Initiative scheidet die Geister. 28.06.2022, 19:17 Meret Schneider ist Mitinitiantin der Massentierhaltungsinitiative und Nationalrätin der Grünen. In der SRF-Sendung Arena brachte sie ihr Anliegen auf den Punkt: «Wir sollten zurück zum Sonntagsbraten: Also ein- bis zweimal pro Woche Fleisch essen, aber solches von Tieren, die ein einigermassen gutes Leben hatten.» Die Initiative will die Massentierhaltung in der Schweiz verbieten und die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufnehmen. Zum Beispiel mit einem täglichen Gang ins Freie, schonenderen Schlachtmethoden und viel weniger Tieren pro Weidefläche und Stall. Zudem will die Initiative weg von der industriellen Fleischproduktion. Das betrifft vor allem die industrielle Hühner- und Schweinemast. Der Bundesrat lehnt die Initiative ab.  Tatsächlich hat sich der Fleischkonsum in der Schweiz immer wieder verändert. Die Schweizer Historikerin Gisela Hürlimann sagt, es fehle zwar die exakte Datenlage, aber der Fleischkonsum sei früher viel tiefer gewesen. Gutes Fleisch, meist Rindfleisch, sei bis etwa 1900 etwas für Privilegierte gewesen. Erst um 1950 wurde Fleisch für die breite Masse zugänglich. Damals wurden rund 30 Kilogramm pro Kopf und Jahr gegessen. Dann sei der Konsum angestiegen, so Hürlimann. «Wir beobachten seit 1950 zwei Entwicklungen: Einerseits wird aus dem Rinderland Schweiz mit Bratwurst, Voressen oder Sonntagsbraten ein Land des Schweinefleischkonsums mit Cervelat, Schweineschnitzel und Kotelett. Zweitens geht der Trend in den letzten 20 Jahren zu einem deutlich tieferen Fleischkonsum.» Während der Gesamtfleischkonsum in den letzten Jahren stagniert oder leicht zurückgeht, essen Schweizerinnen und Schweizer immer mehr Poulet. Dies, da es als gesund und fettarm gilt, erklärt der Direktor des Schweizer Bauernverbands, Martin Rufer. Pro Jahr und Person essen Herr und Frau Schweizer 51 Kilogramm Fleisch. Davon sind 26 Kilogramm Schweinefleisch und 14 Kilogramm Huhn. Das sei viel zu viel, sagt der Landwirtschaftsberater Eric Meili. «Wir müssen unseren Fleischkonsum reduzieren. Dabei müssen wir aber genau hinschauen, welches Fleisch wir reduzieren.» Meili war 30 Jahre lang am Forschungsinstitut für biologischen Landbau (Fibl) tätig. Für ihn sei vor allem die intensive Poulet- und Schweinefleischproduktion problematisch. Dies da dafür hochwertiges Getreide den Tieren verfüttert wird, das eigentlich Menschen ernähren könnte. Die Schweiz sei ein Grasland und auf Wiederkäuer wie Kühe ausgerichtet. «Wir müssen verhindern, dass unsere Tiere den Armen auf dieser Welt das Getreide wegfressen. Das kann weder moralisch noch ethisch die Lösung sein.» Da die Massentierhaltung beim Poulet- und Schweinefleisch ansetzt, gehe die Massentierhaltungsinitiative in die richtige Richtung. Ganz anders sieht dies der Schweizer Bauernverband, der die Initiative bekämpft. Rufer sagt, man könne den Konsumentinnen und Konsumenten nicht befehlen, was sie essen sollten und was nicht. «Diese Initiative würde dazu führen, dass die Produktion von Poulet in der Schweiz massiv zurückgehen würde. Wir rechnen mit einem Minus von 90 Prozent.» Rufer befürchtet, dass der Konsum trotz der Initiative nicht weniger würde und dadurch mehr Fleisch importiert werden würde. «Wir importieren bereits heute rund 50’000 Tonnen Poulet – teilweise aus Ländern mit sehr laschen Schutzbestimmungen.» Fleischproduktion und Fleischkonsum: Hoch emotional und umstritten. Wessen Argumente mehr überzeugen, wird sich bei der Abstimmung am 25. September 2022 zeigen. Echo der Zeit, 28.06.2022, 18:00 Uhr
+          <t>.   Im Herbst stimmt die Schweiz über die Initiative gegen Massentierhaltung ab. Ein wichtiger Diskussionspunkt: das Fleisch. In Zukunft soll in der Produktion überall der Bio-Standard gelten. Dadurch würde inländisches Fleisch teurer werden. Die Initiative scheidet die Geister. 28.06.2022, 19:17 Meret Schneider ist Mitinitiantin der Massentierhaltungsinitiative und Nationalrätin der Grünen. In der SRF-Sendung Arena brachte sie ihr Anliegen auf den Punkt: «Wir sollten zurück zum Sonntagsbraten: Also ein- bis zweimal pro Woche Fleisch essen, aber solches von Tieren, die ein einigermassen gutes Leben hatten.» Die Initiative will die Massentierhaltung in der Schweiz verbieten und die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufnehmen. Zum Beispiel mit einem täglichen Gang ins Freie, schonenderen Schlachtmethoden und viel weniger Tieren pro Weidefläche und Stall. Zudem will die Initiative weg von der industriellen Fleischproduktion. Das betrifft vor allem die industrielle Hühner- und Schweinemast. Der Bundesrat lehnt die Initiative ab.  Tatsächlich hat sich der Fleischkonsum in der Schweiz immer wieder verändert. Die Schweizer Historikerin Gisela Hürlimann sagt, es fehle zwar die exakte Datenlage, aber der Fleischkonsum sei früher viel tiefer gewesen. Gutes Fleisch, meist Rindfleisch, sei bis etwa 1900 etwas für Privilegierte gewesen. Erst um 1950 wurde Fleisch für die breite Masse zugänglich. Damals wurden rund 30 Kilogramm pro Kopf und Jahr gegessen. Dann sei der Konsum angestiegen, so Hürlimann. «Wir beobachten seit 1950 zwei Entwicklungen: Einerseits wird aus dem Rinderland Schweiz mit Bratwurst, Voressen oder Sonntagsbraten ein Land des Schweinefleischkonsums mit Cervelat, Schweineschnitzel und Kotelett. Zweitens geht der Trend in den letzten 20 Jahren zu einem deutlich tieferen Fleischkonsum.» Während der Gesamtfleischkonsum in den letzten Jahren stagniert oder leicht zurückgeht, essen Schweizerinnen und Schweizer immer mehr Poulet. Dies, da es als gesund und fettarm gilt, erklärt der Direktor des Schweizer Bauernverbands, Martin Rufer. Pro Jahr und Person essen Herr und Frau Schweizer 51 Kilogramm Fleisch. Davon sind 26 Kilogramm Schweinefleisch und 14 Kilogramm Huhn. Das sei viel zu viel, sagt der Landwirtschaftsberater Eric Meili. «Wir müssen unseren Fleischkonsum reduzieren. Dabei müssen wir aber genau hinschauen, welches Fleisch wir reduzieren.» Meili war 30 Jahre lang am Forschungsinstitut für biologischen Landbau (Fibl) tätig. Für ihn sei vor allem die intensive Poulet- und Schweinefleischproduktion problematisch. Dies da dafür hochwertiges Getreide den Tieren verfüttert wird, das eigentlich Menschen ernähren könnte. Die Schweiz sei ein Grasland und auf Wiederkäuer wie Kühe ausgerichtet. «Wir müssen verhindern, dass unsere Tiere den Armen auf dieser Welt das Getreide wegfressen. Das kann weder moralisch noch ethisch die Lösung sein.» Da die Massentierhaltung beim Poulet- und Schweinefleisch ansetzt, gehe die Massentierhaltungsinitiative in die richtige Richtung. Ganz anders sieht dies der Schweizer Bauernverband, der die Initiative bekämpft. Rufer sagt, man könne den Konsumentinnen und Konsumenten nicht befehlen, was sie essen sollten und was nicht. «Diese Initiative würde dazu führen, dass die Produktion von Poulet in der Schweiz massiv zurückgehen würde. Wir rechnen mit einem Minus von 90 Prozent.» Rufer befürchtet, dass der Konsum trotz der Initiative nicht weniger würde und dadurch mehr Fleisch importiert werden würde. «Wir importieren bereits heute rund 50’000 Tonnen Poulet – teilweise aus Ländern mit sehr laschen Schutzbestimmungen.» Fleischproduktion und Fleischkonsum: Hoch emotional und umstritten. Wessen Argumente mehr überzeugen, wird sich bei der Abstimmung am 25. September 2022 zeigen. Echo der Zeit, 28.06.2022, 18:00 Uhr
                 ;                                         
-                        gors/kurd; fise Weniger Fleischkonsum Massentierhaltungsinitiative Massentierhaltungs-Initiative</t>
+                        gors/kurd; fise Weniger Fleischkonsum Massentierhaltungsinitiative Massentierhaltungs-Initiative 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4851,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>SP, Grüne und Gewerkschaften lancieren die Abstimmungsschlacht zur 13. AHV-Rente - flankiert von einem bürgerlichen Vertreter. Die Erfolgsaussichten sind gut. Am 3. März entscheidet die Bevölkerung darüber, ob alle Rentnerinnen und Rentner eine 13. AHV-Rente erhalten. Am Dienstag eröffnete das Ja-Lager um SP, Grüne und Gewerkschaften den Abstimmungskampf. SGB-Chef Pierre-Yves Maillard sagt, dass die Rente heute für viele Senioren und Seniorinnen nicht mehr reicht und sie ihre Träume begraben müssen. An der Seite der Linken trat auch ein Mitte-Nationalrat auf. Doch seine Partei und die grossen Verbände bekämpfen das Anliegen. Sollen Rentnerinnen und Rentner künftig einen 13. Alterslohn erhalten? Darüber entscheidet die Stimmbevölkerung am 3. März. Ersten Umfragen zufolge unterstützt eine deutliche Mehrheit den linken Plan. Siegessicher zeigen sich SP, Gewerkschaften und ihre Mitstreiter aber noch lange nicht. Denn die bürgerlichen Parteien und mächtige Organisationen wie der Arbeitgeberverband und Economiesuisse dürften eine starke Nein-Kampagne führen. Sie argumentieren, dass sich die Schweiz die 13. Rente nicht leisten könne und die Initiative nach dem Giesskannen-Prinzip funktioniere – also auch Reiche davon profitieren. Am Dienstag eröffneten die Befürwortenden ihre Abstimmungskampagne – wohl aufgrund der Bedeutung der Vorlage vor überdurchschnittlich vielen Medienschaffenden. Im Zentrum des Interesses: Pierre-Yves Maillard. Der Waadtländer Ständerat präsidiert den Schweizerischen Gewerkschaftsbund (SGB) und prägte die Initiative an vorderster Front. Er habe im Wahlkampf viele Gespräche mit älteren Menschen aus der Mittelschicht geführt. «Diese Menschen, die von einem durchschnittlichen Einkommen gelebt haben, wissen schlicht nicht mehr, wie sie über die Runden kommen», so Maillard. Selbst wenn sie das Nötigste bezahlen können, müssten viele ihre Träume aufgeben, nachdem sie 45 gearbeitet hätten. Die Bürgerlichen um SVP, FDP, GLP und Mitte bekämpfen die Initiative für eine 13. AHV-Rente und müssen in den nächsten Wochen ihre eigene Basis von einem Nein überzeugen. Die Mitte hielt am Dienstag ebenfalls eine Medienkonferenz ab. Parteipräsident Gerhard Pfister sagte an deren Rand, es werde eine «grosse Herausforderung», die Abstimmung noch zu gewinnen. Er machte auch seinem Ärger über den frühen Abstimmungstermin Luft, welchen die «FDP-SVP-Mehrheit» im Bundesrat gewählt habe. Tatsächlich bleibt nach den Festtagen wenig Zeit – und mit der neuen Innenministerin Elisabeth Baume Schneider muss ausgerechnet eine SP-Vertreterin die Nein-Position des Bundesrats vertreten. Pfister hat noch ein weiteres Problem: Die beiden Volksinitiativen der Mitte für die Abschaffung der Heiratsstrafe bei Steuern und AHV stehen auf der Kippe. «Es harzt», erklärte der Parteichef – aber man werde nun bis Ende März «einen Endspurt» hinlegen. (vuc) Unia-Chefin Vania Alleva verteidigte den Fakt, dass auch Top-Manager und -Managerinnen in den Genuss einer zusätzlichen Rente kommen würden. Diese hätten schliesslich auch viel eingezahlt. So müsste UBS-CEO Sergio Ermotti monatlich zusätzlich 4400 pro Monat bezahlen, um später zusätzliche 200 Franken zu erhalten. Tiefe Einkommensschichten würden dagegen überproportional profitieren. Für SP-Co-Chefin Mattea Meyer ist klar: «Auf die Pensionskassen-Rente ist immer weniger Verlass. Die Mieten und Preise für Lebensmittel steigen, dadurch verschwindet die Kaufkraft vieler Menschen.» Deshalb gelte es, die AHV zu stärken – auch um die Wirtschaft am Laufen zu halten. Machst du dir Sorgen um das Leben im Rentenalter? Überraschenden Support erhielten die Linken zum Start des Abstimmungskampfs von Mitte-Nationalrat Giorgio Fonio. Der Tessiner erklärte seine Abweichung von der Parteilinie: «Für die Initiative sprechen die wachsenden Lebenshaltungskosten als Folge steigender Mieten und teurerer Krankenversicherungen.» Für zukünftige Rentnerinnen und Rentner sei das eine «ernste Gefahr». Seine Haltung teilen gemäss Umfragen Wählende seiner Mitte-Partei wie sogar jene der SVP. In der Romandie hat sich die Kantonalpartei der SVP sogar offiziell ins Ja-Lager begeben. Die bürgerlichen Parteien werden in den nächsten Wochen ihre Kampagne lancieren, um ihre Basis noch zu einem Nein zu bewegen. Bleib informiert und abonniere den Whatsapp-Kanal von 20 Minuten: Dann bekommst du morgens und abends ein Update mit unseren bewegendsten Geschichten direkt auf dein Handy – handverlesen, informativ und inspirierend. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>SP, Grüne und Gewerkschaften lancieren die Abstimmungsschlacht zur 13. AHV-Rente - flankiert von einem bürgerlichen Vertreter. Die Erfolgsaussichten sind gut. Am 3. März entscheidet die Bevölkerung darüber, ob alle Rentnerinnen und Rentner eine 13. AHV-Rente erhalten. Am Dienstag eröffnete das Ja-Lager um SP, Grüne und Gewerkschaften den Abstimmungskampf. SGB-Chef Pierre-Yves Maillard sagt, dass die Rente heute für viele Senioren und Seniorinnen nicht mehr reicht und sie ihre Träume begraben müssen. An der Seite der Linken trat auch ein Mitte-Nationalrat auf. Doch seine Partei und die grossen Verbände bekämpfen das Anliegen. Sollen Rentnerinnen und Rentner künftig einen 13. Alterslohn erhalten? Darüber entscheidet die Stimmbevölkerung am 3. März. Ersten Umfragen zufolge unterstützt eine deutliche Mehrheit den linken Plan. Siegessicher zeigen sich SP, Gewerkschaften und ihre Mitstreiter aber noch lange nicht. Denn die bürgerlichen Parteien und mächtige Organisationen wie der Arbeitgeberverband und Economiesuisse dürften eine starke Nein-Kampagne führen. Sie argumentieren, dass sich die Schweiz die 13. Rente nicht leisten könne und die Initiative nach dem Giesskannen-Prinzip funktioniere – also auch Reiche davon profitieren. Am Dienstag eröffneten die Befürwortenden ihre Abstimmungskampagne – wohl aufgrund der Bedeutung der Vorlage vor überdurchschnittlich vielen Medienschaffenden. Im Zentrum des Interesses: Pierre-Yves Maillard. Der Waadtländer Ständerat präsidiert den Schweizerischen Gewerkschaftsbund (SGB) und prägte die Initiative an vorderster Front. Er habe im Wahlkampf viele Gespräche mit älteren Menschen aus der Mittelschicht geführt. «Diese Menschen, die von einem durchschnittlichen Einkommen gelebt haben, wissen schlicht nicht mehr, wie sie über die Runden kommen», so Maillard. Selbst wenn sie das Nötigste bezahlen können, müssten viele ihre Träume aufgeben, nachdem sie 45 gearbeitet hätten. Die Bürgerlichen um SVP, FDP, GLP und Mitte bekämpfen die Initiative für eine 13. AHV-Rente und müssen in den nächsten Wochen ihre eigene Basis von einem Nein überzeugen. Die Mitte hielt am Dienstag ebenfalls eine Medienkonferenz ab. Parteipräsident Gerhard Pfister sagte an deren Rand, es werde eine «grosse Herausforderung», die Abstimmung noch zu gewinnen. Er machte auch seinem Ärger über den frühen Abstimmungstermin Luft, welchen die «FDP-SVP-Mehrheit» im Bundesrat gewählt habe. Tatsächlich bleibt nach den Festtagen wenig Zeit – und mit der neuen Innenministerin Elisabeth Baume Schneider muss ausgerechnet eine SP-Vertreterin die Nein-Position des Bundesrats vertreten. Pfister hat noch ein weiteres Problem: Die beiden Volksinitiativen der Mitte für die Abschaffung der Heiratsstrafe bei Steuern und AHV stehen auf der Kippe. «Es harzt», erklärte der Parteichef – aber man werde nun bis Ende März «einen Endspurt» hinlegen. (vuc) Unia-Chefin Vania Alleva verteidigte den Fakt, dass auch Top-Manager und -Managerinnen in den Genuss einer zusätzlichen Rente kommen würden. Diese hätten schliesslich auch viel eingezahlt. So müsste UBS-CEO Sergio Ermotti monatlich zusätzlich 4400 pro Monat bezahlen, um später zusätzliche 200 Franken zu erhalten. Tiefe Einkommensschichten würden dagegen überproportional profitieren. Für SP-Co-Chefin Mattea Meyer ist klar: «Auf die Pensionskassen-Rente ist immer weniger Verlass. Die Mieten und Preise für Lebensmittel steigen, dadurch verschwindet die Kaufkraft vieler Menschen.» Deshalb gelte es, die AHV zu stärken – auch um die Wirtschaft am Laufen zu halten. Machst du dir Sorgen um das Leben im Rentenalter? Überraschenden Support erhielten die Linken zum Start des Abstimmungskampfs von Mitte-Nationalrat Giorgio Fonio. Der Tessiner erklärte seine Abweichung von der Parteilinie: «Für die Initiative sprechen die wachsenden Lebenshaltungskosten als Folge steigender Mieten und teurerer Krankenversicherungen.» Für zukünftige Rentnerinnen und Rentner sei das eine «ernste Gefahr». Seine Haltung teilen gemäss Umfragen Wählende seiner Mitte-Partei wie sogar jene der SVP. In der Romandie hat sich die Kantonalpartei der SVP sogar offiziell ins Ja-Lager begeben. Die bürgerlichen Parteien werden in den nächsten Wochen ihre Kampagne lancieren, um ihre Basis noch zu einem Nein zu bewegen. Bleib informiert und abonniere den Whatsapp-Kanal von 20 Minuten: Dann bekommst du morgens und abends ein Update mit unseren bewegendsten Geschichten direkt auf dein Handy – handverlesen, informativ und inspirierend.</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4893,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Nach der Abstimmung zur 13. AHV feiern die Seniorinnen und Senioren keine Siegespartys. Die Gemüter sind gespalten. Auch Pro Senectute nimmt erstmals Stellung zur 13. AHV – die Begeisterung bleibt aus. 20 Minuten hat mit Seniorinnen und Senioren über die vom Stimmvolk beschlossene 13. AHV-Rente gesprochen. Ab 2026 bekommen Rentnerinnen und Rentner eine 13. AHV. 20 Minuten hat sich bei Seniorinnen und Senioren umgehört – die Meinungen zum Abstimmungsresultat gehen auseinander. Pro Senectute zweifelt daran, dass die 13. AHV Altersarmut bekämpft, und sieht den Dialog zwischen Jung und Alt in Gefahr. Der Entscheid, dass Rentnerinnen und Rentner ab 2026 eine 13. AHV bekommen sollen, fiel eindeutig. Kassieren die älteren Generationen jetzt einfach ein und überlassen das Problem bedenkenlos den Jüngeren? 20 Minuten hat mit Seniorinnen und Senioren gesprochen. Die Antwort: Nein, ein Grossteil der Leute macht sich durchaus Sorgen um die Finanzierung der 13. AHV – egal, ob sie für oder gegen die Initiative stimmten. Teilweise warfen Senioren das Ja mit einem schlechten Gewissen in die Urne. Sie finde es zwar richtig, die Rente zu erhöhen, finde es aber auch falsch, den Jungen ein Defizit in der AHV zu hinterlassen, erzählt eine Frau, die nicht vor die Kamera stehen will. Lisbeth (77) aus Winterthur macht sich da weniger Sorgen. «Es werden so viele Milliarden ins Ausland gegeben, jetzt muss man halt dort kürzen», findet sie. Auf die 13. AHV freue sie sich sehr. «Es ist einfach ein Zustupf, es wird alles immer teurer.» Auch Walter (82) hat für die 13. AHV gestimmt. «Wir haben schon lange auf so etwas gewartet», erzählt er. Besonders, da die AHV nie der Teuerung angepasst worden sei. «Jetzt muss man nicht mehr jeden Franken umdrehen.» «Ich finde es nicht sauber, dass die Jungen wieder zur Kasse gebeten werden.» Hans (76) hingegen findet den Entscheid für eine 13. AHV falsch. «Das ist einfach eine finanzielle Belastung, die nicht tragbar ist.» Auch Willy (77) und Silvia (70) aus Fehraltorf sind nicht begeistert. «Es gibt viele Alte, denen es nicht schlecht geht. Man muss nur einmal schauen, wie viele Seniorinnen und Senioren man im Zug oder auf Reisen sieht», sagt Willy. Und Silvia ergänzt: «Ich finde es nicht sauber, dass die Jungen wieder zur Kasse gebeten werden.» Wo das Geld für die jetzt beschlossene 13. AHV herkommen soll, ist für Willy aber klar. «Es gibt ein Departement, bei dem man ein bisschen kürzen könnte – beim Militär», findet er. Erstmals äussert sich auch die Seniorenorganisation Pro Senectute zur 13. AHV. Während des Abstimmungskampfs hielt sich die von Alt-Bundesrätin Eveline Widmer-Schlumpf präsidierte Altersfachstelle zurück und sprach auch keine Empfehlung aus. Über die Annahme der 13. AHV scheint man nicht nur erfreut. «Pro Senectute hat ein solch klares Resultat nicht erwartet. Wir sind überrascht», erklärt Sprecher Peter Burri gegenüber 20 Minuten. «Wir befürchten, dass sich durch die zu erwartende, zusätzliche finanzielle Belastung der Arbeitenden für die 13. AHV-Rente der Dialog zwischen Jung und Alt negativ entwickeln könnte.» «Wir glauben nicht, dass die Altersarmut durch die 13. AHV massgeblich gelindert wird.» Auch sonst scheint Burri wenig überzeugt vom AHV-Zuschlag. Man müsse jetzt schauen, was dieser den Armutsbetroffenen effektiv bringe. «Wir glauben nicht, dass ihre finanzielle Not durch die 13. AHV massgeblich gelindert wird. 1000 Franken mehr auf dem Konto pro Jahr lösen das Problem wahrscheinlich nicht.» Bist du zufrieden mit den Abstimmungsresultaten? Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Nach der Abstimmung zur 13. AHV feiern die Seniorinnen und Senioren keine Siegespartys. Die Gemüter sind gespalten. Auch Pro Senectute nimmt erstmals Stellung zur 13. AHV – die Begeisterung bleibt aus. 20 Minuten hat mit Seniorinnen und Senioren über die vom Stimmvolk beschlossene 13. AHV-Rente gesprochen. Ab 2026 bekommen Rentnerinnen und Rentner eine 13. AHV. 20 Minuten hat sich bei Seniorinnen und Senioren umgehört – die Meinungen zum Abstimmungsresultat gehen auseinander. Pro Senectute zweifelt daran, dass die 13. AHV Altersarmut bekämpft, und sieht den Dialog zwischen Jung und Alt in Gefahr. Der Entscheid, dass Rentnerinnen und Rentner ab 2026 eine 13. AHV bekommen sollen, fiel eindeutig. Kassieren die älteren Generationen jetzt einfach ein und überlassen das Problem bedenkenlos den Jüngeren? 20 Minuten hat mit Seniorinnen und Senioren gesprochen. Die Antwort: Nein, ein Grossteil der Leute macht sich durchaus Sorgen um die Finanzierung der 13. AHV – egal, ob sie für oder gegen die Initiative stimmten. Teilweise warfen Senioren das Ja mit einem schlechten Gewissen in die Urne. Sie finde es zwar richtig, die Rente zu erhöhen, finde es aber auch falsch, den Jungen ein Defizit in der AHV zu hinterlassen, erzählt eine Frau, die nicht vor die Kamera stehen will. Lisbeth (77) aus Winterthur macht sich da weniger Sorgen. «Es werden so viele Milliarden ins Ausland gegeben, jetzt muss man halt dort kürzen», findet sie. Auf die 13. AHV freue sie sich sehr. «Es ist einfach ein Zustupf, es wird alles immer teurer.» Auch Walter (82) hat für die 13. AHV gestimmt. «Wir haben schon lange auf so etwas gewartet», erzählt er. Besonders, da die AHV nie der Teuerung angepasst worden sei. «Jetzt muss man nicht mehr jeden Franken umdrehen.» «Ich finde es nicht sauber, dass die Jungen wieder zur Kasse gebeten werden.» Hans (76) hingegen findet den Entscheid für eine 13. AHV falsch. «Das ist einfach eine finanzielle Belastung, die nicht tragbar ist.» Auch Willy (77) und Silvia (70) aus Fehraltorf sind nicht begeistert. «Es gibt viele Alte, denen es nicht schlecht geht. Man muss nur einmal schauen, wie viele Seniorinnen und Senioren man im Zug oder auf Reisen sieht», sagt Willy. Und Silvia ergänzt: «Ich finde es nicht sauber, dass die Jungen wieder zur Kasse gebeten werden.» Wo das Geld für die jetzt beschlossene 13. AHV herkommen soll, ist für Willy aber klar. «Es gibt ein Departement, bei dem man ein bisschen kürzen könnte – beim Militär», findet er. Erstmals äussert sich auch die Seniorenorganisation Pro Senectute zur 13. AHV. Während des Abstimmungskampfs hielt sich die von Alt-Bundesrätin Eveline Widmer-Schlumpf präsidierte Altersfachstelle zurück und sprach auch keine Empfehlung aus. Über die Annahme der 13. AHV scheint man nicht nur erfreut. «Pro Senectute hat ein solch klares Resultat nicht erwartet. Wir sind überrascht», erklärt Sprecher Peter Burri gegenüber 20 Minuten. «Wir befürchten, dass sich durch die zu erwartende, zusätzliche finanzielle Belastung der Arbeitenden für die 13. AHV-Rente der Dialog zwischen Jung und Alt negativ entwickeln könnte.» «Wir glauben nicht, dass die Altersarmut durch die 13. AHV massgeblich gelindert wird.» Auch sonst scheint Burri wenig überzeugt vom AHV-Zuschlag. Man müsse jetzt schauen, was dieser den Armutsbetroffenen effektiv bringe. «Wir glauben nicht, dass ihre finanzielle Not durch die 13. AHV massgeblich gelindert wird. 1000 Franken mehr auf dem Konto pro Jahr lösen das Problem wahrscheinlich nicht.» Bist du zufrieden mit den Abstimmungsresultaten? Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy.</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4935,8 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024</t>
+          <t>. Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4978,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Die Mitte will mit der Kostenbremse-Initiative gegen die hohen Prämien vorgehen. Nun haben sich die Gegner der Initiative formiert und ihre Argumente dargelegt. Sie warnen vor einer «Zweiklassen-Medizin». Am 9. Juni entscheidet die Schweiz über die Kostenbremse-Initiative der Mitte-Partei. Die Gegnerinnen und Gegner präsentieren am Montag ihre Argumente und warnen eindringlich vor einer Zweiklassen-Medizin. Pfleger und GLP-Nationalrat Patrick Hässig befürchtet negative Auswirkungen auf das Personal. Am 9. Juni stimmt die Schweiz über die sogenannte Kostenbremse-Initiative der Mitte-Partei ab. Wird das Anliegen angenommen, muss der Bundesrat intervenieren, wenn die Prämien deutlich stärker steigen als die Löhne. Die Initiative hat gemäss ersten Umfragen gute Chancen. Am Montag haben nun die Gegnerinnen und Gegner des Volksbegehrens ihren Abstimmungskampf gestartet und erklärt, warum sie gegen den Mechanismus sind. Dieser greife das solidarische Gesundheitssystem in seinen Grundprinzipien an, erklärten sie. Denn der Zugang zur Gesundheitsversorgung wäre nicht mehr für alle garantiert, fürchten sie. GLP-Nationalrat Patrick Hässig, der selbst in der Pflege arbeitet, sagt: «Die Initiative stellt eine ernsthafte Bedrohung für das Gesundheitspersonal dar. Ja, für jene, die Tag für Tag die Grundpfeiler unseres Gesundheitssystems bilden.» Schlechtere Arbeitsbedingungen würden bedeuten, dass für Betreuung und Pflege der Patientinnen und Patienten weniger Zeit und Personalressourcen bereitstehen würden. Grafik zur Abstimmungsumfrage zur Kostenbremse-Initiative. Quelle: Leewas. SVP-Ständerat Hannes Germann warnt derweil vor «mehr Bürokratie und weniger Gesundheit». Wenn man bedenkt, dass die Bevölkerung zunehmend älter werde und der technologische Fortschritt in der Medizin immer mehr Möglichkeiten biete, würde das «starre Kostenziel» das Gesundheitswesen zu sehr einschränken. «Unser Gesundheitssystem wird auf das Niveau des europäischen Durchschnitts gesenkt. Und das wäre nun wirklich ein Jammer», so Germann. Für SP-Nationalrätin Sarah Wyss setzt die Initiative am falschen Ort an. Es gelte, falsche Anreize und Doppelspurigkeiten zu bekämpfen, nicht etwa den medizinischen Fortschritt. «Doch das tut die Initiative nicht», sagt die Baslerin. Sie befürchtet, dass plötzlich Leistungen von der Grundversicherung nicht mehr übernommen würden, was zur Zweiklassen-Medizin führen werde. Machen dir die hohen Prämien Sorgen? Im Nein-Komitee sitzen Politikerinnen und Politiker aus fast allen Parteien abgesehen von der Mitte. Bundesrat und Parlament lehnen die Initiative ab. Sollte sie abgelehnt werden, würde eine Gegenvorschlag in Kraft treten. Dieser sieht keine starre Automatismen vor, verlangt aber Kostenziele und Aussprachen zwischen Politik und Leistungserbringern, wenn die Prämien stark steigen. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die Mitte will mit der Kostenbremse-Initiative gegen die hohen Prämien vorgehen. Nun haben sich die Gegner der Initiative formiert und ihre Argumente dargelegt. Sie warnen vor einer «Zweiklassen-Medizin». Am 9. Juni entscheidet die Schweiz über die Kostenbremse-Initiative der Mitte-Partei. Die Gegnerinnen und Gegner präsentieren am Montag ihre Argumente und warnen eindringlich vor einer Zweiklassen-Medizin. Pfleger und GLP-Nationalrat Patrick Hässig befürchtet negative Auswirkungen auf das Personal. Am 9. Juni stimmt die Schweiz über die sogenannte Kostenbremse-Initiative der Mitte-Partei ab. Wird das Anliegen angenommen, muss der Bundesrat intervenieren, wenn die Prämien deutlich stärker steigen als die Löhne. Die Initiative hat gemäss ersten Umfragen gute Chancen. Am Montag haben nun die Gegnerinnen und Gegner des Volksbegehrens ihren Abstimmungskampf gestartet und erklärt, warum sie gegen den Mechanismus sind. Dieser greife das solidarische Gesundheitssystem in seinen Grundprinzipien an, erklärten sie. Denn der Zugang zur Gesundheitsversorgung wäre nicht mehr für alle garantiert, fürchten sie. GLP-Nationalrat Patrick Hässig, der selbst in der Pflege arbeitet, sagt: «Die Initiative stellt eine ernsthafte Bedrohung für das Gesundheitspersonal dar. Ja, für jene, die Tag für Tag die Grundpfeiler unseres Gesundheitssystems bilden.» Schlechtere Arbeitsbedingungen würden bedeuten, dass für Betreuung und Pflege der Patientinnen und Patienten weniger Zeit und Personalressourcen bereitstehen würden. Grafik zur Abstimmungsumfrage zur Kostenbremse-Initiative. Quelle: Leewas. SVP-Ständerat Hannes Germann warnt derweil vor «mehr Bürokratie und weniger Gesundheit». Wenn man bedenkt, dass die Bevölkerung zunehmend älter werde und der technologische Fortschritt in der Medizin immer mehr Möglichkeiten biete, würde das «starre Kostenziel» das Gesundheitswesen zu sehr einschränken. «Unser Gesundheitssystem wird auf das Niveau des europäischen Durchschnitts gesenkt. Und das wäre nun wirklich ein Jammer», so Germann. Für SP-Nationalrätin Sarah Wyss setzt die Initiative am falschen Ort an. Es gelte, falsche Anreize und spurigkeiten zu bekämpfen, nicht etwa den medizinischen Fortschritt. «Doch das tut die Initiative nicht», sagt die Baslerin. Sie befürchtet, dass plötzlich Leistungen von der Grundversicherung nicht mehr übernommen würden, was zur Zweiklassen-Medizin führen werde. Machen dir die hohen Prämien Sorgen? Im Nein-Komitee sitzen Politikerinnen und Politiker aus fast allen Parteien abgesehen von der Mitte. Bundesrat und Parlament lehnen die Initiative ab. Sollte sie abgelehnt werden, würde eine Gegenvorschlag in Kraft treten. Dieser sieht keine starre Automatismen vor, verlangt aber Kostenziele und Aussprachen zwischen Politik und Leistungserbringern, wenn die Prämien stark steigen. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy.</t>
         </is>
       </c>
     </row>
@@ -4971,7 +5020,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Bislang deutet bei der Prämien-Entlastungs-Initiative alles auf ein knappes Ja hin. Doch nun zeigt sich, dass nicht jeder Kanton davon gleich profitieren würde. Am 9. Juni gelangt unter anderem die Prämien-Entlastungs-Initiative vors Volk. Eine Auswertung zeigt nun, dass Basel und Genf am meisten davon profitieren würden, Kantone mit tieferen Gesundheitskosten dafür weniger. Zeichnete sich bislang ein Ja bei der Initiative ab, könnte das Ständemehr dem Vorhaben nun zum Verhängnis werden. Ein Monat vor der Abstimmung gerät die Prämien-Entlastungs-Initiative der SP in Bedrängnis. Jetzt zeigt sich, dass ausgerechnet zwei der reichsten Kantone am stärksten profitieren. Von den zusätzlichen Bundessubventionen, die im Falle einer Annahme ausgeschüttet werden, geht pro Kopf am meisten Geld nach Basel-Stadt und Genf. Alleine Basel-Stadt kann mit einer Aufstockung von rund 1000 Franken pro Einwohner rechnen. Am wenigsten bekommen Appenzell Innerrhoden, Zug und Nidwalden. Dies zeigt eine Auswertung der «SonntagsZeitung». Der Befund ist brisant. Gerade Innerrhoden ist bekannt für die tiefen Gesundheitskosten, weil die Leute oftmals erst einen Doktor aufsuchen, wenn sie den Kopf schon unter den Armen tragen. Ein Spital gibt es dort nicht. In Basel hingegen sind die Ausgaben sehr hoch. Die Ärztedichte ist schweizweit am höchsten und das Angebot wird von den Menschen rege genutzt. Basel und Genf gehören auch zu den spendabelsten Kantonen bei den Prämienverbilligungen. «Es kann nicht sein, dass die Bevölkerung in sparsamen Kantonen in der Ost- und Zentralschweiz die ausgabefreudigen, städtischen Kantone quersubventioniert», sagt SVP-Fraktionschef Thomas Aeschi. Wie wirst du bei der Prämien-Entlastungs-Initiative abstimmen? In den ersten Umfragen hat die Initiative gut abgeschnitten. Nun dürften sich aber insbesondere bei Leuten, die selten einen Arzt aufsuchen, die Frage stellen, ob sie einer Vorlage zustimmen wollen, bei der am Ende primär Städter mit grosszügiger Gesundheitsversorgungen profitieren. Sollten deshalb ländliche Kantone vermehrt die Initiative ablehnen, könnte am Ende das Ständemehr zum Problem werden. Mehr Geld vom Bund bekommen die Kantone, weil die Prämien-Entlastungs-Initiative verlangt, dass der Bund künftig zwei Drittel der Verbilligungen bezahlt. Gemäss Schätzungen belaufen sich die zusätzlichen Bundesgelder auf mindestens 3,7 Milliarden Franken pro Jahr. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Bislang deutet bei der Prämien-Entlastungs-Initiative alles auf ein knappes Ja hin. Doch nun zeigt sich, dass nicht jeder Kanton davon gleich profitieren würde. Am 9. Juni gelangt unter anderem die Prämien-Entlastungs-Initiative vors Volk. Eine Auswertung zeigt nun, dass Basel und Genf am meisten davon profitieren würden, Kantone mit tieferen Gesundheitskosten dafür weniger. Zeichnete sich bislang ein Ja bei der Initiative ab, könnte das Ständemehr dem Vorhaben nun zum Verhängnis werden. Ein Monat vor der Abstimmung gerät die Prämien-Entlastungs-Initiative der SP in Bedrängnis. Jetzt zeigt sich, dass ausgerechnet zwei der reichsten Kantone am stärksten profitieren. Von den zusätzlichen Bundessubventionen, die im Falle einer Annahme ausgeschüttet werden, geht pro Kopf am meisten Geld nach Basel-Stadt und Genf. Alleine Basel-Stadt kann mit einer Aufstockung von rund 1000 Franken pro Einwohner rechnen. Am wenigsten bekommen Appenzell Innerrhoden, Zug und Nidwalden. Dies zeigt eine Auswertung der «SonntagsZeitung». Der Befund ist brisant. Gerade Innerrhoden ist bekannt für die tiefen Gesundheitskosten, weil die Leute oftmals erst einen Doktor aufsuchen, wenn sie den Kopf schon unter den Armen tragen. Ein Spital gibt es dort nicht. In Basel hingegen sind die Ausgaben sehr hoch. Die Ärztedichte ist schweizweit am höchsten und das Angebot wird von den Menschen rege genutzt. Basel und Genf gehören auch zu den spendabelsten Kantonen bei den Prämienverbilligungen. «Es kann nicht sein, dass die Bevölkerung in sparsamen Kantonen in der Ost- und Zentralschweiz die ausgabefreudigen, städtischen Kantone quersubventioniert», sagt SVP-Fraktionschef Thomas Aeschi. Wie wirst du bei der Prämien-Entlastungs-Initiative abstimmen? In den ersten Umfragen hat die Initiative gut abgeschnitten. Nun dürften sich aber insbesondere bei Leuten, die selten einen Arzt aufsuchen, die Frage stellen, ob sie einer Vorlage zustimmen wollen, bei der am Ende primär Städter mit grosszügiger Gesundheitsversorgungen profitieren. Sollten deshalb ländliche Kantone vermehrt die Initiative ablehnen, könnte am Ende das Ständemehr zum Problem werden. Mehr Geld vom Bund bekommen die Kantone, weil die Prämien-Entlastungs-Initiative verlangt, dass der Bund künftig zwei Drittel der Verbilligungen bezahlt. Gemäss Schätzungen belaufen sich die zusätzlichen Bundesgelder auf mindestens 3,7 Milliarden Franken pro Jahr. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy.</t>
         </is>
       </c>
     </row>
@@ -5013,9 +5062,10 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>15.04.2024, 11:10 Die Hauptkritik des überparteilichen Nein-Komitees: Die «Kostenbremse-Initiative» erkläre nicht, wie die Krankenkassenkosten gedrückt werden sollen. Das Gefährliche an der Initiative sei der starre Mechanismus, «diese völlig sachfremde Koppelung zwischen BIP und Löhnen und der obligatorischen Kranken­pflege­versicherung», sagt Nationalrätin Sarah Wyss (SP/BS). Die Krankenkassen müssten sich bei einer Annahme der Initiative auf den Kostendeckel berufen, teilt das Nein-Komitees bestehend aus Vertreterinnen und Vertreter von SVP, SP, FDP, GLP und Grünen sowie des Berufsverbands des Pflegefachpersonals (SBK) und des Hausärzteverbands (MFE) weiter mit. Wäre die Kostenbremse im Jahr 2000 eingeführt worden, übernähme die Grundversicherung heute 37 Prozent aller Leistungen nicht mehr, rechnet das Komitee vor. Die Initiative greife somit das solidarische Gesundheitssystem in der Schweiz in seinen Grundprinzipien an. Die «Kostenbremse-Initiative» der Mitte verlangt die Einführung einer Kostenbremse in der obligatorischen Krankenpflegeversicherung. Liegt die Steigerung der durchschnittlichen Kosten je versicherte Person und Jahr in der obligatorischen Krankenpflegeversicherung zwei Jahre nach Annahme der Initiative mehr als ein Fünftel über der Entwicklung der Nominallöhne und haben die Tarifpartner – also Kantone, Spitäler, Ärzteschaft, Krankenkassen und Pharmabranche – bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen.  Grundversicherte Patienten hätten keinen garantierten und rechtzeitigen Zugang mehr zur Versorgung. Das Privileg des «zeitlich und therapeutisch sinnvollen Zugangs» wäre laut dem Nein-Komitee den Zusatzversicherten vorbehalten. Das Pflegefachpersonal wie auch Haus- und Kinderärzte befürchten derweil schlechtere Arbeitsbedingungen bei einer Annahme. Die Initiative würde zwar die Kostenbremse einführen, zeige aber selbst keinen Weg auf, wie das Kostenwachstum gebremst werden kann. Denn die Gesundheitskosten seien grösstenteils durch Lohn- und Personalkosten – vor allem durch das Pflegepersonal – geprägt. «Dieser starre Sparkurs, den die Kostenbremse verlangt, ohne Rücksicht auf den tatsächlichen Gesundheitsbedarf der Bevölkerung, beschränkt die Ressourcen für unsere Gesundheitsversorgung unnötig», sagt Patrick Hässig (GLP). Haus­ärzte­verbands­präsident Philippe Luchsinger warnt derweil vor fehlenden Finanzmitteln für die Spitäler und das gesamte Gesundheitswesen bei einer Annahme der Initiative am 9. Juni. Per 1. Januar 2027 würden dem Gesundheitswesen laut Luchsinger demnach zwischen einer und zwei Milliarden Franken fehlen. «Die Spitäler werden als Erstes aufschreien. Ihnen fehlt schon heute das Geld und sie werden mit Steuergeldern gerettet werden müssen.» Bundesrat, Parlament und Kantone anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab, weil die ausschliessliche Koppelung des Bremsmechanismus an die Wirtschafts- und Lohnentwicklung zu kurz greife und zu starr sei. Zudem berücksichtige die Kostenbremse Faktoren wie die Alterung der Bevölkerung oder medizinisch-technische Fortschritte nicht. Info 3, 15.04.2024, 12:00 Uhr
+          <t>.   15.04.2024, 11:10 Die Hauptkritik des überparteilichen Nein-Komitees: Die «Kostenbremse-Initiative» erkläre nicht, wie die Krankenkassenkosten gedrückt werden sollen. Das Gefährliche an der Initiative sei der starre Mechanismus, «diese völlig sachfremde Koppelung zwischen BIP und Löhnen und der obligatorischen Kranken­pflege­versicherung», sagt Nationalrätin Sarah Wyss (SP/BS). Die Krankenkassen müssten sich bei einer Annahme der Initiative auf den Kostendeckel berufen, teilt das Nein-Komitees bestehend aus Vertreterinnen und Vertreter von SVP, SP, FDP, GLP und Grünen sowie des Berufsverbands des Pflegefachpersonals (SBK) und des Hausärzteverbands (MFE) weiter mit. Wäre die Kostenbremse im Jahr 2000 eingeführt worden, übernähme die Grundversicherung heute 37 Prozent aller Leistungen nicht mehr, rechnet das Komitee vor. Die Initiative greife somit das solidarische Gesundheitssystem in der Schweiz in seinen Grundprinzipien an. Die «Kostenbremse-Initiative» der Mitte verlangt die Einführung einer Kostenbremse in der obligatorischen Krankenpflegeversicherung. Liegt die Steigerung der durchschnittlichen Kosten je versicherte Person und Jahr in der obligatorischen Krankenpflegeversicherung zwei Jahre nach Annahme der Initiative mehr als ein Fünftel über der Entwicklung der Nominallöhne und haben die Tarifpartner – also Kantone, Spitäler, Ärzteschaft, Krankenkassen und Pharmabranche – bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen.  Grundversicherte Patienten hätten keinen garantierten und rechtzeitigen Zugang mehr zur Versorgung. Das Privileg des «zeitlich und therapeutisch sinnvollen Zugangs» wäre laut dem Nein-Komitee den Zusatzversicherten vorbehalten. Das Pflegefachpersonal wie auch Haus- und Kinderärzte befürchten derweil schlechtere Arbeitsbedingungen bei einer Annahme. Die Initiative würde zwar die Kostenbremse einführen, zeige aber selbst keinen Weg auf, wie das Kostenwachstum gebremst werden kann. Denn die Gesundheitskosten seien grösstenteils durch Lohn- und Personalkosten – vor allem durch das Pflegepersonal – geprägt. «Dieser starre Sparkurs, den die Kostenbremse verlangt, ohne Rücksicht auf den tatsächlichen Gesundheitsbedarf der Bevölkerung, beschränkt die Ressourcen für unsere Gesundheitsversorgung unnötig», sagt Patrick Hässig (GLP). Haus­ärzte­verbands­präsident Philippe Luchsinger warnt derweil vor fehlenden Finanzmitteln für die Spitäler und das gesamte Gesundheitswesen bei einer Annahme der Initiative am 9. Juni. Per 1. Januar 2027 würden dem Gesundheitswesen laut Luchsinger demnach zwischen einer und zwei Milliarden Franken fehlen. «Die Spitäler werden als Erstes aufschreien. Ihnen fehlt schon heute das Geld und sie werden mit Steuergeldern gerettet werden müssen.» Bundesrat, Parlament und Kantone anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab, weil die ausschliessliche Koppelung des Bremsmechanismus an die Wirtschafts- und Lohnentwicklung zu kurz greife und zu starr sei. Zudem berücksichtige die Kostenbremse Faktoren wie die Alterung der Bevölkerung oder medizinisch-technische Fortschritte nicht. Info 3, 15.04.2024, 12:00 Uhr
                 ;                                         
-                        sda/gasg;stav Abstimmungskampf lanciert Kampf gegen Prämienexplosion Kampf gegen Prämienexplosion</t>
+                        sda/gasg;stav Abstimmungskampf lanciert Kampf gegen Prämienexplosion Kampf gegen Prämienexplosion 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5107,8 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär</t>
+          <t>. Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5318,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Der Bundesrat lehnt die Biodiversitätsinitiative ab – obwohl ihm das Thema am Herzen liege, wie Umweltminister Albert Rösti im Interview mit 20 Minuten sagt. Doch bei einem Ja würden grosse Einschränkungen bei der Nutzung des Landes drohen, warnt die Regierung. 20 Minuten traf Umweltminister Albert Rösti zum Interview über die Biodiversitätsinitiative. Ein Nein zur Initiative schade Bienen und Vögeln nicht, sagt der Bundesrat. Die Abwägung zwischen Schutz und Nutzen bei einem Bauprojekt in der Landschaft würde es bei einem Ja schwerer haben, so Rösti. Der Bundesrat nimmt auch Stellung zur Personalie um den neuen Wolfsexperten des Bundes. Einen Kandidaten lehnte Albert Rösti persönlich ab. Am 22. September stimmen wir über die Biodiversitätsinitiative ab. Um das Anliegen tobt ein heftiger Streit zwischen Umweltschützern und Bürgerlichen. Die einen sagen, es brauche mehr Fläche für die Natur, die anderen sagen, die Schweiz würde bei einem Ja unter eine «Käseglocke» gesteckt. Bundesrat und Parlament empfehlen die Initiative zur Ablehnung – ohne Gegenvorschlag. Herr Bundesrat Rösti, was haben Sie gegen Bienen und Vögel?Gar nichts! Ohne Bienen keine Bestäubung, das ist klar. Aber ein Nein zu dieser Initiative schadet Bienen und Vögeln nicht. Denn hier geht es um die Frage, wie viele Flächen wie stark geschützt werden sollen. Was meinen Sie damit?Rund ein Viertel der Schweizer Landesfläche ist heute bereits geschützt. Die Initiative will nun aber zum einen, dass dieses Viertel noch stärker geschützt ist, und zum anderen, dass noch mehr Flächen unter Schutz gestellt werden. Die bisherige Abwägung zwischen Schutz und Nutzen würde es nicht mehr geben. Und warum wäre das aus Sicht des Bundesrates nicht gut?Die bisherige Abwägung zwischen Schutz und Nutzen bei einem Bauprojekt, beispielsweise einer Stromleitung, würde es nicht mehr geben. Das Schutzinteresse würde wohl gewinnen. Das macht das Investieren und Wirtschaften in unserem Land schwierig. Albert Rösti sprach mit 20-Minuten-Bundeshausredaktor Stefan Lanz über die Biodiversitätsinitiative. Grobe Schätzungen des Bundes sagen, die Initiative kostet 400 Millionen pro Jahr.Der Bund investiert derzeit 600 Millionen in die Biodiversität – und will das auch weiterhin tun. Das noch nahezu zu verdoppeln, können wir uns in der jetzigen Haushaltslage nicht leisten. Albert Rösti erklärte live im Interview bei 20 Minuten sein Nein zur Biodiversitätsinitiative.  Die Initiative fordert auch, dass «Ortsbilder» und «das baukulturelle Erbe» besser geschützt werden müssen. Haben diese einen Zusammenhang mit der Biodiversität?Rund 20 Prozent der Ortsbilder sind heute schon geschützt. Dort ist es jetzt schon schwierig, die geforderte Verdichtung nach innen zu realisieren. Wird mehr geschützt, heisst das auch, dass es neue Bauplätze in der freien Fläche braucht, damit die Menschen genug Wohnraum haben, was der Biodiversität schadet. Zudem: Auch Solaranlagen auf Dächern oder energetische Sanierungen sind in diesen geschützten Siedlungsgebieten schwierig. Wie wirst du bei der Biodiversitätsinitiative abstimmen?  Noch mal zurück zur Natur: Ist auch der Wolf Teil der Schweizer Biodiversität?Ja, absolut. Der Wolf ist eine geschützte Tierart und muss als Art erhalten werden. Darum braucht es trotz Regulierung einen Minimalbestand, der nicht unterschritten werden darf. Einfach, um das klarzustellen: Heute sind wir deutlich über diesem Minimalbestand. Der Wolf ist sogar ein super Beispiel für die Abwägung zwischen Schutz und Nutzen. Denn wenn wegen des Wolfes die Sömmerungsalpen nicht mehr bewirtschaftet werden, dann schwindet die Biodiversität auf diesen Wiesen. Nun sucht das Bundesamt für Umwelt gerade einen neuen Wolfexperten, man las am Wochenende, dass Sie persönlich jemanden für diese Stelle abgelehnt haben. Stimmt das?Es ist so, dass ich mir bei wichtigen Stellen, wie diesem sehr exponierten Posten, die Dossiers der Bewerberinnen und Bewerber geben lasse. Ich kam zum Schluss, dass die hier eingegangene Kandidatur einfach nicht die nötigen Qualifikationen mitgebracht hat. Ging es um die Qualifikation oder die politische Einstellung der Person?Es ging um das Gesamtbild. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Der Bundesrat lehnt die Biodiversitätsinitiative ab – obwohl ihm das Thema am Herzen liege, wie Umweltminister Albert Rösti im Interview mit 20 Minuten sagt. Doch bei einem Ja würden grosse Einschränkungen bei der Nutzung des Landes drohen, warnt die Regierung. 20 Minuten traf Umweltminister Albert Rösti zum Interview über die Biodiversitätsinitiative. Ein Nein zur Initiative schade Bienen und Vögeln nicht, sagt der Bundesrat. Die Abwägung zwischen Schutz und Nutzen bei einem Bauprojekt in der Landschaft würde es bei einem Ja schwerer haben, so Rösti. Der Bundesrat nimmt auch Stellung zur Personalie um den neuen Wolfsexperten des Bundes. Einen Kandidaten lehnte Albert Rösti persönlich ab. Am 22. September stimmen wir über die Biodiversitätsinitiative ab. Um das Anliegen tobt ein heftiger Streit zwischen Umweltschützern und Bürgerlichen. Die einen sagen, es brauche mehr Fläche für die Natur, die anderen sagen, die Schweiz würde bei einem Ja unter eine «Käseglocke» gesteckt. Bundesrat und Parlament empfehlen die Initiative zur Ablehnung – ohne Gegenvorschlag. Herr Bundesrat Rösti, was haben Sie gegen Bienen und Vögel?Gar nichts! Ohne Bienen keine Bestäubung, das ist klar. Aber ein Nein zu dieser Initiative schadet Bienen und Vögeln nicht. Denn hier geht es um die Frage, wie viele Flächen wie stark geschützt werden sollen. Was meinen Sie damit?Rund ein Viertel der Schweizer Landesfläche ist heute bereits geschützt. Die Initiative will nun aber zum einen, dass dieses Viertel noch stärker geschützt ist, und zum anderen, dass noch mehr Flächen unter Schutz gestellt werden. Die bisherige Abwägung zwischen Schutz und Nutzen würde es nicht mehr geben. Und warum wäre das aus Sicht des Bundesrates nicht gut?Die bisherige Abwägung zwischen Schutz und Nutzen bei einem Bauprojekt, beispielsweise einer Stromleitung, würde es nicht mehr geben. Das Schutzinteresse würde wohl gewinnen. Das macht das Investieren und Wirtschaften in unserem Land schwierig. Albert Rösti sprach mit 20-Minuten-Bundeshausredaktor Stefan Lanz über die Biodiversitätsinitiative. Grobe Schätzungen des Bundes sagen, die Initiative kostet 400 Millionen pro Jahr.Der Bund investiert derzeit 600 Millionen in die Biodiversität – und will das auch weiterhin tun. Das noch nahezu zu verdoppeln, können wir uns in der jetzigen Haushaltslage nicht leisten. Albert Rösti erklärte live im Interview bei 20 Minuten sein Nein zur Biodiversitätsinitiative.  Die Initiative fordert auch, dass «Ortsbilder» und «das baukulturelle Erbe» besser geschützt werden müssen. Haben diese einen Zusammenhang mit der Biodiversität?Rund 20 Prozent der Ortsbilder sind heute schon geschützt. Dort ist es jetzt schon schwierig, die geforderte Verdichtung nach innen zu realisieren. Wird mehr geschützt, heisst das auch, dass es neue Bauplätze in der freien Fläche braucht, damit die Menschen genug Wohnraum haben, was der Biodiversität schadet. Zudem: Auch Solaranlagen auf Dächern oder energetische Sanierungen sind in diesen geschützten Siedlungsgebieten schwierig. Wie wirst du bei der Biodiversitätsinitiative abstimmen?  Noch mal zurück zur Natur: Ist auch der Wolf Teil der Schweizer Biodiversität?Ja, absolut. Der Wolf ist eine geschützte Tierart und muss als Art erhalten werden. Darum braucht es trotz Regulierung einen Minimalbestand, der nicht unterschritten werden darf. Einfach, um das klarzustellen: Heute sind wir deutlich über diesem Minimalbestand. Der Wolf ist sogar ein super Beispiel für die Abwägung zwischen Schutz und Nutzen. Denn wenn wegen des Wolfes die Sömmerungsalpen nicht mehr bewirtschaftet werden, dann schwindet die Biodiversität auf diesen Wiesen. Nun sucht das Bundesamt für Umwelt gerade einen neuen Wolfexperten, man las am Wochenende, dass Sie persönlich jemanden für diese Stelle abgelehnt haben. Stimmt das?Es ist so, dass ich mir bei wichtigen Stellen, wie diesem sehr exponierten Posten, die Dossiers der Bewerberinnen und Bewerber geben lasse. Ich kam zum Schluss, dass die hier eingegangene Kandidatur einfach nicht die nötigen Qualifikationen mitgebracht hat. Ging es um die Qualifikation oder die politische Einstellung der Person?Es ging um das Gesamtbild. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy.</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5360,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Nebst der BVG-Reform stimmt die Schweiz auch über ein Volksbegehren ab: Die Biodiversitätsinitiative fordert mehr Naturschutz – und sorgt für Stunk zwischen Landwirten. Die Initiative fordert mehr Schutz für die Vielfalt aller Lebewesen und Lebensräume in der Schweiz. Der Bund investiert bereits jährlich rund 600 Millionen Franken in die Erhaltung der Artenvielfalt. Befürworter bilden sich aus Umwelt- und Naturschutzverbänden sowie den Mitte-Frauen, SP, Grünen, jungen Grünliberalen und EVP. Die Gegenstimmen setzen sich aus FDP, SVP, dem Schweizerischen Gewerbeverband und der Economiesuisse zusammen. Am 22. September stimmt das Schweizer Volk über die Biodiversitätsinitiative ab. Um was es dabei geht, was du wissen musst und wie die Ja- und Nein-Lager argumentieren – 20 Minuten gibt dir den Überblick. Die Vielfalt der Lebewesen und Lebensräume in der Schweiz hat abgenommen. Zwar schützen Bund und Kantone bedrohte Arten und Landschaften – der Bund investiert dafür rund 600 Millionen Franken jährlich. Den Initiantinnen und Initianten geht dies jedoch zu wenig weit: Sie wollen, dass die Schweiz mehr für die Biodiversität unternimmt. Die Initiative sieht eine Änderung in der Bundesverfassung vor. Am 22. September stimmt das Schweizer Volk über die Biodiversitätsinitiative ab. Um was es dabei geht, was du wissen musst und wie die Ja- und Nein-Lager argumentieren – erklärt dir Anja im Video. Die Initiative fordert mehr Gelder und Schutzflächen die Schonung von Natur und Landschaft auch ausserhalb der Schutzgebiete dass Kantone stärker in die Pflicht genommen werden besseren Schutz von Kulturdenkmalen und historischen Bauten vor Eingriffen Die Initiative wird von verschiedenen Umwelt- und Naturschutzverbänden getragen, auch die Mitte-Frauen, SP, Grünen, jungen Grünliberalen und EVP unterstützen das Volksbegehren. Die Initianten kritisieren, dass bisher zu wenig für den Schutz der Schweizer Natur getan wird. Unternehme man nichts gegen das Artensterben, würde das Nicht-Handeln in der Schweiz gemäss Schätzungen des Bundesrats ab 2050 jährlich 14 bis 16 Milliarden Franken kosten, argumentieren sie. Bereits heute seien 45 Prozent der Wildbienenarten in der Schweiz ausgestorben oder gefährdet – ohne deren Bestäubung sei auch die Schweizer Früchte- und Gemüseproduktion gefährdet. Zudem sei eine intakte Natur das beste Werkzeug im Kampf gegen Klimawandel und Umweltkatastrophen. Die Initiative will auch gegen das Artensterben von beispielsweise Bienen vorgehen. Bundesrat und Parlament lehnen die Initiative ab – besonders stark setzt sich der Bauernverband für ein Nein ein. Doch auch die FDP, die SVP, der Schweizerische Gewerbeverband und Economiesuisse engagieren sich im Nein-Lager. Den Gegnern geht die Initiative zu weit – es gebe bereits heute ausreichende gesetzliche Bestimmungen, argumentieren sie. Zudem befürchten sie, dass die Initiative die Energie- und Lebensmittelproduktion stark einschränken, das Bauen verteuern sowie die Nutzung des Waldes und touristische Infrastrukturen im ländlichen Raum erschweren würde. Ein Ja schwächte gemäss Nein-Komitee zudem die einheimische Versorgung – Importe von Nahrungsmitteln, Holz und Energie nähmen zu. Ein Ja zur Initiative schwächte laut Gegenstimmen die einheimische Lebensmittelversorgung. Während der Schweizer Bauernverband oder der Schweizerische Alpwirtschaftliche Verband eine klare Nein-Parole beschlossen haben, finden sich bei den Unterstützern der Biodiversitätsinitiative etwa die Vereinigung der Kleinbauern, der Verein Bergheimat, der kleine und mittlere Bio-Bergbauernhöfe unterstützt, oder aber der Demeter-Verband. Wieder bahnt sich ein Kampf zwischen Landwirten und Bio-Bauern an. Ob dieser mit so harten Bandagen geführt wird wie 2021 bei der Trinkwasser- und der Pestizidinitiative, als befürwortende Landwirte angefeindet wurden und Politiker Polizeischutz beantragen mussten, wird sich in den nächsten Wochen zeigen. Ist dir der Schutz der Natur wichtig? Im Text der Biodiversitätsinitiative geht es nicht nur um das Wohlergehen von Bienen und Fischen, sondern auch um «Baukultur» und den Schutz der «typischen Ortsbilder». «Landauf, landab werden vielfältige Landschaften und einzigartige Ortsbilder verschandelt und zerstört», sagen die Initianten dazu. Doch 20 Minuten wollte es genau wissen und fragte an der Medienkonferenz des Ja-Lagers, was «Ortsbilder» mit dem Schutz der Biodiversität zu tun hätten. «Ein landesweites Ballenberg wollen wir nicht», erwidern die Initiantinnen und Initianten. «Ortsbilder, Landschaften und Biodiversität hängen zusammen», sagen sie, ohne aber so ganz klar zu machen, warum. Es gehe um «baukulturelle Perlen», die erhalten bleiben müssten, weil sie unter Druck stünden. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Nebst der BVG-Reform stimmt die Schweiz auch über ein Volksbegehren ab: Die Biodiversitätsinitiative fordert mehr Naturschutz – und sorgt für Stunk zwischen Landwirten. Die Initiative fordert mehr Schutz für die Vielfalt aller Lebewesen und Lebensräume in der Schweiz. Der Bund investiert bereits jährlich rund 600 Millionen Franken in die Erhaltung der Artenvielfalt. Befürworter bilden sich aus Umwelt- und Naturschutzverbänden sowie den Mitte-Frauen, SP, Grünen, jungen Grünliberalen und EVP. Die Gegenstimmen setzen sich aus FDP, SVP, dem Schweizerischen Gewerbeverband und der Economiesuisse zusammen. Am 22. September stimmt das Schweizer Volk über die Biodiversitätsinitiative ab. Um was es dabei geht, was du wissen musst und wie die Ja- und Nein-Lager argumentieren – 20 Minuten gibt dir den Überblick. Die Vielfalt der Lebewesen und Lebensräume in der Schweiz hat abgenommen. Zwar schützen Bund und Kantone bedrohte Arten und Landschaften – der Bund investiert dafür rund 600 Millionen Franken jährlich. Den Initiantinnen und Initianten geht dies jedoch zu wenig weit: Sie wollen, dass die Schweiz mehr für die Biodiversität unternimmt. Die Initiative sieht eine Änderung in der Bundesverfassung vor. Am 22. September stimmt das Schweizer Volk über die Biodiversitätsinitiative ab. Um was es dabei geht, was du wissen musst und wie die Ja- und Nein-Lager argumentieren – erklärt dir Anja im Video. Die Initiative fordert mehr Gelder und Schutzflächen die Schonung von Natur und Landschaft auch ausserhalb der Schutzgebiete dass Kantone stärker in die Pflicht genommen werden besseren Schutz von Kulturdenkmalen und historischen Bauten vor Eingriffen Die Initiative wird von verschiedenen Umwelt- und Naturschutzverbänden getragen, auch die Mitte-Frauen, SP, Grünen, jungen Grünliberalen und EVP unterstützen das Volksbegehren. Die Initianten kritisieren, dass bisher zu wenig für den Schutz der Schweizer Natur getan wird. Unternehme man nichts gegen das Artensterben, würde das Nicht-Handeln in der Schweiz gemäss Schätzungen des Bundesrats ab 2050 jährlich 14 bis 16 Milliarden Franken kosten, argumentieren sie. Bereits heute seien 45 Prozent der Wildbienenarten in der Schweiz ausgestorben oder gefährdet – ohne deren Bestäubung sei auch die Schweizer Früchte- und Gemüseproduktion gefährdet. Zudem sei eine intakte Natur das beste Werkzeug im Kampf gegen Klimawandel und Umweltkatastrophen. Die Initiative will auch gegen das Artensterben von beispielsweise Bienen vorgehen. Bundesrat und Parlament lehnen die Initiative ab – besonders stark setzt sich der Bauernverband für ein Nein ein. Doch auch die FDP, die SVP, der Schweizerische Gewerbeverband und Economiesuisse engagieren sich im Nein-Lager. Den Gegnern geht die Initiative zu weit – es gebe bereits heute ausreichende gesetzliche Bestimmungen, argumentieren sie. Zudem befürchten sie, dass die Initiative die Energie- und Lebensmittelproduktion stark einschränken, das Bauen verteuern sowie die Nutzung des Waldes und touristische Infrastrukturen im ländlichen Raum erschweren würde. Ein Ja schwächte gemäss Nein-Komitee zudem die einheimische Versorgung – Importe von Nahrungsmitteln, Holz und Energie nähmen zu. Ein Ja zur Initiative schwächte laut Gegenstimmen die einheimische Lebensmittelversorgung. Während der Schweizer Bauernverband oder der Schweizerische Alpwirtschaftliche Verband eine klare Nein-Parole beschlossen haben, finden sich bei den Unterstützern der Biodiversitätsinitiative etwa die Vereinigung der Kleinbauern, der Verein Bergheimat, der kleine und mittlere Bio-Bergbauernhöfe unterstützt, oder aber der Demeter-Verband. Wieder bahnt sich ein Kampf zwischen Landwirten und Bio-Bauern an. Ob dieser mit so harten Bandagen geführt wird wie 2021 bei der Trinkwasser- und der Pestizidinitiative, als befürwortende Landwirte angefeindet wurden und Politiker Polizeischutz beantragen mussten, wird sich in den nächsten Wochen zeigen. Ist dir der Schutz der Natur wichtig? Im Text der Biodiversitätsinitiative geht es nicht nur um das Wohlergehen von Bienen und Fischen, sondern auch um «Baukultur» und den Schutz der «typischen Ortsbilder». «Landauf, landab werden vielfältige Landschaften und einzigartige Ortsbilder verschandelt und zerstört», sagen die Initianten dazu. Doch 20 Minuten wollte es genau wissen und fragte an der Medienkonferenz des Ja-Lagers, was «Ortsbilder» mit dem Schutz der Biodiversität zu tun hätten. «Ein landesweites Ballenberg wollen wir nicht», erwidern die Initiantinnen und Initianten. «Ortsbilder, Landschaften und Biodiversität hängen zusammen», sagen sie, ohne aber so ganz klar zu machen, warum. Es gehe um «baukulturelle Perlen», die erhalten bleiben müssten, weil sie unter Druck stünden. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy.</t>
         </is>
       </c>
     </row>
@@ -5351,9 +5402,10 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen.  Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
+          <t>.   Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen.  Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
 Der Mensch brauche die Biodiversität, um zu überleben. Deshalb müsse eine intakte und vielfältige Natur erhalten bleiben. Bereits seien in der Schweiz ein Drittel der Tier- und Pflanzenarten ausgestorben oder gefährdet, die Hälfte aller Lebensräume seien bedroht. Die überbordende Überbauung, Zersiedelung und intensive Landnutzung müsse gestoppt werden. Zudem schütze eine intakte Artenvielfalt vor Klimawandel und Umweltkatastrophen. Das sagen die Gegner:
-Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative</t>
+Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5617,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Die zweite Abstimmungsumfrage von 20 Minuten und Tamedia zeigt, dass eine deutliche Mehrheit der Befragten aktuell gegen die Umweltverantwortungs-Initiative stimmen würde. Lediglich SP und Grüne unterstützen diese. Die Schweizer Stimmbevölkerung  stimmt am 9. Februar über die Umweltverantwortungs-Initiative ab. Eine exklusive Umfrage zeigt, dass 67 Prozent der Befragten aktuell gegen die Initiative sind. Nur SP und Grüne unterstützen die Initiative, während SVP und FDP sie sehr deutlich ablehnen. Der Präsident der Jungfreisinnigen, Jonas Lüthy, kritisiert die Initiative als «utopisch, teuer und asozial». Am 9. Februar stimmt die Schweiz über eine einzige Vorlage ab: die Umweltverantwortungs-Initiative. Diese fordert, dass künftig nicht mehr Ressourcen verbraucht werden, als die Natur bereitstellen kann. Momentan deutet jedoch alles darauf hin, dass die Initiative bei der Abstimmung klar scheitern wird. Laut einer exklusiven Umfrage von 20 Minuten und Tamedia würden rund 67 Prozent der Befragten aktuell mit Nein oder eher Nein stimmen. Im Vergleich zur ersten Umfrage Ende Dezember ist dieser Anteil sogar noch gestiegen. Einzig die SP und die Grünen stehen mehr oder weniger geschlossen hinter der Initiative: 69 Prozent der SP-Anhänger und 88 Prozent der Grünen unterstützen das Anliegen. Bei den Gegnern zeigt sich jedoch ein noch klareres Bild: 93 Prozent der SVP- und 92 Prozent der FDP-Unterstützenden lehnen die Vorlage entschieden ab. Die Umweltverantwortungs-Initiative würde momentan klar an der Urne scheitern. Frauen tendieren etwas häufiger dazu, die Initiative zu unterstützen als Männer. Doch auch bei ihnen liegt der Ja-Anteil derzeit lediglich bei 40 Prozent – ein Rückgang gegenüber der ersten Umfrage. Stadtbewohner zeigen sich auch offener gegenüber dem Volksbegehren als die ländliche Bevölkerung, doch auch in den städtischen Gebieten überwiegt der Nein-Anteil deutlich. Der Präsident der Jungfreisinnigen, Jonas Lüthy, ist von den Umfrageresultaten wenig überrascht. «Die Mehrheit der Bevölkerung scheint den Wohlstand der Schweiz nicht auf dem Altar linksgrüner Träumereien opfern zu wollen.» In den letzten Wochen sei es den Gegnern der Initiative gelungen, klar zu machen, dass das «geforderte Öko-Diktat» der Jungen Grünen utopisch, teuer und asozial sei. Den Präsident der Jungfreisinnigen, Jonas Lüthy, überraschen die Umfrageergebnisse nicht. Für Lüthy gilt es nun im Endspurt noch jene zu erreichen, die zu einem Ja tendieren. «Um insbesondere auch linke Kreise noch mehr von einem Nein zu überzeugen, muss noch stärker betont werden, dass die Initiative die Kaufkraft massiv senken und die sozial Schwächsten am stärksten treffen würde», betont er. Wie informierst du dich hauptsächlich vor einer Abstimmung? Magdalena Erni, Co-Präsidentin der Jungen Grünen, äusserte sich gegenüber 20 Minuten bereits kämpferisch. Die erste Umfrage zeigte, dass die Initiative vornehmlich bei denjenigen Personengruppen einen Nerv treffe, die «von den Folgen der Klimakrise besonders betroffen» sind. Die Chancen der Initiative bewertete die Thunerin damals immer noch als gut. Auf eine Anfrage zur zweiten Umfrage reagierte sie nicht. Auf Anfrage von 20 Minuten zu den zweiten Umfrageergebnissen, hat Erni sich nicht geäussert. Der Journalismus von 20 Minuten ist frei von Ideologie. Wir streben danach, Fakten und Meinungen zu trennen und bemühen uns, auch  implizite Wertungen in der Wortwahl zu vermeiden. Wir belehren das Publikum nicht und schreiben keine Meinungsartikel zu politischen Themen. Unsere Journalistinnen und Journalisten nehmen keine politischen Tätigkeiten wahr. So steht es in unseren Publizistischen Leitlinien. Die Redaktion von 20 Minuten betreibt unabhängigen Journalismus. Sie bildet die Pluralität der Meinungen ab, solange sich diese im Rahmen des Rechtsstaates bewegen, deklariert die Positionen von Minderheiten oder Aussenseitern als solche und ermuntert die Leserschaft zur Reflexion, Debatte und Meinungsbildung. Die Universität Zürich attestiert 20 Minuten in einer Untersuchung, über Abstimmungen in der Schweiz besonders ausgewogen zu berichten. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy. Deine Meinung zählt Solitaire Kreuzworträtsel Sudoku Mahjong Bubbles Snake Schach eXchange Power of 2 Doppel Cuboro Riddles Wortblitz SudoKen Street Fibonacci Gumblast Rushtower Skiracer Wimmlbid</t>
+          <t>Die zweite Abstimmungsumfrage von 20 Minuten und Tamedia zeigt, dass eine deutliche Mehrheit der Befragten aktuell gegen die Umweltverantwortungs-Initiative stimmen würde. Lediglich SP und Grüne unterstützen diese. Die Schweizer Stimmbevölkerung  stimmt am 9. Februar über die Umweltverantwortungs-Initiative ab. Eine exklusive Umfrage zeigt, dass 67 Prozent der Befragten aktuell gegen die Initiative sind. Nur SP und Grüne unterstützen die Initiative, während SVP und FDP sie sehr deutlich ablehnen. Der Präsident der Jungfreisinnigen, Jonas Lüthy, kritisiert die Initiative als «utopisch, teuer und asozial». Am 9. Februar stimmt die Schweiz über eine einzige Vorlage ab: die Umweltverantwortungs-Initiative. Diese fordert, dass künftig nicht mehr Ressourcen verbraucht werden, als die Natur bereitstellen kann. Momentan deutet jedoch alles darauf hin, dass die Initiative bei der Abstimmung klar scheitern wird. Laut einer exklusiven Umfrage von 20 Minuten und Tamedia würden rund 67 Prozent der Befragten aktuell mit Nein oder eher Nein stimmen. Im Vergleich zur ersten Umfrage Ende Dezember ist dieser Anteil sogar noch gestiegen. Einzig die SP und die Grünen stehen mehr oder weniger geschlossen hinter der Initiative: 69 Prozent der SP-Anhänger und 88 Prozent der Grünen unterstützen das Anliegen. Bei den Gegnern zeigt sich jedoch ein noch klareres Bild: 93 Prozent der SVP- und 92 Prozent der FDP-Unterstützenden lehnen die Vorlage entschieden ab. Die Umweltverantwortungs-Initiative würde momentan klar an der Urne scheitern. Frauen tendieren etwas häufiger dazu, die Initiative zu unterstützen als Männer. Doch auch bei ihnen liegt der Ja-Anteil derzeit lediglich bei 40 Prozent – ein Rückgang gegenüber der ersten Umfrage. Stadtbewohner zeigen sich auch offener gegenüber dem Volksbegehren als die ländliche Bevölkerung, doch auch in den städtischen Gebieten überwiegt der Nein-Anteil deutlich. Der Präsident der Jungfreisinnigen, Jonas Lüthy, ist von den Umfrageresultaten wenig überrascht. «Die Mehrheit der Bevölkerung scheint den Wohlstand der Schweiz nicht auf dem Altar linksgrüner Träumereien opfern zu wollen.» In den letzten Wochen sei es den Gegnern der Initiative gelungen, klar zu machen, dass das «geforderte Öko-Diktat» der Jungen Grünen utopisch, teuer und asozial sei. Den Präsident der Jungfreisinnigen, Jonas Lüthy, überraschen die Umfrageergebnisse nicht. Für Lüthy gilt es nun im Endspurt noch jene zu erreichen, die zu einem Ja tendieren. «Um insbesondere auch linke Kreise noch mehr von einem Nein zu überzeugen, muss noch stärker betont werden, dass die Initiative die Kaufkraft massiv senken und die sozial Schwächsten am stärksten treffen würde», betont er. Wie informierst du dich hauptsächlich vor einer Abstimmung? Magdalena Erni, Co-Präsidentin der Jungen Grünen, äusserte sich gegenüber 20 Minuten bereits kämpferisch. Die erste Umfrage zeigte, dass die Initiative vornehmlich bei denjenigen Personengruppen einen Nerv treffe, die «von den Folgen der Klimakrise besonders betroffen» sind. Die Chancen der Initiative bewertete die Thunerin damals immer noch als gut. Auf eine Anfrage zur zweiten Umfrage reagierte sie nicht. Auf Anfrage von 20 Minuten zu den zweiten Umfrageergebnissen, hat Erni sich nicht geäussert. Der Journalismus von 20 Minuten ist frei von Ideologie. Wir streben danach, Fakten und Meinungen zu trennen und bemühen uns, auch  implizite Wertungen in der Wortwahl zu vermeiden. Wir belehren das Publikum nicht und schreiben keine Meinungsartikel zu politischen Themen. Unsere Journalistinnen und Journalisten nehmen keine politischen Tätigkeiten wahr. So steht es in unseren Publizistischen Leitlinien. Die Redaktion von 20 Minuten betreibt unabhängigen Journalismus. Sie bildet die Pluralität der Meinungen ab, solange sich diese im Rahmen des Rechtsstaates bewegen, deklariert die Positionen von Minderheiten oder Aussenseitern als solche und ermuntert die Leserschaft zur Reflexion, Debatte und Meinungsbildung. Die Universität Zürich attestiert 20 Minuten in einer Untersuchung, über Abstimmungen in der Schweiz besonders ausgewogen zu berichten. Eine Newsübersicht am Morgen und zum Feierabend, überraschende Storys und Breaking News: Abonniere den Whatsapp-Kanal von 20 Minuten und du bekommst regelmässige Updates mit unseren besten Storys direkt auf dein Handy.</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5659,8 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage</t>
+          <t>.    Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
@@ -5649,9 +5702,10 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>16.12.2024, 10:14 Die Initiative sei unnötig, weil die Schweiz bereits auf dem Weg sei, Emissionen- und Ressourcenverbrauch zu reduzieren, hiess es vor den Medien in Bern zur Lancierung der Nein-Kampagne. Die Initiative führe zu explodierenden Preisen, Kaufkraftverlust, Konsumverzicht und einschneidendem Wohlstandsverlust. In der überparteilichen Allianz sind FDP, SVP, Mitte und das Konsumentenforum sowie die Branchenorganisation der im Infrastrukturbau tätigen Baufirmen, Infra Suisse, vertreten. Die Initiative der Jungen Grünen verlangt, dass die Schweiz innerhalb von zehn Jahren ihre Umweltbelastung gesamthaft um rund 67 Prozent reduziert. Die Schweiz überschreitet sogenannte Belastungsgrenzen stark. Die Klimabelastung ist 19 Mal zu hoch, das Artensterben 3.8 Mal, der Wasserverbrauch 2.7 Mal, das Düngen 2.4 Mal. Diese Überschreitungen sollen laut der Initiative binnen zehn Jahren abgebaut werden. Dieser Zeitplan ist für die Allianz «utopisch und unverantwortlich». Zudem sei dies unnötig, weil es der Schweiz gelungen sei, das Wirtschaftswachstum vom Ressourcenverbrauch zu entkoppeln. Die Volksinitiative fordert auch einen Verfassungsartikel, wonach der Umweltschutz neu an erster Stelle steht. Dies sei nicht nötig, da laut den Gegnerinnen und Gegnern das Ziel bereits in Artikel 73 der Bundesverfassung verankert ist, hiess es. Die Folgen der «Verarmungsinitiative» wären für die Bevölkerung und die Unternehmen aus Sicht der Initiativgegner verheerend. Die Preise für Mieten, Lebensmittel und vor allem für Mobilität würden explodieren, warnt die überparteiliche Allianz. Dabei treffe die Initiative die Ärmsten gleich dreifach; nicht nur durch den massiven Anstieg der Preise für Heizung, Benzin und Grundnahrungsmittel, sondern auch durch die radikale Kürzung staatlicher Leistungen, weil dem Staat Steuereinnahmen fehlten und er in die Transformation der Infrastruktur investieren müsse. Zuletzt würden zahlreiche Menschen, insbesondere die guten Steuerzahler, auswandern, um dem «ökologischen Korsett» zu entgehen. Das Stimmvolk wird am 9. Februar 2025 über die von den Jungen Grünen eingereichte Initiative «für eine verantwortungsvolle Wirtschaft innerhalb der planetaren Grenzen (Umweltverantwortungsinitiative)» befinden. Bundesrat und Parlament lehnen die Initiative ab. SRF 4 News, 16.12.2024, 12:30 Uhr
+          <t>.   16.12.2024, 10:14 Die Initiative sei unnötig, weil die Schweiz bereits auf dem Weg sei, Emissionen- und Ressourcenverbrauch zu reduzieren, hiess es vor den Medien in Bern zur Lancierung der Nein-Kampagne. Die Initiative führe zu explodierenden Preisen, Kaufkraftverlust, Konsumverzicht und einschneidendem Wohlstandsverlust. In der überparteilichen Allianz sind FDP, SVP, Mitte und das Konsumentenforum sowie die Branchenorganisation der im Infrastrukturbau tätigen Baufirmen, Infra Suisse, vertreten. Die Initiative der Jungen Grünen verlangt, dass die Schweiz innerhalb von zehn Jahren ihre Umweltbelastung gesamthaft um rund 67 Prozent reduziert. Die Schweiz überschreitet sogenannte Belastungsgrenzen stark. Die Klimabelastung ist 19 Mal zu hoch, das Artensterben 3.8 Mal, der Wasserverbrauch 2.7 Mal, das Düngen 2.4 Mal. Diese Überschreitungen sollen laut der Initiative binnen zehn Jahren abgebaut werden. Dieser Zeitplan ist für die Allianz «utopisch und unverantwortlich». Zudem sei dies unnötig, weil es der Schweiz gelungen sei, das Wirtschaftswachstum vom Ressourcenverbrauch zu entkoppeln. Die Volksinitiative fordert auch einen Verfassungsartikel, wonach der Umweltschutz neu an erster Stelle steht. Dies sei nicht nötig, da laut den Gegnerinnen und Gegnern das Ziel bereits in Artikel 73 der Bundesverfassung verankert ist, hiess es. Die Folgen der «Verarmungsinitiative» wären für die Bevölkerung und die Unternehmen aus Sicht der Initiativgegner verheerend. Die Preise für Mieten, Lebensmittel und vor allem für Mobilität würden explodieren, warnt die überparteiliche Allianz. Dabei treffe die Initiative die Ärmsten gleich dreifach; nicht nur durch den massiven Anstieg der Preise für Heizung, Benzin und Grundnahrungsmittel, sondern auch durch die radikale Kürzung staatlicher Leistungen, weil dem Staat Steuereinnahmen fehlten und er in die Transformation der Infrastruktur investieren müsse. Zuletzt würden zahlreiche Menschen, insbesondere die guten Steuerzahler, auswandern, um dem «ökologischen Korsett» zu entgehen. Das Stimmvolk wird am 9. Februar 2025 über die von den Jungen Grünen eingereichte Initiative «für eine verantwortungsvolle Wirtschaft innerhalb der planetaren Grenzen (Umweltverantwortungsinitiative)» befinden. Bundesrat und Parlament lehnen die Initiative ab. SRF 4 News, 16.12.2024, 12:30 Uhr
                 ;                                         
-                        sda/hosb/spic;schn «Extreme Konsequenzen» Umweltverantwortungsinitiative</t>
+                        sda/hosb/spic;schn «Extreme Konsequenzen» Umweltverantwortungsinitiative 
+        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
         </is>
       </c>
     </row>
